--- a/output/Total_time_range_data/辽宁省/沈阳市_学习考察.xlsx
+++ b/output/Total_time_range_data/辽宁省/沈阳市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,3326 +436,3640 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>34</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴北京市学习考察学习借鉴先进经验深化京辽务实合作在携手推进国家重大战略实施中同谱新篇共创未来</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-03-29</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/szfxx/zydt/202404/t20240409_4627702.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴北京市学习考察 学习借鉴先进经验 深化京辽务实合作 在携手推进国家重大战略实施中同谱新篇共创未来-重要动态-沈阳市人民政府', '3月28日，辽宁省党政代表团赴北京市学习考察，深入贯彻落实习近平总书记在新时代推动东北全面振兴座谈会上重要讲话精神，贯彻落实党中央关于对口合作的决策部署，对标先进，认真学习北京推动高质量发展的好经验好做法，推动东北振兴同京津冀协同发展国家重大战略对接。当日，两省市召开北京市·辽宁省工作交流座谈会。北京市委书记尹力主持座谈会并讲话。省委书记、省人大常委会主任郝鹏出席座谈会并讲话。北京市委副书记、市长殷勇介绍北京市经济社会发展情况以及京沈合作情况。省委副书记、省长李乐成介绍我省经济社会发展情况。省委副书记、沈阳市委书记王新伟介绍京沈合作情况。', '尹力感谢辽宁省长期以来对北京工作的支持和帮助。他说，习近平总书记高度重视东北振兴和辽宁工作。近年来，辽宁省深入贯彻习近平总书记重要讲话精神，全力实施辽宁全面振兴新突破三年行动，全面打响新时代东北振兴、辽宁振兴的“辽沈战役”，经济社会发展取得了显著成绩。京沈对口合作是落实国家战略的重大举措，取得丰硕成果，呈现出辐射带动势能强、产业协作动能足、交流联系热能高、优势互补潜能大的良好局面。落实好京沈对口合作既是义不容辞责任，也是难得共赢机遇。希望两地进一步加强交流对接，打造新时代对口合作新样本。加强协同创新和产业协作，促进更多科研合作成果落地转化，推动产业链供应链互补共进，打造各具优势的产业集群，创新合作园区利益共享机制，加快形成新质生产力。携手激活文旅消费活力，支持两地企业积极参与旅游市场开发建设，共同建好“京沈旅游廊道”，着力在赛事举办、现代休闲、冰雪运动等领域拓展消费场景，做热“高铁游”“周末游”线路。共同服务“一带一路”，扩大两地自贸试验区合作，携手发展高水平开放型经济。完善对接协调机制，推动形成上下联通、横向联动的工作局面。', '郝鹏代表省委、省政府对北京长期以来给予辽宁振兴发展的大力支持帮助表示感谢。他说，近年来，北京深入贯彻落实习近平总书记对北京重要讲话精神，全面加强“四个中心”功能建设，提高“四个服务”水平，新时代首都发展日新月异、业绩骄人，令我们十分钦佩。北京高度重视与沈阳对口合作，对沈阳倾心帮助、对辽宁倾力支持，我们深受感动、深表谢意。加强同京津冀协同发展等国家重大战略对接，是习近平总书记对东北振兴提出的明确要求。京辽两地资源禀赋、要素结构协同互补，合作空间广阔。希望双方进一步深化产业合作，加强战略性新兴产业合作对接，共同培育壮大新质生产力，构建现代化产业体系。深化科技合作，鼓励更多北京科研人才来辽创新创业，推动辽宁打造具有全国影响力的区域科创中心。深化开放领域合作，提升辽宁开放平台能级和水平，共同服务融入新发展格局。深化文旅合作，协力开发辽宁文旅资源和文旅市场，让辽宁的“山海林泉”成为北京人民的“后花园”。我们愿以京沈深化对口合作为契机，共同推动京辽务实合作再结新硕果，在携手推进国家重大战略实施中同谱新篇、共创未来。', '会上，京沈两市签署《北京市人民政府 沈阳市人民政府共同深化京沈对口合作框架协议》。', '在北京期间，代表团一行来到中关村人工智能产业集聚区，走访园区内企业和科研机构，考察大模型产业发展情况。深入中关村东升国际科学园，在清华工研院展厅观摩医疗健康、新能源、新材料等领域研发成果展示，学习借鉴推进高校、科研院所科技成果本地转移转化先进经验。调研怀柔科学城，了解北京参与国家重大战略科技力量建设取得的最新成果。在百度公司，听取公司董事长李彦宏关于人工智能领域创新研发和自动驾驶技术应用等情况介绍。来到雁栖湖国际会都，学习考察以会展经济带动服务业高质量发展的成功经验。', '北京市领导游钧、夏林茂、谈绪祥、高朋，省及沈阳市领导蒋天宝、姜有为、高涛、王利波、吕志成参加相关活动。', '辽宁省党政代表团赴北京市学习考察 学习借鉴先进经验 深化京辽务实合作 在携手推进国家重大战略实施中同谱新篇共创未来']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>34</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>郝鹏会见青海省领导一行</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2024-04-30</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/szfxx/zydt/202405/t20240506_4639576.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['4月28日，省委书记、省人大常委会主任郝鹏在沈阳会见了来辽学习考察推动合作的青海省委副书记刘奇凡、省政府副省长杨志文一行。此前，辽宁省教育厅和青海省教育厅签署教育交流合作框架协议，省委副书记、沈阳市委书记王新伟参加签约仪式。', '郝鹏代表省委、省政府对刘奇凡、杨志文一行表示欢迎，对青海给予辽宁振兴发展的大力支持表示感谢。他说，青海与辽宁虽远隔千里，但情谊源远流长，历久弥新。近年来，两省交流往来愈加密切，产业、教育、医疗卫生等领域合作持续深化，两省干部群众感情不断加深。当前，辽宁正深入贯彻落实习近平总书记关于东北、辽宁全面振兴的重要讲话和指示批示精神，全力实施全面振兴新突破三年行动，去年夺取首战告捷，实现“四个重大转变”。今年以来，全省经济运行持续向好，取得了攻坚之战首季“开门红”。推动东北全面振兴与西部大开发深度对接，更好服务和融入新发展格局，是辽宁和青海承担的共同任务、肩负的共同责任。辽青两省合作基础牢固，合作空间广阔，希望两省在教育、体育等领域务实合作的基础上，不断推动产业对接、商贸往来、交流互访，共同在国家区域协调发展和中国式现代化建设中展现更大作为。', '刘奇凡、杨志文代表青海省委、省政府，对辽宁长期以来给予青海的大力支持和帮助表示感谢。刘奇凡说，去年以来，辽宁实施全面振兴新突破三年行动，高质量发展取得显著成效，令我们印象深刻、深受鼓舞。此次学习考察，感受到了焕然一新的辽宁。当前，青海正深入学习贯彻习近平总书记在新时代推动西部大开发座谈会上的重要讲话精神，发挥比较优势，明确主攻方向，加快形成大保护、大开放、高质量发展新格局。希望以此次学习考察为契机，推动两省在产业、经贸、文化、教育等领域合作不断走深走实，为服务全国发展大局作出更大贡献。', '4月27日，辽宁省教育厅与青海省教育厅举行教育交流合作框架协议签约仪式。根据协议，双方将在基础教育、职业教育、高等教育和教育数字化四个方面开展合作，通过交流互访、结对共建、经验共享等方式深化交流合作，加快建设高质量教育体系。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>34</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>大连市党政代表团来沈考察王新伟熊茂平卢柯吕志成陈绍旺参加活动</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2024-07-12</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202407/t20240712_4700731.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['大连市党政代表团来沈考察 王新伟熊茂平卢柯吕志成陈绍旺参加活动-政务要闻-沈阳市人民政府', '7月11日，大连市党政代表团来沈考察。两市围绕深入学习贯彻习近平总书记关于东北、辽宁全面振兴的重要讲话和指示批示精神，全面落实习近平总书记关于区域协调发展的重要论述，着眼新时代“六地”目标定位，交流推动高质量发展的经验做法，携手打造互学互鉴共赢发展区域合作典范，共同为辽宁实现全面振兴新突破作出更大贡献。省委副书记、沈阳市委书记王新伟，省委常委、大连市委书记熊茂平，省政协副主席、中国科学院院士、辽宁材料实验室主任卢柯，沈阳市委副书记、市长吕志成，大连市委副书记、市长陈绍旺参加有关活动。', '近年来，大连市牢记习近平总书记嘱托，突出东北亚国际航运中心、国际物流中心、区域性金融中心的带动作用，加快建成产业结构优化的先导区和经济社会发展的先行区，奋力谱写中国式现代化大连新篇章。前不久，沈阳市党政代表团到大连学习考察，实地感受到大连在产业发展、项目建设、科技创新、改革开放、城市治理等方面的崭新气象。特别是大连圆满承办2024夏季达沃斯论坛，以高标准服务保障、高品质城市环境呈现了一届精彩纷呈的国际盛会。交流中，沈阳市的同志们表示，大连推动高质量发展的好做法好经验非常值得沈阳学习借鉴，将按照省委要求及两市签署的合作协议，深入开展对接，实现合作共赢，在实施全面振兴新突破三年行动中更好发挥“双核”引领作用，为辽宁打造新时代“六地”提供强有力支撑。', '考察中，大连市党政代表团成员表示，近年来，沈阳市坚定不移沿着习近平总书记指引的方向勇毅前行，围绕当好打造新时代“六地”排头兵，扛牢维护国家“五大安全”重要使命，锚定建设国家中心城市，着力推进产业发展与转型、城市发展与转型、社会发展与转型，呈现向上向好的态势趋势气势。沈阳推动高质量发展的成功实践对大连加快推动“两先区”高质量发展提质升级具有十分重要的借鉴意义。我们将充分运用好学习考察成果，牢牢把握高质量发展这个首要任务，聚焦“六个建设”目标任务，坚持以科技创新引领产业创新，加快培育新质生产力，构建具有大连特色优势的现代化产业体系，在辽宁全面振兴新突破中展现更大担当和作为。我们愿与沈阳一道，全面落实省委要求，不断拓展合作空间、提升合作水平，奋力谱写沈大合作共赢新篇章。', '在沈期间，大连市党政代表团到华晨宝马大东工厂、拓荆科技股份有限公司、芯源微电子设备股份有限公司、辽宁材料实验室、沈阳方城考察调研，两市就推动科技创新、加快制造业转型升级、培育战略性新兴产业、加强历史文化街区保护利用等深入交流探讨，推进合作事宜。', '大连市、沈阳市有关市领导；市直有关部门及相关地区主要负责同志等参加。（记者李海英）']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>34</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴北京市学习考察学习借鉴先进经验深化京辽务实合作在携手推进国家重大战略实施中同谱新篇共创未来尹力郝鹏殷勇李乐成参加活动</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-03-29</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202403/t20240329_4623207.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴北京市学习考察 学习借鉴先进经验 深化京辽务实合作 在携手推进国家重大战略实施中同谱新篇共创未来 尹力郝鹏殷勇李乐成参加活动-政务要闻-沈阳市人民政府', '3月28日，辽宁省党政代表团赴北京市学习考察，深入贯彻落实习近平总书记在新时代推动东北全面振兴座谈会上重要讲话精神，贯彻落实党中央关于对口合作的决策部署，对标先进，认真学习北京推动高质量发展的好经验好做法，推动东北振兴同京津冀协同发展国家重大战略对接。当日，两省市召开北京市·辽宁省工作交流座谈会。北京市委书记尹力主持座谈会并讲话。省委书记、省人大常委会主任郝鹏出席座谈会并讲话。北京市委副书记、市长殷勇介绍北京市经济社会发展情况以及京沈合作情况。省委副书记、省长李乐成介绍我省经济社会发展情况。省委副书记、沈阳市委书记王新伟介绍京沈合作情况。', '尹力感谢辽宁省长期以来对北京工作的支持和帮助。他说，习近平总书记高度重视东北振兴和辽宁工作。近年来，辽宁省深入贯彻习近平总书记重要讲话精神，全力实施辽宁全面振兴新突破三年行动，全面打响新时代东北振兴、辽宁振兴的“辽沈战役”，经济社会发展取得了显著成绩。京沈对口合作是落实国家战略的重大举措，取得丰硕成果，呈现出辐射带动势能强、产业协作动能足、交流联系热能高、优势互补潜能大的良好局面。落实好京沈对口合作既是义不容辞责任，也是难得共赢机遇。希望两地进一步加强交流对接，打造新时代对口合作新样本。加强协同创新和产业协作，促进更多科研合作成果落地转化，推动产业链供应链互补共进，打造各具优势的产业集群，创新合作园区利益共享机制，加快形成新质生产力。携手激活文旅消费活力，支持两地企业积极参与旅游市场开发建设，共同建好“京沈旅游廊道”，着力在赛事举办、现代休闲、冰雪运动等领域拓展消费场景，做热“高铁游”“周末游”线路。共同服务“一带一路”，扩大两地自贸试验区合作，携手发展高水平开放型经济。完善对接协调机制，推动形成上下联通、横向联动的工作局面。', '郝鹏代表省委、省政府对北京长期以来给予辽宁振兴发展的大力支持帮助表示感谢。他说，近年来，北京深入贯彻落实习近平总书记对北京重要讲话精神，全面加强“四个中心”功能建设，提高“四个服务”水平，新时代首都发展日新月异、业绩骄人，令我们十分钦佩。北京高度重视与沈阳对口合作，对沈阳倾心帮助、对辽宁倾力支持，我们深受感动、深表谢意。加强同京津冀协同发展等国家重大战略对接，是习近平总书记对东北振兴提出的明确要求。京辽两地资源禀赋、要素结构协同互补，合作空间广阔。希望双方进一步深化产业合作，加强战略性新兴产业合作对接，共同培育壮大新质生产力，构建现代化产业体系。深化科技合作，鼓励更多北京科研人才来辽创新创业，推动辽宁打造具有全国影响力的区域科创中心。深化开放领域合作，提升辽宁开放平台能级和水平，共同服务融入新发展格局。深化文旅合作，协力开发辽宁文旅资源和文旅市场，让辽宁的“山海林泉”成为北京人民的“后花园”。我们愿以京沈深化对口合作为契机，共同推动京辽务实合作再结新硕果，在携手推进国家重大战略实施中同谱新篇、共创未来。', '会上，京沈两市签署《北京市人民政府 沈阳市人民政府共同深化京沈对口合作框架协议》。', '在北京期间，代表团一行来到中关村人工智能产业集聚区，走访园区内企业和科研机构，考察大模型产业发展情况。深入中关村东升国际科学园，在清华工研院展厅观摩医疗健康、新能源、新材料等领域研发成果展示，学习借鉴推进高校、科研院所科技成果本地转移转化先进经验。调研怀柔科学城，了解北京参与国家重大战略科技力量建设取得的最新成果。在百度公司，听取公司董事长李彦宏关于人工智能领域创新研发和自动驾驶技术应用等情况介绍。来到雁栖湖国际会都，学习考察以会展经济带动服务业高质量发展的成功经验。', '北京市领导游钧、夏林茂、谈绪祥、高朋，省及沈阳市领导蒋天宝、姜有为、高涛、王利波、吕志成参加相关活动。（辽宁日报记者方亮）', '辽宁省党政代表团赴北京市学习考察 学习借鉴先进经验 深化京辽务实合作 在携手推进国家重大战略实施中同谱新篇共创未来 尹力郝鹏殷勇李乐成参加活动']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>34</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>沈阳市组织相关部门前往鞍山盘锦考察学习</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2020-08-20</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/bmdt/202112/t20211201_1705774.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['8月18日，沈阳市组织相关部门前往鞍山、盘锦考察学习中心镇和专业村建设、农村人居环境整治、农村“三块地”改革等方面工作的先进做法，借鉴乡村振兴发展经验。', '考察团一行上午先后前往海城市西四镇希水新村、西柳镇电子商务产业园和海城市农村综合产权交易中心，深入田间地头、企业园区、交易展厅，通过看展板、听介绍、问情况，仔细了解中心镇和专业村建设以及农村“三块地”改革情况。考察团成员边走、边看、边思考，并就壮大村级集体经济、释放农村土地活力、加强中心镇和专业村建设等方面内容进行了深入交流。', '当天下午，考察团奔赴盘锦市，实地调研了大洼区榆树街道曾家村美丽乡村建设的先进经验，深入了解一体化污水处理设备运作流程和方法工艺。在田家街道大堡子村，学习考察了智慧平台网格化管理、民宿产业发展等工作。在新立镇，先后到小微企业创业园和北旅田园综合体项目参观学习，共同探讨推动沈阳中心镇建设的方法路径。', '通过考察交流，大家一致认为两地在落实乡村振兴工作方面思路清晰、措施有力、成效突出，产业发展与乡村风貌深度融合，有力改善了农村生产生活条件。大家一致表示，将把好的经验和做法带回沈阳，全力做好本职工作，助推沈阳“三农”工作再上新台阶。（沈阳日报、沈报全媒体记者徐娜）']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>34</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>沈阳市供销社赴安徽省考察学习村级基层社建设经验</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2019-10-30</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/bmdt/202112/t20211201_1710456.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['为进一步完善沈阳市供销社基层组织体系，加快推进村级基层社建设步伐，提升供销社为农服务质量，根据中华供销总社合作指导部推荐，10月21日-22日，沈阳市供销社、区县（市）供销社一行10人先后赴安徽省黄山市供销社（黄山供销集团）、宿州市供销社考察学习。', '21日，考察组先后到黟县有农供销社、碧龙供销社、徽州区西溪南村供销社实地考察并座谈交流。座谈会上，考察组听取了黄山市供销社基层组织体系建设基本情况，对有农供销合作社所实行的“政府主导+企业主办+农民入社+市场运作”的“有农”模式给予充分肯定。黄山市供销社的成功经验值得沈阳市供销社学习借鉴，双方将加大社会资源整合力度，充分发挥自身优势，实现资源互补、共同发展。同时双方就沈阳大米进入黄山市销售达成合作意向。', '22日，考察组到埇桥区符离镇符北村供销社、埇桥区永安镇团结村供销社等专业合作社进行实地考察。考察组详细了解了宿州市村级基层社的建设模式及土地托管、金融服务等业务开展情况。宿州的龙头企业、专业合作社与家庭农场的紧密合作是宿州市村级基层社模式成功的关键，也是沈阳市供销社学习借鉴的经验，特别是农村金融对我市工作更具有指导性作用。', '宿州模式与黄山模式虽“相貌”不同，但“内核”一致，均把为农服务放在业务开展的首位，并各自根据实际情况开展工作，让农民得到了实惠、让企业获得了利益。正是这种以农民为中心的指导思想，让两地的供销事业蓬勃发展，在全国供销系统树立了标杆，成为了学习楷模。“他山之石，可以攻玉”，沈阳市供销社通过此次学习考察，学习到了非常宝贵的经验，也打开了沈阳与黄山、宿州的合作大门，在今后的工作会结合沈阳实际，把学习到的黄山、宿州经验化作推动沈阳市供销社高质量发展的动力，将为农服务初心落到实处。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>34</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>沈阳市党政代表团赴大连学习考察并举行大连市沈阳市合作交流座谈会携手当好辽宁打造新时代六地排头兵王新伟熊茂平讲话刘中民参加有关活动吕志成陈绍旺介绍情况范继英王启尧于学利宫福清出席</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2024-06-16</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202406/t20240616_4657606.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['沈阳市党政代表团赴大连学习考察并举行大连市·沈阳市合作交流座谈会 携手当好辽宁打造新时代“六地”排头兵 王新伟熊茂平讲话 刘中民参加有关活动 吕志成陈绍旺介绍情况 范继英王启尧于学利宫福清出席-政务要闻-沈阳市人民政府', '王新伟熊茂平讲话 刘中民参加有关活动 吕志成陈绍旺介绍情况 范继英王启尧于学利宫福清出席', '6月15日，沈阳市党政代表团赴大连学习考察并举行大连市·沈阳市合作交流座谈会，持续深化务实合作，共绘全面振兴蓝图。省委副书记、沈阳市委书记王新伟出席座谈会并讲话，省委常委、大连市委书记熊茂平主持座谈会并讲话。省政协副主席、中国科学院大连化物所所长刘中民参加有关活动。沈阳市委副书记、市长吕志成，大连市委副书记、市长陈绍旺分别介绍两市经济社会发展情况。沈阳市人大常委会主任范继英，大连市人大常委会主任王启尧，沈阳市政协主席于学利，大连市政协主席宫福清出席座谈会。', '王新伟对大连市长期以来给予沈阳振兴发展的大力支持表示衷心感谢。他说，区域协调发展是推动高质量发展的重要内容，是推进中国式现代化辽宁实践的关键支撑。大连市经济社会发展蒸蒸日上，很多好经验好做法值得我们学习借鉴。我们愿与大连一道，深入学习贯彻习近平总书记关于东北、辽宁全面振兴的重要讲话和指示批示精神，全面落实省委要求，进一步拓宽合作领域、深化合作层次，深入实施全面振兴新突破三年行动，携手当好辽宁打造新时代“六地”排头兵。希望双方在构建现代化产业体系上协同发力，做强汽车、装备制造、石化、食品等优势产业，发展壮大新能源、航空航天等战略性新兴产业，探索共建国家未来产业创新发展先导区；在推动科技创新上协同发力，建设沈大科技创新和产业孵化走廊，面向高端装备等实施重大科技专项，联合组建产学研联盟、创新联合体及新型研发机构，打造沈大国家自主创新示范区；在强化对外开放上协同发力，加强中欧班列集结中心和东北亚国际航运中心联动对接，促进自贸区交流互鉴，推动沈阳综合保税区、大连湾里综合保税区、大窑湾综合保税区联动发展，深化与共建“一带一路”国家和RCEP成员国经贸合作；在促进文体旅融合上协同发力，打造特色品牌、丰富业态场景，强化全媒体宣传推介，推进信息互通、市场互动；在发展社会事业上协同发力，全面加强人才、教育、医疗、养老等领域合作，打造高品质公共服务生活圈；在健全合作机制上协同发力，研究制定相关规划和共享互惠的政策措施，深化各层级交流联动，清单化、项目化、工程化抓好合作事项落实。', '熊茂平代表大连市委、市人大常委会、市政府、市政协，感谢沈阳市长期以来给予大连振兴发展的支持帮助。他说，深化沈大合作交流，是两市振兴发展的现实需要，更是沉甸甸的政治责任。我们愿和沈阳市一道，深入贯彻习近平总书记关于东北、辽宁全面振兴的重要讲话和指示批示精神，全面落实省委要求，不断拓展合作空间、提升合作水平，奋力谱写沈大合作交流新篇章。深化产业发展合作，创新招商引资合作新机制，统筹布局发展新质生产力，促进国资国企改革互学互鉴，合力推动氢能产业发展，为辽宁建设具有国际竞争力的先进制造业新高地作贡献；深化科技人才交流合作，打造高能级科技创新平台集群，联合开展科技攻关，探索科技成果转化新路径，为辽宁建设重大技术创新策源地作贡献；深化对外开放合作，共同推进东北海陆大通道建设，加强自贸片区等对外开放平台联动，为辽宁建设东北亚开放合作枢纽地作贡献；深化文旅合作，加强文旅产业统筹谋划，合力打造文旅产品、开展品牌营销，为辽宁建设高品质文体旅融合发展示范地作贡献；深化市场合作，一体布局市场基础设施，加强市场监管协作，强化区域信用体系建设，为服务和融入新发展格局作贡献；优化合作交流机制，健全常态化、制度化联系沟通机制，完善合作任务推进落实机制，探索创新利益联结机制，努力打造区域协调发展的标杆和典范。', '在大连期间，沈阳市党政代表团先后考察了大连冰山集团有限公司、斯凯孚（大连）轴承与精密技术产品有限公司、RCEP（大连）国际商务区、大连融科储能技术发展有限公司、中国科学院大连化物所。大家在学习考察时纷纷表示，要认真学习大连在国企改革、做强高端装备制造产业、自贸区建设、发展新质生产力、科技创新等方面的成功经验，结合实际充分吸收应用，转化为推动沈阳全面振兴实现新突破的具体实践。', '沈阳市和大连市有关领导参加活动。两市有关部门、单位和区县（市）负责人参加相关活动。（记者李海英）', '沈阳市党政代表团赴大连学习考察并举行大连市·沈阳市合作交流座谈会 携手当好辽宁打造新时代“六地”排头兵 王新伟熊茂平讲话 刘中民参加有关活动 吕志成陈绍旺介绍情况 范继英王启尧于学利宫福清出席']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>34</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>王新伟与广东省粤科金融集团客人会谈</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2024-03-10</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202403/t20240310_4614978.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['3月9日，省委常委、市委书记王新伟与来沈的广东省粤科金融集团党委书记、董事长林浩钧会谈。', '粤科金融集团是广东省政府授权经营的国有企业，是国内最早成立的创投机构之一、国内首家省级科技金融集团。以去年11月辽宁省党政代表团赴广东省学习考察为契机，盛京金控集团与粤科金融集团密切对接，就联合组建母基金等达成合作意向。', '王新伟代表市委、市政府对林浩钧一行的到来表示欢迎，感谢粤科金融集团对沈阳振兴发展的关注支持。王新伟指出，当前我们深入学习贯彻习近平总书记在新时代推动东北全面振兴座谈会上重要讲话精神，按照省委、省政府要求，扛牢维护国家“五大安全”重要使命，锚定建设国家中心城市，实施全面振兴新突破三年行动，经济社会发展呈现向上向好态势。特别是以科技创新推动产业创新，着力构建具有沈阳特色优势的现代化产业体系，加快发展新质生产力，需要金融的有力支撑。希望粤科金融集团把先进的理念、模式带到沈阳，以资本力量赋能沈阳高质量发展。围绕设立合作母基金深入对接、加快落地，发掘优质项目资源，注入金融“活水”；发挥企业影响力和资源优势，通过粤科发布平台帮助宣传推介沈阳，招引龙头企业和重大项目；以母基金为纽带，吸引更多创投机构来沈投资，助力沈阳企业创新发展；加强战略合作，推动科创投资、科技支持、科技产业、产融运营等业务板块布局沈阳。沈阳将与粤科金融集团双向奔赴，打造辽粤合作标志性成果。', '林浩钧表示，辽宁、沈阳工业门类齐全、产业基础雄厚、创新资源丰富，金融赋能产业发展空间巨大。粤科金融集团将坚持立足湾区、省际协同、面向国际，加快与沈阳合作设立母基金，整合资源开展项目投资，通过“以投促引”助力沈阳项目引育、产业强链补链延链，同时为沈阳高新技术企业、专精特新企业、上市后备企业、龙头企业等对接资本搭建撮合平台，组织风投、创投、产投等联盟企业走进沈阳，加快发展新质生产力，提升产业竞争力。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>34</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>市政协召开十六届三十一次主席会议于学利主持并讲话</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2024-06-19</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202406/t20240619_4658816.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['6月18日，市政协召开十六届三十一次主席会议，围绕“发挥农业资源优势，推动建设食品产业大市”进行专题协商。市政协主席于学利主持会议并讲话。', '“发挥农业资源优势，推动建设食品产业大市”是年初市委批准的市政协年度重点协商议题。围绕这一议题，市政协组织政协委员、民主党派成员、专家学者深入我市涉农区县（市）实地调研，并到国内先进地区考察学习，形成了综合调研报告。', '会上，李明波、赵凯、彭岩峰、郭锡禹等4位政协委员作了专题发言，围绕推动预制食品产业高质量发展、推动建设食品工业大市等方面提出意见建议。会议审议通过《发挥农业资源优势 推动建设食品产业大市调研协商报告》。', '于学利在讲话中说，要深入学习贯彻习近平总书记关于树立大食物观的重要论述，贯彻落实党的二十大关于全面推进乡村振兴的部署要求，深刻认识发展食品产业的重要意义，切实增强责任感、紧迫感，按照市委工作部署，深入挖掘我市农业资源优势，加快建设国家重要农产品深加工产业基地，建设农业强市、食品工业大市，在辽宁打造现代化大农业发展先行地中当好排头兵。', '于学利强调，要抓顶层设计，科学谋划发展目标和路径，加快建立完善的食品产业体系。要抓园区、抓企业、抓项目，坚持以市场为导向招商引资、招才引智，培育重点企业，强化典型引路，打造独具特色的沈阳食品产业集群，擦亮“沈字号”特色食品品牌。要抓政策扶持，优化营商环境，落实惠企政策，全力呵护企业做大做强。要抓融合发展，推动食品产业与电子商务、数字营销、智能制造相结合，打造跨领域融合发展新业态、新模式。要抓食品安全，守护人民群众“舌尖上的安全”。政协组织和广大政协委员要充分发挥优势，持续调查研究，积极建言献策，强化民主监督，积极做好协商成果的转化落实，助推我市食品产业高质量发展。', '副市长郑滨出席会议并讲话。市政协副主席蹇彪、王燕玲、于振明、于龙、李军，秘书长闫卫东参加会议。（记者邱菊）']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>34</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>市人大常委会赴山东江苏学习考察</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2020-10-19</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202201/t20220123_2659125.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['10月12日-17日，市人大常委会主任潘利国率考察组赴山东省临沂市，江苏省徐州市、宿迁市、连云港市，围绕充分发挥人大职能作用，强化司法监督，加强代表工作以及推动居家养老、水资源利用、文商旅深度融合、生态环境建设等工作进行学习考察。', '加强司法监督是人大及其常委会的重要职能。考察组详细了解了临沂市和宿迁市围绕营造良好法治环境开展司法监督工作的先进经验。在徐州市，考察组针对强化人大法律监督、促进司法公正，与徐州市人大常委会及司法机关进行了座谈交流。在连云港市，考察组一行还围绕加强代表工作，深入灌云县实地考察了该县人大常委会在闭会期间就加强常委会与代表、代表与选民联系所建立的三位一体代表联络体系。', '生态环境建设是此次考察学习的重要内容之一。位于徐州市的“潘安湖”湿地原为采煤沉陷区域。2010年，徐州市启动潘安湖治理工程，经过持续不断的生态修复和环境综合整治，如今的潘安湖湿地公园已经成为集生态湿地、人文景观、游憩、科普等功能于一体的综合性景区，也推动了徐州由一座煤城向“一城青山半城湖”的华丽转变。同样以“绿水青山就是金山银山”理念书写了生态环境建设新篇章的还有宿迁市，从2018年起，宿迁市围绕骆马湖启动“一岸一线”环境综合治理，统筹推进码头堆场清理、通航秩序规范、岸线环境提升、船舶服务区建设、东岸线整治等工作，使昔日环境脏乱的骆马湖，成为宿迁市民最为骄傲的生态名片。', '近年来，徐州市深入推进多元养老模式融合发展，积极探索养老机构社区化、社区养老机构化模式，推动一批养老机构打开“围墙”，将专业化服务延伸至周边居家养老服务中心，促进机构养老专业化和居家养老亲情化深度融合。在与徐州市相关部门座谈交流时，潘利国也介绍了沈阳市人大常委会通过立法、监督、议案督办等工作方式，推动居家养老服务体系建设取得的成效。他表示，沈阳市人大常委会将认真学习借鉴先进经验，进一步完善居家养老服务体系建设，不断提升老年人的获得感和幸福感，真正实现高质量的“老有所养”。', '考察组一行还考察了临沂市全国农村一二三产业融合发展先导区建设、连云港市陆海联运以及中哈共建“一带一路”物流合作基地项目建设情况。', '考察期间，潘利国还与徐州市委书记、市人大常委会主任周铁根，连云港市委书记、市人大常委会主任项雪龙，宿迁市委书记、市人大常委会主任张爱军，宿迁市市长王昊，临沂市人大常委会主任杜德昌进行了工作交流。（沈阳日报、沈报全媒体记者郭宏颖）']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>34</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>姜有为带队赴朝阳喀左学习考察并主持召开我市推进飞地经济工作现场会</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2018-12-10</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202201/t20220123_2687727.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['姜有为带队赴朝阳喀左学习考察并主持召开我市推进“飞地经济”工作现场会-政务要闻-沈阳市人民政府', '12月9日一大早，市长姜有为率相关地区和部门负责人，到朝阳市喀左县考察，学习借鉴当地发展“飞地经济”的经验和做法，并主持召开我市推进“飞地经济”工作现场会。姜有为要求，相关部门和地区要认真落实全省推进“飞地经济”工作会议精神，进一步提高思想认识，切实增强县域经济发展的紧迫感，坚持问题导向，抓住关键环节，全员招商，全面发动，全线压上，全力而出，奋力开创“飞地经济”工作新局面，为沈阳加快全面振兴、全方位振兴提供有力支撑。', '当天，姜有为一行考察了喀左县的“飞地经济”核心区，参观了通美晶体科技有限公司半导体新材料项目、博宇(朝阳)半导体科技有限公司产品生产线。他对喀左县明确招商定位，瞄准高科技产业，着眼特色产业集群，全员抓“飞地经济”发展的做法给予高度评价，要求我市相关地区和部门深入学习借鉴。', '在现场会上，朝阳市委书记蹇彪致辞，市长高伟及喀左县领导分别介绍了朝阳市、喀左县“飞地经济”发展情况。喀左县尤杖子乡负责人介绍了引进项目经验，通美晶体科技公司负责人介绍了投资落户喀左的体会。近年来，朝阳市把“飞地经济”作为“一把手”工程，构建专业化招商和服务体系，建立常态化跟踪考核机制，强力推动。截至10月底，朝阳市共洽谈引进“飞地”项目477个，其中落地项目106个，总投资140多亿元。喀左县已落地项目28个，总投资50多亿元。', '市发改委、外经贸局以及辽中、新民、法库、康平等地区也分别做了汇报，分析了存在问题，明确了主攻方向，对下步工作做出安排。', '姜有为指出，大力发展“飞地经济”，是积极践行新发展理念，贯彻落实“五大区域发展战略”的重要举措，对促进区域协调发展具有重要意义。相关部门和地区要重点把握五个关键环节，一要把项目招进来，强化项目意识，压实招商责任，对重点项目紧盯不放；二要把项目落下去，落实规划管控，完善配套设施，促进企业快速形成投资；三要把项目服务好，健全“项目管家”机制，解决好规划、供地、审批、配套等问题；四要把收益分配好，保证“飞出地”与“飞入地”利益，实现双赢；五要把政策执行好，形成“飞地经济”政策支持体系，及时兑现承诺。', '姜有为强调，各地区要强化工作措施，提高工作效能，进一步加强组织领导、细化工作方案、开展业务培训、强化督查考评，把发展“飞地经济”工作牢牢抓在手上，确保抓实抓细，抓出成效。', '朝阳市领导李泽参加活动，沈阳市领导刘晓东、阎秉哲参加活动并就相关工作进行部署。(沈阳日报、沈报融媒记者李海英)']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>34</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>沈阳市代表团赴大连市学习考察</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2021-04-26</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/dwgk/gzdt/202112/t20211202_1811037.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['为深入贯彻习近平总书记关于东北、辽宁振兴发展的重要讲话和指示精神，认真落实省委工作要求，4月24日，沈阳市代表团赴大连市学习考察，并举行沈大合作交流座谈会，对进一步加强两市合作进行深入探讨。', '4月24日下午，沈大合作交流座谈会在大连市召开。省委常委、大连市委书记谭作钧主持会议并讲话，省委常委、沈阳市委书记张雷出席会议并讲话。大连市人大常委会主任肖盛峰、沈阳市政协主席韩东太、大连市政协主席王启尧出席会议。沈阳市委常委、副市长高伟，大连市委常委、副市长骆东升分别介绍经济社会发展情况及全年重点工作计划。两市相关部门签署合作交流框架协议。', '谭作钧对沈阳市代表团来连考察表示欢迎。谭作钧说，今年是“十四五”开局之年，也是沈大合作交流全面展开的关键一年。我们要深入学习贯彻习近平总书记关于辽宁振兴发展的重要指示精神，认真落实省委部署要求，扛起政治责任，担起历史使命，坚持跳出沈大谋划沈大，服务全国振兴沈大，共同当好推动辽宁全面振兴的“跳高队长”。要畅通交流机制，相互学习借鉴，做到信息互通、资源共享、工作互动，促进两市全面深度融合。要放大各自优势，实现错位发展，学习借鉴长三角等区域一体化发展经验，发挥沈大“双核”联动作用，推动辽中南城市群紧密合作，提升“一圈一带”发展能级，唱好同频共振、合作共赢的“双城记”。要聚焦年度重点任务清单，找准合作共赢着力点，主动跟进、打通关节、疏通堵点，打好南北遥相互动、率先全面振兴的主动仗。要系统谋划推进，合力攻坚克难，在深化沈大合作交流上谋得更深远，在探索区域一体化制度创新上联得更紧密，在重点工作突破上抓得更精准，打造推动区域协调发展的标杆和典范。', '张雷在讲话中对大连市一直以来给予沈阳市的支持和帮助表示感谢。他说，实施区域协调发展战略，是以习近平同志为核心的党中央着眼大局大势提出的战略举措，是落实贯彻新发展理念、服务和融入新发展格局的迫切要求。深化沈大两市合作，推动沿海腹地联动发展，有利于整合资源要素、促进优势互补，充分发挥“双核”辐射带动作用，提升辽中南城市群整体实力，进一步形成对辽宁振兴发展乃至国家重大战略的强大支撑。我们要深入贯彻党中央决策部署及省委有关要求，不断强化唱好沈大高质量发展“双城记”、当好辽宁振兴发展“跳高队长”的高度自觉。要进一步加强全方位协同、深化全领域合作，聚焦关键环节集中发力，合力建设具有国际影响力的先进制造业中心、科技创新中心和区域金融中心。要认真学习借鉴大连市在发展县域经济、扩大对外开放、抓好生态建设、做强文化产业、城市建设管理等方面的成功做法，进一步把各项工作提高到一个新水平。要不断完善合作交流机制，坚持常态化推进、项目化落实、科学化考评，推动两市合作走深走实。', '在大连期间，沈阳市代表团一行前往大连市规划展示中心，详细了解城市的发展历程、未来规划以及产业发展、重点项目等情况。冰山慧谷园区是大连冰山集团搬迁后原址改造的智慧创新产业园，在这里，代表团亲身感受了大连市在工业遗存保护利用与协同发展文创产业的创新实践。在李家街道锦虹社区，代表团认真学习社区以“全岗通”工作模式为基础，打造“社区为民服务综合体”的经验做法，充分体会到大连市在坚持服务至上、加强基层治理方面的具体成效。来到东北地区唯一的期货交易所——大连商品交易所，代表团详细了解期货品种、市场规模、运营发展等情况，无不感叹大连市在金融服务实体经济高质量发展上的力度之大、步伐之快。在大连华信计算机股份有限公司，代表团听取了企业相关业务发展情况的介绍，一致感到大连市发挥龙头企业作用、推动数字赋能和产业转型的思路举措非常具有借鉴意义。', '沈阳市领导刘晓东、宋诚、高崇生、李军、郑滨，大连市领导徐少达、王炳森、熊博力、曾波、吴澜、方铁林、于保和出席相关活动。两市各区、县（市）和相关市直部门主要负责同志参加。（沈宗河 沈阳日报、沈报全媒体记者韩冰）']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>34</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴安徽省学习考察学习追赶超越成功经验携手实现更高水平共赢发展郝鹏韩俊李乐成王清宪参加考察</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-06-16</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202306/t20230616_4481046.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴安徽省学习考察 学习追赶超越成功经验 携手实现更高水平共赢发展 郝鹏韩俊李乐成王清宪参加考察-政务要闻-沈阳市人民政府', '6月15日，辽宁省党政代表团赴安徽省学习考察，结合正在开展的主题教育，深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于促进区域协调发展的重要论述，学习借鉴安徽推动高质量发展的先进经验做法，拓展两省多领域多层次务实合作，更好实现互利共赢。省委书记、省人大常委会主任郝鹏，安徽省委书记韩俊，省委副书记、省长李乐成，安徽省委副书记、省长王清宪参加考察。', '近年来，安徽深入贯彻落实习近平总书记重要指示精神，主动服务和融入新发展格局，加快打造具有重要影响力的“三地一区”，区域创新能力、地区生产总值大幅跃升，实现了从“总量居中、人均靠后”向“总量靠前、人均居中”的跨越。辽宁省党政代表团在安徽走访制造业企业、科研院所、产业园区，对安徽坚定不移沿着习近平总书记指引的方向前进，始终保持追赶超越强劲态势，推动经济社会发展不断取得新进展新进步表示由衷钦佩。代表团认真学习安徽推进创新型省份建设、建设现代化产业体系、打造改革开放新高地等方面的好做法好经验，努力将学习成果转化为扎实推进辽宁高质量发展的强大动力。', '辽宁汽车产业有着良好发展基础，目前正在新能源汽车领域持续发力。来到安徽后，代表团首先走进江淮蔚来先进制造基地，了解企业新车型生产销售情况，考察企业智能生产车间，欢迎企业加强与辽宁交流合作，共同推动我国汽车产业做强做优做大。中科院合肥物质科学研究院目前已经建成并运行了全超导托卡马克核聚变实验装置、稳态强磁场实验装置两个国家大科学装置，代表团对安徽积极服务国家战略科技力量，不断推动科技成果转化运用的务实举措高度赞赏，就进一步加强双方科研院所间的协同创新进行深入交流。在科大讯飞股份有限公司，代表团走进产品体验馆，深入了解AI+办公、AI+医疗、AI+教育等人工智能技术最新发展情况，与企业负责人探讨进一步在辽宁拓展应用场景等相关事宜。中安创谷科技园“基地+基金+科创服务”的业务模式给代表团留下深刻印象，大家认真听取了合肥市负责同志关于招商引资经验介绍，当地通过科技、产业、资本协同发力打造大科创生态的先进做法令代表团深受启发。', '在学习考察中，代表团成员表示，安徽是长三角和中部地区联动发展的“桥头堡”，辽宁要在新时代东北振兴上展现更大担当和作为，随着国家区域协调发展战略的纵深推进，两省合作领域更多、潜力巨大。安徽实现跨越式发展的成功实践对辽宁实现全面振兴新突破具有十分重要的借鉴意义。我们将充分运用好此次学习考察成果，牢牢把握高质量发展这个首要任务，把有效市场和有为政府结合起来，以更高的格局视野谋划新产业开辟新赛道，扎实推动干部作风转变和能力素质提升，大力弘扬企业家精神，着力拉长长板、补齐短板，为推动高质量发展积蓄强劲动能。我们愿与安徽同志一道，在互学互鉴、南北互动中携手共进，不断完善沟通合作机制，推进两省实现更深层次、更高水平共赢发展，更好服务国家发展战略。', '省领导王新伟、王健、熊茂平、张成中、陈向群，安徽省领导程丽华、虞爱华、费高云、魏晓明参加学习考察。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。（辽宁日报记者方亮）', '辽宁省党政代表团赴安徽省学习考察 学习追赶超越成功经验 携手实现更高水平共赢发展 郝鹏韩俊李乐成王清宪参加考察']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>34</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>塔城市党政代表团来沈学习考察</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2018-07-19</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/dwgk/gzdt/202112/t20211201_1732020.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['7月17日—18日，由新疆塔城地区地委委员、塔城市委书记张耀华率领的塔城市党政代表团一行来沈考察调研。市领导刘晓东、刘桂香、于振明陪同考察。', '在沈期间，塔城市党政代表团先后前往蒙牛乳业(沈阳)有限责任公司、中国(辽宁)自由贸易试验区沈阳片区、沈阳市城市规划展示馆、沈阳市城市管理行政执法局、中国工业博物馆、浑南区王士兰社区和沈河区五里河街道，学习考察我市经济发展、社会治理、城市建设、党的建设等方面的经验和做法。', '对口支援塔城市，是沈阳义不容辞的政治任务。2010年以来，沈阳市统筹各方资源，完善援助措施，用心、用情、用力全面推进对口支援塔城市的各项援助任务，工作取得了显著成效，得到了塔城市干部群众的充分认可。(沈阳日报、沈报融媒记者梁馨月、韩冰、于海)']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>34</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>新疆塔城市党政代表团来沈学习考察</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2019-08-14</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202201/t20220122_2590923.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['新一轮对口支援工作开展以来，市委、市政府按照中央、省委的工作部署，统筹各方资源，科学筹划，完善援助措施，全方位开展帮扶，用心、用情、用力地推进各项援助工作扎实、有序、高效地开展，对口支援塔城市工作取得了显著成效。2011-2019年，我市实施对口援疆项目118个，选派3批87名援疆干部和人才。', '扎实推进项目建设。2018年我市组织实施援疆项目14个。今年，安排援疆项目19个，在产业发展、教育医疗、干部人才培养等方面给予重点支持。精准实施产业援疆。积极推进塔城市创业创新孵化基地、基金产业园、文化产业园、沈阳产业援疆项目基地四位一体园区建设；塔城市边境经济合作区和沈阳经济技术开发区签署深入合作协议，沈阳磁力通塔城电采暖项目等5个项目分别与塔城市政府、企业签约合作；加大巴克图口岸建设力度，推进丝路文化商品城项目建设，目前已建成运营，共计签署合作协议29项。多措并举教育援助。市教育局坚持“按需服务、特色支援、精准帮扶”原则，全年开展“送教送培”进疆约70人次，接收塔城市教师来沈培训80人次。全面合作医疗援建。双方签署对口援助协议，选派13名医疗卫生人才到塔城市人民医院开展新一期“组团式”医疗援疆，治疗门诊病人达到2300人次、手术275例，10余项新技术填补了塔城市医疗技术空白。搭建沟通平台，开展多层次交流交往交融活动。先后邀请塔城男子U13和女子U16两支球队共计32名青少年赴沈参加“和平杯”国际青少年足球邀请赛。承办辽塔特色农产品对接洽谈会，搭建两地企业深入交流与合作的商贸平台。', '塔城市党政代表团一行此次来沈，主要目的是推动教育、卫生以及其他领域对口合作，学习产业发展、社区建设、城市建设等方面工作的经验做法。代表团先后考察沈阳市装备制造工程学校、沈阳市第四医院、五爱市场国际小商品城万顺礼品商行及新疆特色产品店，同时考察了沈河区红巾社区党建和治理工作、浑河景观带建设及华晨宝马铁西工厂生产及经营情况。', '据了解，下一步我市将以加强民族团结，助推受援地经济社会快速发展，人民生活幸福安康为工作主线，努力完成各项对口支援任务。一是扎实推进我市无偿援助项目建设。全面贯彻实施“十三五援疆专项规划”，按年度规划，认真落实项目建设资金，扎实推进今年沈阳市对口支援新疆塔城市19个援建项目，努力实现100%开工，100%完成年度建设任务，让援建项目早日投入使用，早日惠及群众，促进塔城市经济社会快速发展。二是全面推动产业援助和经贸合作。积极助力新疆塔城市发展现代农业，加快发展农产品深加工、物流产业和商贸合作，推动建立沈阳巴克图产业援疆孵化园，推进沈阳市农产品深加工、物流企业在塔城市投资，融入“丝绸之路”经济带建设；加快发展文化旅游产业，开展两地旅游管理部门及旅游企业互动交流区域合作；抢抓“一带一路”机遇，组织沈阳企业赴塔开展投资洽谈活动，共同开拓中亚和欧洲市场。三是深入推进人才建设和智力支持工作。重点组织和开展好受援地基层干部、教师、医护人员来沈培训培养和“组团式”教育、医疗援疆等重要活动，派出沈阳相关领域的专家赴塔进行交流培训，积极推进我市对口支援塔城市的各项智力援助工作。四是积极强化“交流、交往、交融”活动。加强沈阳与对口支援地区的民族文化交流，促成沈塔在足球等体育项目上的教学实践与合作，组织塔城市青少年足球队到沈阳参加“和平杯”足球邀请赛，增进两地青年学生交流；加强沈塔两地手风琴艺术家交流，在沈塔两地交流演出及在塔城市开展培训教学活动，拓宽民族“一家亲”交流、交往、交融渠道。加强群团组织信息化建设和干部队伍培训，开展扶贫帮困、法律援助和文化援助活动；组织妇女、儿童、青少年开展交流交往交融活动，推动两地少数民族交流交往。（沈阳日报、沈报融媒记者李海英）', '新疆塔城市位于祖国西北边陲，是塔城地委、行署所在地。1950年5月成立塔城县人民政府，1984年撤县建市，1992年被国务院列为沿边进一步对外开放城市，巴克图口岸被确定为国家一类口岸。同年6月经国务院批准，设立了国家级边境经济合作区。全市总人口17万人（城市人口8.7万人），由汉、哈、回、维吾尔等25个民族组成，少数民族人口占36%。全市辖4乡2镇3场，146个行政村，3个街道办事处，1个边境经济合作区（巴克图辽塔新区），1个牧民新区，辖区总面积4356.6平方公里。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>34</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>秦皇岛市来沈学习考察创卫经验</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2019-04-03</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202201/t20220122_2637093.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['4月2日，秦皇岛市市委副书记、市长张瑞书一行21人到沈阳学习考察国家卫生城市创建工作。在当日的交流座谈会上，副市长姜军介绍了沈阳市创卫工作的有关经验做法。', '姜军介绍，一块“国家卫生城市”金色招牌的背后，凝聚着沈城人民的智慧和汗水。沈城百姓从中享受到了更完善的基础设施，更整洁的环境、更有序的交通。沈阳致力于探索建立长效机制巩固创卫成果，为市民谋取更大福祉。（沈阳日报、沈报融媒记者樊华）']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>34</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团在广东省深圳市东莞市学习考察学习先进经验加强产业对接深化创新协同为打造新时代六地汇聚新动力增添新活力郝鹏率队考察黄楚平参加考察</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-12-01</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202312/t20231201_4565463.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团在广东省深圳市东莞市学习考察 学习先进经验 加强产业对接 深化创新协同 为打造新时代“六地”汇聚新动力增添新活力 郝鹏率队考察 黄楚平参加考察-政务要闻-沈阳市人民政府', '学习先进经验 加强产业对接 深化创新协同 为打造新时代“六地”汇聚新动力增添新活力', '11月29日至30日，辽宁省党政代表团继续在广东省学习考察，代表团来到深圳市和东莞市，深入企业、园区、科研院所，学习广东以改革创新推动高质量发展的先进经验做法，积极促进深圳、东莞与辽宁产业对接和创新协同，为打造新时代“六地”、扎实推进中国式现代化辽宁实践汇聚新动力增添新活力。省委书记、省人大常委会主任郝鹏率队考察。广东省人大常委会主任黄楚平参加考察。广东省委副书记、深圳市委书记孟凡利参加有关活动。', '广东省作为我国改革开放的前沿阵地和“龙头”，拥有一批全球领先的知名高技术企业。代表团来到位于东莞市的华为技术有限公司终端总部，了解企业政府与公共事业、多样性算力数据中心等产品研发应用情况，对华为公司克服重重困难挑战，持续加大研发投入，始终引领全球信息产业发展感到由衷钦佩。郝鹏表示，辽宁在新材料、集成电路、装备制造方面优势突出，拥有丰富的产业应用场景。希望华为公司加强与辽宁深度合作，共同做强产业链、提升价值链，为实现关键核心技术自主可控作出更大贡献。在腾讯计算机系统有限公司，代表团在公司董事会主席兼首席执行官马化腾的陪同下，参观企业展厅，听取数据中心、腾讯云等业务开展情况，高度评价腾讯公司在“优政、兴业、惠民”等方面取得的优异业绩。郝鹏希望腾讯公司积极参与“数字辽宁、智造强省”建设，积极帮助中小企业健康发展，以数字赋能辽宁振兴发展。在深圳市大疆创新科技有限公司，代表团观看了公司各类先进民用商用无人机产品展示，认真学习借鉴企业聚焦用户所需、不断突破技术瓶颈的创新精神和成功经验。郝鹏表示，辽宁是航空产业大省，无人机产业拥有良好发展基础，希望与大疆公司进一步加强交流合作，合力开拓市场，实现互利共赢。在比亚迪股份有限公司，代表团在展厅内观摩体验企业最新款新能源汽车，并与董事长王传福等公司高管进行会谈。郝鹏希望比亚迪公司把辽宁放在企业战略布局更加突出位置，积极扩大在辽投资，与辽宁在电动汽车技术创新方面深化合作，携手推动新能源汽车产业高质量发展。', '广东科技综合实力位居全国前列，拥有一批著名高校、科研院所和重大创新平台。代表团先后来到松山湖材料实验室、鹏城实验室、中科院深圳先进技术研究院，听取科技研发情况介绍，详细了解实验室和研究院在科技成果转化、科研团队引育等方面的成功做法。郝鹏说，学习借鉴科技创新先进理念、先进经验，是本次代表团来广东的一项重要任务。科技创新是第一动力，抓住创新就是赢得未来，我们要进一步加强重大创新平台建设，打通从基础研究、技术攻关到产业化应用链条，支持辽宁与广东两省创新主体加强对接协作，以科技创新推动产业创新，加快打造重大技术创新策源地，为国家实现高水平科技自立自强贡献辽宁智慧。', '广东在产业园区建设上独树一帜，成果显著。代表团先后来到河套深港科技创新合作区、前海深港现代服务业合作区参观考察，了解园区规划建设、招商引资等情况。郝鹏要求代表团同志，要充分吸收借鉴广东在产业园区建设管理等方面的先进经验，以改革的思路和举措大抓园区，为我省重点产业集群园区化发展创造良好条件。', '学习考察期间，代表团还与深圳市党政主要负责同志举行会谈，双方就进一步加强在产业、科技、贸易、金融、旅游、港口等方面合作达成广泛共识。', '广东省及深圳市、东莞市领导肖亚非、覃伟中、骆文智，省及沈阳市、大连市领导王新伟、姜有为、靳国卫、王利波、陈绍旺参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加考察。（辽宁日报记者方亮）', '辽宁省党政代表团在广东省深圳市东莞市学习考察 学习先进经验 加强产业对接 深化创新协同 为打造新时代“六地”汇聚新动力增添新活力 郝鹏率队考察 黄楚平参加考察']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>34</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴浙江省学习考察</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-06-15</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://www.ln.gov.cn/web/zwgkx/rdxx01_105674/2023061506292858253/index.shtml</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['6月14日，辽宁省党政代表团赴浙江省学习考察，结合正在开展的主题教育，深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于促进区域协调发展的重要论述，学习借鉴浙江推动高质量发展的先进经验做法，拓展两省多领域多层次务实合作，更好实现互利共赢。省委书记、省人大常委会主任郝鹏，浙江省委书记、省人大常委会主任易炼红，省委副书记、省长李乐成，浙江省委副书记、省长王浩，省政协主席周波，浙江省政协主席黄莉新参加考察。', '浙江是习近平新时代中国特色社会主义思想重要萌发地。近年来，浙江牢记习近平总书记殷殷嘱托，坚持一张蓝图绘到底，深入实施“八八战略”，以“两个先行”打造“重要窗口”，大胆改革创新、先行先试，发展活力十足，高质量发展取得显著成就。辽宁代表团进企业进园区进乡村，从浙江的发展变化中深刻感悟习近平新时代中国特色社会主义思想的真理力量和实践伟力，学习吸收借鉴浙江在推动科技创新、以数字赋能实体经济发展、持续优化营商环境、大力推动共同富裕、加快高质量发展等方面的好经验好做法，将学习成果转化为扎实推进中国式现代化辽宁实践的强大动力。', '生物医药产业是辽宁重点发展的特色产业，代表团来到杭州医药港，学习借鉴浙江推进生物医药全产业链布局，加快建设生命健康科创高地的成功经验，希望进一步加深杭州医药港与本溪药都、沈阳药科大学等的交流合作。从一口缸、一辆自行车起家，到跻身中国民营企业500强，传化集团的创业故事让代表团深受触动，大家对浙江不断优化环境推动民营经济发展的做法高度赞赏。在阿里巴巴集团总部，代表团听取了企业加快消费、云计算、全球化三大核心战略布局的情况介绍，与企业负责同志深入交流，希望借助阿里巴巴在数字经济上的资源优势，加强技术人才等方面交流合作，加快推动“数字辽宁、智造强省”建设步伐。代表团来到杭州市余杭区径山镇小古城村，走访农户、察看村貌、感受变化，了解当地深化“千万工程”，大力推进“村里的事情大家商量着办”基层民主法治建设，推进农文旅融合发展有关情况，当地扎实建设美丽乡村，推动共同富裕的做法让代表团深受启发。代表团还来到杭州城市大脑运营指挥中心，听取数字赋能城市治理，推进治理体系和治理能力现代化情况介绍。', '在学习考察中，代表团成员表示，辽宁与浙江人员往来密切、情谊深厚，都承担着推动高质量发展、服务国家重大战略的使命，双方产业资源优势互补，未来合作潜力巨大。我们愿与浙江同志一道，牢记习近平总书记嘱托，在新征程上共同聚焦高质量发展这个首要任务，以此次学习考察为契机，不断完善交流合作机制，拓展更高层次、更高质量的务实合作，进一步提升产业链创新链人才链合作水平，加强科技协同创新，促进文旅产业互推互促，携手服务和融入新发展格局，一步一个脚印地将习近平总书记为两省擘画的宏伟蓝图变成现实，为服务国家发展大局作出新的更大贡献。', '省领导王新伟、王健、张成中、陈向群，浙江省领导刘捷、邱启文、刘忻、卢山、姚高员参加学习考察。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>34</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴安徽省学习考察</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-06-16</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://www.ln.gov.cn/web/zwgkx/rdxx01_105674/2023061606532610213/index.shtml</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['6月15日，辽宁省党政代表团赴安徽省学习考察，结合正在开展的主题教育，深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于促进区域协调发展的重要论述，学习借鉴安徽推动高质量发展的先进经验做法，拓展两省多领域多层次务实合作，更好实现互利共赢。省委书记、省人大常委会主任郝鹏，安徽省委书记韩俊，省委副书记、省长李乐成，安徽省委副书记、省长王清宪参加考察。', '近年来，安徽深入贯彻落实习近平总书记重要指示精神，主动服务和融入新发展格局，加快打造具有重要影响力的“三地一区”，区域创新能力、地区生产总值大幅跃升，实现了从“总量居中、人均靠后”向“总量靠前、人均居中”的跨越。辽宁省党政代表团在安徽走访制造业企业、科研院所、产业园区，对安徽坚定不移沿着习近平总书记指引的方向前进，始终保持追赶超越强劲态势，推动经济社会发展不断取得新进展新进步表示由衷钦佩。代表团认真学习安徽推进创新型省份建设、建设现代化产业体系、打造改革开放新高地等方面的好做法好经验，努力将学习成果转化为扎实推进辽宁高质量发展的强大动力。', '辽宁汽车产业有着良好发展基础，目前正在新能源汽车领域持续发力。来到安徽后，代表团首先走进江淮蔚来先进制造基地，了解企业新车型生产销售情况，考察企业智能生产车间，欢迎企业加强与辽宁交流合作，共同推动我国汽车产业做强做优做大。中科院合肥物质科学研究院目前已经建成并运行了全超导托卡马克核聚变实验装置、稳态强磁场实验装置两个国家大科学装置，代表团对安徽积极服务国家战略科技力量，不断推动科技成果转化运用的务实举措高度赞赏，就进一步加强双方科研院所间的协同创新进行深入交流。在科大讯飞股份有限公司，代表团走进产品体验馆，深入了解AI+办公、AI+医疗、AI+教育等人工智能技术最新发展情况，与企业负责人探讨进一步在辽宁拓展应用场景等相关事宜。中安创谷科技园“基地+基金+科创服务”的业务模式给代表团留下深刻印象，大家认真听取了合肥市负责同志关于招商引资经验介绍，当地通过科技、产业、资本协同发力打造大科创生态的先进做法令代表团深受启发。', '在学习考察中，代表团成员表示，安徽是长三角和中部地区联动发展的“桥头堡”，辽宁要在新时代东北振兴上展现更大担当和作为，随着国家区域协调发展战略的纵深推进，两省合作领域更多、潜力巨大。安徽实现跨越式发展的成功实践对辽宁实现全面振兴新突破具有十分重要的借鉴意义。我们将充分运用好此次学习考察成果，牢牢把握高质量发展这个首要任务，把有效市场和有为政府结合起来，以更高的格局视野谋划新产业开辟新赛道，扎实推动干部作风转变和能力素质提升，大力弘扬企业家精神，着力拉长长板、补齐短板，为推动高质量发展积蓄强劲动能。我们愿与安徽同志一道，在互学互鉴、南北互动中携手共进，不断完善沟通合作机制，推进两省实现更深层次、更高水平共赢发展，更好服务国家发展战略。', '省领导王新伟、王健、熊茂平、张成中、陈向群，安徽省领导程丽华、虞爱华、费高云、魏晓明参加学习考察。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>34</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>苏州市人大常委会考察组来沈学习考察</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2020-11-14</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202201/t20220122_2628543.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['11月13日，苏州市人大常委会党组书记、主任陈振一率考察组来沈进行学习考察。省委常委、市委书记张雷，市人大常委会党组书记、主任潘利国陪同考察。', '考察组一行首先来到华晨宝马铁西工厂，考察了冲压焊接、涂装、总装等整车制造生产线。华晨宝马铁西工厂在整体设计、创新技术、生产效率、可持续发展等方面居于世界领先水平，其主要生产设施均位于一体式的厂房内，创新的环保设施随处可见，这些都给考察团成员留下深刻的印象。大家还对生产车间宽敞明亮、舒适现代的工作环境和企业随处可见的人文设计给予高度评价。', '在新松机器人自动化股份有限公司，考察组一行考察了新松机器人未来体验馆和生产车间，了解企业核心产品、核心技术、研发体系、行业解决方案及全球化战略布局，对新松公司从机器人行业追随者到行业领头羊的发展历程有了全面的了解。考察组一行认为，新松公司以缔造世界一流高科技企业、成为具有国际影响力的智能产品及服务供应商为发展愿景，志存高远、脚踏实地。希望新松公司能够生产出更多融合前沿科技的机器人产品，在人工智能、柔性制造、人机协作、智能生活等各个方面引领全新的生产和生活方式。', '苏州市人大常委会副主任叶兆伟、温祥华参加考察。沈阳市人大常委会副主任马占春陪同考察。（沈阳日报、沈报全媒体记者郭宏颖）']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>34</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>辽宁省与清华大学在北京举行工作会商会议携手共进深化交流巩固拓展合作成果在共同服务国家重大战略中谱写省校合作新篇章</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2024-03-01</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/szfxx/zydt/202403/t20240305_4612786.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['辽宁省与清华大学在北京举行工作会商会议 携手共进深化交流 巩固拓展合作成果 在共同服务国家重大战略中谱写省校合作新篇章-重要动态-沈阳市人民政府', '2月28日，辽宁省与清华大学在北京举行工作会商会议，携手共进深化交流，巩固拓展合作成果，在共同服务国家重大战略中谱写省校合作新篇章。省委书记、省人大常委会主任郝鹏，清华大学党委书记、中国科学院院士邱勇，省委副书记、省长李乐成，清华大学党委副书记、校长、中国科学院院士李路明出席会议并讲话。', '郝鹏代表省委、省政府对清华大学给予辽宁振兴发展的支持帮助表示衷心感谢，对清华大学过去一年在科技创新、教育教学、人才培养、国际交流等方面取得的卓越成绩表示由衷钦佩和诚挚祝贺。郝鹏说，很高兴如约到访美丽的清华园，在参观交流中真切感受到清华大学各项事业的欣欣向荣，清华人勇攀高峰、争创一流的勇毅担当，令我们倍感振奋、深受鼓舞。清华大学作为世界一流的著名学府，是我国高等教育的一面旗帜。近年来，清华大学认真贯彻落实习近平总书记重要指示精神和党中央决策部署，全力支持辽宁振兴发展，特别是去年邱勇书记带队来辽推动双方签订战略合作框架协议，充分发挥了示范引领作用，向外界释放了辽宁持续向好的良好预期。在双方共同努力下，协议得到有效落实，多项科技创新成果在辽落地转化，大批优秀学子来辽就业创业，积极投身辽宁振兴火热实践，双方合作取得了新的丰硕成果。今年是辽宁全面振兴新突破三年行动攻坚之年，诚挚希望清华大学继续在科技创新、产业发展、人才交流、高等教育、智库建设等领域，持续与辽宁提升合作层次、丰富合作内涵，特别是助力辽宁将科教优势转化为发展优势，以科技创新推动产业创新，加快培育新质生产力，构建具有辽宁特色优势的现代化产业体系。我们将全力支持清华大学在辽宁开展各项工作，积极推动双方合作持续走深走实，在共同服务国家重大战略中谱写省校合作新篇章。', '邱勇代表学校对辽宁省委、省政府给予省校合作的高度重视与大力支持表示感谢。他说，过去一年，清华大学深入学习宣传贯彻落实党的二十大精神，从严从实深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育，制定实施《清华大学全面贯彻落实党的二十大精神行动方案》，奋力在新征程上开出新局、开好局。2024年是新中国成立75周年，是清华大学实现高质量发展的关键一年，也是辽宁实现全面振兴新突破三年行动的攻坚之年，双方合作走深走实正逢其时。希望双方结合自身优势，积极探索省校合作新模式，共同服务国家重大战略。持续深化在人才输送、科技创新、学术交流等方面的合作，推动更多合作成果落地辽宁，为新时代东北、辽宁全面振兴贡献更多清华力量。', '李乐成说，清华大学教育实力、学术实力、科研实力强大，长期以来与我省保持密切交流，为辽宁振兴发展提供了坚实的智力和人才支撑。希望清华大学给予辽宁更多关注、更大支持，双方深入落实战略合作框架协议，开展更深层次、更高水平的务实合作。在教育领域，与我省高校开展学科共建；在科技创新领域，与我省高校、科研院所、科技领军企业共建国家级科研平台，攻克一批关键核心技术；在人才领域，鼓励更多毕业生来辽创业就业；围绕战略决策咨询，鼓励专家学者为我省科学决策提供资政参考。我们将全力为清华大学来辽人才营造良好发展环境，创造便利条件，做好服务保障。', '李路明表示，辽宁省与清华大学有着深厚的合作渊源，双方立足清华大学的科教资源优势和辽宁省实际情况，在产学研转化、教育培训、人才交流培养等方面开展了一系列的合作，多点开花、硕果累累。他简要介绍了学校过去一年的发展情况并表示，新的一年，省校双方都处于实现高质量发展的关键阶段、爬坡阶段，希望双方进一步找准省校合作的“结合点”和“着力点”，努力实现资源优势互补，进一步加强重点领域的科技创新和成果转化合作，继续深化教育领域合作，持续提升干部人才交流合作力度，以更多高质量的合作成果，更好地助力省校共同实现高质量发展。', '会前，郝鹏、李乐成一行参观了清华大学校史馆，感受百年学府深厚的历史底蕴、独特的文化魅力。走进化学工程系实验室和航天航空学院实验室，就打造石化和精细化工产业基地、发展壮大航空航天产业集群进行深入考察学习。', '清华大学党委副书记过勇主持会议。清华大学党委常委、副校长曾嵘，省领导蒋天宝、姜有为、霍步刚参加相关活动。', '辽宁省与清华大学在北京举行工作会商会议 携手共进深化交流 巩固拓展合作成果 在共同服务国家重大战略中谱写省校合作新篇章']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>34</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>青年企业家助力东北振兴学习考察活动在我市举行</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2020-10-15</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/bxgz/202112/t20211201_1710068.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['10月13日至14日，根据《中国青年企业家协会十二届会员轮训暨青年企业家能力提升计划》工作安排，中国青年企业家协会新会员培训（第4期）暨青年企业家助力东北振兴学习考察活动在我市举行。', '青年企业家们纷纷表示，本次活动让大家现场感受到了沈阳市委、市政府重视经济发展、不断优化营商环境的决心和成果，对沈阳的未来发展也充满了信心。团市委相关负责人表示，本次活动为青年企业家们搭建了商讨战略合作、展示产品项目的平台，加深了青年企业家对沈阳的了解，在宣传沈阳、推介沈阳的同时，促进了市内外青年企业家合作交流、互利共赢。（沈阳日报、沈报全媒体记者何强）']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>34</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团举行赴吉林黑龙江内蒙古学习考察总结交流会</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-05-12</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.ln.gov.cn/web/zwgkx/rdxx01_105674/2023051220093859107/index.shtml</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['5月11日晚，在圆满结束赴吉林、黑龙江和内蒙古学习考察后，辽宁省党政代表团在沈阳桃仙机场举行总结交流会，分享心得体会，相互启发借鉴，明确努力方向，进一步把学习考察成果转化为推动振兴发展的具体思路和务实举措。省委书记、省人大常委会主任郝鹏主持会议并讲话，省委副书记、省长李乐成出席会议并讲话，省政协主席周波出席会议。', '郝鹏在讲话中指出，辽宁省党政代表团赴吉林、黑龙江和内蒙古学习考察，是全面贯彻落实党的二十大精神，深入贯彻落实习近平总书记关于东北、辽宁振兴发展的重要讲话和指示批示精神的务实举措，是推动主题教育走深走实的具体行动。考察过程中，代表团一路走一路学一路思考，深刻感悟习近平总书记对东北振兴发展的殷殷嘱托和深切期盼，学习了东北兄弟省区的好经验、好做法，深化了彼此的务实合作，解放了思想、开阔了眼界，得到了启发、受到了激励。通过学习考察，我们深切感受到，习近平总书记对东北振兴发展高度重视、深情牵挂、念兹在兹，东北三省一区沿着习近平总书记指引的方向踔厉奋发、勇毅前行，经济社会发展呈现出强劲势头，持续展现出新面貌新风气新活力，不断改善了外界对东北的预期，东北的全面振兴全方位振兴蓄势待发、前景可期、大有可为。通过学习考察，我们深切感受到，东北三省一区地域相连、人文相亲、情谊绵长，产业资源优势互补，未来合作潜力巨大。此次学习考察更加坚定了我们深入贯彻落实习近平总书记重要指示精神，扎实推动东北全面振兴取得新突破的责任感、使命感，我们要以更高政治站位、更宽战略视野、更好精神状态一步一个脚印把习近平总书记为东北、辽宁擘画的全面振兴蓝图变为现实。', '郝鹏指出，近年来，东北兄弟省区在贯彻落实党的二十大精神和习近平总书记重要指示精神上坚定务实、在加快产业结构调整上成效显著、在开放合作模式上不断创新、在城市管理上精心细致、在工作标准上追求卓越，谋划工作的思路、竞相发展的态势和干部的精神状态令我们深感钦佩，值得我们认真学习借鉴。我们要时刻保持不进则退、慢进亦退的紧迫感，正视差距不足，怀着谦虚开放态度，着力扬优势、补短板、强弱项，牢牢把握高质量发展这个首要任务，不断提升经济社会发展的质量和水平，扎扎实实把辽宁的事情办得更好。要跳出辽宁看辽宁，心怀“国之大者”，站在党和国家事业发展全局高度抓发展、谋突破、促振兴，完整、准确、全面贯彻新发展理念，服务和融入新发展格局，与东北兄弟省区一道坚决扛起政治使命，共同提升维护国家“五大安全”的能力。要主动完善与东北兄弟省区的协调对接机制，加强各层级间的沟通往来，尽快把学习考察达成的合作意向转化为具体项目，不断释放协同合作效能。要提振精神、真抓实干，着力提高干部队伍能力水平，充分激发干事创业热情，保持今年以来经济发展的良好势头，做好二季度各项工作，确保实现“时间过半、任务过半”，更好统筹发展和安全，维护社会大局和谐稳定，为三年行动首战告捷打下坚实基础。', '李乐成指出，要深入贯彻习近平总书记重要指示精神，按照省委工作要求，坚定信心、迎头赶上、奋勇前进，切实把学习考察的所见所闻、所思所悟，转化为推动高质量发展的具体举措和深入实施全面振兴新突破三年行动的实际成效，在新时代东北振兴上展现更大担当和作为。要坚定不移锻长板，扎实做好结构调整“三篇大文章”，巩固提升装备制造、石化、冶金三大优势产业，加快建设三个万亿级产业基地，做强做大22个重点产业集群。要全力以赴补短板，着力解决民营经济、县域经济、对外贸易、海洋经济、营商环境、城乡建设和环境等方面的突出问题，努力把短板变成新的增长点。要加大力度育新板，充分发挥科教资源优势，加快创建具有全国影响力的区域科技创新中心，发展壮大战略性新兴产业集群。要打造合作升级版，进一步加强与两省一区的沟通对接，完善合作机制，拓展合作领域，做实合作平台，塑造区域竞争新优势，更好服务和融入新发展格局。', '沈阳市、大连市、铁岭市、省发展改革委、省交通运输厅负责同志在交流会上发言。省及沈阳市、大连市领导王新伟、陈向群、靳国卫、陈绍旺出席会议。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>34</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>市人大常委会赴京学习考察居家养老和机动车停车管理工作</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2018-06-27</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202201/t20220123_2680508.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['建设居家养老服务体系和破解“停车难”问题是今年市人代会确定的两件议案，同时也是今年市人大常委会的两件立法项目。为推动这两件议案的办理，做好立法工作，学习借鉴北京市先进经验，6月25-26日，市人大常委会主任潘利国率学习考察组赴京学习考察居家养老和机动车停车管理工作。', '在京期间，学习考察组先后实地考察了北京市海淀区羊坊店路的路侧停车场、五棵松地下停车场、恩济庄养老服务驿站和甘家口街道养老照料中心，并围绕居家养老服务体系建设和机动车停车管理工作，与北京市人大常委会以及北京市民政局、交通委等部门进行座谈，听取相关工作介绍，了解北京市居家养老和机动车停车管理的经验和做法，特别是《北京市居家养老服务条例》《北京市机动车停车管理条例》的立法理念与思路、把握原则、立法过程中遇到的问题和矛盾争议的焦点，以及这两部法规的实施和立法效果评估情况。', '北京市于2015年制定实施了《北京市居家养老服务条例》，以居家老年人服务需求为导向，以政府为主导、社区为依托、社会保障制度为支撑，为居家养老的老年人提供以解决生活不便为主要内容的养老服务，构建起政府主导、社会参与、专业运营、聚焦居家的社会合作型居家养老服务新模式。在机动车停车管理方面，北京市在深入调研分析造成交通拥堵和“停车难”原因的基础上，统筹兼顾动态交通与静态交通，区别对待居住停车和出行停车，实行停车设施分类分区定位、差别供给，适度满足居住停车需求，从严控制出行停车需求，明确了“停车入位、停车付费、违停受罚”的治理思路，建立了党政共管、市级统筹、各区主责、社区自治的工作机制，并于今年制定出台了《北京市机动车停车管理条例》，将这些理念和思路措施用法规的形式固定下来加以推进实施，使全市停车秩序得到明显改善。两个法规实施以来，北京市人大常委会综合运用执法检查、听取专项报告、视察等多种手段，持续监督推进，取得较好效果。', '潘利国在座谈时说，建设居家养老服务体系和破解“停车难”问题，事关百姓切身利益和民生改善，是今年沈阳市人代会确定的两件议案，其办理过程和进展一直备受全市人民关注。通过这次学习考察，我们对北京市在居家养老和机动车停车管理工作上取得的先进经验有了全面了解，也进一步坚定了我们办好议案、惠及民生的信心。在今后的工作中，我们将结合沈阳实际，认真学习借鉴北京市在居家养老和机动车停车管理工作及立法方面的先进理念和经验做法，积极推进《沈阳市居家养老服务条例》和《沈阳市机动车停车管理条例》的立法工作，为做好这两项工作提供法治保障。同时，健全协调机制，明确责任目标，持续监督推进，通过上下联动、齐抓共管、统筹推进，最大限度地调动全社会各个方面的积极性，确保议案办理工作取得扎实成效。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>34</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>辽宁省与北京大学在北京举行工作会商会议持续深耕合作领域携手实现互利共赢在推动新时代东北辽宁全面振兴中开创省校合作新局面</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2024-03-01</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/szfxx/zydt/202403/t20240304_4612149.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['辽宁省与北京大学在北京举行工作会商会议 持续深耕合作领域 携手实现互利共赢 在推动新时代东北辽宁全面振兴中开创省校合作新局面-重要动态-沈阳市人民政府', '持续深耕合作领域 携手实现互利共赢 在推动新时代东北辽宁全面振兴中开创省校合作新局面', '2月29日，辽宁省与北京大学在北京举行工作会商会议，持续深耕合作领域，携手实现互利共赢，在推动新时代东北辽宁全面振兴中开创省校合作新局面。省委书记、省人大常委会主任郝鹏出席会议并讲话，北京大学党委书记郝平主持会议并讲话，省委副书记、省长李乐成，北京大学校长、中国科学院院士龚旗煌出席会议并讲话。', '郝鹏代表省委、省政府对北京大学给予辽宁振兴发展的支持帮助表示衷心感谢。郝鹏说，北京大学底蕴深厚、人才荟萃，教育、学术、科研实力雄厚，是享誉世界的一流学府。此次如约回访，学校厚重的历史和日新月异的发展态势令我们印象深刻，我们对学校紧紧围绕建设中国特色世界一流大学的目标，加快推进高质量内涵式发展取得新成绩，表示由衷钦佩和诚挚祝贺。去年龚旗煌校长一行到辽宁考察调研，与我省和大连市分别签订战略合作协议，在辽宁全面振兴新突破三年行动首战之年给予我们鼎力支持，推动在科技创新、学科建设、人才培养、医疗卫生等众多领域同辽宁开展务实合作。目前各领域合作进展顺利、成果丰硕，为外界对辽宁的预期发生重大转变起到积极推动作用。今年是辽宁实施全面振兴新突破三年行动的攻坚之年，我们将锚定新时代“六地”目标定位，集中力量开展“八大攻坚”，努力把“起势”转化为“胜势”，打好打赢攻坚之年攻坚之战。希望北京大学一如既往地关注支持辽宁振兴发展，继续在加快培育新质生产力、高等教育高质量发展、人才交流培养、文化卫生事业发展、高水平智库建设等领域，持续与辽宁加大合作力度，共同服务好国家重大战略。我们将全力支持北京大学在辽项目开展，推动省校合作结出更多成果。相信在双方的共同努力下，我们一定能够实现互利共赢，为强国建设、民族复兴，携手作出新的更大贡献。', '郝平对辽宁省委、省政府给予北京大学的大力支持表示衷心感谢。他说，辽宁是国家重要的工业基地，战略地位十分重要。北京大学始终将辽宁作为重要合作伙伴，双方在科学研究、人才交流等领域取得了丰硕的合作成果。辽宁是北京大学的重要生源地，也是北大学生接受红色教育的生动课堂和开展产业实践的重要基地。去年7月，北京大学与辽宁省以及大连市分别签署战略合作协议，共同开启了省校合作的崭新一页。此次辽宁省的回访，必将有力推动辽宁高质量发展和北京大学“双一流”建设。北京大学将认真落实双方达成的合作协议，与辽宁开展更深层次的省校合作，为辽宁加快实现全面振兴贡献新的更大力量。', '李乐成说，北京大学与辽宁有着长期良好的合作基础，各领域交流取得丰硕成果。希望北京大学与辽宁深化教育领域合作，助力我省高校提升学科建设水平，输送更多优秀人才；深化科技创新领域合作，加大科研资源向辽宁倾斜力度，促进更多科技成果在辽转化；深化人才领域合作，精心策划培训项目，鼓励更多专家参与辽宁战略决策咨询；深化医疗卫生和文化领域合作，支持我省医疗卫生机构专业能力提升，积极参与辽宁文化产业发展和文物保护工作。我们将全力为北京大学来辽人才提供优质服务、创造优良条件，携手畅通教育科技人才良性循环，推动省校合作迈上新台阶，更好服务国家大局。', '龚旗煌表示，北京大学将凝聚校内优质智库资源，与辽宁深入开展决策咨询合作，为辽宁产业转型和高质量发展赋智赋能。积极参与辽宁实验室、万亿级产业基地、战略性新兴产业集群等重大项目建设，将北京大学的学科优势与辽宁创新链条、产业链条有机融合，助力辽宁创建具有全国影响力的区域科技创新中心。整合优质教育资源，支持辽宁培养高素质专业化干部队伍和各类人才，也将支持院士等各类学术人才和优秀管理干部到辽宁兼职、挂职和任职，推荐和鼓励毕业生赴辽就业。我们也希望辽宁能够给予北京大学在辽人员更多关心和帮助，让他们更好地施展才华，为辽宁经济社会发展作出更大贡献。', '会前，郝鹏、李乐成一行参观了北京大学校史馆，感受世界名校百年荣光和薪火相传的北大精神。在英杰交流中心，参观了北京大学与辽宁特色优势产业发展密切关联的科技创新成果展，进行深入学习考察。', '北京大学领导王博、顾涛、宁琦、张锦、方方、姜国华、朴世龙、任羽中，省领导蒋天宝、姜有为、霍步刚参加相关活动。', '辽宁省与北京大学在北京举行工作会商会议 持续深耕合作领域 携手实现互利共赢 在推动新时代东北辽宁全面振兴中开创省校合作新局面']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>34</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团举行赴吉林黑龙江内蒙古学习考察总结交流会坚定发展信心决心增强使命感紧迫感切实把学习成果转化为推动全面振兴实际成效郝鹏主持并讲话李乐成讲话周波出席</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2023-05-13</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202305/t20230513_4463557.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团举行赴吉林黑龙江内蒙古学习考察总结交流会 坚定发展信心决心 增强使命感紧迫感 切实把学习成果转化为推动全面振兴实际成效 郝鹏主持并讲话 李乐成讲话 周波出席-政务要闻-沈阳市人民政府', '5月11日晚，在圆满结束赴吉林、黑龙江和内蒙古学习考察后，辽宁省党政代表团在沈阳桃仙机场举行总结交流会，分享心得体会，相互启发借鉴，明确努力方向，进一步把学习考察成果转化为推动振兴发展的具体思路和务实举措。省委书记、省人大常委会主任郝鹏主持会议并讲话，省委副书记、省长李乐成出席会议并讲话，省政协主席周波出席会议。', '郝鹏在讲话中指出，辽宁省党政代表团赴吉林、黑龙江和内蒙古学习考察，是全面贯彻落实党的二十大精神，深入贯彻落实习近平总书记关于东北、辽宁振兴发展的重要讲话和指示批示精神的务实举措，是推动主题教育走深走实的具体行动。考察过程中，代表团一路走一路学一路思考，深刻感悟习近平总书记对东北振兴发展的殷殷嘱托和深切期盼，学习了东北兄弟省区的好经验、好做法，深化了彼此的务实合作，解放了思想、开阔了眼界，得到了启发、受到了激励。通过学习考察，我们深切感受到，习近平总书记对东北振兴发展高度重视、深情牵挂、念兹在兹，东北三省一区沿着习近平总书记指引的方向踔厉奋发、勇毅前行，经济社会发展呈现出强劲势头，持续展现出新面貌新风气新活力，不断改善了外界对东北的预期，东北的全面振兴全方位振兴蓄势待发、前景可期、大有可为。通过学习考察，我们深切感受到，东北三省一区地域相连、人文相亲、情谊绵长，产业资源优势互补，未来合作潜力巨大。此次学习考察更加坚定了我们深入贯彻落实习近平总书记重要指示精神，扎实推动东北全面振兴取得新突破的责任感、使命感，我们要以更高政治站位、更宽战略视野、更好精神状态一步一个脚印把习近平总书记为东北、辽宁擘画的全面振兴蓝图变为现实。', '郝鹏指出，近年来，东北兄弟省区在贯彻落实党的二十大精神和习近平总书记重要指示精神上坚定务实、在加快产业结构调整上成效显著、在开放合作模式上不断创新、在城市管理上精心细致、在工作标准上追求卓越，谋划工作的思路、竞相发展的态势和干部的精神状态令我们深感钦佩，值得我们认真学习借鉴。我们要时刻保持不进则退、慢进亦退的紧迫感，正视差距不足，怀着谦虚开放态度，着力扬优势、补短板、强弱项，牢牢把握高质量发展这个首要任务，不断提升经济社会发展的质量和水平，扎扎实实把辽宁的事情办得更好。要跳出辽宁看辽宁，心怀“国之大者”，站在党和国家事业发展全局高度抓发展、谋突破、促振兴，完整、准确、全面贯彻新发展理念，服务和融入新发展格局，与东北兄弟省区一道坚决扛起政治使命，共同提升维护国家“五大安全”的能力。要主动完善与东北兄弟省区的协调对接机制，加强各层级间的沟通往来，尽快把学习考察达成的合作意向转化为具体项目，不断释放协同合作效能。要提振精神、真抓实干，着力提高干部队伍能力水平，充分激发干事创业热情，保持今年以来经济发展的良好势头，做好二季度各项工作，确保实现“时间过半、任务过半”，更好统筹发展和安全，维护社会大局和谐稳定，为三年行动首战告捷打下坚实基础。', '李乐成指出，要深入贯彻习近平总书记重要指示精神，按照省委工作要求，坚定信心、迎头赶上、奋勇前进，切实把学习考察的所见所闻、所思所悟，转化为推动高质量发展的具体举措和深入实施全面振兴新突破三年行动的实际成效，在新时代东北振兴上展现更大担当和作为。要坚定不移锻长板，扎实做好结构调整“三篇大文章”，巩固提升装备制造、石化、冶金三大优势产业，加快建设三个万亿级产业基地，做强做大22个重点产业集群。要全力以赴补短板，着力解决民营经济、县域经济、对外贸易、海洋经济、营商环境、城乡建设和环境等方面的突出问题，努力把短板变成新的增长点。要加大力度育新板，充分发挥科教资源优势，加快创建具有全国影响力的区域科技创新中心，发展壮大战略性新兴产业集群。要打造合作升级版，进一步加强与两省一区的沟通对接，完善合作机制，拓展合作领域，做实合作平台，塑造区域竞争新优势，更好服务和融入新发展格局。', '沈阳市、大连市、铁岭市、省发展改革委、省交通运输厅负责同志在交流会上发言。省及沈阳市、大连市领导王新伟、陈向群、靳国卫、陈绍旺出席会议。（辽宁日报记者方亮 史冬柏）', '辽宁省党政代表团举行赴吉林黑龙江内蒙古学习考察总结交流会 坚定发展信心决心 增强使命感紧迫感 切实把学习成果转化为推动全面振兴实际成效 郝鹏主持并讲话 李乐成讲话 周波出席']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>34</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团举行赴江苏上海浙江安徽学习考察总结交流会</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2023-06-16</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.ln.gov.cn/web/zwgkx/rdxx01_105674/2023061620231097711/index.shtml</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['坚定信心决心 发挥比较优势 激活潜力动力 结合实际把学习成果转化为推动全面振兴实际成效', '6月16日，在圆满结束赴江苏、上海、浙江、安徽学习考察后，辽宁省党政代表团在沈阳举行总结交流会，分享心得体会，相互启发借鉴，紧密结合辽宁振兴发展实际，明确努力方向，进一步把学习考察成果转化为推动高质量发展的具体实践。省委书记、省人大常委会主任郝鹏主持会议并讲话，省委副书记、省长李乐成出席会议并讲话。', '郝鹏指出，组织辽宁省党政代表团赴长三角三省一市学习考察，是省委全面贯彻落实党的二十大精神，深入贯彻落实习近平总书记关于辽宁振兴发展的重要指示精神的务实举措，是推动主题教育走深走实的具体行动。此次学习考察，虽然时间短暂，但我们有备而去、突出重点、力求实效，跳出辽宁看辽宁、站位全国大局看辽宁，对标了先进、看到了差距、受到了启迪，进一步深化了与江苏上海间的对口合作，加深了与浙江安徽的沟通交流，总体达到了预期目的。考察中我们看到，党的十八大以来，三省一市党委政府始终坚决贯彻落实习近平总书记重要指示精神，坚定不移地干、久久为功地闯，实现了质量高、效益好、结构优的增长，经济社会发展走在全国前列。三省一市日新月异的变化让我们深刻感悟到习近平新时代中国特色社会主义思想的真理力量和实践伟力，更加坚定了辽宁沿着习近平总书记指引的方向，奋力实现全面振兴新突破的信心决心。考察中我们体会到，三省一市牢牢把握高质量发展这个首要任务，坚持有效市场和有为政府相结合，在发展新产业、开辟新赛道上抢先抓早、后劲十足，在科技创新、吸引人才上机制灵活、成绩亮眼，在打造一流营商环境上不断探索、推陈出新，在对外开放上站位高远、富于时代感，在城市社会管理、美丽乡村建设上科学智能、精致精细，我们要充分吸收借鉴三省一市的好经验好做法，结合辽宁实际补齐短板、拉长长板，不断提升经济社会发展的质量和水平，以一域之光为全局添彩。', '郝鹏强调，要深入贯彻落实习近平总书记关于辽宁振兴发展的重要指示精神，进一步增强推动全面振兴新突破的责任感、使命感和不进则退、慢进亦退的紧迫感、危机感，全面动起来、干起来、紧张起来，切实把学习成果转化运用到本地区本部门实际工作当中，奋力保持追赶超越态势，扎扎实实把辽宁自己的事情办得更好。要充分发挥产业、科教、人才、开放等方面的比较优势，着力构建现代化产业体系，以科技赋能、数字赋能助力实体经济发展，积极抢占新赛道、开辟新领域，不断为高质量发展注入新动能。要打造营商环境“升级版”，着力营造尊商敬商的浓厚氛围，坚决做到“讲诚信、懂规矩、守纪律”，各级领导干部要增强服务意识，真心实意地为企业家靠前服务、排忧解难，为各类企业发展壮大搭“梯子”、筑“跑道”，以更大力度完善科技创新、人才发展体制机制，努力营造更具吸引力的创新创业氛围。要对标先进，进一步提高标准、拉高标杆，不断增强各级干部谋项目、抓创新、促改革的能力素养，提高执行省委工作部署的主动性、创造性、实效性。要进一步推动与三省一市交流合作走深走实，抓紧细化落实与江苏、上海签订的合作协议，建立完善与浙江、安徽交流合作机制，加快推动开展多领域的务实合作。要加力推进当前各项重点工作，锚定全面振兴新突破三年行动确定的各项目标任务，加强调度分析，加快推进落实，巩固好一季度的经济发展良好态势，确保实现上半年“时间过半、任务过半”。', '李乐成指出，学习的目的在于学以致用，要坚信事在人为，坚持问题导向，时不我待、敢干敢拼，努力找差距、知不足，补短板、勇追赶，扬优势、求突破。要进一步增强贯彻习近平总书记关于东北、辽宁振兴发展的重要讲话和指示批示精神的自觉性、坚定性和创造性，落实省委工作要求，深入实施全面振兴新突破三年行动，扎实推动高质量发展。要争创具有全国影响力的区域科技创新中心，增强抓创新的系统观念，坚持“四个面向”，高水平建设辽宁实验室，打造服务国家战略的科技创新高地。要全力塑造开放新优势，统筹贸易投资通道平台建设，打造对外开放新前沿。要矢志不移改善营商环境，聚焦广大群众和经营主体关心关注的问题，持续优化服务。要加快建设现代化产业体系，保持耐心、恒心和韧劲，以“十年磨一剑”的定力和“功成不必在我、功成必定有我”的担当，扎实做好结构调整“三篇大文章”。要强化落实国家战略的责任担当，奋力推动东北全面振兴取得新突破，提升区域市场一体化水平，更好服务和融入全国统一大市场建设，为全国发展大局作出更大贡献。', '省领导王健、张成中出席会议，陈向群讲话。鞍山、锦州、营口、省发展改革委、省科技厅、省工业和信息化厅、省财政厅主要负责同志作交流发言。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>34</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴吉林省学习考察并举行吉林省辽宁省交流合作座谈会</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2023-05-09</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.ln.gov.cn/web/zwgkx/rdxx01_105674/2023050908350710183/index.shtml</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴吉林省学习考察并举行吉林省·辽宁省交流合作座谈会 谱写深化交流合作新篇章 携手推进全面振兴新突破', '为深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于东北振兴发展的重要讲话和指示批示精神，5月8日，辽宁省党政代表团赴吉林省学习考察并举行吉林省·辽宁省交流合作座谈会，进一步深化两省务实合作，共同为推动东北全面振兴取得新突破贡献力量。省委书记、省人大常委会主任郝鹏出席座谈会并讲话，吉林省委书记、省人大常委会主任景俊海主持座谈会并讲话。省委副书记、省长李乐成，吉林省委副书记、省长胡玉亭分别介绍两省经济社会发展情况。省政协主席周波，吉林省政协主席朱国贤出席座谈会。', '郝鹏代表省委、省政府对吉林长期以来给予辽宁振兴发展的大力支持帮助表示衷心感谢，对吉林高质量发展取得的成绩表示祝贺。他说，近年来，吉林深入贯彻习近平总书记考察吉林重要讲话重要指示精神，抢抓机遇、乘势而上，经济社会发展亮点纷呈、成果丰硕，今年一季度，地区生产总值实现高速增长，吉林的好经验好做法以及浓厚的干事创业氛围值得我们学习借鉴。辽宁吉林两省山水相连、人文相亲，是好邻居好伙伴，共同承担着推动东北全面振兴、维护国家“五大安全”的重任，我们愿同吉林一道，进一步扩大合作范围，不断提升合作层次，加快区域经济一体化发展，把习近平总书记为东北擘画的全面振兴蓝图变为现实。希望双方在产业发展上深度融合，共同为维护国家产业链供应链安全贡献力量。在通道建设上通力合作，共同推动东北海陆大通道上升为国家战略，更好融入共建“一带一路”，共同打造对外开放新前沿。在科技创新上合力攻坚，整合两省科研力量，共同为国家高水平科技自立自强作出贡献。在粮食保供增收上协同合作，共同维护好国家粮食安全。在生态环境上共保联治，共同筑牢生态安全屏障。在工作机制上加强协调对接，推动双方务实合作走深走实，我们共同携手为扎实推进中国式现代化东北实践作出更大贡献。', '景俊海代表吉林省委、省政府，向辽宁省党政代表团到访表示热烈欢迎，向辽宁长期以来对吉林的大力支持帮助表示衷心感谢。他说，近年来，辽宁深入贯彻习近平新时代中国特色社会主义思想，迈上了高质量发展新征程。特别是党的二十大以来，辽宁开创性谋划实施全面振兴新突破三年行动，发出了打赢新时代“辽沈战役”的时代强音，辽宁的好经验、好做法、好作风非常值得我们学习借鉴。新时代新征程，我们愿同辽宁一道，深入贯彻落实习近平总书记重要讲话重要指示精神，同担重任、同向发力、同频共振，推动吉辽合作再创佳绩、再谱新篇，共同为维护国家“五大安全”作贡献、为党和国家工作大局服好务。一是打造交流互动新样板，进一步优化提升合作机制，推动区域合作取得更多成果。二是打造产业互补新格局，深化重点领域合作，加强科技创新协作，促进产业迈向中高端。三是打造区域互联新高地，共同推进省际通道建设，让交通畅起来、人流多起来、经济火起来。四是打造游客互换新市场，共同规划旅游线路、开展营销推介活动。五是打造开放互促新平台，协同构建东北东部绿色经济带和长白通丹大通道。六是打造生态互保新屏障，加强生态保护协同治理，构筑联防联控共同防线。', '在吉林期间，辽宁省党政代表团考察了四平战役纪念馆、中国黑土地保护农机产业创新示范基地、中国一汽NBD总部、中国一汽红旗制造中心繁荣基地、长春新区规划展览馆、长光卫星技术股份有限公司，认真学习吉林在科技创新、智能制造、现代农业等方面的先进经验和成功做法。大家表示，吉林高质量发展的良好态势、干部群众昂扬奋进的精神状态、推动振兴发展的好经验好做法让大家深感触动、深受启发。', '省及沈阳市、大连市领导王新伟、张成中、陈向群、靳国卫、陈绍旺，吉林省领导蔡东、张恩惠、李伟、高广滨参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>34</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴黑龙江省学习考察并举行黑龙江省辽宁省交流合作座谈会</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2023-05-10</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://www.ln.gov.cn/web/zwgkx/rdxx01_105674/2023051009072761663/index.shtml</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['为深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于东北振兴发展的重要讲话和指示批示精神，5月9日，辽宁省党政代表团赴黑龙江省学习考察并举行黑龙江省·辽宁省交流合作座谈会，进一步深化两省务实合作，共同为推动东北全面振兴取得新突破贡献力量。省委书记、省人大常委会主任郝鹏出席座谈会并讲话，黑龙江省委书记、省人大常委会主任许勤主持座谈会并讲话。省委副书记、省长李乐成，黑龙江省委副书记、省长梁惠玲分别介绍两省经济社会发展情况。省政协主席周波，黑龙江省政协主席蓝绍敏出席座谈会。', '5月9日，辽宁省党政代表团赴黑龙江省学习考察并举行黑龙江省·辽宁省交流合作座谈会。', '郝鹏代表省委、省政府对黑龙江长期以来给予辽宁振兴发展的大力支持帮助表示感谢，对黑龙江高质量发展取得的成绩表示祝贺。他说，近年来，黑龙江坚决贯彻落实习近平总书记关于东北振兴发展的重要讲话和指示批示精神，加快建设“六个龙江”、推动实现“八个振兴”，坚持改革开放和科技创新双轮驱动，扎实推动产业结构转型升级，经济社会呈现良好发展态势，黑龙江的好经验好做法值得我们认真学习借鉴。辽黑两省作为兄弟省份，发展历程相近，产业资源互补，交流合作空间十分广阔。新时代新征程，推动东北振兴取得新突破是我们牢记嘱托、感恩奋进，推进中国式现代化的具体实践，也是我们共同的政治责任和使命担当。我们愿同黑龙江一道，深入学习贯彻习近平总书记重要指示精神，不断提升维护国家“五大安全”的能力，更好服务和融入新发展格局。希望双方进一步提升全产业链合作水平，发挥双方在智能制造、先进轨道交通装备、大型成套机组等领域的优势，共同建设黑吉辽制造业走廊，积极开辟发展新领域新赛道。大力构建跨省综合交通网络，共同促进口岸联动融合，协同向北开放，更好融入共建“一带一路”。共同推动哈尔滨、长春、沈阳、大连科技创新走廊建设，加强知名高校和科研院所之间的交流合作，合力攻关“卡脖子”关键核心技术，助力国家高水平科技自立自强。加强在粮食保供增收上的协同合作，畅通“北粮南运”大通道，共同维护好国家粮食安全。进一步健全完善协调对接机制，拓宽合作领域、扩大合作范围、深化合作层次，共同在推动东北全面振兴取得新突破上展现更大担当和作为。', '许勤代表黑龙江省委、省政府对辽宁省党政代表团的到访表示欢迎，对辽宁省长期以来给予黑龙江的大力支持表示感谢。他说，近年来，辽宁省委、省政府深入贯彻落实习近平新时代中国特色社会主义思想，认真落实东北振兴战略，加力推动高质量发展，实施全面振兴新突破三年行动，着力做优做强实体经济，加快构建现代化产业体系，新动能不断加速聚集，振兴发展开创新局面，经验做法非常值得我们学习借鉴。黑龙江与辽宁地缘相近、人文相亲、经济相融，迈上新征程，我们愿与辽宁一道，深入贯彻落实习近平总书记重要讲话重要指示精神，完整准确全面贯彻新发展理念，主动服务和融入构建新发展格局，共同扛起维护国家“五大安全”重大政治责任，坚持优势互补、互利共赢，携手推动新时代东北振兴取得新突破。加强重点领域合作，强化产业互动，抢抓战略机遇，协同推进数字经济、电子信息、高端装备、农产品加工、冰雪旅游等产业发展，共同塑造产业发展新优势。把创新作为振兴发展的基点，大力实施创新驱动发展战略，完善区域创新体系，发挥沈阳、大连、哈尔滨等创新型城市带动作用，推动创新链与产业链资金链人才链深度融合，更好服务国家高水平科技自立自强。完善两省协同合作机制，共同实施东北振兴战略，构筑沿海沿边开放合作战略通道，提升两省开放发展水平，更好服务国家对外开放大局；深度对接京津冀、长三角、粤港澳大湾区等区域重大战略，扎实推进中国式现代化东北实践，为强国建设、民族复兴贡献力量。', '在黑龙江期间，辽宁省党政代表团考察了哈电集团哈尔滨电机厂有限责任公司、哈尔滨工业大学、安天科技集团股份有限公司、深哈产业园区、黑龙江惠达科技发展有限公司、中央大街商业街区。代表团成员纷纷表示，黑龙江在创新驱动发展、产业园区建设、优化营商环境、文旅产业融合等方面的成功实践让我们很受启发，将结合实际把好的经验充分吸收应用，转化为推动振兴发展的强大动力。', '省及沈阳市、大连市领导王新伟、张成中、陈向群、靳国卫、陈绍旺，黑龙江省领导张安顺、王一新、于洪涛、贾玉梅、张亚中参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>34</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴上海市学习考察并举行上海市辽宁省交流合作座谈会</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2023-06-14</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.ln.gov.cn/web/zwgkx/rdxx01_105674/2023061406294412822/index.shtml</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['6月13日，辽宁省党政代表团赴上海市学习考察，结合正在开展的主题教育，深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于促进区域协调发展的重要论述，学习借鉴上海先进经验做法，拓展沪辽多领域多层次务实合作，更好实现互利共赢、协同发展。学习考察期间，两省市举行上海市·辽宁省交流合作座谈会。上海市委书记陈吉宁主持座谈会并讲话。省委书记、省人大常委会主任郝鹏出席座谈会并讲话。省委副书记、省长李乐成，上海市委副书记、市长龚正分别介绍两省市经济社会发展以及上海市、大连市对口合作工作有关情况。省政协主席周波出席座谈会。', '陈吉宁代表市委、市人大常委会、市政府、市政协，感谢辽宁省长期以来给予上海发展的支持帮助。他说，辽宁省深入贯彻落实习近平总书记关于东北振兴重要论述，加快实施辽宁全面振兴新突破三年行动，全力以赴育先机、开新局，改革开放向纵深推进，创新驱动发展取得新成效，辽宁干部群众奋发有为、奋勇争先的精气神和形成的好做法、好经验，值得上海认真学习借鉴。', '陈吉宁说，新起点上，上海将坚决贯彻党中央、国务院部署要求，与辽宁省、大连市一道，加快探索建立南北经济高效互动合作、跨区域高水平协同发展的新模式，推动两地合作交流不断取得新成绩、打造新标杆、体现新水平，实现高质量发展，更好服务和融入新发展格局。发挥两地红色资源丰富优势，共同弘扬红色文化、讲好红色故事。在服务高水平科技自立自强上深化合作，加强项目对接、平台对接、人才对接，实现优势互补。在建设现代化产业体系上紧密互动，共同提升产业链供应链的稳定性和竞争力。在深化高水平对外开放上相互借鉴，对接国际高标准经贸规则，共享共用进博会等国际交流大平台，共同拓展对外开放新空间。在扩内需促消费、服务构建全国统一大市场上加强协同，深化特色产品、文化旅游等合作，更好服务全国发展大局。', '郝鹏代表省委、省政府对上海长期以来给予辽宁振兴发展的大力支持帮助表示感谢。他说，近年来，上海市坚持按照习近平总书记“继续当好全国改革开放排头兵、创新发展先行者”的重要要求，加快建设具有世界影响力的社会主义现代化国际大都市，经济社会发展取得的巨大成就令人由衷钦佩、深受鼓舞，上海开放的格局视野、敢为人先的胆识魄力、推动高质量发展的先进做法值得我们认真学习借鉴。上海与大连开展全方位对口合作，是深入贯彻落实习近平总书记重要指示精神的具体举措。沪连对口合作促进了大连产业发展、科技创新和人才引育，同时也为辽宁振兴发展注入了新活力。在推进中国式现代化新征程上，我们愿同上海一道，牢记习近平总书记嘱托，完整、准确、全面贯彻新发展理念，以沪连对口合作为纽带，推动上海、辽宁交流合作进一步走深走实，在产业发展上互补互促，努力建设现代化产业体系，共同维护国家产业安全；在科技创新上协同发展，共同助力实现高水平科技自立自强；在重大平台建设上携手共进，共同提高对外开放能级水平。希望双方在互利共赢中推动沪连对口合作再上新台阶，沪辽务实合作再结新硕果，共同在国家区域协调发展和中国式现代化建设中作出更大贡献。', '在上海期间，辽宁省党政代表团瞻仰了中共一大纪念馆，认真聆听讲解，仔细观看图片实物，深刻感悟中国共产党人的初心使命，从伟大建党精神中汲取奋进力量；考察了上海中心大厦、张江科学城、上海亿通国际股份有限公司、浦东新区城市运行综合管理中心，学习上海在促进金融业高质量发展、推动社会治理体系和治理能力现代化、深入推进科技创新体制机制改革、深化航运贸易一体化智慧服务等方面的先进经验和成功做法。', '省及沈阳市、大连市领导王新伟、王健、熊茂平、张成中、陈向群、陈绍旺，上海市领导赵嘉鸣、朱芝松、张为、郭芳、周慧琳、刘多、李政、肖贵玉参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>34</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴浙江省学习考察感悟真理力量实践伟力推动协同发展互利共赢郝鹏易炼红李乐成王浩周波黄莉新参加考察</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2023-06-15</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202306/t20230615_4480396.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴浙江省学习考察 感悟真理力量实践伟力 推动协同发展互利共赢 郝鹏易炼红李乐成王浩周波黄莉新参加考察-政务要闻-沈阳市人民政府', '6月14日，辽宁省党政代表团赴浙江省学习考察，结合正在开展的主题教育，深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于促进区域协调发展的重要论述，学习借鉴浙江推动高质量发展的先进经验做法，拓展两省多领域多层次务实合作，更好实现互利共赢。省委书记、省人大常委会主任郝鹏，浙江省委书记、省人大常委会主任易炼红，省委副书记、省长李乐成，浙江省委副书记、省长王浩，省政协主席周波，浙江省政协主席黄莉新参加考察。', '浙江是习近平新时代中国特色社会主义思想重要萌发地。近年来，浙江牢记习近平总书记殷殷嘱托，坚持一张蓝图绘到底，深入实施“八八战略”，以“两个先行”打造“重要窗口”，大胆改革创新、先行先试，发展活力十足，高质量发展取得显著成就。辽宁代表团进企业进园区进乡村，从浙江的发展变化中深刻感悟习近平新时代中国特色社会主义思想的真理力量和实践伟力，学习吸收借鉴浙江在推动科技创新、以数字赋能实体经济发展、持续优化营商环境、大力推动共同富裕、加快高质量发展的好经验好做法，将学习成果转化为扎实推进中国式现代化辽宁实践的强大动力。', '生物医药产业是辽宁重点发展的特色产业，代表团来到杭州医药港，学习借鉴浙江推进生物医药全产业链布局，加快建设生命健康科创高地的成功经验，希望进一步加深杭州医药港与本溪药都、沈阳药科大学等的交流合作。从一口缸、一辆自行车起家，到跻身中国民营企业500强，传化集团的创业故事让代表团深受触动，大家对浙江不断优化环境推动民营经济发展的做法高度赞赏。在阿里巴巴集团总部，代表团听取了企业加快消费、云计算、全球化三大核心战略布局的情况介绍，与企业负责同志深入交流，希望借助阿里巴巴在数字经济上的资源优势，加强技术人才等方面交流合作，加快推动“数字辽宁、智造强省”建设步伐。代表团来到杭州市余杭区径山镇小古城村，走访农户、察看村貌、感受变化，了解当地深化“千万工程”，大力推进“村里的事情大家商量着办”基层民主法治建设，推进农文旅融合发展有关情况，当地扎实建设美丽乡村，推动共同富裕的做法让代表团深受启发。代表团还来到杭州城市大脑运营指挥中心，听取数字赋能城市治理，推进治理体系和治理能力现代化情况介绍。', '在学习考察中，代表团成员表示，辽宁与浙江人员往来密切、情谊深厚，都承担着推动高质量发展、服务国家重大战略的使命，双方产业资源优势互补，未来合作潜力巨大。我们愿与浙江同志一道，牢记习近平总书记嘱托，在新征程上共同聚焦高质量发展这个首要任务，以此次学习考察为契机，不断完善交流合作机制，拓展更高层次、更高质量的务实合作，进一步提升产业链创新链人才链合作水平，加强科技协同创新，促进文旅产业互推互促，携手服务和融入新发展格局，一步一个脚印地将习近平总书记为两省擘画的宏伟蓝图变成现实，为服务国家发展大局作出新的更大贡献。', '省领导王新伟、王健、张成中、陈向群，浙江省领导刘捷、邱启文、刘忻、卢山、姚高员参加学习考察。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。（辽宁日报记者方亮）', '辽宁省党政代表团赴浙江省学习考察 感悟真理力量实践伟力 推动协同发展互利共赢 郝鹏易炼红李乐成王浩周波黄莉新参加考察']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>34</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴江苏省学习考察并举行江苏省辽宁省对口合作工作交流座谈会</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2023-06-13</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.ln.gov.cn/web/zwgkx/rdxx01_105674/2023061306330024889/index.shtml</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['6月12日，辽宁省党政代表团赴江苏省学习考察，结合正在开展的主题教育，深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于促进区域协调发展的重要论述，学习借鉴江苏先进经验，落实深化对口合作各项任务，在推动高质量发展中实现互利共赢，携手为服务国家战略、推进中国式现代化贡献力量。学习考察期间，两省在南京举行江苏省·辽宁省对口合作工作交流座谈会。省委书记、省人大常委会主任郝鹏出席座谈会并讲话，江苏省委书记、省人大常委会主任信长星主持座谈会并讲话。省委副书记、省长李乐成，江苏省委副书记、省长许昆林分别介绍两省经济社会发展和对口合作情况。省政协主席周波，江苏省政协主席张义珍出席座谈会。', '6月12日，辽宁省党政代表团赴江苏省学习考察并举行江苏省·辽宁省对口合作工作交流座谈会。', '郝鹏代表省委、省政府对江苏长期以来给予辽宁振兴发展的大力支持帮助表示感谢。他说，近年来，江苏深入贯彻落实习近平总书记重要讲话和对江苏工作重要指示精神，牢牢把握“四个必须”重要要求，不断书写“强富美高”这篇大文章，在高质量发展上持续走在前列，为全国大局作出了新的贡献。江苏经济社会发展取得的巨大成就令人由衷钦佩，聚力高质量发展的成功经验和干部群众敢闯敢干的工作作风值得我们学习。辽宁与江苏开展全方位、多层次的合作对接，是贯彻落实习近平总书记重要指示精神的具体行动。开展对口合作使双方结下了深厚情谊，有力推动了辽宁思想观念不断解放、体制机制不断创新，为辽宁振兴发展注入了强劲动力。辽宁与江苏共同承担着推动高质量发展、服务国家重大战略的使命，希望双方进一步健全完善对口合作机制，在产业合作上精准对接，共同推动产业链供应链互联互通；在科技创新上合力攻坚，共同为国家高水平科技自立自强作出新贡献；在平台建设上加深合作，共同建设高水平示范园区；在干部人才上加强交流互动，共同打造高水平人才队伍，携手在推进中国式现代化新征程上谱写对口合作崭新篇章，共同为强国建设、民族复兴作出更大贡献。', '信长星代表江苏省委、省政府对辽宁省党政代表团的到来表示欢迎，对辽宁长期以来给予江苏发展的大力支持表示感谢。他说，辽宁是“共和国长子”，近年来深入贯彻习近平总书记关于东北振兴的重要论述，把握新机遇，找准发力点，坚决打好新时代东北振兴、辽宁振兴的“辽沈战役”，以“扛起国家重担、焕发青春”的新气象新担当新作为实现全面振兴的新突破。辽宁发展的美好前景令人振奋、充满期待。江苏和辽宁一样，承载习近平总书记的殷殷嘱托，深受党中央的深切关怀，担负着“在高质量发展上继续走在前列”的重大使命。当前，江苏正深入学习贯彻习近平总书记重要讲话精神，深入开展主题教育，以勇挑大梁、走在前列的责任担当，全面推进中国式现代化江苏新实践。苏辽两省情谊深厚，自建立对口合作关系以来，双方携手同行，各项工作取得扎实成效。奋进新征程，我们将认真落实党中央决策部署，与辽宁深化重大战略对接，在共担时代重任中同铸“大国重器”，在共建“一带一路”中同促内外开放，在共促协作发展中同聚强劲动能，高质量打造苏辽对口合作“升级版”，为强国建设、民族复兴添砖加瓦、增光添彩。', '会上，李乐成、许昆林代表两省签署了《辽宁省人民政府 江苏省人民政府对口合作框架协议》。', '在江苏期间，辽宁省党政代表团考察了菲尼克斯（中国）有限公司、网络通信与安全紫金山实验室、南瑞继保电气有限公司、亿嘉和科技股份有限公司，学习江苏在大力发展实体经济、推进智能制造、促进科技成果转化、高标准打造营商环境等方面的先进经验和成功做法。', '省领导王新伟、王健、熊茂平、张成中、陈向群，江苏省领导韩立明、储永宏、马欣、魏国强、陈之常参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>34</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴内蒙古自治区学习考察并举行内蒙古自治区辽宁省交流合作座谈会</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2023-05-11</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.ln.gov.cn/web/zwgkx/rdxx01_105674/2023051120450138361/index.shtml</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['5月10日至11日，辽宁省党政代表团赴内蒙古自治区学习考察并举行内蒙古自治区·辽宁省交流合作座谈会，畅叙友邻情谊、深化务实合作，扎实推动东北全面振兴取得新突破。省委书记、省人大常委会主任郝鹏出席座谈会并讲话，内蒙古自治区党委书记、自治区人大常委会主任孙绍骋主持座谈会并讲话。省委副书记、省长李乐成，内蒙古自治区党委副书记、自治区主席王莉霞分别介绍两省区经济社会发展情况。省政协主席周波，内蒙古自治区政协主席张延昆出席座谈会。', '5月10日至11日，辽宁省党政代表团赴内蒙古自治区学习考察并举行内蒙古自治区·辽宁省交流合作座谈会。', '郝鹏代表省委、省政府对内蒙古长期以来给予辽宁振兴发展的大力支持帮助表示感谢，对内蒙古高质量发展取得的成绩表示祝贺。他说，内蒙古资源丰富、风光壮美、区位独特，近年来，内蒙古加快推动产业转型升级，积极推进创新驱动发展，经济发展势头十分迅猛，我们备受鼓舞、深感钦佩。辽蒙两省区地域相连，产业互补，感情十分深厚。此次来内蒙古考察，旨在深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于东北振兴发展的重要讲话和指示批示精神，与内蒙古一道在深化务实合作中完整、准确、全面贯彻新发展理念，服务和融入新发展格局，以高质量发展提升维护国家“五大安全”能力。希望双方进一步加强重点领域合作，协同推动东北海陆大通道上升为国家战略，合力构筑向北开放新格局，更好融入共建“一带一路”。深化产业深度融合，共同塑造产业发展新优势。进一步深化两地能源领域合作，更好维护国家能源安全。加强在生态保护、文旅融合等方面合作，让绿水青山变成双方的金山银山。进一步强化协调对接机制，不断拓宽合作领域，共同把习近平总书记为东北擘画的全面振兴蓝图变为现实。', '孙绍骋代表内蒙古自治区党委和政府对辽宁省党政代表团的到来表示欢迎，对辽宁长期以来给予内蒙古的支持和帮助表示感谢。他说，辽宁省是“共和国长子”，党的十八大以来，辽宁省委和省政府深入学习贯彻习近平总书记关于东北、辽宁振兴发展的重要指示精神，推动辽宁全面振兴全方位振兴迈出坚实步伐。内蒙古与辽宁山水相邻、人文相近、往来密切，同属国家东北振兴战略实施地区，都肩负着维护国家国防安全、粮食安全、生态安全、能源安全、产业安全的重要使命，长期以来保持着良好的合作关系，取得了丰硕合作成果。当前，辽宁正在加快推进全面振兴新突破三年行动，着力打好打赢新时代“辽沈战役”，内蒙古正在聚焦聚力办好习近平总书记交给的五大任务和全方位建设“模范自治区”两件大事，努力把祖国北部边疆这道风景线打造得更加亮丽，放眼未来两省区可以取长补短的领域很多，区域合作的文章可以越做越大。远亲不如近邻，希望两省区多沟通、多走动，从一件件具体事谋起抓起，不断密切合作关系、拓展合作领域、提升合作层次，推动实现更高水平的互利共赢，为东北全面振兴作出更多贡献。', '在内蒙古期间，辽宁省党政代表团来到全国最大的沿边陆路口岸满洲里，考察了铁路口岸、国际公路口岸，详细了解中欧班列运行和公路口岸通关等情况，并到满洲里国门和红色展览馆参观考察，与内蒙古有关方面就加强两省区交通基础设施互联互通进行了深入交流。在呼和浩特市，代表团先后考察了伊利现代智慧健康谷、蒙草生态环境（集团）有限公司、内蒙古中环产业园等地，认真学习内蒙古在产城融合、生态修复治理、创新驱动发展等方面的先进经验。大家纷纷表示，通过学习考察，我们打开了思路、拓宽了视野、增添了动力，受益匪浅。', '省及沈阳市、大连市领导王新伟、张成中、陈向群、靳国卫、陈绍旺，内蒙古自治区领导包钢、于立新、林少春、杨进、杨劼参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>省委常委会召开会议传达学习贯彻习近平总书记关于党的建设和组织工作的重要指示</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2023-07-05</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/szfxx/zydt/202312/t20231215_4574703.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['省委常委会召开会议 传达学习贯彻习近平总书记关于党的建设和组织工作的重要指示-重要动态-沈阳市人民政府', '7月4日，省委常委会召开会议，传达学习习近平总书记对党的建设和组织工作作出的重要指示，传达全国组织工作会议精神，研究部署我省贯彻落实工作。省委书记郝鹏主持会议。', '会议指出，习近平总书记的重要指示，高屋建瓴、立意深远，具有很强的政治性、思想性、指导性，为做好党的建设和组织工作进一步指明了前进方向。我们要深入学习领会习近平总书记重要指示精神和全国组织工作会议精神，认真抓好贯彻落实。', '会议强调，要深入学习贯彻习近平总书记关于党的建设的重要思想，充分认识这一重要思想以一系列原创性成果极大丰富和发展了马克思主义建党学说，标志着我们党对马克思主义执政党建设规律的认识达到了新高度，为深入推进新时代党的建设新的伟大工程、做好新时代组织工作提供了根本遵循，我们必须长期坚持、全面落实。', '会议强调，要在贯彻落实党的二十大战略部署中把准组织工作定位，在加强党的领导、推进党的事业、全面从严治党中充分发挥职能作用，教育引导全省广大党员干部坚定拥护“两个确立”、坚决做到“两个维护”，不断提高全省党的建设和组织工作水平，为实现全面振兴新突破提供坚强组织保证。要以主题教育为契机，进一步完善理论学习长效机制，持续加强党的创新理论武装，坚持不懈用习近平新时代中国特色社会主义思想凝心铸魂。要持续优化干部选育管用工作，树立鲜明用人导向，适应事业发展需要，坚持人岗相适，进一步拓宽选人用人视野，加强专业化培训，提升干部素质能力，加强各级领导班子建设，落实好“三个区分开来”，激励干部担当作为。要加强干部管理监督，管好“关键少数”，教育广大干部知敬畏、存戒惧、守底线。要高质量做好人才工作，全方位培养引进用好人才，下大气力研究制定更加精准化的人才服务保障政策，进一步深化人才发展体制机制改革，更好发挥人才在实现全面振兴新突破中的作用。要着力增强党组织政治功能和组织功能，树立大抓基层的鲜明导向，加强各领域基层组织建设，加强新经济组织、新社会组织、新就业群体党的建设，坚持从严管理党员，全面提高党员队伍素质。要加强组织部门自身建设，持续深化政治机关建设，着力建设讲政治、重公道、业务精、作风好的模范部门。全省各级党委（党组）要加强对组织工作的领导，定期研究解决重大问题，为组织部门开展工作创造良好条件。', '会议审议了《辽宁省党政代表团赴江苏、上海、浙江和安徽三省一市学习考察报告》，指出此次学习考察，我们站位全国大局看辽宁、跳出辽宁看辽宁、对标先进看辽宁，通过三省一市日新月异的发展变化，让我们更加深刻感悟到习近平新时代中国特色社会主义思想的真理力量和实践伟力。三省一市牢牢把握高质量发展这个首要任务，坚持有效市场和有为政府相结合，在发展新产业开辟新赛道、打造一流营商环境、美丽乡村建设等领域的好经验好做法，值得我们学习借鉴。辽宁资源禀赋优越、基础条件良好、发展潜力巨大，大干必有成果，奋斗就有回报。通过此次学习考察，我们要进一步统一思想行动、坚定信心决心，大干三年、奋斗三年，切实把全面振兴新突破三年行动抓紧抓实抓出成效，一步一个脚印地把习近平总书记为辽宁擘画的宏伟蓝图变成现实。要紧密结合辽宁实际，切实抓好这次学习考察成果的转化落实，在推进全面振兴新突破三年行动的具体实践中取得实际成效。要进一步深化辽苏、沪连对口合作，加快建立健全辽浙、辽皖全面合作机制，有关部门要加强指导协调，强化工作跟进，推动辽宁与三省一市交流合作走深走实。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>省委常委会召开会议传达学习贯彻习近平总书记关于党的建设和组织工作的重要指示郝鹏主持会议</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2023-07-05</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202307/t20230705_4489168.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['省委常委会召开会议 传达学习贯彻习近平总书记关于党的建设和组织工作的重要指示 郝鹏主持会议-政务要闻-沈阳市人民政府', '7月4日，省委常委会召开会议，传达学习习近平总书记对党的建设和组织工作作出的重要指示，传达全国组织工作会议精神，研究部署我省贯彻落实工作。省委书记郝鹏主持会议。', '会议指出，习近平总书记的重要指示，高屋建瓴、立意深远，具有很强的政治性、思想性、指导性，为做好党的建设和组织工作进一步指明了前进方向。我们要深入学习领会习近平总书记重要指示精神和全国组织工作会议精神，认真抓好贯彻落实。', '会议强调，要深入学习贯彻习近平总书记关于党的建设的重要思想，充分认识这一重要思想以一系列原创性成果极大丰富和发展了马克思主义建党学说，标志着我们党对马克思主义执政党建设规律的认识达到了新高度，为深入推进新时代党的建设新的伟大工程、做好新时代组织工作提供了根本遵循，我们必须长期坚持、全面落实。', '会议强调，要在贯彻落实党的二十大战略部署中把准组织工作定位，在加强党的领导、推进党的事业、全面从严治党中充分发挥职能作用，教育引导全省广大党员干部坚定拥护“两个确立”、坚决做到“两个维护”，不断提高全省党的建设和组织工作水平，为实现全面振兴新突破提供坚强组织保证。要以主题教育为契机，进一步完善理论学习长效机制，持续加强党的创新理论武装，坚持不懈用习近平新时代中国特色社会主义思想凝心铸魂。要持续优化干部选育管用工作，树立鲜明用人导向，适应事业发展需要，坚持人岗相适，进一步拓宽选人用人视野，加强专业化培训，提升干部素质能力，加强各级领导班子建设，落实好“三个区分开来”，激励干部担当作为。要加强干部管理监督，管好“关键少数”，教育广大干部知敬畏、存戒惧、守底线。要高质量做好人才工作，全方位培养引进用好人才，下大气力研究制定更加精准化的人才服务保障政策，进一步深化人才发展体制机制改革，更好发挥人才在实现全面振兴新突破中的作用。要着力增强党组织政治功能和组织功能，树立大抓基层的鲜明导向，加强各领域基层组织建设，加强新经济组织、新社会组织、新就业群体党的建设，坚持从严管理党员，全面提高党员队伍素质。要加强组织部门自身建设，持续深化政治机关建设，着力建设讲政治、重公道、业务精、作风好的模范部门。全省各级党委（党组）要加强对组织工作的领导，定期研究解决重大问题，为组织部门开展工作创造良好条件。', '会议审议了《辽宁省党政代表团赴江苏、上海、浙江和安徽三省一市学习考察报告》，指出此次学习考察，我们站位全国大局看辽宁、跳出辽宁看辽宁、对标先进看辽宁，通过三省一市日新月异的发展变化，让我们更加深刻感悟到习近平新时代中国特色社会主义思想的真理力量和实践伟力。三省一市牢牢把握高质量发展这个首要任务，坚持有效市场和有为政府相结合，在发展新产业开辟新赛道、打造一流营商环境、美丽乡村建设等领域的好经验好做法，值得我们学习借鉴。辽宁资源禀赋优越、基础条件良好、发展潜力巨大，大干必有成果，奋斗就有回报。通过此次学习考察，我们要进一步统一思想行动、坚定信心决心，大干三年、奋斗三年，切实把全面振兴新突破三年行动抓紧抓实抓出成效，一步一个脚印地把习近平总书记为辽宁擘画的宏伟蓝图变成现实。要紧密结合辽宁实际，切实抓好这次学习考察成果的转化落实，在推进全面振兴新突破三年行动的具体实践中取得实际成效。要进一步深化辽苏、沪连对口合作，加快建立健全辽浙、辽皖全面合作机制，有关部门要加强指导协调，强化工作跟进，推动辽宁与三省一市交流合作走深走实。', '省委常委会召开会议 传达学习贯彻习近平总书记关于党的建设和组织工作的重要指示 郝鹏主持会议']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>34</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>来沈考察的塔城市党政代表团成员纷纷表示这是一次感恩之旅学习之旅合作之旅</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2018-07-19</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202201/t20220123_2677432.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['来沈考察的塔城市党政代表团成员纷纷表示——这是一次感恩之旅、学习之旅、合作之旅-政务要闻-沈阳市人民政府', '“漂亮、整洁、大气、厚重是沈阳给我的第一印象。”塔城市卫计委主任张兴平说，沈阳处处散发着一座历史文化名城的魅力，这里的街道干净、人民热情、氛围和谐、气候宜人。', '沈阳和塔城因为对口支援而结缘，在多年的交往中，两座城市和人民早已结下了深厚的情谊。塔城市教科局局长张芳说：“这几年，我到沈阳来过几次，虽然这里与塔城远隔千里，但我每次来沈阳都有一种回家的感觉，每次见到因工作结识而成为朋友的沈阳人，都像见到自己的亲人一样。我想，这种感情应该是缘于沈阳市对塔城无私的援助，让我对这座城市、这里的人民萌生深厚的感情。特别是每次来沈阳，我都亲眼见证、亲身感受到这座城市日新月异的变化，沈阳的快速发展，也让我们塔城人感到由衷的高兴。”', '在沈阳的两天，塔城市党政代表团马不停蹄，对沈阳的经济发展、社会治理、城市建设、党的建设等方面进行了考察调研。每到一处，他们都仔细聆听讲解介绍，不时提问交流，离开时还不忘索要经验资料带回去继续学习消化。', '代表团一行带着对沈阳美好的感情，以认真的态度，格外珍惜这次学习考察的机会。他们严谨认真，一丝不苟、专心专注的调研态度也让沈阳本地陪同考察的领导干部纷纷竖起了大拇指。', '学习考察的时间虽然短暂，但此行的收获却是满满的。临行前，塔城市党政代表团成员纷纷表示：“这是一次感恩之旅，更是一次学习之旅、合作之旅，我们要把在沈阳的所学、所思、所感带回塔城市，用沈阳先进的工作经验指导推动塔城未来的规划、建设和发展。相信在我们和沈阳的共同努力下，塔城的明天一定会更加美好。”']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>34</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>市政府研究室商务局组成联合调研组就夜经济赴外地考察调研</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2019-07-19</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/bmdt/202112/t20211201_1733759.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['市政府研究室、商务局组成联合调研组就夜经济赴外地考察调研-部门动态-沈阳市人民政府', '为学习借鉴国内发达地区在促进夜经济发展和扩大消费方面的好经验，7月9日-12日，市政府研究室与商务局组成联合调研组，赴天津、济南、宁波进行了学习考察。', '考察期间，调研组重点围绕夜经济发展总体情况、经验做法、出台相关政策以及实施意见等，与三市商务局进行了座谈交流，对三市的夜经济示范街区进行了实地调研。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>34</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>潘利国率考察组赴甘肃省和宁夏回族自治区</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2018-09-22</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202201/t20220123_2683317.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['9月17-21日，市人大常委会主任潘利国率考察组赴甘肃省和宁夏回族自治区，学习考察国企改革、生态环境保护和智慧城市建设等工作。甘肃省兰州市、张掖市和宁夏回族自治区银川市人大常委会相关领导陪同考察。', '国有企业改革是考察组本次学习考察的重要内容。兰州市自实施国企改革以来，通过改制、破产、重组，优化了资源配置，建立了现代企业制度，提高了国有企业核心竞争力，为国有企业实现做大做强做优奠定了坚实基础。近年来，银川市通过政策引导、资金支持等一系列措施加快推进国企改革，企业管理体制不断完善，经济结构进一步优化，规模、质量和效益明显提升。在分别与兰州市和银川市人大常委会和政府相关部门进行座谈时，考察组一行详细了解了两市在国有企业改革以及提高国有资本配置和运行效率等方面的工作经验，并就贯彻落实中央有关要求，建立市政府向市人大常委会报告国有资产管理情况相关制度等工作进行了交流。', '潘利国说，作为老工业基地城市，国有企业在沈阳具有举足轻重的地位。近几年，沈阳市采取有效措施，全面推进国企改革，取得了很大成绩，也面临着许多亟待解决的问题。我们要认真学习借鉴兰州和银川两市在国企改革方面的新办法、新举措和取得的新经验，加快解决沈阳国企改革遇到的新问题，抓住改革关键，集中力量攻坚，以改革释放活力，以创新实现倍增，在推动沈阳新一轮振兴发展中充分展示国有企业的新作为。', '张掖市地处河西走廊中段，近年来以筑牢国家西部生态安全屏障为目标，系统推进生态保护修复建设，全域生态环境质量得到持续提升。地处干旱少雨地区的银川市，通过大力实施河湖水系连通工程，加快构筑“塞上湖城”绿色水网体系，积极推进水生态环境治理。考察组一行先后考察了张掖市祁连山国家级自然保护区康乐保护站、黑河湿地国家级自然保护区和银川市艾伊河水系建设、华雁湖岸线提升工程、鸣翠湖和宝湖等湿地公园建设情况，并分别与两市人大常委会围绕充分发挥人大在生态环境保护领域立法、监督等职能作用交流了工作经验。', '潘利国说，沈阳市高度重视生态环境保护工作，近年来采取了一系列强有力的措施，推动生态环境保护工作取得了显著成效，但是不可否认仍然存在一些突出问题。通过这次学习考察，我们要积极总结、充分借鉴张掖和银川两市坚持绿色发展、扎实推动生态环境保护工作取得的经验，特别是认真学习两市在生态环境保护领域地方立法方面的经验，加快推进沈阳生态环境保护领域地方立法工作，强化地方法规对生态环境保护工作的刚性约束，着力解决突出环境问题，不断提高沈阳生态环境保护水平。', '作为全国第二批智慧城市试点城市，近年来，银川市立足于“提升城市管理水平、便民利民惠民、促进产业发展”三个核心目标，打造了可复制、可推广的智慧城市“银川模式”。潘利国说，智慧城市建设是一项庞大的系统工程，我们要认真学习银川市智慧城市建设的先进理念和做法，结合沈阳实际，坚持问题导向，围绕“惠民、兴业、善政”三大体系，构建长效工作机制，锲而不舍推进智慧城市建设，努力实现城市更美好、人民更幸福的目标。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>34</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团举行赴江苏上海浙江安徽学习考察总结交流会坚定信心决心发挥比较优势激活潜力动力结合实际把学习成果转化为推动全面振兴实际成效郝鹏主持并讲话李乐成讲话</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2023-06-17</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202306/t20230617_4481604.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团举行赴江苏上海浙江安徽学习考察总结交流会 坚定信心决心 发挥比较优势 激活潜力动力 结合实际把学习成果转化为推动全面振兴实际成效 郝鹏主持并讲话 李乐成讲话-政务要闻-沈阳市人民政府', '坚定信心决心 发挥比较优势 激活潜力动力 结合实际把学习成果转化为推动全面振兴实际成效', '6月16日，在圆满结束赴江苏、上海、浙江、安徽学习考察后，辽宁省党政代表团在沈阳举行总结交流会，分享心得体会，相互启发借鉴，紧密结合辽宁振兴发展实际，明确努力方向，进一步把学习考察成果转化为推动高质量发展的具体实践。省委书记、省人大常委会主任郝鹏主持会议并讲话，省委副书记、省长李乐成出席会议并讲话。', '郝鹏指出，组织辽宁省党政代表团赴长三角三省一市学习考察，是省委全面贯彻落实党的二十大精神，深入贯彻落实习近平总书记关于辽宁振兴发展的重要指示精神的务实举措，是推动主题教育走深走实的具体行动。此次学习考察，虽然时间短暂，但我们有备而去、突出重点、力求实效，跳出辽宁看辽宁、站位全国大局看辽宁，对标了先进、看到了差距、受到了启迪，进一步深化了与江苏上海间的对口合作，加深了与浙江安徽的沟通交流，总体达到了预期目的。考察中我们看到，党的十八大以来，三省一市党委政府始终坚决贯彻落实习近平总书记重要指示精神，坚定不移地干、久久为功地闯，实现了质量高、效益好、结构优的增长，经济社会发展走在全国前列。三省一市日新月异的变化让我们深刻感悟到习近平新时代中国特色社会主义思想的真理力量和实践伟力，更加坚定了辽宁沿着习近平总书记指引的方向，奋力实现全面振兴新突破的信心决心。考察中我们体会到，三省一市牢牢把握高质量发展这个首要任务，坚持有效市场和有为政府相结合，在发展新产业、开辟新赛道上抢先抓早、后劲十足，在科技创新、吸引人才上机制灵活、成绩亮眼，在打造一流营商环境上不断探索、推陈出新，在对外开放上站位高远、富于时代感，在城市社会管理、美丽乡村建设上科学智能、精致精细，我们要充分吸收借鉴三省一市的好经验好做法，结合辽宁实际补齐短板、拉长长板，不断提升经济社会发展的质量和水平，以一域之光为全局添彩。', '郝鹏强调，要深入贯彻落实习近平总书记关于辽宁振兴发展的重要指示精神，进一步增强推动全面振兴新突破的责任感、使命感和不进则退、慢进亦退的紧迫感、危机感，全面动起来、干起来、紧张起来，切实把学习成果转化运用到本地区本部门实际工作当中，奋力保持追赶超越态势，扎扎实实把辽宁自己的事情办得更好。要充分发挥产业、科教、人才、开放等方面的比较优势，着力构建现代化产业体系，以科技赋能、数字赋能助力实体经济发展，积极抢占新赛道、开辟新领域，不断为高质量发展注入新动能。要打造营商环境“升级版”，着力营造尊商敬商的浓厚氛围，坚决做到“讲诚信、懂规矩、守纪律”，各级领导干部要增强服务意识，真心实意地为企业家靠前服务、排忧解难，为各类企业发展壮大搭“梯子”、筑“跑道”，以更大力度完善科技创新、人才发展体制机制，努力营造更具吸引力的创新创业氛围。要对标先进，进一步提高标准、拉高标杆，不断增强各级干部谋项目、抓创新、促改革的能力素养，提高执行省委工作部署的主动性、创造性、实效性。要进一步推动与三省一市交流合作走深走实，抓紧细化落实与江苏、上海签订的合作协议，建立完善与浙江、安徽交流合作机制，加快推动开展多领域的务实合作。要加力推进当前各项重点工作，锚定全面振兴新突破三年行动确定的各项目标任务，加强调度分析，加快推进落实，巩固好一季度的经济发展良好态势，确保实现上半年“时间过半、任务过半”。', '李乐成指出，学习的目的在于学以致用，要坚信事在人为，坚持问题导向，时不我待、敢干敢拼，努力找差距、知不足，补短板、勇追赶，扬优势、求突破。要进一步增强贯彻习近平总书记关于东北、辽宁振兴发展的重要讲话和指示批示精神的自觉性、坚定性和创造性，落实省委工作要求，深入实施全面振兴新突破三年行动，扎实推动高质量发展。要争创具有全国影响力的区域科技创新中心，增强抓创新的系统观念，坚持“四个面向”，高水平建设辽宁实验室，打造服务国家战略的科技创新高地。要全力塑造开放新优势，统筹贸易投资通道平台建设，打造对外开放新前沿。要矢志不移改善营商环境，聚焦广大群众和经营主体关心关注的问题，持续优化服务。要加快建设现代化产业体系，保持耐心、恒心和韧劲，以“十年磨一剑”的定力和“功成不必在我、功成必定有我”的担当，扎实做好结构调整“三篇大文章”。要强化落实国家战略的责任担当，奋力推动东北全面振兴取得新突破，提升区域市场一体化水平，更好服务和融入全国统一大市场建设，为全国发展大局作出更大贡献。', '省领导王健、张成中出席会议，陈向群讲话。鞍山、锦州、营口、省发展改革委、省科技厅、省工业和信息化厅、省财政厅主要负责同志作交流发言。（辽宁日报记者方亮 杨忠厚 史冬柏）', '辽宁省党政代表团举行赴江苏上海浙江安徽学习考察总结交流会 坚定信心决心 发挥比较优势 激活潜力动力 结合实际把学习成果转化为推动全面振兴实际成效 郝鹏主持并讲话 李乐成讲话']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>34</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>衡水市政府研究室调研我市休闲农业</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2019-06-21</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/bmdt/202112/t20211202_1801149.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['6月18日，衡水市政府研究室主任赵卫星一行3人来沈就都市休闲农业、文旅融合发展等工作进行考察学习。调研组前往沈北新区腰长河村进行调研。腰长河村是我市率先利用农村集体建设用地开发旅游项目的市级试点村，该村充分利用国家政策盘活农村集体建设用地，在农村集体建设用地方改革方面极探索与实践，取得了较好的成效。调研结束后，市政府研究室相关负责同志向调研组介绍了沈阳市在都市休闲农业、文旅融合发展等方面工作情况。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>34</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>沈阳市供销社接待抚顺市供销社相关人员来沈考察</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2019-08-12</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/bmdt/202112/t20211202_1785199.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['为了深入推进供销社综合改革，加强兄弟城市之间的合作，2019年8月8日，抚顺市供销社副主任张瑞国等一行十人，到沈阳市供销合作社考察学习沈阳市供销快线电商经验。市社理事会主任孔德树等进行了接待。', '座谈会上，沈阳供销快线电子商务有限公司介绍了我市农村电子商务工作的开展情况，沈阳市供销社与抚顺市供销社就两市供销社优势资源进行洽谈合作，特别是对抚顺特色农产品在沈阳供销快线平台推广事宜进行深入沟通，为今后两市的进一步合作打下良好的基础。', '会后市供销社、沈阳供销快线电子商务有限公司相关工作人员陪同抚顺市供销社一行考察辽宁一栗科技有限公司直营门店一栗中街大悦城店。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>34</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>市政府研究室沈阳自贸区组织人员就金融创新赴外地开展联合调研</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2019-07-19</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/bmdt/202112/t20211201_1733825.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['市政府研究室、沈阳自贸区组织人员就金融创新赴外地开展联合调研-部门动态-沈阳市人民政府', '为有效化解小微民营企业融资难融资贵问题，推动自贸区金融开放创新，助力实体经济发展，7月8日-12日，市政府研究室与自贸区组成联合调研组，赴西安、重庆、武汉自贸区进行学习考察。', '调研组对西安片区、重庆两江片区、武汉东湖片区进行了实地考察，参观了各片区综合办事大厅，考察了机构设置、网上办公、企业综合信息平台、一站式服务等项目建设情况，与三片区金融促进局、市金融发展局等部门进行了座谈，详细了解了三片区金融创新的重点领域、重点案例、创新机制及出台的政策措施情况。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>34</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴广东省学习考察对标先进学习经验深化交流扩大合作以改革创新精神推动辽宁高质量发展迈出新步伐</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2023-11-29</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/szfxx/zydt/202311/t20231130_4564880.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴广东省学习考察 对标先进学习经验 深化交流扩大合作 以改革创新精神推动辽宁高质量发展迈出新步伐-重要动态-沈阳市人民政府', '11月28日，辽宁省党政代表团赴广东省学习考察，深入贯彻落实习近平总书记在新时代推动东北全面振兴座谈会上重要讲话精神，对标先进学习经验，深化交流扩大合作，以改革创新精神推动辽宁高质量发展迈出新步伐。当日下午，广东·辽宁两省合作交流座谈会在广州市举行。广东省委书记黄坤明主持座谈会并讲话。省委书记、省人大常委会主任郝鹏出席座谈会并讲话。广东省委副书记、省长王伟中，省委副书记、省长李乐成分别介绍两省经济社会发展情况。', '黄坤明代表广东省委、省政府对辽宁省党政代表团到访表示欢迎，对辽宁长期以来给予广东工作的支持帮助表示感谢。他说，辽宁资源禀赋优越、产业基础雄厚、区位优势独特，具有光荣革命传统和厚实发展积淀，在革命、建设、改革各个历史时期为党和国家事业发展作出了巨大贡献。近年来，辽宁省委、省政府全面贯彻落实习近平总书记关于东北、辽宁振兴发展的重要讲话、重要指示精神，鲜明提出新时代“六地”目标任务，团结带领广大干部群众深入实施辽宁全面振兴新突破三年行动，推动辽宁改革发展迈出新步伐、焕发新活力、展现新气象。我们对辽宁发展的突出成绩和良好态势感到由衷高兴、由衷钦佩，对辽宁在推动振兴发展中创造的好经验好做法要积极学习借鉴。深化粤辽全方位合作，是大局所向、发展所需、群众所盼，也是两省的共同目标、共同责任、共同机遇。广东将认真贯彻落实习近平总书记关于加强东北全面振兴同粤港澳大湾区建设等国家重大战略对接的重要要求，以更大力度、更实举措推进粤辽深层次交流合作，强化战略对接、优势互补、发展联动，促进两省加快高质量发展、共同迈向现代化。希望与辽宁进一步深化产业合作，聚焦机器人与智能装备、生物医药、数字经济、海洋经济等优势产业加强深度对接，携手加快构建现代化产业体系。深化科技合作，围绕新材料、工业母机、芯片制造、工业基础软件等重点领域支持两省创新主体加强对接协作，促进创新成果双向转化，开展更紧密的人才交流互动，携手实现高水平科技自立自强。深化市场合作，引导企业扩大双向投资布局，互设生产基地、销售渠道，推动“广货北上、辽品南下”拓规模、增效益，加强文旅客源互送共享，携手扩大内需市场。深化开放合作，用好辽宁向北对接俄蒙、向东联动日韩和广东沟通港澳、联系海外的开放资源，支持企业并船出海，强化自贸区建设互学互鉴，携手提升开放型经济水平。深化民生合作，促进教育医疗等优质资源双向导入、互通共享，持续优化异地上学、异地就医等服务，携手造福两省父老乡亲。', '郝鹏代表省委、省政府对广东长期以来给予辽宁振兴发展的大力支持帮助表示感谢。他说，广东是改革开放的排头兵、先行地、实验区，在中国式现代化建设的大局中地位重要、作用突出。今年以来，广东深入学习贯彻习近平总书记在广东考察时的重要讲话精神，坚持以高质量发展为牵引，推动各项事业迈上新的台阶，为全国经济持续恢复向好作出了巨大贡献。我们对广东取得的瞩目成绩表示由衷钦佩和衷心祝贺。学习借鉴广东先进经验，深化两省务实合作，加强同粤港澳大湾区建设等国家重大战略对接，是贯彻落实习近平总书记重要讲话精神的务实举措。当前，辽宁正全力实施全面振兴新突破三年行动，着力打造新时代“六地”，我们诚挚希望与广东开展全方位多领域务实合作，助力辽宁加快走出一条高质量发展、可持续振兴的新路子。希望与广东进一步在产业发展上深化合作，加强电子信息、集成电路装备、工业互联网等新产业对接，推动形成更多新质生产力，助力辽宁加快构建现代化产业体系。在科技创新上深化合作，围绕工业母机、新材料、精细化工、高端装备制造等领域联合开展关键核心技术攻关，共同解决一批“卡脖子”难题，推动两地科技成果相向而行、转化落地，助力辽宁打造重大技术创新策源地。在推动改革上深化合作，借鉴广东企业改革管理和产业金融等方面的先进理念、先进经验，激发辽宁国有企业活力，加快推动民营经济健康发展。在对内对外开放上深化合作，支持辽宁建设东北海陆大通道，搭建双方贸易合作、港口联动便捷通道，共同服务和融入新发展格局。在文体旅产业上深化合作，发挥各自资源优势，深入挖掘合作契合点，拓展市场空间，共同促进文体旅产业融合发展、提质升级。辽宁将以此次学习考察为契机，进一步深化同广东交流合作，奋力推动辽宁实现全面振兴新突破，与广东携手开创粤辽合作新局面。', '座谈会前，辽宁省党政代表团在广州市考察了中国南方航空集团有限公司、广州越秀集团股份有限公司、唯品会（中国）有限公司、广东省粤科金融集团有限公司，学习广东在国企改革发展、推进电子商务、促进科技金融创新发展等方面的先进经验和成功做法。', '广东省领导陈建文、王曦、郭永航、林涛，南航集团领导马须伦、韩文胜，省及沈阳市、大连市领导王新伟、姜有为、王利波、陈绍旺参加有关活动。各市、沈抚示范区及省直有关部门、有关省属企业主要负责同志参加学习考察。', '辽宁省党政代表团赴广东省学习考察 对标先进学习经验 深化交流扩大合作 以改革创新精神推动辽宁高质量发展迈出新步伐']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>34</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴内蒙古自治区学习考察并举行内蒙古自治区辽宁省交流合作座谈会深化交流合作实现互利互赢以高质量区域协作助推高质量振兴发展郝鹏孙绍骋讲话李乐成王莉霞介绍情况周波张延昆出席</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2023-05-12</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202305/t20230512_4462946.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴内蒙古自治区学习考察并举行内蒙古自治区·辽宁省交流合作座谈会 深化交流合作 实现互利互赢 以高质量区域协作助推高质量振兴发展 郝鹏孙绍骋讲话 李乐成王莉霞介绍情况 周波张延昆出席-政务要闻-沈阳市人民政府', '5月10日至11日，辽宁省党政代表团赴内蒙古自治区学习考察并举行内蒙古自治区·辽宁省交流合作座谈会，畅叙友邻情谊、深化务实合作，扎实推动东北全面振兴取得新突破。省委书记、省人大常委会主任郝鹏出席座谈会并讲话，内蒙古自治区党委书记、自治区人大常委会主任孙绍骋主持座谈会并讲话。省委副书记、省长李乐成，内蒙古自治区党委副书记、自治区主席王莉霞分别介绍两省区经济社会发展情况。省政协主席周波，内蒙古自治区政协主席张延昆出席座谈会。', '郝鹏代表省委、省政府对内蒙古长期以来给予辽宁振兴发展的大力支持帮助表示感谢，对内蒙古高质量发展取得的成绩表示祝贺。他说，内蒙古资源丰富、风光壮美、区位独特，近年来，内蒙古加快推动产业转型升级，积极推进创新驱动发展，经济发展势头十分迅猛，我们备受鼓舞、深感钦佩。辽蒙两省区地域相连，产业互补，感情十分深厚。此次来内蒙古考察，旨在深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于东北振兴发展的重要讲话和指示批示精神，与内蒙古一道在深化务实合作中完整、准确、全面贯彻新发展理念，服务和融入新发展格局，以高质量发展提升维护国家“五大安全”能力。希望双方进一步加强重点领域合作，协同推动东北海陆大通道上升为国家战略，合力构筑向北开放新格局，更好融入共建“一带一路”。深化产业深度融合，共同塑造产业发展新优势。进一步深化两地能源领域合作，更好维护国家能源安全。加强在生态保护、文旅融合等方面合作，让绿水青山变成双方的金山银山。进一步强化协调对接机制，不断拓宽合作领域，共同把习近平总书记为东北擘画的全面振兴蓝图变为现实。', '孙绍骋代表内蒙古自治区党委和政府对辽宁省党政代表团的到来表示欢迎，对辽宁长期以来给予内蒙古的支持和帮助表示感谢。他说，辽宁省是“共和国长子”，党的十八大以来，辽宁省委和省政府深入学习贯彻习近平总书记关于东北、辽宁振兴发展的重要指示精神，推动辽宁全面振兴全方位振兴迈出坚实步伐。内蒙古与辽宁山水相邻、人文相近、往来密切，同属国家东北振兴战略实施地区，都肩负着维护国家国防安全、粮食安全、生态安全、能源安全、产业安全的重要使命，长期以来保持着良好的合作关系，取得了丰硕合作成果。当前，辽宁正在加快推进全面振兴新突破三年行动，着力打好打赢新时代“辽沈战役”，内蒙古正在聚焦聚力办好习近平总书记交给的五大任务和全方位建设“模范自治区”两件大事，努力把祖国北部边疆这道风景线打造得更加亮丽，放眼未来两省区可以取长补短的领域很多，区域合作的文章可以越做越大。远亲不如近邻，希望两省区多沟通、多走动，从一件件具体事谋起抓起，不断密切合作关系、拓展合作领域、提升合作层次，推动实现更高水平的互利共赢，为东北全面振兴作出更多贡献。', '在内蒙古期间，辽宁省党政代表团来到全国最大的沿边陆路口岸满洲里，考察了铁路口岸、国际公路口岸，详细了解中欧班列运行和公路口岸通关等情况，并到满洲里国门和红色展览馆参观考察，与内蒙古有关方面就加强两省区交通基础设施互联互通进行了深入交流。在呼和浩特市，代表团先后考察了伊利现代智慧健康谷、蒙草生态环境（集团）有限公司、内蒙古中环产业园等地，认真学习内蒙古在产城融合、生态修复治理、创新驱动发展等方面的先进经验。大家纷纷表示，通过学习考察，我们打开了思路、拓宽了视野、增添了动力，受益匪浅。', '省及沈阳市、大连市领导王新伟、张成中、陈向群、靳国卫、陈绍旺，内蒙古自治区领导包钢、于立新、林少春、杨进、杨劼参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。（辽宁日报记者方亮）', '辽宁省党政代表团赴内蒙古自治区学习考察并举行内蒙古自治区·辽宁省交流合作座谈会 深化交流合作 实现互利互赢 以高质量区域协作助推高质量振兴发展 郝鹏孙绍骋讲话 李乐成王莉霞介绍情况 周波张延昆出席']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>34</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴江苏省学习考察并举行江苏省辽宁省对口合作工作交流座谈会共担重大使命推动协同发展在新征程上谱写深化对口合作崭新篇章郝鹏信长星讲话李乐成许昆林介绍情况周波张义珍出席</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2023-06-13</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202306/t20230613_4479360.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴江苏省学习考察并举行江苏省·辽宁省对口合作工作交流座谈会 共担重大使命 推动协同发展 在新征程上谱写深化对口合作崭新篇章 郝鹏信长星讲话 李乐成许昆林介绍情况 周波张义珍出席-政务要闻-沈阳市人民政府', '6月12日，辽宁省党政代表团赴江苏省学习考察，结合正在开展的主题教育，深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于促进区域协调发展的重要论述，学习借鉴江苏先进经验，落实深化对口合作各项任务，在推动高质量发展中实现互利共赢，携手为服务国家战略、推进中国式现代化贡献力量。学习考察期间，两省在南京举行江苏省·辽宁省对口合作工作交流座谈会。省委书记、省人大常委会主任郝鹏出席座谈会并讲话，江苏省委书记、省人大常委会主任信长星主持座谈会并讲话。省委副书记、省长李乐成，江苏省委副书记、省长许昆林分别介绍两省经济社会发展和对口合作情况。省政协主席周波，江苏省政协主席张义珍出席座谈会。', '郝鹏代表省委、省政府对江苏长期以来给予辽宁振兴发展的大力支持帮助表示感谢。他说，近年来，江苏深入贯彻落实习近平总书记重要讲话和对江苏工作重要指示精神，牢牢把握“四个必须”重要要求，不断书写“强富美高”这篇大文章，在高质量发展上持续走在前列，为全国大局作出了新的贡献。江苏经济社会发展取得的巨大成就令人由衷钦佩，聚力高质量发展的成功经验和干部群众敢闯敢干的工作作风值得我们学习。辽宁与江苏开展全方位、多层次的合作对接，是贯彻落实习近平总书记重要指示精神的具体行动。开展对口合作使双方结下了深厚情谊，有力推动了辽宁思想观念不断解放、体制机制不断创新，为辽宁振兴发展注入了强劲动力。辽宁与江苏共同承担着推动高质量发展、服务国家重大战略的使命，希望双方进一步健全完善对口合作机制，在产业合作上精准对接，共同推动产业链供应链互联互通；在科技创新上合力攻坚，共同为国家高水平科技自立自强作出新贡献；在平台建设上加深合作，共同建设高水平示范园区；在干部人才上加强交流互动，共同打造高水平人才队伍，携手在推进中国式现代化新征程上谱写对口合作崭新篇章，共同为强国建设、民族复兴作出更大贡献。', '信长星代表江苏省委、省政府对辽宁省党政代表团的到来表示欢迎，对辽宁长期以来给予江苏发展的大力支持表示感谢。他说，辽宁是“共和国长子”，近年来深入贯彻习近平总书记关于东北振兴的重要论述，把握新机遇，找准发力点，坚决打好新时代东北振兴、辽宁振兴的“辽沈战役”，以“扛起国家重担、焕发青春”的新气象新担当新作为实现全面振兴的新突破。辽宁发展的美好前景令人振奋、充满期待。江苏和辽宁一样，承载习近平总书记的殷殷嘱托，深受党中央的深切关怀，担负着“在高质量发展上继续走在前列”的重大使命。当前，江苏正深入学习贯彻习近平总书记重要讲话精神，深入开展主题教育，以勇挑大梁、走在前列的责任担当，全面推进中国式现代化江苏新实践。苏辽两省情谊深厚，自建立对口合作关系以来，双方携手同行，各项工作取得扎实成效。奋进新征程，我们将认真落实党中央决策部署，与辽宁深化重大战略对接，在共担时代重任中同铸“大国重器”，在共建“一带一路”中同促内外开放，在共促协作发展中同聚强劲动能，高质量打造苏辽对口合作“升级版”，为强国建设、民族复兴添砖加瓦、增光添彩。', '会上，李乐成、许昆林代表两省签署了《辽宁省人民政府 江苏省人民政府对口合作框架协议》。', '在江苏期间，辽宁省党政代表团考察了菲尼克斯（中国）有限公司、网络通信与安全紫金山实验室、南瑞继保电气有限公司、亿嘉和科技股份有限公司，学习江苏在大力发展实体经济、推进智能制造、促进科技成果转化、高标准打造营商环境等方面的先进经验和成功做法。', '省领导王新伟、王健、熊茂平、张成中、陈向群，江苏省领导韩立明、储永宏、马欣、魏国强、陈之常参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。（辽宁日报记者方亮）', '辽宁省党政代表团赴江苏省学习考察并举行江苏省·辽宁省对口合作工作交流座谈会 共担重大使命 推动协同发展 在新征程上谱写深化对口合作崭新篇章 郝鹏信长星讲话 李乐成许昆林介绍情况 周波张义珍出席']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>34</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴上海市学习考察并举行上海市辽宁省交流合作座谈会对标先进促进发展深化沪辽务实合作共同为服务国家重大战略作出新贡献陈吉宁郝鹏讲话李乐成龚正介绍情况周波出席</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2023-06-14</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202306/t20230614_4479848.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴上海市学习考察并举行上海市·辽宁省交流合作座谈会 对标先进促进发展 深化沪辽务实合作 共同为服务国家重大战略作出新贡献 陈吉宁郝鹏讲话 李乐成龚正介绍情况 周波出席-政务要闻-沈阳市人民政府', '6月13日，辽宁省党政代表团赴上海市学习考察，结合正在开展的主题教育，深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于促进区域协调发展的重要论述，学习借鉴上海先进经验做法，拓展沪辽多领域多层次务实合作，更好实现互利共赢、协同发展。学习考察期间，两省市举行上海市·辽宁省交流合作座谈会。上海市委书记陈吉宁主持座谈会并讲话。省委书记、省人大常委会主任郝鹏出席座谈会并讲话。省委副书记、省长李乐成，上海市委副书记、市长龚正分别介绍两省市经济社会发展以及上海市、大连市对口合作工作有关情况。省政协主席周波出席座谈会。', '陈吉宁代表市委、市人大常委会、市政府、市政协，感谢辽宁省长期以来给予上海发展的支持帮助。他说，辽宁省深入贯彻落实习近平总书记关于东北振兴重要论述，加快实施辽宁全面振兴新突破三年行动，全力以赴育先机、开新局，改革开放向纵深推进，创新驱动发展取得新成效，辽宁干部群众奋发有为、奋勇争先的精气神和形成的好做法、好经验，值得上海认真学习借鉴。', '陈吉宁说，新起点上，上海将坚决贯彻党中央、国务院部署要求，与辽宁省、大连市一道，加快探索建立南北经济高效互动合作、跨区域高水平协同发展的新模式，推动两地合作交流不断取得新成绩、打造新标杆、体现新水平，实现高质量发展，更好服务和融入新发展格局。发挥两地红色资源丰富优势，共同弘扬红色文化、讲好红色故事。在服务高水平科技自立自强上深化合作，加强项目对接、平台对接、人才对接，实现优势互补。在建设现代化产业体系上紧密互动，共同提升产业链供应链的稳定性和竞争力。在深化高水平对外开放上相互借鉴，对接国际高标准经贸规则，共享共用进博会等国际交流大平台，共同拓展对外开放新空间。在扩内需促消费、服务构建全国统一大市场上加强协同，深化特色产品、文化旅游等合作，更好服务全国发展大局。', '郝鹏代表省委、省政府对上海长期以来给予辽宁振兴发展的大力支持帮助表示感谢。他说，近年来，上海市坚持按照习近平总书记“继续当好全国改革开放排头兵、创新发展先行者”的重要要求，加快建设具有世界影响力的社会主义现代化国际大都市，经济社会发展取得的巨大成就令人由衷钦佩、深受鼓舞，上海开放的格局视野、敢为人先的胆识魄力、推动高质量发展的先进做法值得我们认真学习借鉴。上海与大连开展全方位对口合作，是深入贯彻落实习近平总书记重要指示精神的具体举措。沪连对口合作促进了大连产业发展、科技创新和人才引育，同时也为辽宁振兴发展注入了新活力。在推进中国式现代化新征程上，我们愿同上海一道，牢记习近平总书记嘱托，完整、准确、全面贯彻新发展理念，以沪连对口合作为纽带，推动上海、辽宁交流合作进一步走深走实，在产业发展上互补互促，努力建设现代化产业体系，共同维护国家产业安全；在科技创新上协同发展，共同助力实现高水平科技自立自强；在重大平台建设上携手共进，共同提高对外开放能级水平。希望双方在互利共赢中推动沪连对口合作再上新台阶，沪辽务实合作再结新硕果，共同在国家区域协调发展和中国式现代化建设中作出更大贡献。', '在上海期间，辽宁省党政代表团瞻仰了中共一大纪念馆，认真聆听讲解，仔细观看图片实物，深刻感悟中国共产党人的初心使命，从伟大建党精神中汲取奋进力量；考察了上海中心大厦、张江科学城、上海亿通国际股份有限公司、浦东新区城市运行综合管理中心，学习上海在促进金融业高质量发展、推动社会治理体系和治理能力现代化、深入推进科技创新体制机制改革、深化航运贸易一体化智慧服务等方面的先进经验和成功做法。', '省及沈阳市、大连市领导王新伟、王健、熊茂平、张成中、陈向群、陈绍旺，上海市领导赵嘉鸣、朱芝松、张为、郭芳、周慧琳、刘多、李政、肖贵玉参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。（辽宁日报记者方亮）', '辽宁省党政代表团赴上海市学习考察并举行上海市·辽宁省交流合作座谈会 对标先进促进发展 深化沪辽务实合作 共同为服务国家重大战略作出新贡献 陈吉宁郝鹏讲话 李乐成龚正介绍情况 周波出席']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>34</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>全市现代公共文化服务体系建设培训班在沈举办</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2020-01-03</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/bmdt/202112/t20211201_1733269.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['为加快推进我市现代公共文化服务体系建设，提高全系统政策水平和工作创新能力，2019年12月23日至12月25日、12月25日至12月27日，市文旅广电局分两期举办了“2019年沈阳市现代公共文化服务体系建设培训班”，本次培训班特色鲜明。', '一是辅导讲座紧贴工作实际。针对不同培训对象，两期培训班共设置了《现代公共文化服务体系建设法规政策综合解读》、《现代公共文化服务体系创新实践》等六个辅导讲座专题，政策解读与案例分析相互照应，对今后工作具有较强的指导作用。二是培训形式灵活多样。为期五天的两期培训，既有专题辅导讲座，又有课间提问互动，既有课间经验分享，又有实地学习考察，参训人员收获颇丰。三是培训对象覆盖广泛。本次培训参加人员之多、覆盖范围之广，创“十三五”之最。两期培训班总计近300人脱产参加培训，做到全覆盖，培训力度史无前例，培训班收到良好成效。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>34</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>沈阳市扶贫办赴锦州义县考察产业扶贫项目</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2021-04-02</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zt/sdgjz/gzbs/jztp/202112/t20211201_1765789.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['3月23日-24日，沈阳市扶贫办带领康平、法库、新民和辽中扶贫办相关同志赴锦州义县对产业扶贫项目建设等工作进行考察学习，实地考察了花卉种植、肉牛养殖、果蔬种植等资产收益产业扶贫项目，对指导我市产业扶贫有借鉴有启示。', '一是打牢产业扶贫的基础，引导各村宜菜则菜、宜果则果、宜畜则畜，实现了村村、户户都有增收产业项目。坚持将扶贫资金和贫困户土地、劳动力等资源入股到经营主体，实现贫困户和产业项目利益捆绑和风险共担，促进了持续稳定增收。二是更新产业扶贫的模式，突出经营主体带动，吸纳扶贫资金保底分红，吸纳贫困户打工，带动贫困户增收；突出银行等社会力量帮扶和群众自主创业，发展光伏发电、规模养猪和智能型大棚产业，形成庭院经济，电子商务、家庭手工等模式。三是抓好扶贫专职队伍建设和过硬的村党组织建设，拓宽思路整合各类资金资源。紧紧抓住下步“四不摘”的政策机遇，充分调动政治、经济、社会和资源要素，产生多重效应，优化农业产业结构，推动乡村振兴和县域经济持续良好健康发展。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>34</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴广东省学习考察对标先进学习经验深化交流扩大合作以改革创新精神推动辽宁高质量发展迈出新步伐黄坤明郝鹏王伟中李乐成参加活动</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2023-11-29</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202311/t20231129_4563891.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴广东省学习考察 对标先进学习经验 深化交流扩大合作 以改革创新精神推动辽宁高质量发展迈出新步伐 黄坤明郝鹏王伟中李乐成参加活动-政务要闻-沈阳市人民政府', '11月28日，辽宁省党政代表团赴广东省学习考察，深入贯彻落实习近平总书记在新时代推动东北全面振兴座谈会上重要讲话精神，对标先进学习经验，深化交流扩大合作，以改革创新精神推动辽宁高质量发展迈出新步伐。当日下午，广东·辽宁两省合作交流座谈会在广州市举行。广东省委书记黄坤明主持座谈会并讲话。省委书记、省人大常委会主任郝鹏出席座谈会并讲话。广东省委副书记、省长王伟中，省委副书记、省长李乐成分别介绍两省经济社会发展情况。', '黄坤明代表广东省委、省政府对辽宁省党政代表团到访表示欢迎，对辽宁长期以来给予广东工作的支持帮助表示感谢。他说，辽宁资源禀赋优越、产业基础雄厚、区位优势独特，具有光荣革命传统和厚实发展积淀，在革命、建设、改革各个历史时期为党和国家事业发展作出了巨大贡献。近年来，辽宁省委、省政府全面贯彻落实习近平总书记关于东北、辽宁振兴发展的重要讲话、重要指示精神，鲜明提出新时代“六地”目标任务，团结带领广大干部群众深入实施辽宁全面振兴新突破三年行动，推动辽宁改革发展迈出新步伐、焕发新活力、展现新气象。我们对辽宁发展的突出成绩和良好态势感到由衷高兴、由衷钦佩，对辽宁在推动振兴发展中创造的好经验好做法要积极学习借鉴。深化粤辽全方位合作，是大局所向、发展所需、群众所盼，也是两省的共同目标、共同责任、共同机遇。广东将认真贯彻落实习近平总书记关于加强东北全面振兴同粤港澳大湾区建设等国家重大战略对接的重要要求，以更大力度、更实举措推进粤辽深层次交流合作，强化战略对接、优势互补、发展联动，促进两省加快高质量发展、共同迈向现代化。希望与辽宁进一步深化产业合作，聚焦机器人与智能装备、生物医药、数字经济、海洋经济等优势产业加强深度对接，携手加快构建现代化产业体系。深化科技合作，围绕新材料、工业母机、芯片制造、工业基础软件等重点领域支持两省创新主体加强对接协作，促进创新成果双向转化，开展更紧密的人才交流互动，携手实现高水平科技自立自强。深化市场合作，引导企业扩大双向投资布局，互设生产基地、销售渠道，推动“广货北上、辽品南下”拓规模、增效益，加强文旅客源互送共享，携手扩大内需市场。深化开放合作，用好辽宁向北对接俄蒙、向东联动日韩和广东沟通港澳、联系海外的开放资源，支持企业并船出海，强化自贸区建设互学互鉴，携手提升开放型经济水平。深化民生合作，促进教育医疗等优质资源双向导入、互通共享，持续优化异地上学、异地就医等服务，携手造福两省父老乡亲。', '郝鹏代表省委、省政府对广东长期以来给予辽宁振兴发展的大力支持帮助表示感谢。他说，广东是改革开放的排头兵、先行地、实验区，在中国式现代化建设的大局中地位重要、作用突出。今年以来，广东深入学习贯彻习近平总书记在广东考察时的重要讲话精神，坚持以高质量发展为牵引，推动各项事业迈上新的台阶，为全国经济持续恢复向好作出了巨大贡献。我们对广东取得的瞩目成绩表示由衷钦佩和衷心祝贺。学习借鉴广东先进经验，深化两省务实合作，加强同粤港澳大湾区建设等国家重大战略对接，是贯彻落实习近平总书记重要讲话精神的务实举措。当前，辽宁正全力实施全面振兴新突破三年行动，着力打造新时代“六地”，我们诚挚希望与广东开展全方位多领域务实合作，助力辽宁加快走出一条高质量发展、可持续振兴的新路子。希望与广东进一步在产业发展上深化合作，加强电子信息、集成电路装备、工业互联网等新产业对接，推动形成更多新质生产力，助力辽宁加快构建现代化产业体系。在科技创新上深化合作，围绕工业母机、新材料、精细化工、高端装备制造等领域联合开展关键核心技术攻关，共同解决一批“卡脖子”难题，推动两地科技成果相向而行、转化落地，助力辽宁打造重大技术创新策源地。在推动改革上深化合作，借鉴广东企业改革管理和产业金融等方面的先进理念、先进经验，激发辽宁国有企业活力，加快推动民营经济健康发展。在对内对外开放上深化合作，支持辽宁建设东北海陆大通道，搭建双方贸易合作、港口联动便捷通道，共同服务和融入新发展格局。在文体旅产业上深化合作，发挥各自资源优势，深入挖掘合作契合点，拓展市场空间，共同促进文体旅产业融合发展、提质升级。辽宁将以此次学习考察为契机，进一步深化同广东交流合作，奋力推动辽宁实现全面振兴新突破，与广东携手开创粤辽合作新局面。', '座谈会前，辽宁省党政代表团在广州市考察了中国南方航空集团有限公司、广州越秀集团股份有限公司、唯品会（中国）有限公司、广东省粤科金融集团有限公司，学习广东在国企改革发展、推进电子商务、促进科技金融创新发展等方面的先进经验和成功做法。', '广东省领导陈建文、王曦、郭永航、林涛，南航集团领导马须伦、韩文胜，省及沈阳市、大连市领导王新伟、姜有为、王利波、陈绍旺参加有关活动。各市、沈抚示范区及省直有关部门、有关省属企业主要负责同志参加学习考察。（辽宁日报记者方亮）', '辽宁省党政代表团赴广东省学习考察 对标先进学习经验 深化交流扩大合作 以改革创新精神推动辽宁高质量发展迈出新步伐 黄坤明郝鹏王伟中李乐成参加活动']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>34</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>市委办信息综合室党支部开展特色主题党日活动</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2020-07-17</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/bmdt/202112/t20211201_1753887.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['近日，市委办公室信息综合室党支部开展“坚守初心 践行宗旨”特色主题党日活动，走进于洪区“阳光100”综合型服务社区学习考察，引导支部党员通过主题党日活动坚守初心、践行宗旨。 支部全体党员在社区“红色堡垒”教育基地重温入党誓词，回顾党的建设发展的光辉历程，学习焦裕禄、杨善洲、郭明义等先进人物的典型事迹，参观党章党规党纪警示教育展示，接受了一次深刻的思想洗礼。在座谈会上，社区书记宋翠玲对“以阳光党建为引领，做好为居民群众服务”工作进行了详细介绍，与会党员围绕如何树牢宗旨意识、拓宽群众工作思路、增强基层治理能力、增进与人民群众感情等方面进行了深入的思想交流。 此次活动营造了浓厚的党日氛围，不仅引导支部党员铭记党的历史和光辉历程，激发干事创业、担当作为的奋斗精神，也进一步延伸了信息工作触角，创造了一次深入基层、深入实际调查研究的难得机会，让全体党员结合社区工作实际，对贯彻落实十九届四中全会提出的推进国家治理体系和治理能力现代化有了基层视角的思考，真正实现党建工作与业务工作的同抓共促。（通讯员刘彬 沈阳日报、沈报全媒体记者邱菊）']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>34</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>全国民委系统推进中小学铸牢中华民族共同体意识教育现场交流会在沈召开</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2020-10-14</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202201/t20220122_2646128.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['全国民委系统推进中小学铸牢中华民族共同体意识教育现场交流会在沈召开-政务要闻-沈阳市人民政府', '10月12日至13日，国家民委在沈阳市召开全国民委系统推进中小学铸牢中华民族共同体意识教育现场交流会。国家民委党组成员、副主任边巴扎西出席会议并讲话，辽宁省委常委、统战部部长范继英出席会议并致辞。', '边巴扎西要求，要进一步提高政治站位，把铸牢中华民族共同体意识作为一项重大政治任务、战略任务、紧迫任务。要进一步增强履职自觉，民委系统要主动担当、主动作为、主动衔接，推动中华民族共同体意识教育进校园、进课堂、进学生头脑，积极配合教育系统在中小学广泛开展丰富多彩的民族团结进步创建活动。要进一步深化改革创新，不断建立健全适应铸牢中华民族共同体意识教育工作的体制机制、载体渠道、方式方法。', '范继英强调，辽宁省将进一步唱响“中华民族一家亲、同心共筑中国梦”的主旋律，凝聚起忠诚担当、创新实干、奋斗自强的磅礴力量，努力开创新时代辽宁省民族工作的新局面。', '会议期间，辽宁、上海、湖北、四川、西藏、陕西、沈阳等地民族工作部门代表分别作了交流发言，与会代表实地考察学习东北育才学校等有关单位铸牢中华民族共同体意识教育成果。（沈阳日报、沈报全媒体主任记者梁馨月）']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>34</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>易炼红会见新疆塔城市客人</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2018-07-18</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202201/t20220123_2677197.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['7月17日，省委副书记、市委书记易炼红会见来沈学习考察的新疆塔城地区地委委员、塔城市委书记张耀华一行。市领导刘晓东、王镇参加会见。', '易炼红首先对张耀华一行来沈表示欢迎。他说，在党和国家工作全局中，新疆工作具有特殊而重要的地位。习近平总书记对做好新疆工作作出一系列重要指示，为我们深入开展对口援疆工作指明了前进方向、提供了根本遵循。一直以来，沈阳市委、市政府始终将对口援疆工作作为义不容辞的重大政治任务，把塔城当作沈阳的兄弟，把塔城人民当作自己的亲人，带着责任、带着感情做好各项工作。当前，沈阳正在以习近平新时代中国特色社会主义思想为指导，认真贯彻落实省委、省政府工作要求，全力推进“四个中心”建设。在这一过程中，我们要积极学习借鉴塔城经济社会发展的好经验、好做法，进一步推动各项工作提速提质提效。沈阳将进一步发挥自身优势，高质量、高标准做好对口援疆工作，不断推动对口援疆工作向全方位、深层次、宽领域迈进，为塔城人民送去越来越多的福祉。', '张耀华表示，近年来，沈阳深入推进对口援疆工作，为推动塔城经济社会发展、人民安居乐业作出了重要贡献。希望沈阳一如既往关心关注塔城发展，进一步深化两地的交流与合作。(沈阳日报、沈报融媒记者张弛)']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>34</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>市政协召开十五届三十三次主席会议</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2020-12-25</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202201/t20220122_2611520.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['会议审议通过了市政协2021年度工作要点(讨论稿)；听取了2020年度市政协委员联系制度落实情况报告；听取了关于2020年委员履职考核情况的通报；审议通过了政协沈阳市第十五届委员会增补副秘书长建议名单；审议通过了政协沈阳市第十五届委员会增补部分专门委员会主任、副主任建议名单；审议通过了政协沈阳市委员会办公室副主任建议名单。', '会议指出，工作要点是全年工作的基本抓手，谋划好工作要点是协商议政的基础，直接决定了协商的方向和重点，也决定了协商的质量和实效。要坚持有为才有位、创新才有为、发声才能发挥作用，围绕中心、服务大局，高起点谋划好明年工作，选准协商议题、创新工作机制，促进政协工作全面提质增效，推动履职质量和效果进一步提升，不断提高协商议政水平。', '会议强调，强化委员联系，充分发挥好委员主体作用，是政协围绕中心、服务大局、履行职能的基础和关键。要完善情况通报机制，使委员熟悉“上情”，为委员知情明政创造条件；要深入开展调研视察，使委员掌握“下情”，为委员知情议政创造条件；要组织做好学习考察，使委员了解“外情”，为委员知情参政创造条件。', '会议指出，政协委员是政协组织的宝贵财富和最大资源，进一步增强委员的主体意识和履职自觉性，是提高政协工作质效的重要保障。要进一步强化履职管理，在继承好做法的基础上，不断开拓创新，用好考核指挥棒，不断加强委员履职的约束管理、跟踪统计和服务保障，让委员履职活起来，成果更丰富。', '市政协副主席张景辉、韩晓言、赵东岩、赵世宏、金志生、肖枫、于龙，秘书长姜军出席会议。(沈阳日报、沈报全媒体记者 肖春苹)']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>34</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>万亩良田他触电创出铁西第一蟹</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2020-08-27</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/qxdt/202112/t20211201_1721703.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['初秋8月，走进铁西区四方台镇太平庄村，稻田千亩、蛙声一片，蟹行其间。这个传统的种粮大村，自打去年成功引进了蟹田米种养殖技术后，大米更金贵，螃蟹添效益，村民得实惠。把技术带进村的驻村第一书记赵振军，也被大伙亲切地喊成“蟹书记”。', '怎么提高种粮农民收入？如何改变传统水稻种植模式？赵振军进村就开始琢磨。2018年11月，赵振军和村干部赴盘锦考察，学习蟹田种养殖；2019年，他带领两户种植户自筹资金数万元，借助太平庄村生态无污染河水并配以深井清水灌溉等独特地域资源优势，在万亩良田中，选出两块各约60亩水田做实验，建立了太平庄村蟹田（种养殖）实验项目基地，种起了蟹田。', '春耕秋收，天道酬勤。在去年10月份的沈阳农博会和11月份的南京食博会上，赵振军带着三位村民自费参展，数百斤稻田蟹和千斤蟹田新米均销售一空。', '如今，太平庄的稻田蟹，进入沈阳数家饭店，打出了铁西“第一蟹”的名头；太平庄村生态蟹田新米成为铁西区产出的首块百亩生态蟹田稻米，并已进入电商平台“义亩良田商城”销售。', '今年，太平庄村被沈阳市确定为2020年度发展建设的电商村，村里成立了由9位农户+村集体的“沈阳市万亩良田科技网络有限公司”，与第三方公司合作运营。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>34</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴吉林省学习考察并举行吉林省辽宁省交流合作座谈会谱写深化交流合作新篇章携手推进全面振兴新突破郝鹏景俊海讲话李乐成胡玉亭介绍情况周波朱国贤出席</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2023-05-09</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202305/t20230509_4461142.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴吉林省学习考察并举行吉林省·辽宁省交流合作座谈会 谱写深化交流合作新篇章 携手推进全面振兴新突破 郝鹏景俊海讲话 李乐成胡玉亭介绍情况 周波朱国贤出席-政务要闻-沈阳市人民政府', '为深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于东北振兴发展的重要讲话和指示批示精神，5月8日，辽宁省党政代表团赴吉林省学习考察并举行吉林省·辽宁省交流合作座谈会，进一步深化两省务实合作，共同为推动东北全面振兴取得新突破贡献力量。省委书记、省人大常委会主任郝鹏出席座谈会并讲话，吉林省委书记、省人大常委会主任景俊海主持座谈会并讲话。省委副书记、省长李乐成，吉林省委副书记、省长胡玉亭分别介绍两省经济社会发展情况。省政协主席周波，吉林省政协主席朱国贤出席座谈会。', '郝鹏代表省委、省政府对吉林长期以来给予辽宁振兴发展的大力支持帮助表示衷心感谢，对吉林高质量发展取得的成绩表示祝贺。他说，近年来，吉林深入贯彻习近平总书记考察吉林重要讲话重要指示精神，抢抓机遇、乘势而上，经济社会发展亮点纷呈、成果丰硕，今年一季度，地区生产总值实现高速增长，吉林的好经验好做法以及浓厚的干事创业氛围值得我们学习借鉴。辽宁吉林两省山水相连、人文相亲，是好邻居好伙伴，共同承担着推动东北全面振兴、维护国家“五大安全”的重任，我们愿同吉林一道，进一步扩大合作范围，不断提升合作层次，加快区域经济一体化发展，把习近平总书记为东北擘画的全面振兴蓝图变为现实。希望双方在产业发展上深度融合，共同为维护国家产业链供应链安全贡献力量。在通道建设上通力合作，共同推动东北海陆大通道上升为国家战略，更好融入共建“一带一路”，共同打造对外开放新前沿。在科技创新上合力攻坚，整合两省科研力量，共同为国家高水平科技自立自强作出贡献。在粮食保供增收上协同合作，共同维护好国家粮食安全。在生态环境上共保联治，共同筑牢生态安全屏障。在工作机制上加强协调对接，推动双方务实合作走深走实，我们共同携手为扎实推进中国式现代化东北实践作出更大贡献。', '景俊海代表吉林省委、省政府，向辽宁省党政代表团到访表示热烈欢迎，向辽宁长期以来对吉林的大力支持帮助表示衷心感谢。他说，近年来，辽宁深入贯彻习近平新时代中国特色社会主义思想，迈上了高质量发展新征程。特别是党的二十大以来，辽宁开创性谋划实施全面振兴新突破三年行动，发出了打赢新时代“辽沈战役”的时代强音，辽宁的好经验、好做法、好作风非常值得我们学习借鉴。新时代新征程，我们愿同辽宁一道，深入贯彻落实习近平总书记重要讲话重要指示精神，同担重任、同向发力、同频共振，推动吉辽合作再创佳绩、再谱新篇，共同为维护国家“五大安全”作贡献、为党和国家工作大局服好务。一是打造交流互动新样板，进一步优化提升合作机制，推动区域合作取得更多成果。二是打造产业互补新格局，深化重点领域合作，加强科技创新协作，促进产业迈向中高端。三是打造区域互联新高地，共同推进省际通道建设，让交通畅起来、人流多起来、经济火起来。四是打造游客互换新市场，共同规划旅游线路、开展营销推介活动。五是打造开放互促新平台，协同构建东北东部绿色经济带和长白通丹大通道。六是打造生态互保新屏障，加强生态保护协同治理，构筑联防联控共同防线。', '在吉林期间，辽宁省党政代表团考察了四平战役纪念馆、中国黑土地保护农机产业创新示范基地、中国一汽NBD总部、中国一汽红旗制造中心繁荣基地、长春新区规划展览馆、长光卫星技术股份有限公司，认真学习吉林在科技创新、智能制造、现代农业等方面的先进经验和成功做法。大家表示，吉林高质量发展的良好态势、干部群众昂扬奋进的精神状态、推动振兴发展的好经验好做法让大家深感触动、深受启发。', '省及沈阳市、大连市领导王新伟、张成中、陈向群、靳国卫、陈绍旺，吉林省领导蔡东、张恩惠、李伟、高广滨参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。（辽宁日报记者方亮）', '辽宁省党政代表团赴吉林省学习考察并举行吉林省·辽宁省交流合作座谈会 谱写深化交流合作新篇章 携手推进全面振兴新突破 郝鹏景俊海讲话 李乐成胡玉亭介绍情况 周波朱国贤出席']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>34</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>辽宁省党政代表团赴黑龙江省学习考察并举行黑龙江省辽宁省交流合作座谈会共谋振兴担重任深化合作求突破助推两省高质量发展新路走深走实郝鹏许勤讲话李乐成梁惠玲介绍情况周波蓝绍敏出席</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2023-05-10</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202305/t20230510_4461725.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['辽宁省党政代表团赴黑龙江省学习考察并举行黑龙江省·辽宁省交流合作座谈会 共谋振兴担重任 深化合作求突破 助推两省高质量发展新路走深走实 郝鹏许勤讲话 李乐成梁惠玲介绍情况 周波蓝绍敏出席-政务要闻-沈阳市人民政府', '为深入学习贯彻党的二十大精神，认真贯彻落实习近平总书记关于东北振兴发展的重要讲话和指示批示精神，5月9日，辽宁省党政代表团赴黑龙江省学习考察并举行黑龙江省·辽宁省交流合作座谈会，进一步深化两省务实合作，共同为推动东北全面振兴取得新突破贡献力量。省委书记、省人大常委会主任郝鹏出席座谈会并讲话，黑龙江省委书记、省人大常委会主任许勤主持座谈会并讲话。省委副书记、省长李乐成，黑龙江省委副书记、省长梁惠玲分别介绍两省经济社会发展情况。省政协主席周波，黑龙江省政协主席蓝绍敏出席座谈会。', '郝鹏代表省委、省政府对黑龙江长期以来给予辽宁振兴发展的大力支持帮助表示感谢，对黑龙江高质量发展取得的成绩表示祝贺。他说，近年来，黑龙江坚决贯彻落实习近平总书记关于东北振兴发展的重要讲话和指示批示精神，加快建设“六个龙江”、推动实现“八个振兴”，坚持改革开放和科技创新双轮驱动，扎实推动产业结构转型升级，经济社会呈现良好发展态势，黑龙江的好经验好做法值得我们认真学习借鉴。辽黑两省作为兄弟省份，发展历程相近，产业资源互补，交流合作空间十分广阔。新时代新征程，推动东北振兴取得新突破是我们牢记嘱托、感恩奋进，推进中国式现代化的具体实践，也是我们共同的政治责任和使命担当。我们愿同黑龙江一道，深入学习贯彻习近平总书记重要指示精神，不断提升维护国家“五大安全”的能力，更好服务和融入新发展格局。希望双方进一步提升全产业链合作水平，发挥双方在智能制造、先进轨道交通装备、大型成套机组等领域的优势，共同建设黑吉辽制造业走廊，积极开辟发展新领域新赛道。大力构建跨省综合交通网络，共同促进口岸联动融合，协同向北开放，更好融入共建“一带一路”。共同推动哈尔滨、长春、沈阳、大连科技创新走廊建设，加强知名高校和科研院所之间的交流合作，合力攻关“卡脖子”关键核心技术，助力国家高水平科技自立自强。加强在粮食保供增收上的协同合作，畅通“北粮南运”大通道，共同维护好国家粮食安全。进一步健全完善协调对接机制，拓宽合作领域、扩大合作范围、深化合作层次，共同在推动东北全面振兴取得新突破上展现更大担当和作为。', '许勤代表黑龙江省委、省政府对辽宁省党政代表团的到访表示欢迎，对辽宁省长期以来给予黑龙江的大力支持表示感谢。他说，近年来，辽宁省委、省政府深入贯彻落实习近平新时代中国特色社会主义思想，认真落实东北振兴战略，加力推动高质量发展，实施全面振兴新突破三年行动，着力做优做强实体经济，加快构建现代化产业体系，新动能不断加速聚集，振兴发展开创新局面，经验做法非常值得我们学习借鉴。黑龙江与辽宁地缘相近、人文相亲、经济相融，迈上新征程，我们愿与辽宁一道，深入贯彻落实习近平总书记重要讲话重要指示精神，完整准确全面贯彻新发展理念，主动服务和融入构建新发展格局，共同扛起维护国家“五大安全”重大政治责任，坚持优势互补、互利共赢，携手推动新时代东北振兴取得新突破。加强重点领域合作，强化产业互动，抢抓战略机遇，协同推进数字经济、电子信息、高端装备、农产品加工、冰雪旅游等产业发展，共同塑造产业发展新优势。把创新作为振兴发展的基点，大力实施创新驱动发展战略，完善区域创新体系，发挥沈阳、大连、哈尔滨等创新型城市带动作用，推动创新链与产业链资金链人才链深度融合，更好服务国家高水平科技自立自强。完善两省协同合作机制，共同实施东北振兴战略，构筑沿海沿边开放合作战略通道，提升两省开放发展水平，更好服务国家对外开放大局；深度对接京津冀、长三角、粤港澳大湾区等区域重大战略，扎实推进中国式现代化东北实践，为强国建设、民族复兴贡献力量。', '在黑龙江期间，辽宁省党政代表团考察了哈电集团哈尔滨电机厂有限责任公司、哈尔滨工业大学、安天科技集团股份有限公司、深哈产业园区、黑龙江惠达科技发展有限公司、中央大街商业街区。代表团成员纷纷表示，黑龙江在创新驱动发展、产业园区建设、优化营商环境、文旅产业融合等方面的成功实践让我们很受启发，将结合实际把好的经验充分吸收应用，转化为推动振兴发展的强大动力。', '省及沈阳市、大连市领导王新伟、张成中、陈向群、靳国卫、陈绍旺，黑龙江省领导张安顺、于洪涛、贾玉梅、张亚中参加有关活动。各市、沈抚示范区及省直有关部门主要负责同志参加学习考察。（辽宁日报记者方亮）', '辽宁省党政代表团赴黑龙江省学习考察并举行黑龙江省·辽宁省交流合作座谈会 共谋振兴担重任 深化合作求突破 助推两省高质量发展新路走深走实 郝鹏许勤讲话 李乐成梁惠玲介绍情况 周波蓝绍敏出席']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>34</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>发展都市农业村民得甜头</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2021-05-07</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/qxdt/202112/t20211201_1710845.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['“刚刚过去的‘五一’假期，我们的草莓供不应求，村民收入也迎来了一波小高峰。”5月6日，在苏家屯区八一红菱街道来胜堡村设施农业小区草莓大棚内，村支书宋庆良一边帮农户修整秧苗，一边跟农户聊种植技术聊收成。', '苏家屯区来胜堡村是小有名气的设施农业村， 2020年11月，获批农业农村部第十批全国“一村一品”示范村。', '“以前，来胜村还都是以种植水稻为主，农民收入很低。2006年，来胜村被划入永乐经济区，我决定发展设施农业，推进棚菜基地建设。”宋庆良说。当时，村民对建大棚顾虑很多，不敢尝试，宋庆良便带领想要发展设施农业的村民们去鞍山、海城和山东寿光等地调研参观、考察、学习。回来后，宋庆良带头新建的3个蔬菜大棚，当年就获得近12万元的收益。', '村民看到宋庆良建蔬菜大棚的“甜头”后，思想统一了，土地问题也解决了，设施农业的发展逐渐步入正轨。2007年，来胜村建立起花卉大棚小区，占地面积180亩。2008年，建立起4个蔬菜大棚小区，占地面积600亩。2009年，引进花卉、树茄子、树柿子和树辣椒等高产优质品种，又新建5个蔬菜大棚小区，占地面积800亩。', '2010年起，来胜村以每年建设1到2个大棚小区的速度扩大设施农业的规模。如今，来胜村已有设施大棚1500多栋。其中，暖棚1000多栋、冷棚500多栋，设施农业面积发展到3000余亩，棚菜种植已成为村内的支柱产业和村民收入的重要来源。', '为打开市场销路，村里成立了10余家农民专业合作社，其中沈阳来胜蔬菜种植专业合作社成功注册了“来胜牌”商标，并与3家龙头企业建立了长期战略合作伙伴，农产品销往了全国各地，村民人均年收入达到3万余元。', '目光长远的宋庆良并没有满足于现有的富足，他清醒地认识到，盲目扩张设施农业面积无法持久，必须走高质量发展之路。宋庆良多次到先进地区学习，在他的倡导下，全村大力发展现代都市农业，建设了占地800余亩、200余栋大棚规模的都市农业采摘园。目前，已建成10余个草莓采摘园，在保证农民增产增收的同时，村里闲散的劳动力又有了新收入。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>34</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>沈北新区体验式学党史抓特色促振兴</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/dwgk/gzdt/202112/t20211202_1791225.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['党史学习教育开展以来，沈北新区清水台街道扎实开展“我为群众办实事，争做贡献促振兴”主题实践活动，开拓思路确立目标，聚焦群众急难愁盼，主动聆听、主动对接、主动服务，推动问题在一线发现、处置、解决，实现党群参与共同治理、共享治理成果的良好效果。', '“走出去”体验式教学开拓思路。6月4日，清水台街道组织各支部书记、副书记、第一书记到丹东开展“汲取红色力量，助推乡村振兴”党史学习教育，学草莓种植、参观大梨树学深悟透“干”字精神，这是该街道党史学习教育红色“专列”再次发往田间地头的体验式教学活动。此前，街道还组织所辖8个行政村和5个自然村书记赴本溪参观学习，考察月见草等中草药种植、加工、生产项目后，以全新的社区发展思路推动乡村振兴。', '“请进来”分享式教学振奋人心。街道党工委举办党史学习教育区委宣讲团宣讲报告会，以“百年恰是风华正茂”为题，对党史进行了系统的学习。清宇社区党支部与共建单位152集团清水小学党支部联合举行了“阅百年历程、传精神力量”暨党史学习教育读书班，开展《学党史、知党恩、守诚信、传美德》《读书为你的精神世界加氧》等主题的宣讲。', '特色农业推进乡村振兴。赴本溪参观后，中五旗社区和小洋河社区率先示范种植月见草，采用订单收购形式，利用荒地、河滩地、道路两旁、房前屋后种植月见草共计160余亩。预计每亩收益2000—2600元。除了经济效益，月见草花的观赏价值也很高，美化村屯环境，节约了种植、养护花草成本。', '后屯社区购进80棵5—6年生大连樱桃树，建设150米长的现代化温室大棚，发展温室种植和采摘，今年“五一”期间举办了第二届“厚囤好嚼咕”旅游美食节，设置了人偶迎客区、绿色产品展售区、小动物观赏区、非遗葫芦和蛋雕产品展售区、绿色采摘体验区、彩虹隧道党史展区等，积极打造游客爬神奇怪坡、游七彩后屯、体验乡村采摘、品尝绿色蔬果的特色乡村游。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>34</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>沈阳市国家碳达峰试点建设咨询服务招标公告</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2024-06-06</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://ggzy.shenyang.gov.cn/zfcgzb/165918.jhtml</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['沈阳市国家碳达峰试点建设咨询服务招标项目的潜在供应商应在线上获取招标文件,并于2024年06月27日 09时30分（北京时间）前递交投标文件。', '2024年—2026年，按进度计划对试点建设和重点项目建设开展年度评估，并制定下一年度工作要点，分解任务清单、实施项目清单至各年度', '2025—2026年开展沈阳市碳达峰试点城市的中期评估工作，编制中期评估报告以及相关材料，为沈阳市碳达峰试点城市顺利通过国家、省中期评估提供保障。完成评估后，相应提出实施方案修订建议，以期完成2030年目标在碳达峰试点城市建设实施期间，组织项目核心人员到双碳先进地区学习考察和调研，形成相关总结报告，为沈阳市碳达峰试点城市建设实施提供支撑', '沈阳市碳达峰实施路径研究报告、沈阳市低碳（零碳）产业园区研究报告、沈阳市碳排放分析及对策研究报告）。', '2024年—2026年，按进度计划对试点建设和重点项目建设开展年度评估，并制定下一年度工作要点，分解任务清单、实施项目清单至各年度。', '中期预评估报告，为沈阳市国家碳达峰试点城市顺利通过国家中期评估提供保障。完成评估后，相应提出实施方案修订建议，以期完成', '在碳达峰试点城市建设实施期间，组织项目核心人员到双碳先进地区学习考察和调研，形成相关总结报告，为沈阳市碳达峰试点城市建设实施提供支撑。', '《沈阳市国家碳达峰试点城市实施方案》（含指标体系、任务清单、编制说明、项目清单等）', '1.科学编制《沈阳市国家碳达峰试点城市实施方案》（含指标体系、任务清单、编制说明、项目清单等）。按照《国家碳达峰试点建设方案》及《碳', '交付研究报告（沈阳市碳达峰实施路径研究报告、沈阳市低碳（零碳）产业园区研究报告、沈阳市碳排放分析及对策研究报告）。', '.编制和修订沈阳市2024—2026各年度国家碳达峰试点城市工作要点(含年度任务清单、年度项目清单)。', '中标单位要确保可全天候召开会议（或视频会议）沟通讨论有关工作进展，并及时按照采购人的书面修改要求进行修改完善、随时汇报沟通。对服务成果的真实性、准确性、完整性、合法性、合理性负责，并负有保密责任。', '2）编制并修改完善《沈阳市国家碳达峰试点城市实施方案》，提交三个课题成果，支付合同金额的23%；', '3）编制和修订沈阳市2024-2026各年度国家碳达峰试点城市工作要点，每年完成一项，支付合同金额的3%，三年全部完成后，支付合同金额的9%；', '验收报告：按照政府采购相关法律法规以及《辽宁省政府采购履约验收管理办法》（辽财采〔', '需落实的政府采购政策内容：落实政策为促进中小企业、支持监狱企业、促进残疾人就业等相关政策', '地点：线上开标地点：辽宁政府采购网；备份文件递交地点：沈阳市公共资源交易中心(沈阳市浑南新区世纪路1号二十一世纪大厦B座)', '供应商认为自己的权益受到损害的，可以在知道或者应知其权益受到损害之日起七个工作日内，向采购代理机构或采购人提出质疑。', '2、质疑函内容、格式：应符合《政府采购质疑和投诉办法》相关规定和财政部制定的《政府采购质疑函范本》格式，详见辽宁政府采购网。', '质疑供应商对采购人、采购代理机构的答复不满意，或者采购人、采购代理机构未在规定时间内作出答复的，可以在答复期满后15个工作日内向本级财政部门提起投诉。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>34</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>学思践悟明方向凝心聚力向未来市纪检监察宣传工作业务素质能力提升研修班侧记</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2019-12-27</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202201/t20220122_2608720.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['学思践悟明方向 凝心聚力向未来——市纪检监察宣传工作业务素质能力提升研修班侧记-政务要闻-沈阳市人民政府', '“当前反腐败斗争取得的成果来之不易，我们纪检监察人要继续砥砺奋进、勇往直前。”“践行清正廉洁作表率的目标要求，要以学习教育带动贯彻落实。”在沈阳市纪检监察宣传工作业务素质能力提升研修班上，学员们学习、交流、讨论氛围浓厚。', '12月7日至13日，沈阳市纪检监察宣传干部汇聚一堂，集中“充电”。这场“学习充电之旅”时间虽然短暂，“行程”却充实紧凑，“一堂好课”融课堂授课、现场教学、体验教学为一体，让大家思想得到洗礼，灵魂得到净化，能力得到提高。既有纪委监委领导、专家授课，也有学员之间学习讨论和经验交流，既潜心学习，又谋划工作，为推动全市党风廉政建设和反腐败工作积聚了满满能量。', '举办研修班，是落实市委常委、市纪委书记、市监委主任王冬石“走出去，开阔视野，对标先进，争做最好”开放理念，加强学习交流的一次新实践。', '王冬石书记曾多次强调，作为纪检监察宣传干部要有更高政治站位，更宽视野和更为全面的综合素质能力，这对纪检监察宣传干部提出了新的更高要求。', '“本次研修班充分体现了全市纪检监察宣传系统深入学习贯彻习近平新时代中国特色社会主义思想、党的十九届四中全会精神，以及全国纪检监察宣传工作座谈会精神的思想自觉和行动自觉，是纪检监察宣传干部找准职责定位，自觉担负使命任务，凝聚磅礴力量，奋力推动沈阳纪检监察工作高质量发展的一次实际行动。”市纪委监委宣传部负责人说，培训既让纪检监察宣传干部学习充电、解放思想、提升素质，也切实点燃、激活、唤醒大家的学习热情、创新激情，凝聚起无比旺盛的精神力量，以此总结工作，振奋精神、再鼓干劲，重整行装再出发。', '学得透，才能想得深；看得准，才能干得好。研修班本着“缺什么补什么”原则，与知名高校密切合作，开展“订单式”办学和“走出去，请进来”培训活动。', '市纪委监委领导高度重视，制定培训方案，紧扣监察体制改革后各级纪检监察干部工作实际，科学设置培训课程，突出政治理论和理想信念教育，强化业务能力提升。邀请了中央纪委国家监委宣传部、中国纪检监察报社、中央纪委国家监委网站、中国方正出版社专业老师进行业务辅导，邀请名校教授专家围绕党的十九届四中全会精神、监察体制改革进行解读，并精心安排了现场教学，为学员们带来丰富深刻、务实高效的体验式党课。', '“纪检监察机关不能简单地理解为办案机构，它还是制度建设机构和廉政教育机构，通过这些措施最终达到保护干部、维护良好政治生态环境的目的……”新民市纪委监委宣传部部长杨静坦言，名校教授朱福惠多维度的解读，让自己对纪检监察工作有了更全面深刻的认识，对于进一步提高纪检监察宣传工作起到重要作用。', '重走习近平总书记扶贫路，是此次培训现场教学的重要组成部分，广大学员探寻初心，激荡灵魂，学思践行，不断激励新时代新担当新作为的决心和信心。“追寻着习近平总书记的扶贫足迹，实地走访让我看到了政府落实精准扶贫政策的力度和农村的显著变化，扶贫人员在精准扶贫路上的执著精神深深感动着我，激励我更加努力工作，回报社会，报效国家。”法库县纪委监委宣传部部长郝志学说。', '大东区纪委副书记、监委副主任刘钊惠认为，纪检监察干部是推动全面从严治党向纵深发展的“主力军”，此次业务培训对于深入学习贯彻落实中央、省、市有关精神，提升纪检监察干部综合素质和履职能力有着重要意义。', '七天研讨培训，既是思想的盛宴，也是精神的洗礼；既是工作方法和路径的指引，也是工作动力和责任的传递。紧张的“加油”“充电”，让学员们收获颇丰。', '“很久没有参加这么紧张的培训了。学思践悟，刻不容缓！”市委巡察办赵博参加培训第一天就发出这样的感慨。“当时间的脚步慢下来，给自己的精神‘满格充电’，奋斗的信心与动力也会变得越来越强大。”沈河区纪委监委宣传部部长王黎明深有感触地说。“我们要以‘跃马扬鞭再奋蹄’的激情，‘吹尽狂沙始到金’的意志，‘不破楼兰终不还’的决心，坚决打赢反腐之战。”参加培训的和平区纪委监委宣传部副部长段玉新对未来纪检监察工作充满信心。', '七天培训中，学员们带着问题学、带着思考学、带着感情学、结合实践学，圆满完成了“六个一”任务，即每个党小组组织一次交流研讨会，过一次集体组织生活，形成一个学习考察报告，拍摄一部学习生活微视频，每名学员完成一篇心得体会或写出一段学习感言等，真正学出了坚定信念和绝对忠诚，学出了铁的担当和过硬本领。', '奋斗需要不断学习，学习也是一种奋斗。“学然后知不足”，进而知差距、明方向、增动力。一次培训的收获和成效将会是持续的。“要提高政治站位，深化守正创新，从助推本地区本部门纪检监察工作高质量发展的高度开展好纪检监察宣传工作。”“要锐意创新，主动探索，发挥全媒体聚合效应，唱响反腐倡廉宣传强音。”结业式上，市纪委监委宣传部负责人和大家畅谈“如何做好纪检监察宣传工作”，全体学员表示，要带着学习的收获，立足纪检监察工作一线，用行动落实责任担当。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>34</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>交出优秀履职答卷做人民合格代言人市十六届人大常委会年履职成果系列报道之三</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2019-01-06</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202201/t20220123_2683312.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['交出优秀履职答卷做人民合格 “代言人”——市十六届人大常委会2018年履职成果系列报道之三-政务要闻-沈阳市人民政府', '人大代表是人民代表大会的主体，尊重人大代表的权利就是尊重人民的权利，保证代表依法履职，就是保证人民当家作主。2018年，市人大常委会认真贯彻落实党的十九大关于“代表机关”的新要求，支持和保障代表充分发挥主体作用，积极探索行之有效的代表履职方式，代表活动更加扎实有效，代表工作迈出坚实步伐。', '“我当了几届市人大代表，感觉2018年是闭会期间代表活动最多、工作最实、成果也最丰富的一年。”市人大代表宋宝全所说的代表活动，除了人代会闭会期间的一些“常规性”活动，还有市人大常委会围绕全市营商环境建设和创城工作先后组织开展的两项“人大代表在行动”主题活动。“全市500多名人大代表都积极行动起来，结合自身工作，做营商环境建设和创城工作的宣传者、示范者、参与者和监督者。”市人大常委会代表工委主任李丹说，代表们参与热情都很高，特别是创城最关键的那段时间，不少本职工作与创城关系比较密切的代表，更是忙得没白天没黑夜的。', '2018年6月1日，市人大代表履职通APP“监督快线”功能正式开通。通过这一平台，市人大代表可以随时“连线”市创城指挥部。“人大代表来自各个行业、不同领域，与人民群众联系密切。在调研中，他们深入老旧小区、背街小巷，发现了许多创城的盲区和死角。”李丹说，通过“监督快线”“微信群”等形式，代表们先后提出意见建议4000余件，解决率达97%。一件件凝聚代表真知灼见、承载社情民意的建议，成功转化为看得见、摸得着的成果，许多群众身边的问题得到解决、矛盾得到化解，人大代表的作用和在群众中的威信也得到进一步提升。', '这一创新实践，不仅赢得了人大代表和社会各界的高度认同，也为做好新时代人大代表工作提供了鲜活的“沈阳经验”。《人民日报》等媒体对此还进行了专题报道。', '“作为新代表，我们要实现为人民‘代言’、为城市发展献策，首先应该提高自己的能力和水平。”市人大代表张晶侠坦言，市十六届人大一次会议结束后，她自觉履职经验不足、能力也有待提高，不知道怎么才能更好地发挥自己的代表作用。', '针对新一届人大代表构成特点，市人大常委会开展了代表初任培训、“订单式”培训、各专委会培训等各类培训活动，全年参加培训学习的代表达705人次。“这些培训，不仅帮助我们提高了站位、开阔了眼界、丰富了知识，也为代表之间加强沟通交流和相互学习搭建了平台。”张晶侠代表由衷地表示，自己十分受益。', '2018年5月，市人大常委会首次开创“人大代表进党校学习培训”新模式，在市委党校分别举办了两期履职学习培训班，以提高代表政治站位、思想作风和道德修养为重点内容，强化警示教育，提高代表政治素质。同时，还首次建立起由32名国家、省、市专家学者组成的代表培训师资库，实现全市各级代表培训师资共享，并根据代表需求，先后举办了多次专题培训，受到代表广泛好评。', '2018年，市人大常委会先后安排150名代表参加了市委、市人大、市政府的重要会议及重大活动，并推荐160名代表担任了市法院、市监委的督察员，进一步拓展了代表履职尽责的渠道和载体。同时，通过做实“双联系”工作，组建了52个代表小组，形成各级代表联动履职的“立体化”格局，先后开展了130余次代表活动。', '市人大常委会还创新代表履职监督，首次利用“履职通”对代表履职情况进行考评和管理，建立了代表履职档案，准确、翔实记录代表履职信息，提高了代表管理的信息化水平。', '提出议案建议是法律赋予人大代表的一项重要权利，是发挥代表作用的重要途径。市十六届人大一次会议以来共征集797件代表议案建议。其中，“加快推进我市居家养老服务体系建设”和“综合施策破解‘停车难’问题”作为市人代会确定的两件议案，是常委会全年持续推进和重点督办的议题。常委会还围绕全市经济社会发展大局，精选11件代表建议，作为主任会议组成人员重点督办建议。', '“这一年，仅围绕两件议案的督办工作，市人大常委会就组织过多次视察、赴外地学习考察，多次召开座谈会，听取市政府议案办理专项报告，还积极推进相关领域立法。”李丹说，经过一年努力，沈阳市已建成60个区域性居家养老服务中心和300个社区养老服务站，居家养老医养结合“伴随模式”进入21个社区，服务老人3万多人次；全年新增20余万个停车泊位，在一定程度上缓解了重点区域“停车难”问题。“这还只是阶段性成果，市政府计划用三年时间，持续推进这两件议案的办理工作。”', '近年来，沈阳市徒步健身市民已达百万人，成为引领沈阳全民健身发展的一支重要“生力军”。在市十六届人大一次会议上，市人大代表李斌提出“关于设立沈阳市全民健身国际徒步节的建议”，得到市人大常委会、市政府的高度重视。2018年8月24日，市十六届人大常委会第五次会议作出决定，将每年6月第三周的星期六确定为“沈阳市全民健身国际徒步节”。“作为一名代表，我提出的建议能够推动沈阳全民健身发展，心里由衷地感到骄傲。”李斌说，这也进一步增强了他作为一名人大代表的责任感和使命感。', '在建议办理过程中，市人大常委会、市政府、市法院以及建议承办部门注重与人大代表实现全程互动，使建议办理工作更加扎实。同时，让代表对建议办理情况作出客观评价。“多数代表在11件重点督办建议的办理反馈表上答复‘非常满意’，这在往年是从没有过的情况，体现了人大代表对建议办理工作的充分肯定。”李丹说，在各方面的共同努力下，目前，797件代表建议已全部办结，代表所提问题有648件得到解决或基本解决，占81.3%，办理效率和质量持续提升，办结率、代表反馈满意率均高于往年。', '交出优秀履职答卷做人民合格 “代言人”——市十六届人大常委会2018年履职成果系列报道之三']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>34</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>法库县依牛堡子镇思想解放求突破聚力发展当先锋</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2022-05-16</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/qxdt/202205/t20220516_2945889.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['依牛堡子镇位于辽河右岸、法库县最南端，镇内有辽河产业园区，是全市第二批中心镇。“振兴新突破、我要当先锋”专项行动开展以来，我们持续推动思想真解放、深解放、大解放，努力将思想解放成果转化为发展动力和工作成效，推动全镇经济社会高质量发展。', '依牛堡子镇在法库县具有区位优势和长期良好的发展基础。一段时间以来，部分镇村干部产生了一种“法库发达地区”的自我优越感，如何克服安于现状的心理，增强加快发展的紧迫感、危机感，是全镇上下的当务之急。', '专项行动一开展，镇党委班子成员首先行动起来，成为“摇铃者”，以上率下加强学习，开设专题讲堂，学理论、学讲话、学文件、学会议精神，不但请老师讲，请具有专业能力的党员干部讲，更请出了门、有见识、正创业的乡村能人讲。我们组织镇村干部开展了三轮思想解放大讨论，深入实际调查研究、走出去学习考察，对照“九个是不是”深入剖析，真正把思想摆进去、把自己摆进去、把工作摆进去，全力破除“心中贼”。', '一系列学习讨论活动，在干部群众的心中打开一扇窗，让大家看到了外面的广阔天地、无限机遇，特别是“山东烟台把农民组织起来走共同富裕道路和长春九台红光村拓宽思路打响稻米品牌的案例”对我们触动很大。我们深刻认识到，同域外其他先进乡镇比，我们还存在发展质量不优、规模不大、后劲不足等问题，必须打开思路谋发展，对标对表抓提升，把中心镇的潜能释放出来、责任担当起来，绝不能做井底之蛙，绝不能小富即安、小成即满。有了以上的思想共识，镇村干部干事创业的热情逐渐被激发出来，向高处攀、和强者比、与能者赛的劲头在干部队伍中逐渐形成，这是我们在专项行动中的第一个收获，也是最宝贵的收获。', '思路决定出路，解放思想天地宽。班子成员带头研究基础情况，客观深入分析优势劣势，看到了处于沈阳母城“半小时”圈内、自然资源禀赋优异、农业产业基础扎实、产业园区基础设施配套齐全等优势，找到了生产经营方式尚在传统阶段、一二三产业融合度不高等短板，明晰了“沈阳北部农产品精深加工重镇”的发展定位。', '为此，我们开始走出去，为全镇经济大发展、快发展去争、去抢、去拼，聚焦“园区主导产业链条不全”的问题症结，挑选精兵强将，马不停蹄先后赴大连、河北邢台等地精准招商，敲门介绍、蹲点守候，不怕吃闭门羹、无惧遭冷落。', '在邢台，我们7天时间拜访2个园区30余家企业，最终以园区优势和真诚服务与迪派油脂企业达成投资意向，将补齐园区企业华美畜禽和互美动植物油的中间链条。为盘活园区沉睡资产，我们积极寻找目标企业，得知抚顺一家木材加工厂计划在外地建厂、扩大生产，我们千方百计取得联系并及时跟进，仅用一周时间争取该项目投资落地，成功盘活园区1户僵尸企业。', '大力对外招商的同时，积极做好对内服务，班子成员每人联系县内5户养殖大户，宣传园区企业征泰饲料产品，30余户已经开始试喂，有力助推了企业在疫情形势下快速转型、打开本地市场。年初以来，虽然受疫情的影响，重点项目、规上工业产值、固投等主要经济指标仍实现了两位数增长。', '依牛堡子镇地力肥沃，风光优美，盛产的大米更有作为皇家贡米的历史。但是近年来，品种老化、不能加工、没有品牌。我们决心改变水稻附加值低的现状。邀请沈阳农大陈温福院士研发团队实地考察，引进“沈农625”绿色稻米，试验种植4000亩，打造优质稻米认养基地，亩效益可增加2000元。', '我们充分利用社会资源，镇村干部与合作社、家庭农场、种粮大户共同研究，定产业、上项目，筹备在草根泡村建设稻米加工厂，同时建设党群活动暨农产品展示中心，目前已经注册“皇庄贡米”“依牛谷屋蟹田米”等自己的品牌。与此同时，联合沈阳研学教育集团，建设研学农旅项目综合体；打造辽河沿线农林文旅深度融合发展示范带；主动承接“国家大豆科技自强”示范县核心项目，高标准规划建设2000亩大豆玉米复合种植区，解决园区豆制品企业豆华天宝原料本地供应问题。我们把党支部领办合作社作为乡村振兴的重要抓手，在祝家堡村成立农机合作社、在獐草沟村成立养殖合作社；在大粮洞村开展“党支部+合作社+庭院经济”试点，吸引周边村近千户农户在自家房前屋后种植订单白菜并初步加工，预计户平均增收2000元。此外，建设美丽庭院60个、美丽村屯3个,全域打造美丽田园，加快营造宜居、宜业、宜游的良好生态环境、社会环境和发展环境。', '思想新突破带来奋进新状态。依牛堡子人不相信有完成不了的任务、不相信有克服不了的困难、不相信有战胜不了的敌人,我们要把因疫情耽误的时间抢回来，坚持年初确定的目标不动摇，奋力在全市赛道上跑起来争位次、冲起来当先锋，向全县、全市交出一份优异答卷！']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>34</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>市人大常委会执法检查组关于检查中华人民共和国义务教育法和沈阳市义务教育条例实施情况的报告</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2015-09-18</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/qtzfxx/gzbg/bmgzbg/202201/t20220122_2622795.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['市人大常委会执法检查组关于检查《中华人民共和国义务教育法》和《沈阳市义务教育条例》实施情况的报告-部门工作报告-沈阳市人民政府', '市人大常委会执法检查组关于检查《中华人民共和国义务教育法》和《沈阳市义务教育条例》实施情况的报告', '根据市人大常委会2015年工作安排，市人大常委会组成执法检查组,于6月18日和24日，对我市贯彻实施《中华人民共和国义务教育法》和《沈阳市义务教育条例》(以下简称“一法一例”)情况进行了执法检查。现将有关情况报告如下：', '为了搞好这次执法检查，市人大常委会做了充分准备。一是深入开展调查研究。市人大教科文卫委员会组成调研组，于今年3、4月份，先后深入到13个区、县(市)的26所义务教育学校，通过听取汇报、召开座谈会和实地查看等方式，全面了解我市义务教育发展现状及存在的主要问题，形成了调研报告，为有针对性地开展执法检查提供了依据。二是学习外地先进经验。调研组于今年3月下旬赴成都、杭州、济南、天津等城市，学习考察义务教育发展的先进经验，撰写了学习考察报告，为执法检查提供了参考借鉴。三是广泛征求意见。5月下旬，教科文卫委员会以信函形式向市人大代表、中小学校长和家长发放调查问卷300余份，广泛听取有关方面的意见和建议，收到反馈意见和建议30余条。四是制定执法检查工作方案。调研组在深入调查研究，广泛听取各方面意见和建议的基础上，确定了经费保障、教师队伍建设、素质教育和依法治教等八个方面的执法检查内容，明确了执法检查的方式方法，形成了市人大常委会执法检查工作方案，为执法检查顺利开展奠定了基础。', '为增强执法检查工作的实效性，这次执法检查分两个阶段进行。6月18日，执法检查组集中听取了副市长姜军代表市政府所作的关于我市贯彻实施“一法一例”情况的汇报，随后分成六个小组深入到全市13个区、县(市)的17所中小学校，通过实地查看、听取汇报、召开座谈会、开展问卷调查等方式，进行了执法检查。6月24日，市人大常委会责成教科文卫委员会，分成三个小组，按照学生到校、在校和放学三个时间段，随机抽取部分义务教育学校，进行了执法检查抽查。', '执法检查组认为，市政府高度重视“一法一例”的贯彻实施，工作扎实，措施有力，取得了明显成效，全市义务教育呈现良好的发展态势。主要体现在以下几个方面：', '一是加强学习宣传，认真履行政府责任。将“一法一例”作为普法学习的重要内容，通过多种形式的宣传教育，营造了贯彻实施“一法一例”的良好舆论氛围。市政府坚持把义务教育摆在优先发展的战略地位，确定了“深化改革，补齐短板，统筹城乡，加速发展”的工作思路，连续五年将11项涉及义务教育发展的工作事项纳入为群众办实事内容，有力地推动了义务教育持续健康发展。', '二是完善保障机制，教育经费逐年增长。落实“一法一例”要求，将全市义务教育阶段学生免费、家庭经济困难学生资助、教师工资、公用经费、校舍维修改造经费等全面纳入财政保障范围，并保持高速增长。', '三是改善办学条件，推进优质均衡发展。以“百姓家门口就有好学校”为目标，对城区106所薄弱学校进行了综合改造，兴建了104所农村九年一贯制学校，实施了学校标准化建设再提升工程，全市城乡中小学面貌焕然一新。推进名校集团化发展，形成了沈阳市第七中学等37个教育集团，使优质教育资源惠及城区义务教育学生总数的一半以上。开展城乡“手拉手”活动，建立8个城乡义务教育发展共同体，促进了城乡学校办学水平的同步提升。', '四是深化综合改革，素质教育卓有成效。率先在全国推进了中考改革，编制了《沈阳市中小学生学业质量评价标准》，着力推进素质教育，推广多种形式的先进课改模式，促进了学生素质的全面提升。', '五是强化教育督导，依法治教稳步推进。制定了沈阳市义务教育视导办法，细化了“一法一例”的相关规定要求，定期组织开展教育督导，大力推进依法治教。严格执行免试就近入学的规定，义务教育学校全部实现了划片入学和阳光分班，“择校热”有所降温。采取多种措施，加大对违规补课的查处力度，在校整班集中的补课现象已得到有效遏制。', '一是受规划调整、征地拆迁等因素制约，我市还有部分规划学校无法落地实施，存在着产生经济效益的地块先行出让和开发，配套学校未与住宅开发同步实施的现象。2010年以来，全市共有20个新建住宅小区需要配套基础教育场所22个，达到“三同步”要求的仅有13个，占比为59%。若这些规划学校不能及时、足量建成投入使用，现有的教育资源将难以满足不断增长的入学需求。二是现有学校分布与各区域适学人口不相匹配，特别是部分家长热衷于追求名校，采取购房落户的方式进行择校，部分学区适龄户籍儿童比例过高，导致局部地区入学难。三是截至2014年底，全市共接纳义务教育阶段进城务工人员随迁子女8万多人，占义务教育阶段学生总数的15.4%，且主要集中在城乡结合部，其入学需求超过了教育资源的承载力，接纳进城务工人员随迁子女入学的压力日益增大。', '一是教师队伍总量缺编。截至2014年，我市中小学共核定教职工编制52744人，实有教职工49804人，缺编2940人，教师队伍严重不足。而且受教师退休高峰来临、学苗增加、课程改革、新的生师比和小班化教学等因素的影响，教师短缺问题将进一步加剧。二是结构性缺编问题突出。全市义务教育学校现有专任教师36659人，占教职员工总数的83.1%，非专任教师7449人，占16.9%，非教学人员比例超标；男女性别比为1：2.7，女性比例过高，易出现临时性教师短缺；35岁及以下教师仅占18.2% ，36-45岁教师占43.9%，45岁以上教师占37.9%，年轻教师比例过低，个别学校教师平均年龄达到了50岁以上,教师队伍趋于老化。同时，由于全市各中小学体、音、美、史、地、生、技等学科专职教师普遍稀缺，导致一些学校无法正常开足课程，难以适应课程改革和全面推进素质教育需要。三是职称评聘压力巨大。2014年全市符合晋升副高级职务人员9213人，实际晋升580人，两者比为16:1，个别区县高达20：1；符合晋升中级职务人员3314人，实际晋升700人，两者比为5:1。符合晋升条件的人数多，实际可用的指标少，许多教师多年晋级无望，极大地挫伤了广大教师的工作积极性，也是造成部分优秀教育人才流失的重要原因。四是教师队伍激励机制不足。我市从1985年第一个教师节开始以市政府的名义对优秀教师和教育工作者进行表彰，1993年又设立了“沈阳市教育专家”荣誉称号，也以市政府的名义进行命名和表彰。2014年，由于受省定表彰指标限制，我市未能对教育系统的表彰列入市政府的表彰项目，仅以教育行政部门的名义进行了命名表彰，降低了这两个表彰项目的影响力。', '一是地区之间不均衡。个别地区由于经济发展落后，历史欠账较多，教育基础仍然较差。二是城乡之间不均衡。随着学校标准化建设的大力推进，城乡之间义务教育学校的硬件条件已趋于均衡，但是软件条件的差距，诸如教育理念、管理水平、教师素质、教学质量、现代化设施设备应用等，都呈现出逐渐拉大的趋势。三是区域内校际之间不均衡。由于历史原因，各区域客观存在着优质学校和薄弱学校，学校之间在师资力量、资源配置、管理水平和教育教学质量等方面存在一定差距。优质教育资源的供给与人民群众教育需求之间的矛盾仍然存在，群众自然有择校要求，直接损害了义务教育的公益性、公平性。', '规划配套学校建设，是当前扩充义务教育资源，保障适龄儿童、少年依法享有平等接受义务教育权利的重要载体。一是要将《沈阳市中小学布局规划(2015——2020)》分解落实到分区规划和相应区域控详规划之中，并做到严格执行，认真落实。市政府要组织教育、发改、卫计、公安等部门深入研究户籍制度改革、“单独两孩”政策实施、加快城市化进程等对沈阳常住人口数量、结构和分布带来的影响，未雨绸缪，超前规划，强调教育项目规划优先权，做好基础教育布局调整。二是建立规划配套学校建设的协调机制，组织教育、发改、规划和国土、建设等部门对教育配套规划的落实情况进行一次专项检查，对于未同步建设配套教育设施的住宅项目，相关部门不予办理预售许可手续，对部分布点不科学、拆迁难度大、预计长期不能实施的教育配套规划，应当重新进行规划选址。三是规划配套学校建设，要严格执行国家和省、市制定的义务教育学校建设标准和管理标准，确保新建小区配套学校达标。', '一是及时足额补充教师。当前教师缺编已严重制约了教育质量的提高和教育秩序的稳定，及时补充教师编制，保障教育教学的基本需求迫在眉睫。建议市和区、县(市)两级编制部门对义务教育学校编制问题进行专题研究，积极推进“县管校聘”管理改革。根据教育事业发展规划、生源变化和学校布局调整等情况，进一步补充义务教育学校教职工编制，破解教师编制不足难题。为解决教师不足的问题，目前各区县(市)聘用了近3000名合同制教师，他们中许多人已经成为各个学校的骨干力量，但这支队伍不稳定、难管理，建议对已聘用的合同制教师组织一次专场招聘，确保教师队伍的持续稳定。二是分阶段解决教师职称评聘问题。为维护教师合法权益和职业尊严，调动广大教师的工作积极性，建议实行“分期过渡、逐步到位”的政策，采取近期适当提高晋级比例，逐步消化超职数的办法，渐进式解决目前我市教师职称评聘问题。三是推进区(县)域内义务教育学校校长、教师的交流轮岗。《沈阳市义务教育条例》第十五条明确规定：“区、县(市)人民政府应当组织校长、教师交流，均衡本行政区域内的校长、教师资源。校长、教师交流的办法由市人民政府制定”。建议市政府尽快制定校长、教师交流办法，科学编制校长、教师交流中长期规划和年度交流计划，合理确定交流的人员范围，不断创新交流的方式方法，建立健全交流的激励保障机制，实现交流的制度化、常态化。四是加强教师培训。在调研和问卷中，有三成以上的教师表达了要多创造交流学习机会的愿望。要严格执行国家、省关于足额提取教师培训经费的相关规定，确保培训经费落实到位。要适应新形势、新要求，研究新方法，破解加强教师培训的瓶颈制约。在培训过程中，要坚持政治素质和业务素质两手抓，在抓业务素质提升的同时，注重师德的培育和养成。五是恢复在教师节期间以市政府名义表彰先进的做法。落实教育法、教师法的相关规定，借鉴其他省市的经验，恢复在教师节期间以市政府名义命名表彰教育专家和优秀教师、优秀教育工作者的做法，营造全社会尊师重教的浓厚氛围。', '教育公平问题的实质就是教育资源配置问题，促进义务教育均衡发展必须从合理配置教育资源做起。一是统一义务教育学校建设标准。建议市政府尽快制定具有强制力的义务教育学校建设标准，使每一所学校都拥有大体均衡的软、硬件办学条件，营造义务教育公平竞争、良性发展的环境。二是统一教师资源配置标准。科学调整教师资源配置政策，促进义务教育阶段教师在区域之间、校际之间的有序流动。完善农村教师补充与培养机制，不断优化农村教师队伍。三是统一办学经费标准。完善义务教育经费保障机制，进一步加大向农村地区、落后地区倾斜力度，实现经费投入的均衡性和结构的合理性。', '坚持依法治教、依法治校，推进规范化办学，是义务教育可持续发展的根本保证。一是促进优质教育资源有序扩张。要把集团化作为下一步全市义务教育高水平均衡发展的重要战略选择，鼓励优质学校对区域内弱小学校、新建学校进行兼并或联合办学，支持城区优质学校对农村地区薄弱学校进行托管，让已有名校、强校、特色校有序扩张，实现优质教育的更广覆盖。二是严控“择校热”。一手抓入学环节，严格实行按学区入学制度，实行阳光分班，一手建长效机制，促进义务教育学校均衡发展，让沈城百姓子女都能就近“上好学”。三是加大违规补课的治理力度。认真落实教育部新出台的《严禁中小学校和在职中小学教师有偿补课的规定》，划出不能触碰的“红线”，严肃处理在职教师违规补课行为，规范社会办学机构的经营行为。', '全面贯彻实施“一法一例”是一项重大而长期的任务，也是深化教育改革的重要内容，市和区、县(市)两级政府应当进一步依法履行职责，有效解决义务教育发展中存在的突出问题，努力办好人民满意的教育。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>34</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>解读关于规范涉企行政执法进一步优化经济发展环境的通知</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2015-04-22</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zcwj/zcjd/wzjd/202112/t20211201_1700070.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['解读《关于规范涉企行政执法进一步优化经济发展环境的通知》-文字解读-沈阳市人民政府', '认真贯彻落实党的十八届四中全会精神，加快法治政府建设，促进行政执法机关严格规范公正文明执法，改善企业发展软环境，不断增强企业发展活力，依法规范、引领和保障全省经济持续、快速、健康发展，是实现辽宁老工业基地全面振兴新突破的重要任务。省委办公厅《关于贯彻实施省委十一届九次全会意见重要举措2015年工作要点的通知》(辽委办发〔2015〕3号)文件要求“围绕改善涉企执法环境，转变执法观念，推行执法与服务相结合的工作机制，创新监管方式”；省委办公厅《省委全面深化改革领导小组2015年工作要点》(辽委办发〔2015〕9号)文件提出“严格执法行为，特别是涉企执法”。省人大常委会在《关于视察全省深入推进依法行政、加快建设法治政府情况的报告》(辽人办函〔2015〕5号)文件中要求省政府进一步加强对执法队伍的管理，规范执法行为。省政府办公厅《关于印发2015年〈政府工作报告〉主要措施汇总表的通知》(辽政办〔2015〕24号)明确要求在年底前完成规范行政执法行为特别是涉企执法行为，开展行政执法专项检查工作任务；省政府办公厅《关于落实各民主党派、工商联负责人及无党派人士对政府工作建议的通知》(辽政办督〔2015〕5号)就落实省台盟、工商联有关激活企业发展活力、规范涉企行政执法行为意见中提出了工作要求。', '根据省委、省政府的部署，省政府法制办对全省行政执法机关涉企执法情况进行专题调研和检查指导。2014年下半年，针对企业反映乱收费、乱罚款、乱摊派以及行政执法检查过滥等影响企业正常生产经营活动等问题，省政府法制办会同省工商联邀请部分企业家代表进行座谈，深入到部分企业实地听取意见，召开行政执法机关涉企执法座谈会，学习考察上海市、浙江省和江西省关于规范涉企执法的经验做法。在深入调研基础上，依据国家和省委、省政府有关规定，起草了《关于规范行政机关涉企行政执法行为规定》(初稿)，并于2015年1月下发各市政府和省直部门广泛征求意见，吸收各方面意见修改完善后于2015年3月形成了《关于进一步规范涉企行政机执法，优化经济发展环境的通知》(征求意见稿)并再次下发省直有关部门征求意见，再次进行修改完善。', '需要说明的是，行政检查是行政机关依法履行社会管理职责的一种经常性措施，是发现、制止违法行为的重要途径，不能因为有不规范的行政检查而放弃全部的检查手段。因此，《通知》也提出要加强食品药品安全、安全生产、公共安全、环境保护等直接涉及人民生命财产安全领域的行政执法检查，提高执法效能，避免执法缺位，行政执法机关要依法及时开展并在检查结束后30日内将检查实施情况报送本级政府法制部门备案。', '二是针对执法过程中存在的服务意识不强、不作为、乱作为等问题，要求行政执法机关牢固树立服务理念,增强服务意识,对企业行政执法推行便民利企的措施，普遍建立和完善服务承诺制和行政执法责任制，并加强监督检查和评议考核。要利用各种信息载体，及时向企业提供本机关服务和促进企业发展的法律、政策及安全、技术等信息服务；倡导“人性化”执法，注重发挥行政指导、说服教育、劝导示范等非强制手段作用，把处罚和指导、服务结合起来，指导企业依法经营、依法办事，对违法情节较轻，能主动消除或者减轻违法行为危害后果的，应当先责令改正，进行教育、告诫、引导，从轻或减轻行政处罚，这些措施要在执法制度建设和裁量权方面充分体现。', '三是针对擅自设立收费项目、提高收费标准、扩大收费范围等问题，《通知》规定对企业收费实行清单管理。财政、价格等行政管理部门每年都要依法对涉企收取的行政事业性收费、政府性基金项目和实施政府定价或指导价的经营服务性收费项目进行核定，并向社会公布目录清单。根据财政部和《辽宁省非税收入管理办法》(省政府第200号令)、《辽宁省人民政府办公厅关于进一步加强全省非税收入管理的通知》省有关规定，属于非税收入管理范围内的收费收入，一律上缴财政，实行收支两条线管理。', '四是关于对企业实施重大行政处罚有关较大数额的规定。根据《辽宁省重大行政处罚备案审查规定》(省政府第275号令)规定，重大行政处罚包括较大数额的罚款和没收非法所得或者非法财物、责令停产停业、吊销许可证或者执照，其中，市政府、省政府所属部门对企业处以罚款和没收非法所得或者非法财物10万元以上为较大数额，县、乡政府及市、县政府所属较大数额标准分别由市、县政府规定。', '一是各级政府要加强涉企行政执法监督检查力度，省政府今年将开展优化经济发展软环境执法大检查，重点检查各级行政执法机关正确贯彻《通知》精神，进一步规范涉企行政执法的情况。二是按照《通知》要求组织开展对行政执法机关涉企执法情况进行评议，将评议结果纳入依法行政工作年度绩效考核并向社会公布。三是省政府法制办今年将会同省工商联选择150家不同所有制企业特别是民营企业作为省级执法监督联系点，市、县政府法制部门也要建立联系点制度。四是依据有关规定加大对涉企违法行为责任追究力度，进一步提高行政执法能力建设水平。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>34</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>关于做好年全市增收节支工作的通知</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2009-04-27</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zcwj/zfwj/szfwj/202112/t20211201_1699216.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['按照《中共中央办公厅、国务院办公厅关于党政机关厉行节约若干问题的通知》（中办发〔2009〕11号）精神及国家、省、市相关要求，为维护全市经济和社会发展稳定大局，确保财政预算收支平衡，现就做好2009年我市增收节支工作的有关问题通知如下：', '2009年，受全球整体经济形势和国家各项税费减免政策因素的影响，我市财政减收压力较大；同时，由于落实积极的财政政策，拉动内需、推进农村改革发展、改善民生、生态环保、收入分配制度改革等项工作，都需要政府大量投入，使我市财政支出不断增加。而近年来出台的各项工资、民生等政策已经形成刚性支出，支出结构调整的空间越来越小，我市财政收支矛盾十分突出，保增长、调结构、促改革、重民生的任务更加艰巨。为此，各地区、各部门要正确认识当前我市财政面临的严峻形势，进一步统一思想，高度重视，增强责任感和紧迫感，牢固树立大局意识，切实采取有力措施，认真抓好增收节支工作，确保全市财政预算收支平衡。', '各地区、各部门要密切关注和把握财政经济形势发展变化，采取有效措施，实现财政收入持续稳定增长。各地区要认真落实地方财政收入分解任务，加大收入组织力度，确保完成全年收入任务；要进一步提高税收收入占一般预算收入的比重，不断提高财政收入质量。', '1．大力培育、壮大税源，夯实收入增长基础。要为我市企业创造公平、良好的发展环境，确保各项税费优惠政策及时、足额落实到位，支持经济发展。', '2．加强税收收入征管，规范税收秩序。要坚持依法治税，严格属地纳税，严禁互拉税源。要完善重点税源监控体系，抓好重点行业、企业、产品和税种的税收征管，加大税收稽查力度，防止和查处偷税漏税行为。要加大清理欠税力度，对欠税户要以适当形式向社会公示，提高其依法纳税意识。要密切关注税收政策变化情况，对税收优惠政策已到期的，应依法足额征税；要加强对跨地区总分机构企业、外埠驻沈企业及其分支机构的税收征管，有效减少税收外流。要加强税务、银行等部门的协作与联系，完善工作机制，确保应收尽收。', '3．严格非税收入“收支两条线”管理。各非税收入征管部门要严格按照法律法规要求组织各项收入，做到依法依规足额征收。要严格执行“收支两条线”规定，收入及时足额上缴财政，并严格按照规定比例提取社保基金和供暖基金等政府统筹基金。各级财政部门要加强非税收入管理，将预算外收入全额纳入预算管理。在执行中实现非税收入超收的部门，在符合预算安排原则的前提下，适当安排必要的支出；对非税收入短收的部门，视财力情况压缩专项支出。', '4．积极争取上级部门专项资金支持。要抓住中央扩大内需的有利时机，认真研究国家出台的扩大内需、促进经济持续平稳快速增长的财政政策，找准政策切入点，主动对接，积极争取上级专项资金支持。', '各地区、各部门要继续发扬艰苦奋斗的精神，牢固树立过紧日子的思想，倡导厉行节约、勤俭办一切事业，不断优化财政支出结构，大力压缩一般性支出，努力提高财政预算管理水平。', '1．保障重点支出。要进一步优化财政支出结构，统筹兼顾，有保有压，在落实好保工资、保运转、保民生、保稳定、保法定支出等基本要求的同时，积极应对国际金融危机的挑战，做好保经济增长各项措施的落实工作。', '2．严格预算执行刚性。强化预算约束，从严控制预算追加。各部门预算确定后，原则上不再办理追加支出。特殊事项必须追加的，要严格按规定程序审核批准。同时，各地区、各部门在规范津贴补贴后，不能以各种名义发放其他奖金等支出。', '3．大力压缩一般性支出，实现行政经费支出“零增长”。一是加强各类会议、研讨、纪念、庆典、评比、培训等活动经费的支出管理。严格执行“无会日”制度和会议审批制度，缩减会议数量和规模，提倡开小会和电视电话会议。三类（即部门或系统内部的）会议及庆典、学习、调研考察、内部职工培训、联谊、课题研究、考核评比、表彰等经费在部门公用经费中解决，财政不再安排专项经费。降低行政运行成本，2009年各级党政机关节电、节油、节水指标要在2008年基础上降低5%。公务接待要从简，不得超标准。2009年各级党政机关公务接待费用支出要在2008年基础上削减10%。二是加强各项办公家具和办公设备的支出管理。严格控制党政机关楼堂馆所建设，2010年底前，各级党政机关一律不得新建办公楼，不准建设培训中心、宾馆、招待所等楼堂馆所；盘活行政事业单位办公用房和土地资源，严禁超面积、超标准建设和装修；不准以建业务楼等名义新建、改建办公楼，不准以正常维修、修缮名义进行超标准高档装修办公楼。原则上暂停党政机关和事业单位车辆购置，加强公车使用管理，减少油耗，降低维修费用。2009年各级党政机关车辆购置及运行费用支出要在近3年平均数基础上降低15%。三是加强公款出国（境）支出管理。严禁以各种名义用公款出国（境）旅游，禁止以访问、学习、考察、培训等名义组织公派团组通过旅行社出国（境），禁止安排与出访任务无关的关系单位人员参团出访，禁止搭车照顾出访。2009年各地区、各部门因公出国（境）经费支出要在近3年平均数基础上压缩20%，并相应减少因公出国（境）团组数和人数。四是加强党政机关信息化项目建设支出管理。党政机关信息化项目建设应充分利用政府现有信息网络平台和软硬件资源，避免重复建设；系统开发应重视数据、接口、流程处理的标准化，以利于今后系统的有序扩展，以最大限度实现资源共享。网络租线费应组织统一进行政府采购，降低网络运行成本。五是加快推进事业单位改革，将不属于政府办的职能分离出来，减轻财政压力。各区县（市）、市直各部门实行人员编制总量冻结，原则上不再增加财政供养人员。对因收费项目取消或停征导致职能萎缩或取消的单位，相关部门应加快改革步伐。', '各级政府要加强对财政工作的领导和支持。各地区、各部门要进一步提高法律意识，严格执行《中华人民共和国预算法》及相关法规、制度，严格预算管理，做到依法聚财、依法理财。要严肃财经纪律，整顿财经秩序，严格执行规范津贴补贴、政府采购、招投标等规定，加强会计核算管理。各级财政、监察、税务、审计等部门要加大对财政收支、税收执法、会计执法的监督检查力度，重点加强对各项经费支出的监管，及时纠正违规行为，防止资金损失浪费。对查出的问题，要严格追究直接责任人和相关领导的责任。问题严重的，要给予相应党纪、政纪处分；触犯法律的，要追究法律责任。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>34</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>构建现代供应链体系培育经济发展新动能沈阳市服务业委员会加快推进供应链体系建设试点工作</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2018-12-14</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/bmdt/202112/t20211202_1846976.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['构建现代供应链体系 培育经济发展新动能——沈阳市服务业委员会加快推进供应链体系建设试点工作-部门动态-沈阳市人民政府', '2017年8月，国家商务部、财政部在全国包括沈阳在内的17个城市开展供应链体系建设试点工作，按照“市场主导、政策引导、聚焦链条、协同推进”原则，重点围绕物流标准化、供应链平台、重要产品追溯，打基础、促协同、推融合，建设标准规格统一、追溯运行顺畅、链条衔接贯通的供应链体系。', '记者从沈阳市服务业委员会了解到，2017年9月以来，沈阳以托盘标准化及其循环共用和供应链平台建设两个试点方向为切入点，从健全政策体系、强化业务培训、创新工作机制等多方面，扎实有序地推进试点工作。目前试点项目建设成果显著，平均进度超过90%。', '沈阳市委、市政府高度重视供应链体系建设试点工作，成立了由主管副市长担任组长，市服务业委、市财政局主要(主管)领导担任副组长的试点工作领导小组，负责试点工作的组织领导和统筹协调；下设办公室(设在市服务业委)，负责具体组织落实各项试点工作任务。同时，要求各县区成立试点工作机构，设立主管领导，指定专门科室和负责人员；要求各试点企业成立由企业负责人牵头，项目、工程、业务、财务等部门组成的试点工作班子。', '健全工作体系。建立了市-县区-企业联动落实、相关部门-行业协会-企业协同推进的试点工作体系，纵横双向密切配合、共同推进试点工作。', '建立沟通渠道。建立了由市、县区、试点企业相关领导、部门负责人和工作人员组成的“试点工作微信群”，定期召开工作部署与调度会议，落实各级负责人和联络人，及时部署工作要求、加强沟通和管理，保障政令畅通和项目顺利推进。', '研懂试点政策，才能更好地落实工作，顺利并高效地推进试点项目建设。为此，市服务业委广泛调研学习，建立制度体系，并结合沈阳商贸物流发展实际，研究制定《试点方案》《资金管理办法》《项目管理及验收办法》等一系列试点政策文件，确保每个试点环节有章可循，有规可依。', '强化业务学习与培训。对外学习成功经验，先后赴物流标准化试点城市和供应链体系建设先进城市，学习调研成功经验和做法，考察学习典型企业的创新模式。对内开展自上而下、部门协同、聘请专家等多种形式的政策宣贯和操作实务培训。', '成为试点城市后，如何使用好专项资金，让钱花在“刀刃”上成为市服务业委首先思考的问题。为此，沈阳创新提出了“分级负责、多层评审、实时跟踪、即时验收”的试点模式，严格履行试点项目申报、初审、复核、评审、公示、报批等规定流程。一是企业申报、县区初审。由县区组织辖区内企业按照支持方向和条件要求申报项目，县区负责项目初审并加盖人民政府公章上报。二是公开招标、三方评审。通过公开招投标方式确定第三方评审机构，委托其依规评审试点项目。三是加强项目跟踪，及时督察整改。季度定期考核项目进展情况，由委主管领导带队赴项目现场督察指导，帮助试点企业及时调整建设内容，跟上试点工作步伐。四是提高流程效率，即时验收。依照动态验收流程，实时验收项目建设成果，做到“建成一个、达标一个、验收一个、审计一个、拨付一个”。', '值得一提的是，沈阳创新试点项目进退机制，施行据实退出、及时增补的措施。也就是说，试点项目的确定并非一成不变。', '今年5月和9月，市服务业委对第一批评定的试点项目进行了两轮项目督导调研，其中部分试点企业由于企业发展规划、项目建设计划发生调整等原因，无法完成预期建设任务，不再符合试点条件，企业主动提出书面申请退出试点。同时，为用好用足中央财政资金，市服务业委又启动了试点项目增补申报工作，由县区初审并组织增补申报部分项目，呈报委党组会议讨论通过后，经第三方评审及网上公示。', '“据实退出，及时增补”是沈阳试点项目进退机制的创新举措。通过退出(增补)机制，确保试点资金发挥更大效能。', '为了试点项目顺利且高效推进，及时把握进度和效果，沈阳创新设立了《沈阳市供应链体系建设试点项目进展情况监测统计表》和《沈阳市供应链体系建设试点项目推进情况报告》，要求试点企业每季度上报。', '对于试点项目的管理也非常严格，市服务业委要求试点企业必须建立试点工作进度档案和项目投资台账，细化目标任务，明确工作责任，从严项目管理程序；要求各县区建立试点工作台账，并做好本辖区内试点企业和试点项目的跟踪协调服务和日常督查考核。每个季度会同各县区对试点项目开展工作督导和现场调研，实施动态跟踪管理，实地走访和调研考察。', '通过以上监测和管理办法，能够及时掌握项目建设进度、预判可能出现的问题，对存在问题的县区或企业限期整改。', '沈阳市共评审确定15个试点项目，其中，物流标准化方向14个，供应链平台方向1个。覆盖大型商贸连锁、第三方物流、快销品生产、快递物流、供应链平台等五大门类。截至目前，15个试点项目中，已完成并进入验收评审的13个，完成项目实际投资额2.53亿元。', '通过政策引导和试点推进，15个试点项目共拉动企业投资2.88亿元，取得良好的经济和社会效益。试点企业普遍建立了物流标准化应用体系，标准托盘及标准化设施设备使用率均达99%以上，超过试点目标近20%；装卸效率提高2倍，货损率降低86.7%，综合物流成本降低35%，分别比试点目标降低66.7%和25%；供应链平台服务水平明显提升，平台交易额同比提高20%，交易管理成本同比下降10%。', '供应链是围绕核心企业，由供应商、制造商、分销商、服务商，直到最终用户所连成的整体功能网链结构服务体系。供应链体系能够打破区域分割、行业界限、企业壁垒，贯通产业链的各个环节，最大化地扩展流通边界、提高流通效能、降低物流成本。', '托盘标准化是供应链体系的关键环节，贯穿物流运作全过程。标准的托盘尺寸，有助于高效的货物码放；带板运输，节约装卸时间和费用；不倒箱、不倒筐，有助于减少货物破损；托盘租赁共享，节省托盘折旧和回收成本。', '构建现代供应链体系 培育经济发展新动能——沈阳市服务业委员会加快推进供应链体系建设试点工作']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>34</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>年月沈阳大事记</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2023-12-11</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/qtzfxx/szfdsj/202312/t20231211_4571407.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['11月1日 省委常委、市委书记王新伟到铁西区信访局接待信访群众，现场研究解决问题，就进一步做好信访工作进行安排部署。', '同日 省委常委、市委书记王新伟到曹仲配水厂施工现场、浑南水务集团综合服务大厅、沈阳水务集团城南净水厂，现场查看城市供水安全工作，主持召开会议，听取沈阳水务集团工作汇报。', '同日 市委副书记、市长吕志成率市政府代表团赴北京市，围绕引育汽车及零部件、智能网联、汽摩、工业互联网等重点项目开展精准招商和工作会商。', '11月2日 省委书记、省人大常委会主任郝鹏主持召开省委常委会（扩大）会议，传达学习习近平总书记在中央金融工作会议上的重要讲话和中央金融工作会议精神，研究全省贯彻落实工作。省委副书记、省长李乐成，省政协主席周波出席会议。省委常委、市委书记王新伟出席。', '同日 市委副书记、市长吕志成主持召开市政府常务会议，研究部署当前重点工作。会议传达学习全省安全生产电视电话会议暨省安委会第四季度工作会议精神，听取全市重大事故隐患专项排查整治2023行动和四季度安全生产工作安排情况的汇报，审议通过《沈阳市新污染物治理工作实施方案》。', '11月3日 省委书记、省人大常委会主任郝鹏主持召开省委常委会会议，传达学习习近平总书记在同中华全国总工会新一届领导班子成员集体谈话时的重要讲话精神，研究全省贯彻落实意见。会议研究召开省委十三届六次全会相关工作。省委常委、市委书记王新伟出席。', '11月4日 省委常委、市委书记王新伟主持召开沈阳全面振兴新突破三年行动领导小组三季度调度会暨督导调研交流会。市委副书记、市长吕志成出席并讲话，市人大常委会主任范继英出席。', '11月5日 省委常委、市委书记王新伟主持召开市委常委会会议，传达学习习近平总书记在第三届“一带一路”国际合作高峰论坛开幕式上的主旨演讲精神，传达学习习近平总书记在中央金融工作会议上的重要讲话和中央金融工作会议精神，研究全市贯彻落实工作；审议《沈阳市巩固增势推动经济持续回升向好若干政策举措》和深入践行“两邻”理念、携手打造更加幸福美好家园专项行动系列方案。', '同日 省委常委、市委书记王新伟与新疆维吾尔自治区塔城地委委员、塔城市委书记王东升率领的塔城市党政代表团一行座谈。', '同日 省委常委、市委书记王新伟主持召开市委书记专题议事会议，听取市委、市人大常委会、市政府、市政协10月份重点工作完成情况，研究11月份全市重点工作。市委副书记、市长吕志成，市人大常委会主任范继英参加。', '同日 市委副书记、市长吕志成到大东区辽沈二街、中环洁公司，调研燃气管网专项整治、冬季除雪准备工作等情况。', '同日 第六届中国国际进口博览会在上海举行，沈阳市组团赴上海参加进博会相关活动。全市共有1098家单位2013人参会，达成意向成交额1.4亿美元。', '11月6日—7日 中共辽宁省委十三届六次全会在沈阳举行。省委常委会主持会议，省委书记、省人大常委会主任郝鹏作讲话。全会听取和讨论郝鹏受省委常委会委托作的工作报告，审议通过《中共辽宁省委关于深入贯彻落实习近平总书记在新时代推动东北全面振兴座谈会上重要讲话精神奋力谱写中国式现代化辽宁新篇章的意见》，讨论审议《中共辽宁省委关于2023年落实全面从严治党主体责任情况的报告》。省委副书记、省长李乐成就《意见》作说明。省委常委、市委书记王新伟出席全会。', '11月7日 省委常委、市委书记王新伟主持召开党外人士协商座谈会，就市委十四届六次全会审议的《中共沈阳市委关于深入贯彻落实习近平总书记在新时代推动东北全面振兴座谈会上重要讲话精神奋力谱写中国式现代化沈阳新篇章的实施意见》及5个《行动计划》，听取各民主党派市委会、市工商联负责人和无党派人士代表的意见建议。', '同日 波兰西里西亚省代表团到辽宁、沈阳访问。市委副书记、市长吕志成会见随团到访的沈阳市友好城市卡托维兹市市长马尔辛·克鲁帕一行。', '11月8日 中共沈阳市委十四届六次全会举行。市委常委会主持会议，省委常委、市委书记王新伟作讲话。全会听取和讨论王新伟受市委常委会委托作的工作报告，审议通过《中共沈阳市委关于深入贯彻落实习近平总书记在新时代推动东北全面振兴座谈会上重要讲话精神奋力谱写中国式现代化沈阳新篇章的实施意见》，讨论审议《关于以科技创新推动产业创新加快构建具有沈阳特色优势的现代化产业体系的行动计划》《关于以发展现代化大农业为主攻方向加快推进农业农村现代化的行动计划》《关于加快建设现代化基础设施体系提升对内对外开放合作水平的行动计划》《关于提高人口整体素质以人口高质量发展支撑全面振兴的行动计划》《关于进一步优化政治生态营造良好营商环境的行动计划》，讨论审议《中共沈阳市委关于2023年落实全面从严治党主体责任情况的报告》。市委副书记、市长吕志成就《实施意见》作说明。', '11月9日 省委常委、市委书记王新伟主持召开市委专题会议，研究市府广场元旦升旗仪式策划方案、沈阳站东广场地面及地下改造方案。', '同日 市委副书记、市长吕志成主持召开市政府党组（扩大）会议和常务会议，传达学习习近平总书记近期重要讲话精神，按照市委工作部署，研究贯彻落实工作。', '同日 住建部加强城市管理统筹协调暨城市运行管理服务平台建设现场会在山东临沂召开，沈阳受邀在会上作经验交流发言。', '同日 沈阳现代化都市圈住房公积金第二届联席会议暨一体化服务平台建设签约仪式在沈阳举行，32项公积金高频事项实现通办。', '11月10日 省委书记、省人大常委会主任郝鹏主持召开省委常委会会议，传达学习习近平总书记在中共中央政治局第九次集体学习时的重要讲话精神、在同全国妇联新一届领导班子成员集体谈话时的重要讲话精神、关于妇女儿童工作的重要指示精神和第七次全国妇女儿童工作会议精神，传达学习《中共中央、国务院关于加强和改进国有经济管理更好支撑中国式现代化建设的意见》《中共中央办公厅、国务院办公厅关于印发〈国有企业改革深化提升行动方案（2023—2025年）〉的通知》，研究全省贯彻落实意见；对推动全省国有企业改革深化提升、加快港口高质量发展等工作作出安排部署。省委常委、市委书记王新伟出席。', '同日 省委常委、市委书记王新伟会见全国政协常委，九三学社中央副主席、辽宁省委主委，省政协副主席卢柯一行。', '同日 市委副书记、市长吕志成主持召开调度会议，听取全市新能源汽车充电基础设施、5G通信基础设施建设情况，对下步工作进行部署。', '11月11日 省委常委、市委书记王新伟主持召开市委常委会会议，传达学习9月27日中共中央政治局会议精神，传达学习习近平总书记在同中华全国总工会新一届领导班子成员集体谈话时的重要讲话精神，研究全市贯彻落实工作。审议《沈阳市加快批零住餐业发展三年行动计划（2023—2025年）》《推动沈阳市会展业高质量发展三年行动计划（2023—2025年）》《沈阳都市圈交通一体化规划》《沈阳都市圈多层次轨道交通规划》。', '11月12日 省委常委、市委书记王新伟主持召开市委专题会议，研究城市基础设施建设及“三大工程”推进工作。', '同日 省委常委、市委书记王新伟，市委副书记、市长吕志成会见美团副总裁路海空、孙可青一行。', '11月13日 全省宣传思想文化工作会议在沈阳召开。省委书记、省人大常委会主任郝鹏出席会议并讲话。省委常委、市委书记王新伟出席会议。', '同日 沈阳临空经济区空中丝路新通道开通暨沈阳至芝加哥跨境电商全货机新航线开航仪式在沈阳空港物流海关监管中心举行。省委常委、市委书记王新伟出席仪式，市委副书记、市长吕志成出席仪式并致辞，中国国际货运航空股份有限公司总裁李军、中大门国际物流服务有限公司董事长徐平致辞。', '同日 省委常委、市委书记王新伟会见中国国际货运航空股份有限公司总裁李军、中大门国际物流集团董事长徐平一行。', '同日 市委副书记、市长吕志成到东北亚国际滑雪场、沈阳棋盘山冰雪大世界滑雪场调研冰雪产业发展情况。', '同日 市委副书记、市长吕志成主持召开市政府党组（扩大）会议和常务会议，传达学习9月27日中共中央政治局会议精神，传达学习省委十三届六次全会和市委十四届六次全会精神，按照市委工作部署，研究贯彻落实工作。', '同日 市人大常委会党组召开扩大会议。会议传达学习习近平总书记在中共中央政治局第八次集体学习时的重要讲话精神、习近平总书记在第三届“一带一路”国际合作高峰论坛开幕式上的主旨演讲精神、习近平总书记在中央金融工作会议上的重要讲话和中央金融工作会议精神、习近平总书记在同中华全国总工会新一届领导班子成员集体谈话时的重要讲话精神以及中国工会第十八次全国代表大会精神及全市贯彻落实意见，传达学习省委十三届六次全会、市委十四届六次全会精神。市人大常委会主任范继英主持会议并讲话。', '11月14日 沈阳市与国网辽宁省电力有限公司进行工作会商。省委常委、市委书记王新伟主持会商并讲话，市委副书记、市长吕志成，国网辽宁省电力有限公司党委书记、董事长黄震出席。', '同日 省委常委、市委书记王新伟到沈阳药科大学，就深入学习贯彻习近平总书记在新时代推动东北全面振兴座谈会上重要讲话精神，全面落实省委十三届六次全会精神，深化科教融合和产学研合作进行调研，并参加沈阳药科大学与相关医药企业签约仪式。', '同日 省委常委、市委书记王新伟主持召开市委党风廉政建设和反腐败斗争工作领导小组会议。', '同日 沈阳市召开2023年全市食品安全工作先进集体和先进个人表彰大会。会议授予在全市食品安全战线上成绩显著、贡献突出的50个单位“食品安全工作先进集体”荣誉称号，授予100名同志“食品安全工作先进个人”荣誉称号。', '同日 在第五届中国城市信用建设高峰论坛上，由沈阳市选送的《守信互信 共建共行 沈阳市社会信用体系建设工作纪实》微视频，获“第五届‘新华信用杯’全国信用应用场景微视频”最佳制作奖。', '11月14日—17日 市政府代表团先后赴上海、嘉兴、杭州三市，实地考察中国商飞上海飞机制造有限责任公司、天通高新集团有限公司、网易集团总部等重点企业，开展精准招商、引育重点项目。省人大常委会副主任陈向群出席市政府代表团与中国商用飞机有限责任公司的工作会商。市委副书记、市长吕志成率团开展招商推介活动。', '11月15日 省委常委、市委书记王新伟主持召开市委常委会会议，传达学习习近平总书记在中共中央政治局第九次集体学习时的重要讲话精神、在同全国妇联新一届领导班子成员集体谈话时的重要讲话精神、关于妇女儿童工作的重要指示精神和第七次全国妇女儿童工作会议精神，研究全市贯彻落实工作。审议《沈阳市学习借鉴浙江“千万工程”经验进一步推进“三美”建设实施方案》和《关于加强新时代沈阳高技能人才队伍建设的实施方案》。', '同日 省委常委、市委书记王新伟主持召开市委专题会议，研究沈阳市2024年城区绿化工作方案。', '11月16日 省委常委、市委书记王新伟出席沈阳市城市安全风险综合监测预警平台建设工作推进会议并讲话。', '同日 省委常委、市委书记王新伟到乐天世界二期、HD世界城、宝能环球金融中心T1塔楼、丽笙酒店，查看停缓建项目。', '同日 市人大常委会党组召开会议，听取市人大各专门委员会和常委会各工作机构今年工作完成情况、党建和党风廉政建设情况以及明年重点工作安排情况。市人大常委会主任范继英主持会议并讲话。', '同日 市政协党组召开扩大会议，传达学习习近平总书记在中共中央政治局第九次集体学习时的重要讲话精神，传达学习9月27日中共中央政治局会议精神，深入学习省委十三届六次全会、市委十四届六次全会精神，按照市委工作部署，研究贯彻落实工作。市政协主席于学利主持会议并讲话。', '11月17日 省委书记、省人大常委会主任郝鹏主持召开省委常委会会议，传达学习习近平总书记对山西吕梁市永聚煤矿一办公楼火灾事故的重要指示精神，传达学习中共中央政治局会议审议《关于二十届中央第一轮巡视情况的综合报告》精神，传达学习中央相关文件、会议精神，研究全省贯彻落实意见；会议对省筹备第十五届全国冬季运动会工作作出安排部署。省委常委、市委书记王新伟出席。', '同日 省委常委、市委书记王新伟主持召开市委专题会议，研究第十批在韩志愿军烈士遗骸迎回安葬仪式筹备工作。', '11月18日 省委常委、市委书记王新伟到沈北新区沈阳市中飞机械厂有限公司、沈阳宝隆飞机零部件有限公司、沈飞搬迁项目现场、沈飞复材及钛合金材料加工中心项目现场，就深入学习贯彻习近平总书记在新时代推动东北全面振兴座谈会上重要讲话精神，认真落实省委十三届六次全会及市委十四届六次全会部署，培育壮大航空产业集群、加快构建具有沈阳特色优势的现代化产业体系进行调研。', '11月19日 首届东北地区城市高质量发展大会在沈阳举行。省委常委、市委书记王新伟出席大会并致辞。住房和城乡建设部总经济师杨保军，市委副书记、市长吕志成，中国城市规划设计研究院院长王凯，北京市城市规划设计研究院院长石晓冬作主旨发言。中国城市规划学会常务副理事长兼秘书长石楠主持会议。', '11月20日 省委常委、市委书记王新伟主持召开市委专题会议，研究沈阳市职工医保门诊共济改革工作。', '11月21日 辽宁省与俄罗斯特维尔州友好交流与经贸合作会议在沈阳举行。省委书记、省人大常委会主任郝鹏，省委副书记、省长李乐成会见俄罗斯特维尔州州长伊戈尔·鲁德尼亚一行。省委常委、市委书记王新伟，市委副书记、市长吕志成参加相关活动。', '同日 省委常委、市委书记王新伟现场查看第十批在韩志愿军烈士遗骸迎回安葬仪式工作准备情况。', '11月22日 省委常委、市委书记王新伟主持召开市委常委会会议，传达学习习近平总书记对山西吕梁市永聚煤矿一办公楼火灾事故作出的重要指示精神，传达学习《中共中央关于印发〈干部教育培训工作条例〉的通知》《中共中央关于印发〈全国干部教育培训规划（2023—2027年）〉的通知》和全国干部教育培训工作会议精神，研究全市贯彻落实工作。', '同日 市委副书记、市长吕志成主持召开华晨宝马办公会，听取企业近期经营发展情况及意见建议，研究解决重点问题，推动企业加快发展。华晨宝马总裁兼首席执行官戴鹤轩参加会议。', '同日 市委统战部召开党外人士专题通报会，向各民主党派市委会、无党派人士和新的社会阶层人士通报中共沈阳市委十四届六次全会精神。', '同日 中国科学院网站、中国工程院网站分别发布公告，公布2023年新当选中国科学院院士名单和中国工程院院士名单，沈阳5名科学家当选。', '11月23日 第十批在韩中国人民志愿军烈士遗骸回国迎接仪式在沈阳举行，国务委员谌贻琴出席并讲话，退役军人事务部部长裴金佳主持仪式。省委书记、省人大常委会主任郝鹏，省委副书记、省长李乐成，省委常委、市委书记王新伟，市委副书记、市长吕志成参加迎接仪式。', '同日 省委巡视“边巡边改、边巡边建”试点工作推进会议召开，省委常委、市委书记王新伟出席并讲话。', '同日 省委常委、市委书记王新伟会见好莱坞金狮影业集团中国区CEO、杉杉创投辽宁合伙人任喆一行。', '同日 省委常委、市委书记王新伟会见法国辽宁协会候任会长、法国安达易集团董事长敖然一行。', '11月24日 第十批在韩中国人民志愿军烈士遗骸安葬仪式在沈阳抗美援朝烈士陵园举行，退役军人事务部部长裴金佳致悼念词，省委副书记、省长李乐成主持仪式。省委书记、省人大常委会主任郝鹏，省委常委、市委书记王新伟，市委副书记、市长吕志成参加仪式。', '同日 省委书记、省人大常委会主任郝鹏主持召开省委常委会会议，传达学习习近平总书记关于主题教育系列重要讲话精神和中央巡回指导组座谈会精神，传达学习中共中央印发《全面深化法治领域改革纲要（2023—2027年）》，研究全省贯彻落实意见；安排部署全省安全生产、会展业高质量发展和乡村振兴等工作。省委常委、市委书记王新伟出席。', '同日 第十批在韩中国人民志愿军烈士遗骸安葬仪式在沈阳抗美援朝烈士陵园举行。省委常委、市委书记王新伟参加仪式。', '同日 市委副书记、市长吕志成主持召开市政府党组（扩大）会议和常务会议，传达学习习近平总书记近期重要讲话、重要指示精神，按照市委工作部署，研究贯彻落实工作。', '同日 市十七届人大常委会举行第二十四次主任会议，听取关于召开市十七届人大常委会第十三次会议方案的汇报。市人大常委会主任范继英主持会议。', '同日 市人大常委会党组召开扩大会议。会议传达学习习近平总书记在中共中央政治局第九次集体学习时的重要讲话精神，习近平总书记在同全国妇联新一届领导班子成员集体谈话时的重要讲话、关于妇女儿童工作的重要指示和第七次全国妇女儿童工作会议精神，习近平总书记对山西吕梁市永聚煤矿一办公楼火灾事故作出的重要指示精神，传达学习《中共中央关于印发&lt;干部教育培训工作条例&gt;的通知》《中共中央关于印发&lt;全国干部教育培训规划（2023—2027年）&gt;的通知》和全国干部教育培训工作会议精神。市人大常委会主任范继英主持会议并讲话。', '同日 市委、市政府向中国科学院金属研究所研究员李殿中致贺信，祝贺李殿中当选中国科学院院士。', '11月25日 黑龙江省党政代表团到辽宁考察，两省在沈阳举行工作交流座谈会。省委书记、省人大常委会主任郝鹏主持座谈会并讲话，黑龙江省委书记、省人大常委会主任许勤出席座谈会并讲话。省委副书记、省长李乐成，黑龙江省委副书记、省长梁惠玲分别介绍两省经济社会发展情况。省政协主席周波出席座谈会。在辽宁期间，黑龙江省党政代表团先后到沈阳拓荆科技股份有限公司、沈阳国际软件园、新松机器人自动化股份有限公司和航空工业沈阳飞机工业（集团）有限公司考察调研。省委常委、市委书记王新伟出席座谈会并陪同考察。', '同日 市委副书记、市长吕志成到沈北新区部分重点企业调研。吕志成先后到辽宁依生生物制药有限公司、沈阳焦煤公司二号井、沈阳宝隆飞机零部件有限公司、希杰（沈阳）生物科技有限公司实地考察，详细了解企业生产经营情况，现场办公协调解决企业发展中遇到的问题。', '11月27日 全省新型工业化暨重点产业集群推进会议在沈阳召开。省委书记、省人大常委会主任郝鹏出席会议并讲话，省委常委、市委书记王新伟出席。', '同日 省委常委、市委书记王新伟研究部署2024年配售型保障性住房建设计划有关工作。', '同日 省委常委、市委书记王新伟主持召开市金融风险化解和金融改革领导小组2023年第九次会议。', '同日 辽宁省首届“先锋杯”职工篮球比赛在辽宁体育馆开幕。市委副书记、市长吕志成出席开幕式。', '同日 市委、市政府向中国航发沈阳发动机研究所总设计师、副所长刘永泉发贺信，祝贺刘永泉当选中国工程院院士。', '11月28日 省委常委、市委书记王新伟在随辽宁省党政代表团赴广东省学习考察期间会见广州汽车集团股份有限公司党委书记、董事长曾庆洪，创维汽车创始人及开沃集团董事长黄宏生，广东圣丰集团有限公司董事长江南，广药集团董事长李楚源。', '同日 市委副书记、市长吕志成率有关部门负责人，到位于苏家屯区的地铁6号线下河湾站、铁西区的地铁3号线宝马车辆段、于洪区的地铁3号线甘官站、和平区的地铁6号线浑河站等项目建设现场调研。', '11月28日—30日 辽宁省党政代表团赴广东省学习考察，深入贯彻落实习近平总书记在新时代推动东北全面振兴座谈会上重要讲话精神，对标先进学习经验，深化交流扩大合作，以改革创新精神推动辽宁高质量发展迈出新步伐。28日下午，广东·辽宁两省合作交流座谈会在广州市举行。29日至30日，代表团到深圳市和东莞市，深入企业、园区、科研院所，学习广东以改革创新推动高质量发展的先进经验做法，积极促进深圳、东莞与辽宁产业对接和创新协同，为打造新时代“六地”、扎实推进中国式现代化辽宁实践汇聚新动力增添新活力。省委常委、市委书记王新伟参加有关活动。', '11月29日 省委常委、市委书记王新伟在随辽宁省党政代表团赴广东省学习考察期间会见华为公司高级副总裁杨瑞凯一行。', '同日 市委副书记、市长记吕志成主持召开市政府党组（扩大）会议和常务会议，传达学习《中共中央、国务院关于建设更高水平开放型经济新体制促进构建新发展格局的意见》，按照市委工作要求，研究部署当前重点工作。', '同日 市人大常委会主任范继英赴新民市长信新材料有限公司、胡台镇杜板牛村、正林智能制造家居产业基地就乡村振兴工作情况开展调研，详细了解乡村战略性新兴产业发展、基层治理和建设、智能工厂生产情况。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>34</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>辽中区行稳致远富民强区</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2019-01-07</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/qxdt/202112/t20211202_1845397.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['刚刚过去的365个日夜，是辽中振兴发展的关键节点，各种城市大考纷至沓来——项目建设、创城攻坚、环保督察……在滚石上山、爬坡过坎的突围奋进中，辽中全区上下，同心同德，合力攻坚，谱写了一曲转型发展、加速振兴的奋斗凯歌。', '2019年，辽中将以习近平总书记在辽宁考察时和在深入推进东北振兴座谈会上重要讲话精神指导振兴发展实践，奋力走出一条富民强区的发展新路。', '谋势需布局，谋子靠执行。镌刻好发展方位的辽中，率先完成春天的布局，相信行稳致远的辽中区，定能收获一个更好的未来。', '辽中牢固树立项目为王理念，认真落实区领导实名制服务企业、包保项目工作机制，切实强化对项目经济的领导。坚持外引内育，一手抓招商引项目，一手抓企业促转型，全力推动存量转型升级、增量加速崛起。', '组织带领企业家代表赴浙江等地考察学习，努力帮助企业拓宽视野、融资贷款、争取政策、对接市场，扶持现有企业做大做强。和世泰钛业引入中车资本建设的钛合金精加工中心投入生产，艾克线缆与金川集团战略合作正在筹备主板上市，盛纳机械收购中屹科技并实现当年投产，万谷园米业被农业农村部评为农业产业化国家重点龙头企业，远程摩擦等一批成长型企业正在加速动能转换、做大做强。', '区级领导带头走出去、请进来，招商引资上项目，高德木业、一品汤泉等项目即将投产运营，英派铝合金、中科煜宸增材制造等重点产业项目加快建设，国际家居建材产业园等一批重点项目签约落地，综合保税区新增注册贸易企业19家，积蓄了振兴发展新动能。', '努力在新时代、新征程中勇当尖兵。2018年，辽中区上下团结一心，砥砺前行——学习力不断加强，观念水位不断提升，改革向深水区不断挺进。', '辽中区围绕贯彻落实习近平总书记重要讲话精神，先后开展了“迈步新时代建设新辽中”“解放思想推动高质量发展大讨论”活动，在对标中找差距、查病灶，谋思路、出对策，以思想大解放为改革再深化、实践再创新注入了强大动力。', '事业单位优化整合、党政机构改革稳步实施，村集体产权制度改革试点清产核资扎实开展，“政银担”农业金融服务改革、区镇(街道)财税体制改革取得新进展。创新实施开发区“管委会+平台公司”运营模式，优化招商体制机制，发展活力得到释放。', '有效推进营商环境建设，“放管服”和“最多跑一次”改革成效彰显。积极实行窗口延时、错时服务和“即来即办”“容缺受理”等工作机制，新开办企业审批时限大幅压缩。全年新增市场主体1206户，同比增长12.8%。', '精准规划、精致建设、精细管理，辽中举全区之力打赢“三城联创”攻坚战。市容市貌焕然一新，占道经营、私搭乱建、牌匾标识等专项整治成效显著，在全市率先全部取缔马路市场，拆除违法建筑83万余平方米，一批城市顽症得到有效治理。', '基础设施更加完善，副食大厅、背街小巷等改造工程投入使用，实施老旧小区路面改造13万平方米，新增城市绿地9万平方米，实现了城区无旱厕。华润翡翠城等高品质项目开工建设，城市形象得到有效提升。', '宜居乡村建设扎实推进，新修农村公路等城乡道路242.8公里。严格落实“河长制”，近海经济区污水处理厂、城区污水处理厂扩容工程稳定达标运行，畜禽养殖密集区污染治理启动实施。深化文明城市创建，皮家堡村、于家台村分别被评为省级文明家园示范村、全省文明村。', '2019年，辽中区将进一步解放思想，深化区情认识，聚焦聚力，锁定“一个目标”，统筹好“三个关系”，抓实“四项工作”，努力开创区域发展的崭新局面。', '锁定“一个目标”：以富民强区为目标，全面建成小康社会，结合辽中实际，打造特色产业集聚、活力开放、生态良好、宜居宜业的新辽中。', '统筹好“三个关系”：始终立足县域发展基础这个实际，统筹好“城与乡”的关系，发展壮大现代农业，提速新型城镇化进程，加快推动乡村振兴；始终把开放创新作为根本动力，统筹好“内与外”的关系，坚持眼睛向内，练好内功底活，坚持目光向外，强化开放合作，全力做强区域经济；把握登高望远与脚踏实地相结合原则，统筹好“远与近”的关系，多做打基础、利长远的工作，一步一个脚印儿地推动振兴发展。', '2019年，辽中将把营商环境建设摆在更加突出的位置，全力打造全市审批时限最短区。聚焦企业和群众反映的难点热点问题，强化明察暗访，对破坏营商环境问题发现一起查处一起。', '认真落实“万人进万企”活动，坚持“一把手”亲自抓，组织全区400名干部与企业结对包保，做到有求必应、无事不扰，营造亲商安商富商的良好氛围。', '抓实工作体系构建、诉求平台搭建、解决机制创建，分级解决、区级终结，区级权限能解决的诉求解决在区内、坚决不上交。加强诚信政府建设，通过盘活存量国有资产，严格控制新增政府工程，开源节流、多措并举，确保按计划进度解决政府拖欠工程款等问题，提升政府形象。', '全力做优做精现代农业。加快农产品精深加工园基础设施建设，力争新开工农事龙头项目3个；扶持国家农业产业化重点龙头企业万谷园米业等10家企业发展壮大，提高就地加工转化率，拉伸农业产业链条。立足辽中12万亩设施果蔬、10万亩寒富苹果、10万亩精养鱼池等农业基础，加大新技术推广，加速品种调优、规模调大。推动土地托管、入股等适度规模经营，新发展合作社、家庭农场100家，提高农民组织化程度。整合每年25万头肉牛出栏量的产业资源，加快辽寨牧村项目建设，积极引进北京顺鑫肉牛加工项目，推动肉牛养殖规模化生态化产业化。', '推广“公司+基地+合作社+农户”模式，依托威云果品、元丰水产等龙头企业，拓展俄罗斯、韩国以及欧洲等国际市场。', '深入推进“双安双创”，力争绿色认证、有机认证面积达65%以上。借助展会等平台大力推介辽中优质农产品，申报辽中大米、辽中鲫鱼、辽中葡萄、辽中玫瑰等5个地理标志产品证明商标，打造农业知名品牌。', '依托珍珠湖生态旅游、杨士岗温泉小镇，挖掘满族文化、生态湿地、特色农业资源，讲好辽中故事，以花溪地、一品汤泉等温泉旅游项目为龙头，发展休闲采摘、体验农业等乡村旅游，推动形成食住游娱购“一条龙”产业链，促进三次产业融合发展，培育壮大养前村等6个乡村旅游特色村。', '加快发展农村电子商务，建设特色农产品体验馆，打造辽中农业电商产业园、电商孵化基地。', '2019年，辽中区将坚持打基础、利长远，强化“外引、内育”两手抓，以近海经济区为载体，聚焦装备制造及配套、卡车特种车产业，集中开展攻坚，清理低效用地，腾出发展空间，优化存量，引进增量，不断壮大实体经济。', '深化“扶优培强”工程，全力抓好政策落地、难题化解，推动装备制造及配套产业转型。推动艾克电缆加快上市步伐，帮助远程摩擦等创新型企业引入战略投资；以中科三维打印创新中心为平台载体，再引进10户高端装备制造及3D打印研发企业入驻；发挥院士专家工作站、企业研发实验室和省市级企业技术中心等公共研发和服务平台作用，鼓励引导企业加大技术创新投入，加快向“专精特新”转型，培育一批创新型企业。', '加快发展卡车特种车产业。目前，以金杯卡车项目为牵动，以中屹汽车零部件、英派铝材轮毂为代表的汽车零配件企业达到12家。辽中区将借势发力，加快汽车产业园建设，全力推动金杯卡车项目尽快投产，吸引上下游配套企业入驻，力争新引进相关产业项目20个。', '2019年，辽中将进一步强化开放发展理念，在开放合作中聚集外部发展要素，孕育发展潜力，抢抓发展机遇。要狠抓招商促开放，利用正在开展的项目攻坚百日会战，区领导带头走出去，充分发挥商会作用，强化以企招企、以商招商，做实做足项目储备。', '巧借政策助开放，用好京沈对口合作等政策，大力实施“飞地经济”，强化项目对接、产业合作、人才合作，探索跨区域要素资源共享共用、产业关联互动新路径，提高产业层次和发展质量。要做优平台促开放，狠抓综合保税区建设，着力破解体制机制、招商引资、功能作用等瓶颈短板，有效释放综保区开放平台功能。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>34</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>中国人民政治协商会议沈阳市第十六届委员会常务委员会工作报告</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2023-01-18</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/qtzfxx/gzbg/bmgzbg/202301/t20230118_4373028.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['中国人民政治协商会议沈阳市第十六届委员会常务委员会工作报告-部门工作报告-沈阳市人民政府', '——2023年1月7日在政协沈阳市第十六届委员会第二次会议上 沈阳市政协主席 于学利', '现在，我代表中国人民政治协商会议沈阳市第十六届委员会常务委员会，向大会报告工作，请予审议。', '2022年是中共二十大胜利召开之年，在省政协的有力指导下，在中共沈阳市委的坚强领导下，市政协及其常委会坚持以习近平新时代中国特色社会主义思想为指导，以迎接中共二十大、学习宣传贯彻中共二十大精神为主线，认真贯彻落实习近平总书记关于加强和改进人民政协工作的重要思想，牢牢把握团结和民主两大主题，充分发挥人民政协作为专门协商机构作用，积极践行全过程人民民主，全面发展协商民主，着力推进政协协商走深走实，围绕中心、服务大局，履职尽责、担当作为，为新时代沈阳全面振兴全方位振兴实现新突破贡献了智慧和力量。', '一年来，我们牢牢把握政协工作的正确政治方向。旗帜鲜明讲政治，铸牢共同思想政治基础。深入学习贯彻习近平新时代中国特色社会主义思想，不断提高政治判断力、政治领悟力、政治执行力，自觉养成在吃透党中央精神前提下开展工作的习惯。持续学习中央政协工作会议精神，巩固扩大党史学习教育成果。中共二十大召开后，在政协委员和政协机关中迅速掀起学习宣传贯彻热潮。深刻领会习近平总书记“五个牢牢把握”重要要求，按照中共中央统一部署及省、市委要求，市政协党组和主席会议成员以上率下，坚持原原本本学、融会贯通学、联系实际学，采取党组理论学习中心组学、常委会会议学、委员讲堂学、宣讲辅导学、专委会学、党支部学等各种形式，推进政协“两支队伍”的学习不断深入。党组成员深入基层一线委员中宣讲中共二十大精神，结合政协工作实际抓好贯彻落实，做到学思用贯通、知信行统一。深刻领悟“两个确立”的决定性意义，牢记“国之大者”，增强“四个意识”、坚定“四个自信”、做到“两个维护”，在思想上政治上行动上同以习近平同志为核心的中共中央保持高度一致。', '一年来，我们紧紧依靠市委的坚强领导。中共沈阳市委高度重视政协工作，将其纳入重要议事日程。市委常委会坚持半年、全年听取政协党组工作汇报，市委书记议事会每月研究一次政协工作。市委常委会专题研究政协年度协商计划，市委、市政府主要领导分别选择重大议题参加市政协专题议政性常委会会议协商，推进重大议题落实落地。市委认真贯彻落实中共中央办公厅《关于加强和改进新时代市县政协工作的意见》，在全省率先出台《关于加强和改进新时代市、区县（市）政协工作的实施意见》，从制度上推动市县政协“基础工作薄弱、人员力量薄弱”问题的解决，解决了整合办公场所、人员编制等一批长期想解决而没有解决的难题，《人民政协报》等国家级媒体进行了报道。', '一年来，我们锚定沈阳建设国家中心城市、为全省作出“五个示范”开展政协协商、建言资政，助力市委、市政府科学决策、民主决策，助推高质量发展。', '一是围绕沈阳现代化都市圈建设调查研究、建言资政。贯彻省委、省政府“一圈一带两区”区域发展战略，组织民主党派和政协委员赴成都、武汉、长沙等地学习考察都市圈建设经验。协调沈阳现代化都市圈各市政协聚焦“沈阳现代化都市圈公共服务共建共享实现新突破”开展联合调研，形成了“都市圈疫情防控能力建设”、“优质教育资源共建共享”、“公共交通无缝对接”、“公共就业综合服务平台建设”等8项调研成果、1篇综合调研报告及23篇专题调研报告，召开专题议政性常委会会议，协商成果成为市委、市政府推进沈阳现代化都市圈建设的重要参考。承办首届沈阳现代化都市圈政协研讨会，推动都市圈七市一区“优质教育资源共建共享”等6项公共服务合作项目签约，“关于加快推进沈阳现代化都市圈公共服务共建共享实现新突破”综合调研报告经省政协报省委、省政府，得到了充分肯定。', '二是围绕做好结构调整“三篇大文章”调查研究、建言资政。聚焦“产学研协同机制建设”，联合各民主党派开展调研视察、考察学习，形成调研报告6篇，召开专题议政性主席会议，提出“优化产学研协同创新环境”、“建设高质量创新平台”等八个方面建议，市委主要领导对此作出批示，要求全市有关区县和部门认真吸纳借鉴。', '三是围绕实施乡村振兴战略调查研究、建言资政。聚焦“提升县域开发区产业园区承载力和吸引力”，联合民主党派、涉农区县（市）政协、专家学者深入调研，提出“加快完善基础配套设施”、“打造优势产业集群”等四个方面建议，得到市委、市政府重视，吸纳到《沈阳市实施乡村振兴工作三年行动计划（2023-2025）》等文件中，促进了成果转化。我们聚焦专业村建设、“美丽村屯”建设、宅基地制度改革试点等重点工作，开展对口协商和专项视察，助推乡村振兴。', '同时，我们还围绕争创中欧班列（沈阳）集结中心、现代服务业数字化转型、推进冰雪文化旅游产业发展、打造英雄城市特色名片、国资国企改革和践行“两邻”理念、推进“四零”建设等开展专题调研协商，助推经济发展、社会稳定、文化繁荣。', '一年来，按照市委决策部署，我们积极参加全市重大专项工作，敢于担当，善于作为，树立了人民政协为人民的良好形象。', '这一年，我们积极参加浑南科技城专班工作。首创“工作专班+政协协商”工作模式，先后组织50余名政协委员开展调研活动40余次，形成“推动浑南科技城高水平建设”等8篇调研报告，有针对性地提出人才高地建设、体制机制创新等方面建议。市委、市政府主要领导多次作出批示并专题研究落实。工作专班身在其中、干在其中、知在其中、议在其中、成果体现在其中，助推了华为辽宁区域总部、智慧之云双创中心等一批项目落地开工，有力推动了浑南科技城建设。', '这一年，我们积极参加疫情防控斗争。参加组织领导外防输入工作，先后负责机场外防输入专班、中国医大一院专班、大货车专班工作。认真贯彻落实中共中央决策部署及省、市委工作要求，边工作边调研边总结归纳，先后出台桃仙机场外防输入工作模板、大货车外防输入工作模板，有力地促进了疫情防控工作。全市政协委员和政协机关干部在疫情防控大考中，不畏艰难，勇往直前，坚韧不拔，有为有位，展现了人民政协更大的担当和作为，受到了省、市领导的充分肯定和社会各界的赞誉。', '这一年，我们积极参加“振兴新突破、我要当先锋”专项行动，参加了专项改革、乡村振兴、“惠帮企”、舒心就业、幸福教育等重点工作，组织政协委员开展“抢机遇促招商抓项目”活动，探索“招商+履职”、“招商+调研”、“招商+推介”等政协特色招商方式，充分体现了市委部署到哪里、政协工作就跟进到哪里。', '一年来，我们持续学习贯彻政协章程，认真贯彻落实《中国共产党政治协商工作条例》、《中国共产党统一战线工作条例》，坚持问题导向，建机制、补短板、强弱项，建立健全32项工作制度，以制度化、规范化、程序化的新成果推进政协工作取得新成效。', '一是建立健全党建制度机制。完善《中共政协沈阳市委员会党组工作规则》、《中共政协沈阳市委员会党组履行全面从严治党主体责任实施细则》、《中共政协沈阳市委员会党组意识形态工作责任制实施细则》等10余项党建工作制度，政协党建工作质量不断提高。', '二是建立健全协商制度机制。完善《中国人民政治协商会议沈阳市委员会主席会议工作规则》、《政协沈阳市委员会关于进一步提高提案质量的意见》等制度，制定《政协沈阳市委员会关于进一步提高协商议政质量 促进协商成果转化的实施意见》、《政协沈阳市委员会年度协商计划执行落实情况评价办法》等制度，对协商原则、组织领导、对象和内容、基本程序、成果运用和反馈、保障机制等作出了明确规定，形成了闭环管理体系。', '三是建立政协协商与基层协商相结合制度机制。积极探索政协协商与基层协商相结合的路径办法，深入区县（市）政协、街道（乡镇）、社区（村屯）调研，出台《政协沈阳市委员会推进政协协商与基层协商相结合实施方案》，明确了协商什么、谁来协商、在哪里协商、怎么协商等具体问题。坚持寓协商于服务之中，组织委员深入社区（村屯）送文化、送法律、送健康，让群众切实感受到政协离自己很近，政协委员就在身边。我市的做法在省政协会议上作了经验介绍。', '一年来，我们强化制度执行，推进民主监督、加强提案办理、积极反映社情民意，为推动经济社会发展、促进民生改善贡献了政协力量。', '一是扎实开展民主监督。围绕城市管理、生态保护、疫情防控、农村“三美”建设等开展民主监督，助推了基层社会治理。出台《沈阳市政协委员担任沈阳市人民检察院特约民主监督员工作办法》，18名政协委员受聘担任检察工作民主监督员，展开履职工作。', '二是着力提高提案办理质量。采取主席会议成员督办重点提案，市委、市政府班子成员牵头领办重点提案等措施，提升提案办理质量，涌现出一批优秀提案、提案办理先进单位和个人。全年立案提案616件，已全部办复。', '三是积极反映社情民意。全年共报送社情民意信息550余篇，其中4篇被全国政协采纳，98篇被省政协采纳，12篇得到省、市领导批示。《在疫情状态下应对医疗资源紧缺和挤兑的建议》得到省委、省政府主要领导批示，《关于对防疫物资加强质量监管的建议》等信息，得到市委、市政府主要领导批示，促进了相关问题的解决。', '一年来，我们把加强思想政治引领、广泛凝聚共识作为履职工作的中心环节，发挥人民政协作为统一战线组织的优势和作用，团结各界共促振兴发展。', '一是积极促进团结合作。坚持主席会议成员联系常委、常委联系委员、委员联系界别群众制度，走访党派成员，及时沟通情况，倾听意见建议。围绕促进民族团结宗教和谐，开展“铸牢中华民族共同体意识，促进民族团结进步”、“依法开展宗教场所事务管理，促进宗教领域和谐稳定”调研协商，建言献策。围绕挖掘统战历史资源，向全国政协提交《关于在辽宁沈阳打造人民民主统一战线爱国主义教育基地的提案》，被列为重点提案，全国政协领导来沈阳专题调研，扩大了沈阳统战文化的影响力。', '二是积极开展委员读书活动。认真落实习近平总书记关于政协委员“多读书、读好书、善读书”的重要指示精神，组织“擦亮一个品牌、建立三个载体、开展七个一”委员读书活动，推动“读书+履职”深度融合，以读书促资政、蕴资政于读书。推荐阅读习近平总书记《论中国共产党历史》、《习近平谈治国理政》等优秀书目90余种，引导委员学习中国共产党的创新理论，学习中共党史、新中国史、改革开放史、社会主义发展史、统一战线史，学习科技、法律、生态文明、文学艺术等方面知识。政协委员和机关干部积极撰写体会文章，先后在国家、省、市级媒体刊发200余篇，编辑出版了《书香政协·沈阳正读书》优秀作品集。最是书香能致远，为有源头活水来。通过读书活动，促进了学思用贯通、知信行统一。政协委员从读书学习中增加知识储备，从读书学习中厚植人文修养，从读书学习中滋养家国情怀，从读书学习中知责担责尽责，从读书学习中汇聚团结奋进力量。沈阳市政协委员读书活动走在了全国前列，《人民政协报》、人民政协网等媒体相继报道。', '三是创新讲好“沈阳故事”。发挥文史资料存史资政团结育人作用，编纂《沈延毅年谱》，组织开展《沈阳文化丛书》编撰工作，全面展示沈阳历史文化、红色文化、工业文化。举办喜迎二十大书法美术摄影作品展。组织委员和机关干部以新闻、诗歌、散文、书信、歌曲、书法等多种体裁、多种形式，用心用情用力讲好“沈阳故事”。《矢志不移航空梦，忠贞不渝跟党走》等文章在《人民政协报》发表，《沈阳，我的第二故乡》、《数百个新中国工业史上的“第一”在这里诞生》等30余篇故事广泛传播，扩大了沈阳的知名度、美誉度，营造了团结奋斗的浓厚氛围，吸引更多人向往沈阳、扎根沈阳、圆梦沈阳。', '一年来，我们适应新形势新要求，着力在政协委员和机关干部“两支队伍”建设上下功夫，不断提高履职能力。', '一是充分发挥委员主体作用。加强委员学习培训，持续办好“委员讲堂”、建好“委员之家”。全年共组织5期委员学习培训、2期委员讲堂，累计培训委员2000余人次，不断提高委员政治把握能力、调查研究能力、联系群众能力、合作共事能力。强化委员管理，加强委员履职考核，评选优秀委员，激发委员履职热情。委员全年参加政协活动5200余人次，主体作用得到进一步发挥。', '二是着力建设模范机关。坚持政协机关是政治机关，以党的建设为引领，全面加强政治建设、思想建设、组织建设、作风建设、纪律建设，把制度建设贯穿其中。严格落实中央八项规定及其实施细则精神，落实“过紧日子”要求，严格控制经费支出，厉行节约、反对浪费。发扬斗争精神，直面问题、决不绕道，认真整治机关中存在的慵懒散现象。举一反三，扎实做好巡视反馈问题整改落实。以上率下，强化机关学习，培育积极向上的机关文化，涵养风清气正政治生态，机关学习氛围日益浓厚，作风持续转变。', '三是做好宣传工作。扛起宣传思想工作举旗帜、聚民心、育新人、兴文化、展形象的使命任务，牢牢把握意识形态领域的领导权、主动权。加强对“沈阳政协”微信公众号、政协网站、《沈阳政协》刊物、文史馆、书画院等意识形态阵地的日常管理，弘扬主旋律，传播正能量。加强政协新媒体管理，做好通联工作，培养通讯员队伍。全年市以上媒体发稿520余篇，其中，人民网、新华网、《人民政协报》等国家级媒体刊发86篇。有30篇文章进入《人民政协报》“政能量”榜。“沈阳政协”微信公众号声量指数在全国15个副省级城市中名列榜首。', '各位委员，过去一年取得的成绩，是中共沈阳市委坚强领导的结果，是市政府大力支持的结果，是社会各界鼎力相助的结果，是市政协各参加单位、全市各级政协组织和广大政协委员共同努力的结果。在此，我代表市政协常委会表示衷心的感谢!', '在总结成绩的同时，我们也清醒地认识到工作中还存在一些差距和不足，主要是：民主监督工作需要进一步加强；联系委员、联系界别群众工作存在短板；调查研究能力存在不足；机关作风建设需要持续加强等。我们将在今后的工作中认真研究并加以解决。', '2023年是全面贯彻落实中共二十大精神的开局之年，是实施“十四五”规划承上启下的关键之年，是实施全面振兴新突破三年行动的首战之年。市政协工作的总体要求是：坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻落实中共二十大精神、中央经济工作会议精神，认真贯彻落实习近平总书记关于加强和改进人民政协工作的重要思想，深入贯彻落实习近平总书记关于东北、辽宁振兴发展的重要讲话和指示批示精神，全面落实省委、市委经济工作会议部署要求，扎实推进中国式现代化，坚持稳中求进工作总基调，完整、准确、全面贯彻新发展理念，服务和融入新发展格局，着力推动高质量发展，围绕更好统筹疫情防控和经济社会发展，更好统筹发展和安全，全面深化改革开放，大力提振市场信心，把实施扩大内需战略同深化供给侧结构性改革有机结合起来，突出做好稳增长、稳就业、稳物价工作，有效防范化解重大风险，聚焦加快建设国家中心城市、为全省作出“五个示范”，履行维护国家“五大安全”政治使命，着力补齐“四个短板”，扎实做好“六项重点工作”，持续做好结构调整“三篇大文章”，推进产业发展与转型、城市发展与转型、社会发展与转型，牢牢把握团结和民主两大主题，坚持发扬民主和增进团结相互贯通、建言资政和凝聚共识双向发力，发挥人民政协作为专门协商机构作用，加强制度化、规范化、程序化等功能建设，提高深度协商互动、意见充分表达、广泛凝聚共识水平，在奋力推动新时代沈阳全面振兴全方位振兴实现新突破中展现更大担当和作为。', '把学习宣传贯彻中共二十大精神作为当前和今后一个时期的首要政治任务，在全面学习、全面把握、全面落实上下功夫，切实把思想和行动统一到中共中央决策部署上来。', '一是持续抓好学习培训。贯彻落实《中共中央关于认真学习宣传贯彻党的二十大精神的决定》及省、市委部署要求，面向全体政协委员和机关干部开展多形式、分层次、全覆盖的学习培训，引领参加市政协的各党派团体和各族各界人士学深悟透中共二十大提出的新思想新论断、作出的新部署新要求，学出政治坚定、学出历史自信、学出使命担当、学出能力水平。', '二是持续抓好宣讲宣传。加强思想政治引领，坚持主席会议成员带头，深入一线、深入委员开展宣讲。用好政协网站、微信公众号等载体，广泛宣传中共二十大精神，宣传政协“两支队伍”学习贯彻中共二十大精神的生动实践。发展全过程人民民主、统一战线等方面理论的学习研究，广泛凝聚共识，汇聚奋进力量。', '三是持续抓好贯彻落实。把贯彻落实中共二十大精神与贯彻落实习近平总书记关于加强和改进人民政协工作的重要思想结合起来，与贯彻落实习近平总书记关于东北、辽宁振兴发展的重要讲话和指示批示精神结合起来，坚持学思用贯通、知信行统一，紧密结合实际，完善工作举措，把中共二十大精神落实到市政协工作的全过程各方面。', '围绕着力加强项目建设，在提升城市发展能级上实现新突破，聚焦“一枢纽、四中心”建设、国际消费中心城市建设，突出产业转型、基础设施、新型城镇化等重点领域重大项目建设开展调研协商，助推实现“三个一”目标。', '围绕着力优化营商环境，在全面深化改革上实现新突破，聚焦“一网通办”、“一网统管”等方面开展民主监督，助力形成营商环境好、创新能力强、区域环境优、生态环境美、开放活力足、幸福指数高的振兴发展新局面。', '围绕着力做好结构调整“三篇大文章”，在发展先进制造业上实现新突破，聚焦建设数字沈阳、智造强市等方面深入调研协商，助推在改造升级“老字号”、培育壮大“新字号”上为全省作出示范。', '围绕着力推进科技自立自强，在引育壮大新动能上实现新突破，聚焦加快推进浑南科技城建设等方面深入调研协商，助力创新生态、创新平台、创新人才“三位一体”推进。', '围绕着力促进区域协同发展，在引领沈阳现代化都市圈建设上实现新突破，聚焦规划共绘、交通共联、产业共链、平台共享、生态共保、文旅共建、社会共治持续调研协商，助推打造国家新型工业化示范区、东北振兴发展重要增长极。', '围绕着力完善通道平台，在推进高水平对外开放上实现新突破，聚焦做强做优沈阳综保区、自贸区、临空经济区、中欧班列沈阳（集结）中心开展调研协商，助力扩大开放。', '围绕着力推进城乡融合发展，在高品质城乡建设上实现新突破，聚焦城市建设、乡村振兴、粮食安全、农村宅基地制度改革、城市更新等方面开展调研协商，助推高品质城乡建设。', '围绕着力提高市域治理能力，在统筹发展与安全上实现新突破，聚焦维护安全稳定，在践行“两邻”理念、健全城乡社区治理体系等方面开展调研协商，助推建设更高水平的平安沈阳。', '围绕着力推动绿色低碳发展，在生态文明建设上实现新突破，聚焦湿地保护、公园城市建设等开展调研协商，助推在绿色低碳发展上为全省作出示范。', '围绕着力优化法治环境、信用环境，在打造法治沈阳上实现新突破，聚焦依法行政、司法公正公开等方面开展民主监督，助力打造良好法治环境。', '围绕着力实施“文化+”工程，在建设文化强市上实现新突破，聚焦繁荣发展文化事业和文化产业开展调研协商，完成《沈阳文化丛书》编撰出版工作，助推文化强市建设。', '围绕着力保障改善民生，在增进民生福祉上实现新突破，聚焦做实舒心就业、幸福教育、健康沈阳、品质养老等民生工程开展调研协商，助推提升人民生活品质。', '认真贯彻落实《中国共产党政治协商工作条例》、政协章程，践行全过程人民民主，积极发展协商民主，推进政协协商走深走实。', '一是牢固树立协商意识。把协商民主贯穿履职全过程，坚持协商于决策之前和决策实施之中。要认真学习制度、执行制度，在实践中不断探索完善协商制度，规范协商程序，加强制度化、规范化、程序化等功能建设，提高深度协商互动、意见充分表达、广泛凝聚共识水平。', '二是进一步健全协商平台。在全体会议协商、常委会会议协商、主席会议协商、专题协商、提案协商、对口协商的基础上，探索开展双月协商、界别协商、网络协商、微协商，畅通反映社情民意信息渠道，促进知民情、汇民意、聚民智。', '三是进一步探索协商路径。坚持不建机构建机制、不挂牌子重实效，深化政协协商与基层协商相结合，用好“辽事好商量·聊事为人民”品牌，明确委员活动召集人，依托“两代表一委员”工作室，深入社区（村屯）有序开展协商，助力基层社会治理。', '四是进一步培育协商文化。弘扬中华民族兼容并蓄、守望相助等优秀传统文化，培育协商民主文化。坚持有事好商量、众人的事情由众人商量，开展广泛协商、平等协商、有序协商、真诚协商，形成既畅所欲言、各抒己见，又理性有度、合法依章的良好氛围。', '认真贯彻落实《中国共产党统一战线工作条例》，坚持中国共产党领导的多党合作和政治协商制度，坚持党的领导、统一战线、协商民主有机结合，以协商聚共识，以共识固团结，以团结增力量。', '一是拓展思想政治引领渠道。充分发挥重要阵地、重要平台、重要渠道的作用，加强与各民主党派、工商联、无党派人士和各族各界人士的联系，加大民主党派提案和大会发言工作力度。建立健全党组成员同党外委员谈心交流、主席会议成员走访看望委员、专门委员会联系界别委员等制度机制，提高团结联谊工作水平。切实发挥中共党员委员的示范引领作用，通过耐心细致的工作找到最大公约数，画出最大同心圆。加强文史资料工作，本着“亲历、亲见、亲闻”的原则，记述沈阳重要历史事件和历史人物，发挥存史资政团结育人的作用。坚定历史自信，增强历史主动，持续讲好“沈阳故事”，讲好党的故事、革命的故事、英雄的故事，宣传沈阳振兴发展的宏大场景和生动实践，进一步扩大沈阳的知名度、美誉度。', '二是做好界别群众工作。充分发挥桥梁纽带作用，协助市委、市政府多做理顺情绪、化解矛盾的工作，团结界别群众跟党走。支持委员在其工作单位、居住社区（村屯）就近开展群众工作，及时反映群众意见和建议。鼓励委员发挥自身优势，深入社区（村屯）送文化、送法律、送健康，一体化推进政协协商、民主监督和服务群众工作。', '三是做好民族宗教工作。贯彻党的民族宗教政策，聚焦挖掘锡伯族西迁精神时代内涵开展调查研究，推动民族团结进步，铸牢中华民族共同体意识。始终坚持我国宗教中国化方向，积极引导宗教界人士和信教群众学习中华优秀传统文化，增强对伟大祖国、中华民族、中华文化、中国共产党、中国特色社会主义的认同。', '四是加强同港澳同胞、台湾同胞、海外侨胞团结联谊。围绕“促进港澳人心回归、两岸同胞心灵契合、海内外侨心凝聚”开展主题活动。广泛联谊，积极走访港澳委员，助力“沈港澳”深化合作，扩大沈阳“朋友圈”。', '新时代新征程，人民政协责任重大、使命光荣。要认真贯彻落实习近平总书记关于加强和改进人民政协工作的重要思想，按照“懂政协、会协商、善议政，守纪律、讲规矩、重品行”要求，进一步加强政协“两支队伍”建设。', '一是坚持和加强党的领导。要牢牢把握党的政治建设这个根本，强化政治责任和政治担当，深刻领悟“两个确立”的决定性意义，牢记“国之大者”，增强“四个意识”、坚定“四个自信”、做到“两个维护”，在思想上政治上行动上同以习近平同志为核心的中共中央保持高度一致。', '二是加强委员队伍建设。要坚持为国履职、为民尽责，把事业放在心上、把责任扛在肩上，内强素质、外塑形象、担当作为。持续开展委员读书活动，建设书香政协。加强委员培训，办好“委员讲堂”，用好“委员之家”，全面增强履职本领。充分发挥委员作用，在招商引资、项目建设、民生工程、基层社会治理等工作中当好战斗员、宣传员、服务员，以模范行动展现新时代政协委员的风采。', '三是加强机关干部队伍建设。牢记“两个永远在路上”，加强党风廉政建设，严格落实中央八项规定及其实施细则精神，持续营造风清气正、干事创业的良好氛围。扎实抓好模范机关建设，发扬斗争精神，从严教育、从严要求、从严管理、从严监督，持续改进工作作风。强化学习，注重实践锻炼，着力提升机关干部队伍的政治素质和业务水平。', '四是提高调查研究质量。调查研究是政协的看家本领，是政协协商的基本功。要全面加强政协调研工作，制定工作方案，把准调研方向，选准调研课题，增加调研时间。要力戒形式主义、官僚主义。要以问题为导向，围绕中心、服务大局。要坚持主席会议成员带头，到基层去、到一线去、到振兴发展的火热实践中去，察实情、建真言、出实招。要讲究工作方式方法，实事求是，下大力气推动调查研究上质量、上水平。', '各位委员，团结凝聚力量，奋斗成就伟业。让我们更加紧密地团结在以习近平同志为核心的中共中央周围，高举习近平新时代中国特色社会主义思想伟大旗帜，在中共沈阳市委的坚强领导下，勠力同心、团结奋斗，为推动新时代沈阳全面振兴全方位振兴实现新突破，谱写全面建设社会主义现代化国家的沈阳篇章作出新的更大贡献！']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>34</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>紧握监督数据之钥撬动自我监督深刻变革</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2020-08-10</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/bmdt/202112/t20211202_1808258.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['从移动支付到共享经济，从万物互联到智慧城市，从电子政务到精准监督，大数据深刻影响着社会生活、经济发展、国家治理的各个领域。沈阳市纪委监委紧紧抓住开展监督的“数据之钥”，把大数据理念和技术深度植入纪检监察工作，开发建设沈阳正风肃纪大数据监督平台，将监督植入权力运行全过程，让监督与大数据相互碰撞、相互融合、相互贯通，为推进国家治理体系和治理能力现代化提供有力抓手、有效途径，也为强化自我监督带来前所未有的深刻变革。', '习近平总书记指出，自我监督是世界性难题，是国家治理的哥德巴赫猜想。我们要通过行动回答“窑洞之问”，练就中国共产党人自我净化的“绝世武功”。', '自2017年8月起，市纪委监委集中开展正风肃纪监督工作。以案件开路，专项治理跟进，随之植入大数据监督，为破解自我监督这一世界性难题趟出一条新路，为推进国家治理体系和治理能力现代化做出不懈探索，以实际行动对“窑洞之问”作出响亮回答。', '“之前，纪委监委工作领域的不平衡不充分主要是执纪较强，监督较弱。单靠‘事后’问责，不能从根本上解决监督乏力这个老大难问题，必须建立一整套机制，用制度、用科技约束权力。”2017年10月，市委常委、市纪委书记、市监委主任王冬石创新性地提出了利用大数据技术和信息化手段建设沈阳正风肃纪大数据监督平台的工作思路，并与中科院计算所联手打造正风肃纪大数据监督平台，整合原来分割“沉睡”在全市数千家单位的数据信息，打通数据壁垒，连通“信息孤岛”，运用大数据、人工智能等新一代信息技术，通过对行权数据的获取、分析和挖掘，发现公权力运行中的廉政风险，对党员和六类监察对象进行主动监督。', '建立大数据监督平台，意在探索人工监督与智能监督相结合的创新之路，多重监督约束权力，让想“干坏事”的人没有机会“任性”，把权力牢牢地关进制度的笼子。以前，查处公车私用和私车公养，都依靠举报和抓现行，如今这些“蛛丝马迹”在大数据平台上一目了然；人去世多年还在领低保，像这样的低保、五保户补贴等方面的民生问题，也可以通过大数据信息逐一比对被发现……阳光是最好的防腐剂，公开是对权力最好的监督，也是真正的治本之策。', '市纪委监委认真梳理在正风肃纪监督和大数据监督中发现的问题、查办的案件，针对主体责任缺位、日常监管缺失等突出问题，开始思考如何将大数据监督平台拓展为大数据监督体系，用高质量日常监督倒逼政府职能部门落实主体责任，用监督体系推进政府构建科学规范的治理体系。', '2019年7月，市纪委监委作出了将正风肃纪监督、大数据监督“两个监督”深化为监督体系、治理体系“两个体系”建设的工作部署，针对政府部门监管的重点、短板和弱项，选择权、财、物高度集中的，权力运行风险突出的，与群众利益密切相关的领域重点突破，首批选择了发改、科技、国资、人防、交通、民政等6个市直单位进行试点，随后又选择19家党政机关和企事业单位进行第二批试点，并在全市13个区县（市）全面铺开，截至目前此项工作已在全市实现全覆盖、无死角。', '“‘两个监督’和‘两个体系’建设是一项涉及面深广、涵盖内容繁多的系统工程，需要系统调度、集中指挥协调。”据介绍，从2019年9月21日开始，市纪委监委实行每周六和周日两个调度会的形式，强力推进“两个体系”建设，市纪委监委有关领导进行总体安排和具体部署，承担主体责任和监督责任的“一把手”到会领任务、讲自身工作情况。一些不是试点单位的领导看到“两个体系”建设的成效，主动参加周末调度会，主动提出要纳入试点范围。为更有效地推进“两个体系”建设，“大兵团”式作战的调度推进会还进行“单兵教练”，由市纪委监委的主要领导单独约谈市直党政机关、企事业单位和区县（市）党政主要领导、纪委书记、纪检组长和市纪委监委机关室主任，每次谈话都力争谈深谈透，以最大力度和效率推进“两个体系”建设。', '在公有房产出租领域清理未按规定上缴财政的租金；针对私车公养、公车私用、违规使用加油卡的问题开展专项治理；取消或停发违规发放的耕地地力保护补贴，收缴违纪违法款……在实际工作中，市纪委监委用“两个监督”和“两个体系”建设把各种专项治理穿起来，把项目监督、资金监督、决策监督穿起来，使四大监督的合力真正成为一个有机整体，努力构建起立体的情报、线索、信息系统，构建起立体打击、防御腐败系统，一个有效的管住今后、管住全局、管住根本的局面正在形成。', '人防系统行政职权运行监管平台有效破解了人防系统监督难题，目前涉及人防工程的权力清单已实现人防行政职权全覆盖、自我监督全嵌入、业务流程全闭合，主动发现疑似问题线索能力不断增强；民政系统用正风肃纪监督员人工入户监督和大数据监督的现代科技手段相结合来开展监督，迅速发现多个违纪违法问题；市发改委通过强力推动“两个体系”建设，软课题乱象、各类项目的审批乱象、懒政怠政乱象得到了根本性治理，新兴产业专项资金审批时限大幅缩减，审批效率全国领先。', '“过去，我市的案件线索主要来自于信访件，主动监督的成案率较低。开展‘两个监督’和‘两个体系’建设以来，这一被动局面已经彻底改变，主动监督成案率大幅上升，信访案件的成案率不断下降。”市纪委监委有关负责人认为，通过这种主动监督，“不敢腐”的局面开始真正形成。', '把警示教育再前移一步，拉回“想要伸出的手”，让广大党员干部踏踏实实、堂堂正正地为人民服务，走在阳光下。以此为目的，沈阳正风肃纪大数据监督警示教育展示馆深酝启幕。一波又一波的参观者走进这里，看见监督的力量，看见“两个体系”的成效，一行行滚动的数据自己在“说话”，警示片中贪腐官员的忏悔声泪俱下……“震撼、深刻、不虚此行”，这是所有人走出展示馆时发自肺腑的同感与共鸣。', '展示馆包括正风肃纪监督工作展示厅、大数据监督工作展示厅、警示教育体验厅等八个部分，采用声光电、全息影像、虚拟现实、VR体验等科技手段，穿插运用12块大型电子屏、32块小型显示屏；以“正风肃纪监督、大数据监督、坚持完善监督体系和推动治理体系和治理能力现代化”等核心内容为主线，集中展示了近三年来沈阳市纪委监委在破解自我监督难题及推动治理体系建设的创新探索和生动实践，直观彰显大数据监督的威慑力，充分发挥正风肃纪大数据监督直击心灵的警示教育作用。', '在警示教育体验厅，谈话、留置、审判等沉浸式场景，让廉政教育“零距离”开展；《正风肃纪进行时》专题警示教育片展示近年来沈阳市纪委监委查处的100起典型案件，用监督的实际成效教育警示广大领导干部。', '沈阳市的正风肃纪监督和大数据监督工作已经成为沈阳乃至辽宁的亮点与名片，吸引全市社会各界和全国各省市考察学习，先后有15000余人走进沈阳市纪委监委机关参观，开馆后的沈阳正风肃纪大数据监督警示教育展示馆将以其更直观生动的展示，更好地发挥反腐教育警示作用。', '未来，这里将成为集警示教育、学习交流、互动体验于一体的多功能教育基地，这座有大脑、有天眼、会思考、有深度、可持续的智慧展馆，将成为全省乃至全国纪检监察干部大数据监督的学习交流基地，成为培养廉洁意识、弘扬清风正气的重要阵地，助力“不敢腐、不能腐、不想腐”一体化推进。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>34</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>年中国人民政治协商会议沈阳市第十三届委员会常务委员会工作报告</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2012-08-17</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/qtzfxx/gzbg/bmgzbg/202201/t20220122_2621502.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['2011年中国人民政治协商会议沈阳市第十三届委员会常务委员会工作报告-部门工作报告-沈阳市人民政府', '2010年是全面实现“十一五”目标、科学谋划“十二五”发展的关键之年，也是加速推进沈阳全面振兴的攻坚之年。伴随着充满激情的奋斗旋律，市政协认真贯彻市委政协工作会议精神，坚持团结和民主两大主题，积极开展政治协商、民主监督和参政议政，为推进沈阳经济社会发展发挥了重要的作用。', '（一）服务大局，科学建言，政治协商更加注重质量。按照市委十一届八次、九次全会的部署，市政协发挥优势，坚持多方联合、上下联动，围绕全市调结构、优环境、惠民生等重点工作开展协商议政，为沈阳科学发展献计出力。', '根据市委推进全市重点工作的总体安排，市政协就加快我市现代服务业发展问题，组织各民主党派、工商联、区县（市）政协和300多名政协委员、专家学者，重点针对金融、商贸、物流、信息、会展等产业的发展情况，深入我市城区和郊县，访企业、摸情况、搞调研、思对策；考察学习外地先进经验和最新动态；与在沈大专院校和科研单位开展软科学研究；形成近40万字的建言成果。在此基础上，市政协常委会召开第17次会议进行协商讨论，形成《建议》，从完善规划体系、建设区域金融中心、发展现代物流业、做强信息服务业、发展农村服务业等九个方面，为市委、市政府及相关部门提供了50余条具体意见和建议，得到了充分肯定和积极的采纳。', '针对创建国家环境建设样板城工作，组织部分民主党派、工商联和区县政协进行深入调研，学习考察国内外先进经验，重点从制定完善创建规划、健全配套政策和法规、优化调整产业结构和布局、搭建国际交流平台、加大宣传力度等七个方面提出建议，为政府及其相关部门提供了决策参考，许多建议被纳入到样板城建设实施方案当中。', '围绕制定完善我市“十二五”发展规划，通过组织委员广泛讨论和主席会议专题协商等形式，对中共沈阳市委关于制定规划的建议和市政府制定的规划纲要草案以及相关分规划草案提出了百余条建议，为我市“十二五”发展规划的制定提供了重要参考，充分展示了广大委员关注沈阳振兴的政治热情和政协组织的智力优势。', '（二）拓宽渠道，创新方法，民主监督更加体现特色。一年来，市政协民主监督工作的社会影响力不断增强，长效机制正在逐步形成。', '围绕社会关注度比较集中的职业教育工作开展民主评议。组织政协委员、民进会员、教育界专家和学者进行专题视察，深入了解我市职业教育发展现状。采取进课堂、搞座谈、问卷调查等多种形式，广泛听取不同层面的意见。通过重点剖析、专项评议，提出的评议意见和建议被市政府及相关部门充分采纳，进一步营造了全社会支持职业教育事业发展的良好环境。', '围绕法院立案工作开展民主评议。组织委员对全市两级法院立案大厅进行明察暗访，旁听庭审工作；对群众反映的问题进行走访调查。评议意见针对性强，得到被评议单位的高度重视。目前，全市两级法院立案工作得到改进，诉讼服务中心功能得到增强，推进了我市“阳光司法窗口”建设。', '这两项民主评议活动把创新探索与传统做法相结合，既充分肯定成绩、客观评价，又针对存在问题直言献策，真正体现了政协民主监督的特色。', '注重发挥民主监督员作用。召开民主监督员工作会议，认真总结工作经验，通过表彰先进、树立典型、完善工作细则，进一步调动了聘用单位和监督员的双重积极性。目前，共有279名委员担任24个政府部门和“两院”系统的民主监督员，活跃在“窗口”单位，积极推进行风建设，成为履行民主监督职能的骨干力量。', '（三）紧扣发展，献计出力，参政议政更加富有成效。主动选择经济社会发展中的综合性、全局性课题，深入开展咨询论证，为科学决策建言，为经济建设献策。', '围绕加强和完善城市管理工作资政建言。市政协组织委员深入街道、社区和各相关部门进行实地走访，征求各方意见，借鉴外地城市管理的先进经验，向市委、市政府报送了《关于进一步加强我市城市管理的建议》。市委主要领导对改革城市管理体制、完善市场化运作机制等建议给予高度评价，批转政府相关部门认真研究吸纳，做好落实。', '推动沈阳经济区建设上升为国家战略。市政协与鞍山、抚顺等七城市政协连续七年围绕沈阳经济区一体化建设等问题开展论坛活动，形成大量调研材料与建议报告上报省委、省政府。近两年沈阳市政协还积极联络驻辽全国政协委员，形成联名提案向全国政协和国家有关部委建言，在沈阳经济区获批成为国家新型工业化综合配套改革试验区过程中发挥了积极作用。《人民日报》评价，这一令人瞩目的重大改革举措，凝结着沈阳经济区各市政协以及政协委员连续7年不懈建言的心血和智慧。', '高度重视提案在政协履职中的重要作用。注重提案质量，强化督办工作，运用提案关注发展与民生等社会热点问题。关于调整经济结构、做强我市会展业、城市道路建设和交通管理、加强老旧小区改造等提案得到及时有效办理，取得了良好效果，产生了较强的社会影响力。', '参与重大项目决策实施的咨询论证。围绕浑南大开发，组织在沈的省政协委员和市区两级政协委员开展视察活动，针对新城建设方案、全运会场馆建设、重点投资项目等关键问题，提出了许多既具前瞻性又有操作性的建议，促进大浑南建设科学化启动、高水平运作。', '（四）发挥优势，凝心聚力，委员履职更加贴近民生。坚持以人为本，协调各方力量，倾听民声、了解民情、反映民意，彰显委员在促进社会和谐中的重要作用。', '建立反映社情民意的工作机制。先后组织百余名委员走进广播电台直播间，参与“委员在线”节目，为群众排忧解难。定期召开反映社情民意的座谈会，听取委员反映的群众呼声。先后将改善城市环境、加强文物保护、注重食品安全、强化社会治安、促进宗教和谐、关注少数民族地区发展等数百条意见建议，通过《沈阳政协信息》报送党政领导，构建了人民群众反映利益诉求的“绿色通道”。', '组织涉及民生领域的专题视察。多次组织委员对扩大就业、完善养老事业、沈阳鸟岛开发建设、公立医院财政投入以及居民供水等情况进行了专题视察。认真开展了地方法规立法前协商工作，对我市酝酿出台的法规草案提出了修改完善建议。', '开展形式丰富多彩的界别活动。各民主党派、人民团体和政协专委会有计划地组织界别活动，开展了对《沈阳市妇女发展规划》、《沈阳市儿童发展规划》实施情况的视察，推动宗教界教职人员医疗保险的落实，助推民族团结进步进社区工作的开展，充分体现界别特色，进一步扩大了界别团结面。', '汇聚服务沈阳发展的各方力量。组织港澳委员开展“走近沈阳”活动，亲身感受沈阳各方面的发展变化。协调澳门委员在我市捐资助学，为教育事业发展贡献力量。积极开展对外交流和联谊活动，组织部分政协委员出国（境）考察。加强与台湾各界人士的联系，推进台商在沈投资，推动现代服务业合作项目，积极为在沈台资企业排忧解难。组织海归学子系列活动，进一步加强了“五侨”联系工作。', '向贫困群体奉献厚爱真情。持续开展“关爱女孩”活动，为农村贫困家庭女孩捐资助学；在青海玉树遭受严重地震灾害之际，全市广大政协委员积极捐款捐物价值达800多万元，展示出救灾解难的真挚爱心。', '（五）健全制度，完善机制，政协组织更加充满活力。市委政协工作会议的召开，进一步加强和改善了党对政协工作的领导，更好地形成了党委主导、政府支持、政协主动的民主协商格局；市委《关于进一步加强人民政协工作的意见》和《关于积极支持人民政协履行职能的细则（试行）》的出台，对于进一步完善政治协商程序、发挥民主监督作用、增强参政议政实效，促进政协履行职能的制度化、规范化、程序化建设，做好新形势下人民政协工作具有深远意义。', '在市委的高度重视和市政府的大力支持下，市政协积极协调各相关部门和区县（市）党委政府切实解决了政协组织在机构设置、人员编制、委员活动经费等方面存在的实际问题，为政协机关自身建设注入了生机与活力，为政协组织履职提供了坚强保障，为政协委员更好地尽责创造了条件，进一步开创了我市人民政协事业发展的新局面。', '注重搞好思想理论建设和政协学习宣传工作。组织委员对中共十七届四中、五中全会精神进行专题学习培训，邀请著名专家作“现代服务业与城市经济发展”专题报告。成功举办了中国世界遗产地政协主席联席会第十六次会议，以文化遗产的依法保护、科学管理和永续利用为主题进行深入交流，并有效展示和推介了沈阳。建立了沈阳文史资料数据库，整理编辑了《沈城纪事》、《委员撰志》等书稿。出版了文史资料《闯世界的沈阳人》一书。人民政协理论与实践研讨活动取得丰硕成果，征集论文100余篇。政协新闻宣传工作更加贴近履职实践，共发表700余篇新闻报道，全方位、多角度地形成了宣传政协工作的舆论氛围，展示了人民政协的良好形象。', '努力营造团结民主的和谐气氛。一年来，市政协从坚持我国基本政治制度，促进民主政治发展的高度，不断加强与各民主党派、工商联、各人民团体的团结合作，加强与区县（市）政协的联系并给予指导，凝聚更多力量致力于沈阳老工业基地全面振兴。', '政协工作制度化、规范化、程序化建设得到进一步加强。常委会议和主席会议先后审议通过了《政协沈阳市委员会全体会议工作规则》、《委员活动管理办法》、《委员守则》等10项规章制度；修订了118项政协机关工作制度，政协工作制度体系进一步形成。', '加强了委员服务管理工作。市政协成立了委员工作委员会，组织委员开展学习培训、市情通报、市情大视察和低碳环保健身行等主题活动，为委员知情明政、履行职能创造条件。完善了委员履职数据库，定期通报情况，实行动态管理，加强了委员队伍建设。', '政协机关的思想建设、组织建设和作风建设得到了加强。通过竞争上岗、岗位交流等方式，注重在实际工作中培养选拔优秀干部；广大党员干部的大局意识和服务意识得到进一步增强，服务保障能力和综合协调能力得到明显提高。', '各位委员，一年来市政协工作取得的成绩，得益于中共沈阳市委的正确领导和市政府的大力支持；得益于各民主党派、工商联、各人民团体和全体委员的团结合作；得益于上级政协的关心指导和区县（市）政协的通力配合；也得益于各级党政部门和社会各界的密切协作。在这里，我代表市政协常委会向同志们表示诚挚的感谢！向全体政协委员表示崇高的敬意！', '在总结成绩的同时也应看到，在加强人民政协理论研究、充分发挥委员主体作用、创新开展界别活动等方面，我们的工作还存在一定的差距和不足。对此，常委会将在新的一年里，切实采取措施，有效加以解决。', '2011年是实施“十二五”规划的开局之年。市政协工作的总体要求是：全面贯彻中共十七届五中全会精神，以邓小平理论和“三个代表”重要思想为指导，深入贯彻落实科学发展观，按照中共沈阳市委十一届十次全会的部署，围绕抓项目促调整，抓环境促提升，抓民生促和谐等中心工作，认真履行政协职能，协调关系、汇聚力量、建言献策、服务大局，为加快沈阳全面振兴作出新的贡献。', '（一）加强理论学习，着力推进思想政治建设。要深入学习贯彻中共十七届五中全会精神，深刻认识“十二五”时期的发展主题、主线、目标任务和重大举措，明确政协工作方向，始终把推进科学发展作为政协履职的第一要务，把关注民情、保障和改善民生作为政协工作的出发点和落脚点。要深入学习贯彻中共沈阳市委十一届十次全会精神，深刻认识加快发展面临的形势和任务，明确政协服务大局的重点，为实现我市“十二五”发展的良好开局献计出力。要深入学习贯彻中共沈阳市委政协工作会议精神，深刻认识人民政协工作面临的新形势、新任务，切实把党对政协工作的新要求落到实处。', '进一步加强政协理论学习，突出学习重点，丰富学习内容，创新学习形式，使政协成为学习型组织。要通过加强人民政协理论研究、组织专题讲座、学习培训、中心组学习，集中开展形势政策宣传教育，进一步拓宽眼界，增加学识，提高思想理论素养。要努力把学习成果转化为建设中国特色社会主义的坚定信念，转化为运用科学理论谋划科学发展的实际能力，转化为更加自觉地履行好委员职责的具体行动。要真正把思想统一到中央和省市委对形势的分析判断上来，把劲头凝聚到完成各项任务上来。团结动员社会各界力量，满怀激情促发展、万众一心谋振兴，为完成和实现“十二五”规划的发展目标贡献力量。', '（二）发挥政协优势，着力促进沈阳科学发展。紧扣全市发展目标和工作主线，认真履行职能，积极建言献策，切实发挥人才智力优势，为完成全年工作任务贡献力量。', '要召开常委会议和专题主席会议进行协商议政。重点研究推进产业结构优化升级、促进我市中小企业又好又快发展；关注社会协调发展、推动我市老龄事业；加强重点提案办理、发挥政协提案对促进我市经济社会发展的积极作用；整合沈阳经济区旅游资源、调整旅游产业结构等议题。', '围绕促进经济社会又好又快发展，继续开展对政府工作的民主评议，重点评议城市管理工作和农村基本医疗卫生服务体系建设工作，促进相关部门完善措施、改进工作。', '关注设施农业、现代畜牧业生产基地建设、林业经济等现代农业发展；关注工业重点产业集聚区建设、战略性新兴产业发展和东北地区金融中心、物流中心、商贸及会展中心建设等情况，组织跟踪视察，促进各项政策措施落实到位。', '围绕推进我市创建国家环境建设样板城工作、数字化城市建设工作、知识产权示范城市建设工作、辽河（沈阳段）治理保护工作等情况开展专题视察，并对驻沈高校在我市振兴发展中进一步发挥作用问题进行调研，激发高校推动沈阳社会进步的潜力和活力。', '积极推进沈阳经济区新型工业化综合配套改革试验区工作，为推动体制机制创新建言献策。加强与兄弟城市政协联系与合作，协作开好经济区政协论坛第八次会议，研究经济区全局性、综合性的重大问题，为搞好经济区新型工业化综合配套改革、实现协调发展提供智力支持。', '（三）高度关注民生，着力促进和谐社会建设。坚持以人为本、履职为民，积极协助党和政府解决群众普遍关心的民生问题和社会问题。', '要高度关注人民群众的切身利益，组织视察与居民健康饮食相关的食品安全和少数民族用品生产流通情况、全民健身设施和公共文化基础设施建设情况、社会治安综合治理情况、发展学龄前教育情况、文物保护情况、人口计生工作、改造提升传统服务业情况等。', '坚持深入基层，深入群众，拓宽建言渠道，积极利用政协提案、政协信息、“委员信箱”、“委员在线”等行之有效的形式，针对扩大就业、完善社会保障、推进医药卫生体制改革、推动义务教育公平均衡发展等问题反映社情民意，化解社会矛盾，积极协助党委政府把惠民利民的实事办好。', '要充分发挥少数民族界别和委员的作用，促进少数民族地区发展民族特色经济，促进民族和睦。充分发挥宗教界委员作用，协助政府妥善处理宗教事务，团结信教群众，促进宗教和顺。', '要关爱困难群体，动员组织广大政协委员和社会各界人士积极参与慈善、扶贫、帮困、济危等活动，促进做好贫困人群生产生活保障工作，努力促进全社会各族各界群众共享改革发展成果。', '（四）积极探索创新，着力做好具有政协自身特色的工作。坚持中国共产党领导的多党合作和政治协商制度，加强与各民主党派合作共事，完善联合建言机制，进一步发挥民主党派和无党派人士在政协组织中的重要作用，充分发挥政协作为中国人民爱国统一战线组织的重要作用。', '进一步加强政协提案工作，强化提案全局意识和责任意识，在培育精品提案上下工夫。积极运用提案建言献策，注重提案初审和重点提案督办工作，推动提案成果的科学转化。', '要建立健全有利于发挥委员主体作用的长效机制，完善委员履职考核机制，切实保障和尊重政协委员依照宪法、法律和政协章程履行职责的各项民主权利。不断完善委员知情机制，丰富界别活动的载体和形式，努力打造具有特色的“政协品牌”。', '进一步强化专委会工作，加强与党政部门的对口联系，提高工作组织化程度。认真做好政协新闻宣传工作，努力为政协履职营造良好的舆论环境。认真做好文史资料工作，发挥“存史、资政、团结、育人”的社会功能，扩大人民政协的社会影响。', '要积极推动开展人民政协的对外友好交流活动，广泛开展与港澳台同胞、海外侨胞的联谊工作，为他们在沈阳发展事业、投建项目创造有利条件。完善发挥港澳侨委员作用的工作机制，鼓励他们为港澳地区的繁荣稳定、为沈阳经济社会发展作出新的贡献。', '以庆祝中国共产党建党90周年、纪念辛亥革命100周年为契机，组织相关民主党派、人民团体等各界代表及有关专家学者，举办学术研讨会、书画展等活动，重点宣传中国共产党领导的多党合作和政治协商制度，大力弘扬中华民族的爱国主义精神。', '要在全国政协和省政协指导下，与大连市政协共同承办好全国副省级市政协第二十六次工作交流会议，促进城市间政协工作的交流与协作。', '积极推进政协机关建设，完善机关各项制度，强化机关干部业务培训，不断提高服务保障能力和统筹协调能力，努力把政协机关建设成学习型、服务型机关。切实加强对各区县（市）政协工作的联系指导，强化与区县（市）政协工作的联动机制，总结交流开展区县（市）政协工作的好经验、好做法，共同推动人民政协事业向前发展。', '各位委员，新的一年承载着新的任务与挑战，更充满机遇和希望。让我们更加紧密地团结在以胡锦涛同志为总书记的中共中央周围，在中共沈阳市委的正确领导下，深入贯彻落实科学发展观，解放思想、开拓创新、团结前进，不断开创政协工作新局面，为完成我市经济社会发展各项任务，实现沈阳老工业基地的全面振兴而努力奋斗！']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>34</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>市人大常委会执法检查组关于检查辽宁省全民健身条例和沈阳市公共体育设施条例实施情况的报告</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2016-09-23</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/qtzfxx/zfgg/202201/t20220122_2646730.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['市人大常委会执法检查组关于检查《辽宁省全民健身条例》和《沈阳市公共体育设施条例》实施情况的报告-公 告-沈阳市人民政府', '市人大常委会执法检查组关于检查《辽宁省全民健身条例》和《沈阳市公共体育设施条例》实施情况的报告', '根据市人大常委会2016年工作安排，市人大常委会组成执法检查组于7月7日对我市贯彻实施《辽宁省全民健身条例》和《沈阳市公共体育设施条例》(以下简称“两例”)情况进行了执法检查。现将有关情况报告如下：', '为了搞好这次执法检查，市人大常委会做了充分准备。一是深入开展调查研究。责成市人大教科文卫委员会组成调研组，先后深入到部分区、县(市)全民健身中心、全运会场馆、主题特色体育公园、中小学校、企事业单位、民营体育场馆、社区(村屯)健身场地进行实地调研，通过听取汇报、召开座谈会和问卷调查等方式，全面了解区、县(市)贯彻实施“两例”基本情况，在此基础上，形成了《努力构建公共体育设施网络，为全民健身提供强有力保障》的调研报告；二是学习外地先进经验。调研组赴成都、南宁、深圳，学习考察公共体育设施建设和全民健身工作先进经验，形成考察报告，为执法检查提供参考；三是发放调查问卷。6月下旬，教科文卫委员会代常委会执法检查组向各区、县(市)政府和拟受检点位发放调查问卷，收集相关信息及意见和建议；四是制定执法检查方案。调研组在深入调查研究，广泛听取各方意见和建议的基础上，确定了执法检查的主要内容，明确了执法检查的方式方法，形成了市人大常委会执法检查方案；五是创新普法宣传工作。为做好“两例”的宣传工作，常委会委托教科文卫委员会编制了图解“两例”宣传册，将“两例”内容直观地展示给广大市民，受到广大体育工作者及群众的好评。', '7月7日，执法检查组在集中听取副市长姜军代表市政府所作的关于我市贯彻实施“两例”情况汇报后，分成七个组实地检查了奥体中心五里河体育场、沈阳市全民健身中心、蒲河廊道体育公园、恒大绿洲运动中心、六Ο六所职工健身中心、法库县东湖中学、新民市前当堡村健身广场等32个点位，并分别召开座谈会，听取有关方面的意见和建议。', '这次执法检查严格执行中央八项规定要求，切实转变作风、减少陪同、讲求实效，重点检查政府投资的、公益性的和人民群众密切相关的大众健身活动场地场馆，直接倾听基层体育工作者和人民群众的意见和建议，真实了解“两例”贯彻实施基本情况，达到了预期效果。', '近年来，市、区县(市)两级政府认真贯彻实施“两例”，从提高全市人民健康水平的实际出发，合理布局公共体育设施，全面开展全民健身活动，有序推进全民健身工作，政府主导、部门协作、全社会共同参与的全民健身格局已经基本形成，主要体现在以下几个方面：', '“两例”实施以来，公共体育设施建设取得了显著成绩。尤其是抓住了举办“全运会”的有利契机，不断加大财政投入力度，高标准建设全运会场馆和17个市、区县(市)两级全民健身中心，全市168个乡镇、街道健身广场投入使用，为106个公园、广场配套健身功能区，新建2403个遍布城乡的大众健身站点，为2300个社区、村屯安装了健身器材，新建了沈阳市足球公园等一批体育主题公园，全市10分钟健身圈已初步形成。', '全运会场馆、17个全民健身中心分时段免费或低收费向广大市民开放，全市的公共体育设施每天开放时间都在12小时以上，法定节假日还延长了对外开放时间。按照“两例”的要求，加大了企事业单位体育设施向社会开放的力度，特别是积极推进中小学校体育设施对外开放，全市共有309所学校体育设施分时段免费向广大市民开放，满足校园周边群众就近健身需要，最大限度发挥公共体育服务功能。', '举办了首届国际市民体育联盟沈阳市民运动会，吸引百万市民直接参与。将东北地区唯一央视直播的马拉松赛事引入沈阳。中国万科乐跑沈阳站活动、“中国梦·振兴潮”首届职工群众广场文体展演、沈阳市少数民族运动会、沈北新区嘎拉哈比赛等少数民族健身活动、老年人体育展示大会和2016哥德杯世界青少年足球赛事以及各区、县(市)的全民运动会和每年举办的千余场次各级各类大众健身活动，极大地激发了全市人民参与全民健身的热情。', '全市各中小学校把增强学生体质作为学校教育的基本目标和重点评价内容，通过深入开展“全国亿万学生阳光体育运动”，切实开足、开齐、上好体育课和体育活动课，开展好大课间活动，确保每天至少一小时阳光体育活动。白塔小学的篮球健身操、法库中学的校园足球、苏家屯区湖西街小学的橄榄球独具特色，法库县还成功获批全国青少年校园足球试点县，有效地调动了中小学生参与体育活动的积极性，提高了学生的身体素质。', '目前全市各级社会体育指导员注册人数已有22000多人，注册体育指导员队伍初具规模，走在全省前列；通过对社会体育指导员的组织、管理和培训，提高了指导员队伍的能力和素质，提升了群众科学健身保障水平；编制了《沈阳市体育用地规划》，建立了体育产业孵化基地，组建了沈阳体育产业集团，设立了1亿元的体育产业发展基金，借助职业联赛、商业比赛、单项竞赛和综合性比赛，初步形成了与全民健身互相促进、共同发展的良好格局。', '从整体情况看，我市全民健身工作和公共体育设施建设呈现了良好的发展态势，但与人民群众日益增长的健身需求相比还有一定差距，仍然面临不少困难和问题：', '我市每年体彩公益金收入近亿元，但体彩公益金使用绩效尚需进一步提高，主要问题是全民健身项目预算执行缓慢，当年没能全面执行到位，同时产生较多的项目结余结转资金。另外，条例中规定的“对公共体育设施在用水、用气、用电、用热等方面给予政策优惠”等相关条款也没有得到完全落实，全民健身中心或大型体育场馆公益性惠民开放费用不足，民营场馆经营更是举步维艰。', '一是体育场地面积不足。我市人均体育场地面积为1.2平方米，与全省人均1.69平方米相比还有差距；二是政府投资兴建的全民健身中心和全运会场馆等大型公共体育设施受服务成本、服务半径等因素影响，免费公益时段或低收费惠民时段还不能满足群众健身需求，全民健身月期间还没能按“两例”要求实现全月免费开放；三是学校体育设施对外开放程度不够。受缺少必要的经费和管理不到位等因素困扰，大量的学校公共体育设施没有实现有效利用；四是新建、改扩建居民住宅区配套公共体育设施建设的强制性约束机制不强，尚不能达到条例规定的“与主体工程同时设计、同时施工、同时投入使用”的要求，一些已建的居民住宅区因受场地制约，安置配套公共体育设施难度较大，部分体育器材设备老旧、年久失修，存在安全隐患；五是企事业单位体育设施缺乏。企事业单位因种种原因，配备公共体育设施的较少，不能满足广大职工的健身需求；六是农村公共体育设施建设相对落后，场地差、设施短缺且种类单一，缺乏室内活动场所，城乡发展不均衡。', '一是社会体育指导员队伍建设有待加强。目前我市体育指导员队伍年龄偏大，指导群众科学健身还没有形成常态化，还没有建立完善的管理运行机制，体育指导员的工作积极性还没有真正调动起来；二是国民体质监测处于起步阶段。我市还没有健全的国民体质监测体系，用于体质监测的仪器数量少、档次低、品种不全，且监测专业人员较少，国民体质监测还没有普及，体质监测数据存储还没有统一的数据库，不具备给广大市民提供体质监测服务的能力，更不具备利用存储数据指导科学健身的条件；三是科学健身指导和宣传力度不够。虽然我市人民群众健身意识有所加强，但因科学健身宣传不够，导致广大市民的科学健身意识薄弱，盲目健身、过度健身造成身体损伤的现象不同程度的存在。', '一是体育师资数量和质量不能满足工作的需要。目前，我市中小学共有体育教师3341人，缺编571人，还有一部分体育教师不是体育专业毕业，由于体育教师配备不足，部分学校不能开全体育课;二是因缺少资金，一些学校体育设施和体育器材配备不够齐全，特别是农村学校体育器材更是短缺，无法满足体育教学和体育活动的实际需要；三是城市中小学生体检合格率不达标，肥胖率和视力不良率居高不下。', '一是我市体育场馆还没有实行企业化运营管理，在体育场馆的商业运营开发方面与发达地区相比相对滞后；二是发展体育产业的相关政策落实不到位，一些体育企业，特别是中小微企业仍处于投入大、税费重、成本高、规模小，获利能力差的困境。另外，我市举办有影响力的体育赛事数量偏少，高端体育人才与品牌引进渠道不畅。', '深入贯彻“两例”是提高我市人民群众健康水平，创建健康城市，落实“将全民健身上升为国家战略”的一项重要举措。要进一步提高对贯彻“两例”重要性的认识，通过广播电视、报刊杂志、网站微信等各种宣传方式，积极宣传“两例”主要内容，营造以提高国民体质为目的，以科学文明健身为依托，人人参与的全民健身氛围；要建立长效投入保障机制，科学编制全民健身项目计划和经费预算，确保预算执行到位；要用好、用活、用足体彩公益金，提高体彩公益金使用绩效；要严格执行地方立法规定，确保相关优惠政策和政府购买公共服务的有效落实；要加强顶层设计，建立健全适合我市全民健身发展的总体规划和保障机制；要科学合理布局体育用地，尽早制定出台《沈阳市体育用地规划》，留足留够体育用地，建立体育用地使用保障机制；要建立对社会体育指导员的投入和激励机制，健全学校体育设施对外开放的财政支持长效机制；要鼓励和引导社会力量捐资、出资兴办全民健身事业，并落实相关扶持政策。', '要按照就近、便民的原则加快推进公共体育设施建设力度，特别是城市社区、农村地区等基层公共体育设施建设，促进城乡全民健身事业均衡发展；要积极推进大型体育设施的现代化管理运营方式改革，特别是扩大全民健身中心、全运会场馆向社会免费或低收费开放的时段，确保全民健身月期间免费开放；要严格执行新建、改扩建和已建居民住宅区配套体育设施建设要求，重点加强中小型体育场馆建设，大力兴建功能多样、亲民便民的体育场地设施，建设多功能体育公园、健身步道、健身广场，并配备必要的健身器材；要充分发挥工会、妇联、共青团组织在全民健身中的作用，组织丰富多彩的全民健身活动，为全市广大人民群众参加健身活动搭建平台。', '要建立健全社会体育指导员组织管理体系，设置社会体育指导员公益性岗位，加强对体育指导员的培训，切实提高体育指导员科学健身指导水平，完善体育指导员管理和表彰机制，调动体育指导员工作积极性。要加强国民体质监测工作，健全市、区县(市)国民体质监测服务体系，配足配齐监测设备和专业监测人员，扩大监测服务覆盖面。充分利用云平台、大数据等科技手段，在做好国民体质监测工作精准分析的基础上，及时发布我市国民体质监测信息，为人民群众科学健身提供有力支撑。要将科学健身和提高国民体质有机结合，利用智慧城市建设，全面普及科学健身知识，让广大人民群众更多的参与科学健身活动，树立“只有全民健康，才是真正小康”的理念，助推健康城市建设。', '要加强中小学体育教师队伍建设，建立健全体育教师培养体系，鼓励具有教师资格证的退役优秀运动员从事中小学体育工作，力争在“十三五”期间全面解决体育教师短缺问题，提高体育教师队伍专业能力和水平；要加快学校体育设施建设，同时制定学校体育设施对外开放实施细则，细化校园开放配套政策，保证开放成本列入财政预算；要按照教育大纲要求开足、上好体育课程，保证中小学生每天一小时校园体育活动；要大力发展青少年校园足球运动，为沈阳打造“足球都市”奠定坚实的人才基础。', '要统筹全市体育产业资源，以重点体育产业项目为抓手，加快建设一批对体育产业长远发展具有重大影响和带动作用的重点项目，扩大体育产品和服务供给，不断满足人民群众日益增长的多元化体育消费需求，提高全民健身水平。要进一步创办品牌赛事，充分结合沈阳实际，创新办赛理念，精心打造群众参与度高、社会影响力大、展示沈阳城市形象、在全国或世界有影响力的体育品牌赛事和活动，以体育产业发展带动全民健身事业发展。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>34</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>年月沈阳大事记</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2020-11-11</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/qtzfxx/szfdsj/202112/t20211202_1815623.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['10月1日 市长姜有为到浑南区和大东区，就秋冬季防火和安全生产工作进行检查调研，实地检查浑南区万达广场全运店、棋盘山气象塔森林防火瞭望站、大东区万科蓝山小区和龙之梦燃气调压站的工作和运行情况。姜有为强调，压实主体责任，强化培训演练，确保万无一失。 10月3日 市长姜有为率相关部门负责人到沈北新区调研，实地考察辽河二号钢坝闸、石佛寺街道孟家台村、稻梦空间和民宿基地、禾地秸秆加工厂、马刚街道弯道村和蒲河大集。姜有为要求，夯实基础、科学规划、统筹推进，加快农业农村高质量发展。 10月5日 市长姜有为视察于洪机场进场路平改立工程项目现场，并到空十六师与北部战区空军领导会商有关工作。 10月9日 省委常委、市委书记张雷主持召开市委常委会（扩大）会议，重温习近平总书记在深入推进东北振兴座谈会上的重要讲话，贯彻落实省委常委会（扩大）会议精神，对抓好各项工作进行再部署、再安排、再推进。 同日 市委全面深化改革委员会召开第七次会议，传达学习中央及省委全面深化改革委员会会议精神，研究部署下步工作。省委常委、市委书记、市委全面深化改革委员会主任张雷主持会议并讲话，市委副书记、市长、市委全面深化改革委员会副主任姜有为出席会议。 10月12日 省委常委、市委书记张雷主持召开市委专题会议，学习贯彻习近平总书记在秋季学期中央党校中青年干部培训班开班式上的重要讲话精神，研究部署年轻干部工作，与新任职的市管年轻干部进行集体谈话。会议强调，深入学习贯彻习近平总书记重要讲话精神，促进广大年轻干部加快成长为堪当振兴大任之才。 同日 市长姜有为主持召开创建国家安全发展示范城市工作调度推进会，听取工作进展情况汇报，部署下一步重点任务。姜有为要求，强优势补短板，抓好制度安排和长效管理，全力提升群众安全感。 10月12—13日 国家民委在沈阳市召开全国民委系统推进中小学铸牢中华民族共同体意识教育现场交流会。国家民委党组成员、副主任边巴扎西出席会议并讲话，省委常委、统战部部长范继英出席会议并致辞。 10月12-17日 市人大常委会主任潘利国率考察组赴山东省临沂市，江苏省徐州市、宿迁市、连云港市，围绕充分发挥人大职能作用，强化司法监督，加强代表工作以及推动居家养老、水资源利用、文商旅深度融合、生态环境建设等工作进行学习考察。 10月13日 全省“打通消防生命通道”综合治理现场会暨冬春季火灾防控部署会在沈阳召开。会议的主题是，深入贯彻习近平总书记关于安全生产和消防安全的系列重要指示批示精神，扎实推进消防安全专项整治三年行动，全面检验打通消防通道治理成效，推动消防安全工作高质量发展。省委常委、副省长陈向群参加会议并讲话，市长姜有为参加会议。 同日 省委常委、市委书记张雷到康平县和法库县调研。在康平县，张雷先后实地查看了基层党支部联系点康平县胜利街道孔家窝堡村、信邦汽车配套OEM产业园、沈阳富莱碳纤维有限公司、卧龙湖和康平县方家屯镇王家窝堡村；在法库县，张雷实地查看了法库县孟家镇的沈阳市山山伟业食品有限公司、法库县农业监测站、大蛇山子村葡萄产业基地和法库县四家子乡红砂地村。张雷强调，坚持党建引领，强化产业带动，加快县域经济高质量发展。 同日 市政协主席韩东太率视察组到和平区北市社区卫生服务中心和辽宁中置盛京老年病医院进行视察，并听取市卫健委关于重点提案办理情况的汇报；调研沈阳医养结合建设工作，推进重点提案办理。 10月15日 在收视收听2020年全国大众创业万众创新活动周北京主会场启动仪式后，辽宁分会场启动仪式在沈阳市东北科技大市场举行，省委副书记、省长刘宁出席仪式并启动辽宁省双创活动周，省委常委、副省长陈向群出席并致辞，省委常委、市委书记张雷出席启动仪式。 同日 沈阳·中关村项目集中开工暨沈阳光大控股人工智能物联网产业生态基地项目开工仪式举行。省委常委、市委书记张雷，市长姜有为出席仪式。 同日 省委常委、政法委书记于天敏率调研组到沈阳市，就沈阳市政法系统贯彻落实《中国共产党政法工作条例》《中共辽宁省委贯彻〈中国共产党政法工作条例〉办法》情况开展专题调研，省检察院检察长李成林参加调研。 同日 省人大常委会副主任孙轶率调研组来沈，对沈阳市贯彻落实《中共中央国务院关于支持东北地区深化改革创新推动高质量发展的意见》《辽宁省贯彻落实〈中共中央国务院关于支持东北地区深化改革创新推动高质量发展的意见〉实施方案》情况进行专题调研。 10月16日 省委常委、市委书记张雷主持召开市委常委会会议，传达学习习近平总书记在深圳经济特区建立40周年庆祝大会上的重要讲话精神、在中央财经委员会第八次会议上的重要讲话精神、在第三次中央新疆工作座谈会上的重要讲话精神，研究部署全市贯彻落实工作。 同日 市长姜有为会见来访的罗森（中国）投资有限公司总裁、罗森（沈阳）便利有限公司董事长三宅示修一行。 同日 国家发展改革委发布全国营商环境评价领域的首部国家报告《中国营商环境报告2020》，沈阳被列入示范引领的15个标杆城市，营商环境改革经验获得重点推广。 10月17日 第九届沈阳法库国际飞行大会暨通航应急应用产业博览会在沈阳通用航空产业基地举行，市长姜有为出席开幕式并宣布大会开幕。 10月18日 由工业和信息化部、中国科学技术协会和辽宁省人民政府主办的2020全球工业互联网大会在沈阳市新世界博览馆正式开幕。省委书记张国清出席开幕式；省委副书记、省长刘宁，工信部副部长刘烈宏、中国科协副主席孟庆海分别致辞；省政协主席夏德仁、省委副书记周波出席；省委常委、副省长陈向群主持开幕式；省委常委、市委书记张雷，市长姜有为出席开幕式。 同日 工业互联网赋能新模式新业态专题夜话暨沈阳市“十四五”规划建言献策座谈会在沈阳市新世界博览馆举行，院士、专家学者和企业代表共话工业互联网和沈阳市“十四五”数字经济发展大计，市长姜有为主持座谈会并讲话。 10月19日 省委常委、市委书记张雷会见华为公司轮值董事长郭平一行。 同日 省委常委、市委书记张雷会见由中国驻日本大阪前大使衔总领事李天然率领的日本企业家代表团一行。 同日 市长姜有为主持召开市政府第二十届第72次常务会议，传达学习习近平总书记在中央财经委员会第八次会议上的重要讲话精神和习近平总书记对就业、脱贫攻坚工作的重要指示精神，研究部署全市贯彻落实等工作。 会议审议通过《沈阳市电商直播发展（网红经济）行动方案（2020-2022年）》《沈阳产业技术研究院组建方案（讨论稿）》《加强公共卫生应急管理体系建设的实施意见》《沈阳市加强农村基层卫生服务体系建设工作方案》《沈阳市利用中央财政资金支持住房租赁市场发展实施方案（2020-2022年）（讨论稿）》《沈阳市公共场所控制吸烟条例（草案）》。 同日 市人大常委会主任潘利国主持召开市十六届人大常委会第三十五次主任会议。会议听取市政府、市法院、市检察院关于市十六届人大常委会主任会议组成人员重点督办的代表建议办理情况的汇报、市人大常委会执法检查组关于《沈阳市居家养老服务条例》执法检查结果的汇报、 市人大监察司法委关于建议作出《沈阳市人民代表大会常务委员会关于加强检察公益诉讼工作的决定》的汇报、市人大常委会对市检察院加强法律监督维护公平正义工作情况开展专题询问工作方案（草）的汇报、关于市十六届人大常委会第二十三次会议议题准备情况的汇报。 同日 市政协召开十五届三十一次主席会议，审议通过《关于加强我市城市基础设施安全运行的调研协商报告》，市政协主席韩东太主持会议并讲话。 10月20日 省长刘宁到沈阳走访慰问志愿军老战士王国斌和抗美援朝烈士郑文阁的遗属郑继烈，市长姜有为陪同走访。 同日 市人大常委会视察全市城乡绿化工作，市人大常委会主任潘利国参加视察。 同日 全国双拥模范城（县）命名暨双拥模范单位和个人表彰大会在京举行。沈阳市再次被评为全国双拥模范城，实现全国双拥模范城“九连冠”。 10月21日 全国脱贫攻坚先进事迹第二巡回报告团在沈阳举行报告会。国务院扶贫开发领导小组成员、中央统战部副部长邹晓东传达习近平总书记对脱贫攻坚工作的重要指示、李克强总理批示要求，并就打赢脱贫攻坚战提出要求。 10月22日 沈阜互动发展交流座谈会在沈阳召开。省委常委、市委书记张雷主持会议并讲话，阜新市委书记吕志成出席并讲话。 同日 省委常委、市委书记张雷到抗美援朝老战士王洪普家中走访慰问。 同日 由市委、市政府主办，东北大学、市科学技术协会、市社会科学界联合会、流程工业综合自动化国家重点实验室承办的第二届工业人工智能国际会议暨第十七届沈阳科学学术年会开幕，市长姜有为出席开幕式并致辞。 同日 市政协党组理论学习中心组召开学习会议，传达学习习近平总书记在深圳经济特区建立40周年庆祝大会上的重要讲话精神、在纪念中国人民抗日战争暨世界反法西斯战争胜利75周年座谈会上的重要讲话精神、在第三次中央新疆工作座谈会上的重要讲话精神、在中央财经委员会第八次会议上的重要讲话精神、在科学家座谈会上的重要讲话精神、在基层代表座谈会上的重要讲话精神，部署贯彻落实等工作。市政协党组书记、主席韩东太主持会议。 10月23日 纪念中国人民志愿军抗美援朝出国作战70周年大会召开前，以中共中央总书记、国家主席、中央军委主席习近平名义敬献花篮仪式在辽宁沈阳抗美援朝烈士陵园、丹东抗美援朝纪念塔和朝鲜平壤中朝友谊塔、桧仓中国人民志愿军烈士陵园等四地隆重举行。 23日上午8时45分，辽宁沈阳抗美援朝烈士陵园敬献花篮仪式正式开始。花篮红色缎带上写着“中国人民志愿军烈士永垂不朽！”。 中共中央政治局委员、中央军委副主席张又侠，中央党政军有关部门、辽宁省委和省政府、驻沈解放军和武警部队负责同志，参加过抗美援朝的志愿军老战士、老同志代表和烈士家属代表，解放军和武警部队官兵代表，国家机关工作人员，各界群众代表等面向烈士纪念碑肃立，寄托对中国人民志愿军烈士的深切缅怀和崇高敬意。 同日 省委常委、市委书记张雷，市长姜有为出席车创·沈阳汽车创智城项目启动仪式。 同日 市长姜有为主持召开全市前三季度经济形势分析会议，总结经济工作，部署下一步主要任务。 10月24日 市长姜有为主持召开第八次生态环境保护重点指标任务和中央生态环境保护督察反馈意见整改工作进展情况调度会。姜有为强调，聚焦聚力、从严从实，推动生态环境持续改善。 同日 由沈阳市商务局、和平区委区政府、沈阳市侨商联合会支持， 世界中餐业联合会、花椒学院主办的2020东北亚餐饮大会暨第六届（沈阳）花椒餐博大会在新世界博览馆开幕，会期3天。 10月26日 省委常委、市委书记张雷到铁西区，就贯彻落实省委常委会（扩大）会议精神、做好“十四五”规划编制工作进行调研，并到铁西区信访局现场接待来访群众。张雷强调，高标准规划、高品质建设、高水平推进，全力打造现代化工业区。 同日 市长姜有为到华为（沈阳）VR云创新中心、沈阳新松VR产业技术研究院有限公司、辽宁向日葵教育科技有限公司、沈阳国际软件园等科技企业和新型研发机构，就数字产业发展工作进行专题调研。姜有为要求，深挖潜力、 集聚资源，推动数字产业可持续发展。 10月27日 省委常委、市委书记张雷到辽中区，就贯彻落实省委常委会（扩大）会议精神、做好“十四五”规划编制工作进行调研，实地检查了辽中区肖寨门镇妈妈街肉牛养殖基地和沈阳英派高档铝合金型材生产项目。张雷强调，着眼长远、保持定力、埋头苦干，力争在“十四五”时期闯出新路子、呈现新气象。 10月28日 省委常委、市委书记张雷主持召开市委常委会会议，听取前三季度市政府党组工作情况及全市经济运行情况汇报，研究部署下一步工作。会议强调，要进一步补短板、强弱项，不断巩固向上向好的发展态势，科学编制“十四五”规划，奋力推进全面振兴、全方位振兴取得新突破。 同日 中科沈阳产业技术创新研究院揭牌暨首批入驻项目签约仪式在沈阳经济技术开发区举行。市长姜有为出席仪式，并与中科院沈阳分院院长韩恩厚共同为研究院揭牌。 同日 市十六届人大常委会第二十三次会议召开联组会议，对检察机关加强法律监督维护公平正义工作情况开展专题询问，市人大常委会主任潘利国参加会议并讲话。 10月28—29日 市十六届人大常委会举行第二十三次会议，市人大常委会主任潘利国主持会议。会议审议通过市政府关于我市法治政府建设情况的报告、《关于加快盛京皇城综合保护利用工作的议案》办理情况的报告、关于解决“停车难”“行车难”议案办理情况的报告、关于实施乡村振兴战略加快乡村产业振兴情况的报告、关于我市会展业发展情况的报告；听取审议市政府关于沈阳市国民经济和社会发展“十三五”规划完成情况和“十四五”规划编制情况的报告；会议审议通过市检察院关于加强法律监督维护公平正义工作情况的报告、《沈阳市人民代表大会常务委员会关于加强检察公益诉讼工作的决定》等。 10月29日 沈阳市通辽市合作交流座谈会在沈阳召开，两市签署战略合作框架协议。省委常委、市委书记张雷主持会议并讲话，市委副书记、市长姜有为介绍情况，市政协主席韩东太出席会议。通辽市委书记冯玉臻出席会议并讲话，通辽市委副书记、代市长郭玉峰介绍情况，通辽市政协主席全觉民出席会议。 同日 省委常委、市委书记张雷，市长姜有为会见中国通用技术集团党组副书记、董事、总经理陆益民一行。 10月30日 市政府党组理论学习中心组（扩大）组织开展专题学习，邀请中国宏观经济研究院国土开发与地区经济研究所所长高国力博士作《推动形成双循环互促高质量发展的区域经济布局》专题讲座。市政府党组书记、市长姜有为参加学习。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>34</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>年月沈阳大事记</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2020-12-12</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/qtzfxx/szfdsj/202112/t20211201_1719895.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['11月1—2日 省委常委、市委书记张雷，市委副书记、市长姜有为，市人大常委会主任潘利国，市政协主席韩东太参加第七次全国人口普查登记。第七次全国人口普查登记11月1日正式开始。', '11月2日 省委常委、副省长陈向群一行深入皇姑区陵东街道富裕社区华润紫云府小区，实地视察人口普查登记工作。', '同日 市委理论学习中心组召开专题学习（扩大）会议，深入学习贯彻党的十九届五中全会精神。省委常委、市委书记张雷主持会议并讲话。市委副书记、市长姜有为，市人大常委会主任潘利国，市政协主席韩东太出席会议。', '11月3日 省委常委、市委书记张雷到沈北新区，就贯彻落实党的十九届五中全会精神、做好“十四五”规划编制工作进行调研，实地考察绿馨花卉园艺有限公司、辽宁禾丰牧业股份有限公司。张雷强调，坚持系统谋划，注重融合发展，努力走出高质量发展的新路子。', '同日 亚金协第三届产业金融国际会议在沈阳召开。国内外金融机构、研究机构、企事业单位的专家、学者齐聚沈阳，共商产业金融创新合作发展大计。市长姜有为和亚金协秘书长陈克文分别致辞，与会领导和嘉宾共同启动《全球产业金融观察报告（2020）》发布仪式。', '同日 市人大常委会党组理论学习中心组召开学习（扩大）会议，深入学习党的十九届五中全会精神以及习近平总书记在纪念中国人民志愿军抗美援朝出国作战70周年大会上、在第三次中央新疆工作座谈会上、在中央政治局第二十三次和第二十四次集体学习时的重要讲话精神；学习习近平总书记就脱贫攻坚工作作出的重要指示精神；学习《中国共产党中央委员会工作条例》；传达学习习近平总书记在深圳经济特区建立40周年庆祝大会上、在中央党校（国家行政学院）中青年干部培训班开班式上的重要讲话精神；传达学习省委常委会（扩大）会议精神。市人大常委会党组书记、主任潘利国主持会议并讲话。', '同日 市政协党组理论学习中心组召开学习会议，深入学习十九届五中全会精神。市政协党组书记、主席韩东太主持会议并讲话。', '11月4日 东北三省副省级城市政协召开主席联席会议，围绕“积极融入构建新发展格局，打造东北对外开放新通道”，共商振兴大计，共谋发展良策，贡献政协智慧。市政协主席韩东太主持会议。', '11月6日 市人大常委会党组召开扩大会议，围绕认真学习贯彻党的十九届五中全会精神，听取市人大各专门委员会和工作机构、机关党委今年以来工作完成情况汇报，研究部署当前和明年重点任务。市人大常委会党组书记、主任潘利国主持会议并讲话。', '11月7日 第八届大中城市联合招聘高校毕业生“沈阳站”巡回招聘会在沈阳新世界博览馆举办。', '11月8日 中国老龄政策法律（第六届）高端论坛在辽宁大学举办。本届论坛以“开放与创新：‘十四五’规划展望 居家养老与老龄健康”为主题，由中国老龄政策法律研究所和辽宁大学法学院主办。市人大常委会主任潘利国、中国老龄事业发展基金会理事长于建伟出席论坛开幕式并作主旨发言。', '11月9日 省委常委、市委书记张雷到于洪区，就贯彻落实党的十九届五中全会精神、做好“十四五”规划编制工作进行调研。张雷实地考察辽宁弘侨生物科技有限公司、沈阳永安智能制造产业园，并召开座谈会，听取于洪区整体工作情况和“十四五”规划编制工作情况汇报。张雷强调，注重产业融合，加快产业转型，努力走出一条特色化发展的新路子。', '同日 市长姜有为主持召开市政府第二十届第73次常务会议，传达习近平总书记对供销合作社工作重要指示精神，研究部署贯彻落实等近期重点工作。会议审议通过《沈阳市事故灾难与自然灾害突发事件应急指挥与处置工作办法》，听取《沈阳市2020年食品安全工作情况的报告（讨论稿）》《沈阳市开展农村乱占耕地建房整治专项行动摸排工作有关情况的报告（讨论稿）》。', '同日 市政府党组书记、市长姜有为主持召开市政府党组（扩大）会议，传达学习党的十九届五中全会精神，研究部署全市政府系统贯彻落实工作。', '11月10日 省委、省政府召开全省疫情防控工作电视电话会议，深入贯彻党的十九届五中全会和习近平总书记重要指示精神，按照全国疫情防控工作电视电话会议要求，分析疫情防控形势，研究部署下步工作。省委常委、市委书记张雷出席会议。', '11月11日 沈阳市召开社会领域代表座谈会，就深入贯彻落实党的十九届五中全会精神、做好“十四五”规划编制工作征求意见建议。省委常委、市委书记张雷主持会议并讲话。', '同日 市政府与广州越秀集团股份有限公司举行战略合作框架协议签约仪式。省委常委、市委书记张雷，市长姜有为出席签约仪式。广州越秀集团股份有限公司董事长张招兴出席签约仪式。', '同日 市长姜有为主持召开统筹推进疫情防控和经济社会发展工作视频调度会，贯彻落实全国、全省疫情防控工作电视电话会议精神，分析疫情防控形势，研究部署下步工作。姜有为强调，压紧压实“四方”责任，强化各项措施，毫不松懈抓好常态化疫情防控工作。', '同日 农业农村部公示第十批全国“一村一品”示范村镇名单。辽宁11地入选，苏家屯区八一红菱街道来胜堡村成为沈阳唯一一家入选村镇。', '11月12日 省委常委、市委书记张雷主持召开市委常委会会议，传达学习习近平总书记在中央政治局第二十三次集体学习时的重要讲话精神，研究部署沈阳市贯彻落实工作。', '同日 省委常委、市委书记张雷主持召开市委议军会议，听取沈阳警备区2020年工作情况和2019年市委议军会议精神落实情况汇报，研究沈阳市党管武装工作。', '同日 市政府与中国银行股份有限公司举行《“十四五”规划暨沈阳振兴全面战略合作协议》签约仪式。省委常委、市委书记张雷，中国银行党委副书记、行长王江，市委副书记、市长姜有为出席签约仪式。', '同日 省委常委、市委书记张雷会见正威国际集团董事局主席王文银、深圳华强集团有限公司总裁李曙成、红星美凯龙控股集团董事长车建新等出席辽洽会活动的企业家。', '同日 市政府与融创中国控股有限公司签署战略合作框架协议，市长姜有为出席签约仪式，并会见融创中国董事会主席孙宏斌一行。', '11月12—13日 市长姜有为分别会见月星集团有限公司董事局主席丁佐宏，通用电气（中国）有限公司副总裁陈荣生，中国电建集团党委书记、董事长晏志勇，京东集团副总裁龙宝正等前来参加辽宁国际投资贸易洽谈会的嘉宾。', '11月13日 以“共享发展新机遇·开创东北亚合作新篇章”为主题的首届辽宁国际投资贸易洽谈会在沈阳新世界博览馆开幕。省委常委、市委书记张雷出席开幕式。', '同日 苏州市人大常委会党组书记、主任陈振一率考察组来沈进行学习考察。 考察组一行先后考察了华晨宝马铁西工厂 、新松机器人自动化股份有限公司、沈阳市城市规划展示馆、中国工业博物馆以及老北市项目。省委常委、市委书记张雷，市人大常委会党组书记、主任潘利国陪同考察。', '同日 由市政府主办的国际基因组学大会第三届眼科大会召开。本届大会的主题是“天下无盲，沈阳领航”。市长姜有为出席会议并致辞，并同与会嘉宾一起按动启动柱，启动基因精准防控糖尿病眼病项目。', '11月14日 首届辽宁国际投资贸易洽谈会主题活动之一——中韩经贸合作峰会在沈阳召开。省委副书记、省长刘宁出席会议并讲话；韩国驻华大使张夏成致辞 ，沈阳市市长姜有为致辞并宣布“中韩投资贸易博览会暨中国（沈阳）韩国周”开幕。大韩贸易投资振兴公社中国总部本部长朴汉真、启迪控股股份有限公司董事长王济武、希杰物流全球总裁兼中国总部总裁朴根太作主旨演讲。省及沈阳市领导张雷、陈绿平，韩国驻沈阳总领事馆总领事林秉镇出席会议。', '11月18日 沈阳首届城市固废处理高峰论坛暨沈阳城市固废处理基地启动仪式在沈北新区举行，沈阳城市固废处理基地占地780亩，由沈阳中城集团投资15亿元建设。全国政协副秘书长、九三学社中央专职副主席赖明，省政协副主席、民建辽宁省委主委武献华，市人大常委会主任潘利国出席活动。', '同日 全市重点工业项目——赛轮（沈阳）轮胎有限公司年产330万套高性能、智能化、全钢载重子午线轮胎项目投产。项目达产后，赛轮沈阳工厂全钢载重子午线轮胎年产量将提升至600万套。市长姜有为出席投产仪式。', '11月19日 市长姜有为出席中日产业园合作企业战略合作协议签约仪式，并会见日本驻沈阳总领事馆总领事片江学巳和签约企业代表。', '同日 沈阳市电子劳动合同启动仪式暨中智“智享签”产品新闻发布会在友谊宾馆举行。沈阳成为继北京之后全国第二个推广应用“智享签”电子劳动合同的城市。', '11月20日 市电力建设领导小组组长、市长姜有为主持召开市电力建设领导小组第十次会议，听取相关工作情况汇报，协调解决重点难点问题，并就下步工作进行部署。2018-2020年沈阳电网实现三年投资100亿元的目标，全市供电可靠率达99.98%。姜有为要求，强化规划统筹、优化营商环境，加快建设坚强智慧电网。', '同日 全国精神文明建设表彰大会在北京举行。沈阳市通过中央文明办复查，确认保留全国文明城市荣誉称号。沈阳市继2015年首次获评“全国文明城市”（第四届）后连续第二次蝉联“全国文明城市”荣誉称号。', '11月23日 省委常委、市委书记张雷深入和平区、沈河区、大东区，实地调研文化产业发展情况。在和平区，张雷现场观看华为VR技术在各领域的应用演示、老北市1636项目，实地查看刘敬贤辽菜博物馆、老沈阳博物馆等独具特色的文化展馆；在沈河区，实地查看中街中央里文化旅游景区、中街·盛京龙城的“盛京老街”等特色主题街区；在大东区，查看大东区铁锚1956文化创意产业园和吉祥商业步行街。张雷强调，加快文化产业高质量发展，为新时代振兴注入新内涵、增添新动力。', '同日 市长姜有为主持召开市政府第二十届第74次常务会议，研究部署清理规范城乡社区挂牌、河长制等近期重点工作。会议审议通过《关于清理规范城乡社区挂牌问题的实施方案（讨论稿）》《沈阳市2020年河长制工作情况的报告（讨论稿）》《沈阳市生活垃圾分类管理办法》；会议决定废止《沈阳市重大行政决策程序规定》。', '同日 市政府党组书记、市长姜有为主持召开市政府党组会议，传达学习习近平总书记近期重要讲话和重要指示精神，研究部署市政府贯彻落实工作。会议传达学习习近平总书记在中央政治局第二十三次集体学习时的重要讲话精神、习近平总书记在浦东开发开放30周年庆祝大会上的重要讲话精神，习近平总书记对平安中国建设以及推进农村土地制度改革、做好农村承包地管理工作的重要指示精神，会议还学习了《中国共产党中央委员会工作条例》。', '同日 市长姜有为与他所联系的中国工程院院士、沈阳农业大学稻作研究室主任陈温福，东北大学老师王聪、刘腾飞等院士专家进行座谈，了解他们的工作、科研情况及新一年的计划安排，听取院士专家关于沈阳科技创新及人才政策等方面的意见建议。姜有为提出，要加强基础科研和应用研究，激发科技创新活力，助力区域创新体系建设。', '11月24日 省委常委、市委书记张雷主持召开沈阳市党外人士座谈会，深入学习贯彻党的十九届五中全会精神，听取党外人士对沈阳“十四五”时期经济社会发展的意见建议。', '同日 省委常委、市委书记张雷，市长姜有为出席浑南区产业链招商签约大会。沈阳市浑南区与华为、华侨城、华润、万科等46家企业签署49个优质产业链及相关软产业项目合作协议，总签约额达1985亿元。', '11月25日 省委常委、市委书记张雷主持召开市委常委会会议，传达学习习近平总书记在浦东开发开放30周年庆祝大会和中央全面依法治国工作会议上的重要讲话精神，以及全国精神文明建设表彰大会精神、中共中央办公厅印发的《关于巩固深化“不忘初心、牢记使命”主题教育成果的意见》和全省村（社区）“两委”换届工作电视电话会议精神，研究部署全市贯彻落实工作。', '11月26日 市人大常委会主任潘利国主持召开市十六届人大常委会第三十六次主任会议，听取关于市人大常委会向市十六届人大四次会议所作工作报告起草情况的汇报、关于制定《沈阳市人大常委会组成人员联系市人大代表和市人大代表联系人民群众的办法（草案）》的汇报、关于市十六届人大常委会第二十四次会议议题准备情况的汇报。', '11月28日 “奋斗者”号全海深载人潜水器成功完成万米海试胜利返航。潜水器载人舱可载3人，其球壳是目前世界最大、搭载人数最多的潜水器载人舱球壳，采用了中国科学院金属研究所钛合金团队自主发明的Ti62A钛合金新材料。中科院沈阳自动化所承担“奋斗者”号控制系统研制，两名参研人员深入万米深海参加深潜任务。', '同日 2020京沈对口合作第三届京沈科创产业生态共同体峰会在沈阳举行。来自京沈两地的政府和企业代表以“软产业”价值共享为核心，达成6项签约合作，同时为“京沈合作科技创新中心”进行揭牌，并共同启动“自贸区沈阳片区——京沈高精尖产业智库服务平台”项目。', '11月29日 市教育局根据国家、省、市新冠肺炎疫情防控相关要求和教育系统的实际，决定从即日起，对全市在职中小学教师违规补课行为进行集中治理，参与或组织“拉班补课”的，一经查实，予以开除。', '11月30日 学习贯彻党的十九届五中全会精神省委宣讲团宣讲报告会在沈阳召开，省委宣讲团成员、省发改委党委书记、主任李雪东到沈阳市宣讲党的十九届五中全会精神，为全市党员干部群众作专题辅导报告。省委常委、市委书记张雷，市委副书记、市长姜有为，市人大常委会主任潘利国、市政协主席韩东太出席会议。', '同日 市政府党组书记、市长姜有为主持召开市政府党组会议，传达省委十二届十四次全会精神，部署市政府系统贯彻落实工作。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>34</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>关于印发办理人大代表建议政协提案工作流程及考核评比办法的通知</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2012-02-21</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zcwj/zfwj/szfwj/202112/t20211201_1699720.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['关于印发办理人大代表建议政协提案工作流程及考核评比办法的通知-市政府文件-沈阳市人民政府', '《沈阳市人民政府关于办理人大代表建议政协提案工作流程及考核评比办法》业经市政府第57次常务会议审议通过，现印发给你们，请结合工作实际，认真贯彻执行。', '第一条 为了做好人大代表建议、批评、意见（以下简称建议）和政协提案（以下简称提案）办理工作，实现办理工作的制度化、规范化、程序化，提高办理工作的质量和效率，根据《中华人民共和国地方各级人民代表大会和地方各级人民政府组织法》、《中国人民政治协商会议章程》、《辽宁省人民政府办理人大代表建议政协提案工作规则》的有关规定，结合我市实际，制定本规则。', '第二条 市政府办公厅负责全市政府系统建议提案办理工作，负责对区县（市）人民政府和市政府各部门建议提案办理工作的组织、协调、检查、指导、督办、通报、表彰、绩效考核和网络建设。', '第三条 各区县（市）人民政府、市政府各部门及直属单位要以讲政治和对人民群众高度负责的态度，把办理建议提案作为贯彻执行我国人民代表大会制度和政治协商、民主监督制度以及加强社会主义民主与法制建设的一项严肃的政治任务和改进政府工作的核心内容，纳入重要工作日程，加强领导，抓好落实，按时办复。', '第四条 各区县（市）人民政府、市政府各部门及各直属单位要配备与建议提案办理工作相适应的工作人员。要把有较强协调能力和较高政策水平，熟悉本系统、本部门全面工作的人员安排在建议提案办理工作岗位，并保持相对稳定。同时，还要安排一定数量的较高职级的人员，从事办理工作。', '（一）省和市人大代表在本级人民代表大会会议期间或闭会期间提出的，经省政府办公厅和市人大常委会代表工作机构交市政府办理的建议。', '（二）省和市政协委员、省和市政协参加单位在本级政协全体会议或闭会期间提出的，经省政府办公厅和市政协提案委员会（提案审查委员会）审查立案后，交市政府办理的提案。', '第六条 坚持执政为民的原则。要把解决好人民群众最关心、最直接、最现实的问题和事关全市中心工作以及政治经济、文化社会生活中的重要问题，作为办理工作的出发点和落脚点，努力提高落实率，使人民群众真正受益，让人大代表、提案者真正满意。', '第七条 坚持依法办理、实事求是的原则。办理建议提案要依据党和国家的方针政策及有关法律、法规和规章，严格按法定程序办理。对有条件解决的建议提案要尽快解决，不得拖延；对列入计划解决的建议提案要创造条件，按时解决；对超出本级人民政府职权范围的，要积极向上级人民政府或有关部门反映；对确实解决不了的，要实事求是地向人大代表、提案者作出说明解释。', '第八条 坚持分级负责、归口办理的原则。凡属市本级人民政府及其职能部门工作范围内的建议提案，由市本级人民政府及所属有关部门、单位负责办理；凡属区县（市）人民政府工作范围内的建议提案，由区县（市）人民政府负责办理；对涉及重大方针、政策及事关全局的建议提案，由政府主管部门提出处理意见，报同级人民政府审定后答复；对涉及两个以上部门或单位共同办理的建议提案，由主办部门或单位会同相关部门研究办理。', '（三）组织办理上级或市本级建议提案，并负责将办理结果以书面形式答复人大代表或提案者。', '（四）组织办理市本级人大常委会主任会议和政协主席会议确定的，须由市政府直接承办的重点建议提案。', '（六）对承办单位的具体承办人员适时组织开展业务培训、经验交流、考察学习等活动，全面提高办理队伍的政策水平和业务素质。', '（七）负责向市人民代表大会及其常委会报告人大代表建议办理工作情况，向市政协常委会通报政协提案办理工作情况。并根据市本级人民代表大会及其常委会的审议意见，研究落实情况，进行书面反馈。', '（一）市本级的建议提案，由市政府办公厅负责依据市政府工作部门“三定”方案所明确的职能确定承办单位，及时交办，并提出办复时限和工作要求。', '（四）对涉及2个以上部门办理的建议提案，根据建议提案的核心内容，指定主办部门和协办部门，共同研究办理。', '（五）承办单位接到交办的建议提案后，必须及时研究处理，认真核对，逐件登记。对不属于本单位职责范围内的建议提案，接收单位要在收到承办件之日起5个工作日内向交办部门书面说明情况，提出调整意见，经交办部门审核同意后退回，由交办部门重新确定承办单位。承办单位不得自行转送其他部门办理或积压。', '（一）承办单位接到交办的建议提案后，要逐件分析研究，提出拟办意见，经单位主要领导审批后，指定责任部门和专人办理。', '（二）承办单位对所承办的建议提案，一般应在收到承办件之日起3个月内办理完毕并答复；对问题比较复杂的最迟不得超过6个月办复或予以阶段性答复；对上级或本级政府临时交办的急件要在规定的时限内及时办复。', '（三）由两个以上单位共同办理的，主办单位应主动与协办单位协商，协办单位要予以积极配合。协办单位应在接到办理任务起1个月内将协办意见反馈主办单位。主办、协办单位在办理工作中，如有意见分歧，经协商未能达成一致意见的，应向交办部门报告，由交办部门予以协调，并形成一致意见。', '（四）办理工作要在遵守保密规定的前提下，逐步实现内部网上交办、督办、反馈，以及与人大代表、提案者的联络、沟通等，不断提高工作效率。', '（一）各承办单位要根据党和国家的方针、政策及本地区、本单位的实际情况，实事求是地答复人大代表、提案者提出的问题。答复函要言简意赅、逻辑严谨、条理清晰，避免长篇累牍、答非所问。', '（二）答复函须经承办单位办公部门负责同志审核，主要领导审定、签字，并加盖单位公章。建议提案办理后未经部门主要领导审核签批，不得答复人大代表、提案者。', '（三）答复人大代表、提案者时，要附带征求意见单，由人大代表、提案者亲自签署对承办单位办理工作的意见，任何经办人员不得代签。各承办单位不得委托下属单位直接答复人大代表、提案者。', '（四）承办单位办复后，要根据办理情况，注明办理结果。办理结果按本规则第十七条之规定，在答复函的右上角标明。并将答复函和征求意见单一式3份报送交办部门，由交办部门转送市人大常委会代表工作机构和市政协提案委员会。', '（五）对于由多位人大代表附议的同一建议，要逐一答复每位署名的人大代表；委员联名的提案，办理答复函面送第一提案者。', '（六）对于由2个以上部门共同承办的建议提案，主办部门和协办部门要形成一致意见后，答复人大代表和提案者。在未形成一致意见之前，主办、协办部门均不得答复。', '（七）对于全国、省人大代表和政协委员提出的建议和提案，承办单位要将拟办理结果报市政府办公厅，并以市政府或办公厅名义，在省人大代表建议、政协提案信息管理系统网上复函，同时将纸质文档一式二份报送省政府办公厅。', '（八）对于省人大和政协确定的重点建议提案，承办单位形成答复函后，由市政府办公厅报分管市领导和市长审签，报省政府领办、督办领导审定后，答复人大代表或提案者。', '（九）对于市人大和政协确定的重点建议提案，承办单位形成答复函后，由市政府办公厅审核，报分管市领导审签后，答复人大代表或提案者。', '（十）对于当年已经答复并列入解决或基本解决范围的建议提案，在工作中如有调整，导致实际结果与答复内容不一致的，承办单位要及时向人大代表、提案者反馈，并向交办部门报告。', '（十一）对于上一年列入计划转入第二年办理的建议提案，承办单位在办理过程中要及时与人大代表、提案者沟通。对于解决落实的，要重新履行答复程序。', '（一）承办单位对办理工作要主动开展自检自查，确保在每年的10月1日前完成“二次办理”工作。凡是人大代表、提案者对办理结果不满意的，承办单位的主要负责人要亲自办理，再次答复；经再次答复仍不满意的，要及时向交办部门报告。', '（二）市及各区县（市）人民政府、市政府各部门要经常对建议提案办理情况进行督促检查，重点检查答复解决问题的落实情况。', '每年度办理工作完成后，承办单位要认真进行总结，及时向交办部门报送书面总结报告。市政府办公厅负责编辑《建言施政集》，各承办单位要根据交办部门的要求，及时报送本部门承办建议提案的《建言施政集》校正稿。', '（一）责任制度。一是实行行政主要领导办理责任制。市长对全市建议提案办理工作负总责，分管市领导分口负责，部门“一把手”为本单位承办工作第一责任人。二是实行最终办结制。建议提案承办部门能够解决的，应当自行办理解决；部门不具备解决条件的，应当报分管市领导研究解决；分管市领导无法解决的，报市长办公会议研究解决。三是实行市长领办制。对一些影响力强、涉及面广、解决难度大的建议提案，由市长责成分管市领导协调，集中解决跨地区、跨部门的重点和难点问题。四是实行分管副秘书长分工负责制。对重点建议提案和由2个以上部门共同办理的建议提案，本着“谁牵头、谁主办”原则，由分管主办单位的副秘书长协调督办。', '承办单位要建立领导分管、部门负责、具体人员承办的工作体系，定职责、定时限、定要求，确保各项办理工作落到实处。', '（二）跟踪制度。各承办单位对已经办复的建议提案，在“二次办理”期间要进行全面复查，切实做到“四看”，即对答复解决的建议提案，看是否已落实到位；对答复列入计划解决的建议提案，看是否按计划落实；对年初答复中没有解决的建议提案，看年中、年末是否能够解决；对一些建议提案虽然已经解决，但容易产生反弹问题的，看办理结果是否持续稳定。', '（三）通报制度。交办部门要定期检查、通报办理工作情况，适时交流推广先进经验，确保按要求完成办理任务。', '（四）例会制度。市政府每年年初组织召开全市建议提案办理工作会议，全面总结上年办理工作，表彰先进单位及个人，并对当年建议提案办理工作做出安排部署。交办部门要定期或不定期召开建议提案办理工作调度会，全面掌握建议提案办理进展情况，及时协调解决办理中存在问题。各承办单位要适时召开建议提案办理工作专题会议，研究部署建议提案办理工作，明确办理任务，落实办理责任，确保办理工作落到实处。', '（五）培训制度。各区县（市）政府、市政府各部门及直属单位要采取多种形式开展业务培训，切实提高办理人员的业务能力和政策水平。', '（六）联系制度。各承办单位要加强与人大代表、提案者的沟通联系，通过走访、座谈等多种形式征求对办理工作的意见。要严格执行办前走访、办中询访、办后回访的“三访”制度，做到“提”“办”“答”“落”相结合。', '（七）保密制度。对于涉及国家秘密的建议提案，承办单位要严格按照《中华人民共和国保守国家秘密法》的规定办理，严禁失泄密事件的发生。同时，不得将人大代表、提案者的相关信息泄露给无关人员。', '2. 所提建议和意见被采纳，涉及的问题已按确定的措施、方案实施，并取得阶段性成效的；', '2. 所提建议和意见基本可行，对涉及的问题已提出解决意见，但需条件具备或适当时机才能实施的；', '2. 所提建议和意见，因受国民经济计划、财力、物力等客观条件限制，近期内难以解决的；', '第十八条 建议提案办理工作纳入政府系统年度绩效考评体系。市政府办公厅每年对区县（市）政府、市政府各部门及直属单位的办理工作进行考核，对成绩显著的单位和个人给予表彰奖励。各承办单位可结合工作实际，对认真办理建议提案的责任部门和承办人员进行表彰奖励。', '（四）受客观条件限制，两年内无法解决的建议提案，没有及时向人大代表、提案者解释清楚的；', '（五）对人大代表、提案者态度粗野蛮横，因主观原因造成人大代表、提案者对办理结果不满意的。', '第二十条 对建议提案拖延不办，经多次催促仍无改进的；不认真贯彻市政府决定，贻误工作造成重大影响的，由市政府办公厅对责任者提出给予行政处分的建议，市政府有关部门按有关规定对主管领导和直接责任者予以行政处分。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>34</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>沈阳市人民政府办公厅关于印发沈阳市开发区园区集群式项目满园扩园三年行动计划年的通知</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2018-06-07</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zcwj/zfwj/szfbgtwj1/202112/t20211201_1700662.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['沈阳市人民政府办公厅关于印发沈阳市开发区（园区）集群式项目“满园扩园”三年行动计划（2018-2020年）的通知-市政府办公室文件-沈阳市人民政府', '沈阳市人民政府办公厅关于印发沈阳市开发区（园区）集群式项目“满园扩园”三年行动计划（2018-2020年）的通知', '为贯彻落实《中共沈阳市委沈阳市人民政府关于促进开发区改革和创新发展的实施意见》(沈委发〔2018〕9号)和《中共沈阳市委办公厅沈阳市人民政府办公厅关于沈阳市优化开发区(园区)规划完善功能配套的指导意见》(沈委办发〔2017〕73号)精神，实现高端化、特色化、集群化推进开发区(园区)(以下简称“开发区”)项目“满园扩园”，使开发区成为大干实干的主战场、奋力赶超的主力军，特制定本行动计划。', '——实现经济发展提质增速。2018-2020年，国家级开发区“四上”企业增加值、一般公共预算收入、固定资产投资、规模以上工业增加值(或服务业增加值)增速高于全国平均水平3个百分点，省级开发区高于全国平均水平2个百分点左右。', '——推动集群式项目满园扩园。国家级开发区每年至少引进1个投资额50亿元及以上产业项目，省级开发区每年至少引进1个投资额20亿元及以上产业项目。开发区亿元以上项目完成投资比重不低于70%，每年新开工产业项目占新开工项目的50%以上。', '——提升开发区集聚集约发展水平。开发区土地开发利用率持续提高，国家级、省级开发区地均固定资产投资强度、地均收入和地均税收高于全国和全省同类型开发区平均水平。', '1.推行“管委会+平台公司”运营管理模式。加快实施开发区“去行政化”改革，实现管委会独立设置，聚焦经济管理主责主业，重点抓好产业发展、项目建设、招商引资和企业服务等工作，将社会管理、公共服务和市场监管等职能交由所在地政府承担，保持精简、高效、灵活的体制机制优势。〔牵头单位：市编委办；责任单位：各区县(市)政府、开发区管委会〕2018年6月底前，各开发区要成立或吸引社会资本组建“开发建设公司”、“产业投资发展公司”等平台公司，以市场化方式参与开发区基础设施建设和产业发展。〔牵头单位：市发展改革委；责任单位：各区县(市)政府、开发区管委会〕', '2.推行“开发区+主题产业园区”建设发展模式。吸引各类投资主体，采取直接投资、兼并重组等市场化方式，在开发区内建设和运营机器人未来城、眼产业特色小镇等主题产业园区。到2020年，国家级开发区围绕“2主1特”产业重点建设3个以上主题产业园区，省级开发区围绕“1主1特”产业重点建设2个以上主题产业园区。〔牵头单位：市外经贸局、科技局、发展改革委；责任单位：各开发区管委会〕', '3.创新招商工作机制。围绕开发区主导和特色产业定位，编制产业项目招商地图，成立专门招商机构，吸引高层次招商人才，开展专业化、职业化、规范化招商活动。全面梳理汇集市、区、开发区各项招商引资政策，通过互联网等渠道公开发布，构建统一高效、公开透明的招商政策体系。探索建立异地流转项目建设利益共享机制，对于由本开发区新引进、推荐到其他开发区建设的项目，对项目形成的税收、固定资产投资、实际利用外资额以及开发区项目考核任务等指标，双方按一定比例分成，解决开发区无序竞争、资源浪费等问题。〔牵头单位：市外经贸局；责任单位：各开发区管委会〕', '4.推动开发区扩区移区和升级。有序推动沈阳高新技术产业开发区、沈阳经济技术开发区、沈阳近海经济区、浑河民族经济开发区等扩区移区。优先推动年度考核排名靠前的省级开发区晋升为国家级开发区。〔牵头单位：市外经贸局、科技局、发展改革委按职责分工负责；责任单位：各开发区管委会〕', '5.开展产业优势调查。2018年6月底前，对开发区规模以上工业企业和生产性服务业企业进行点调抽查，绘制产业组织、产业结构、产业技术、生产要素和相对优势分布图，为精准确定开发区产业功能定位和项目策划招商提供支撑。〔牵头单位：市发展改革委、统计局；责任单位：各区、县(市)政府，开发区管委会〕2019年底前，完成全市行政区(开发区)第四次经济普查，全面掌握开发区企业生产经营情况、生产能力、主要产品和市场等情况。〔牵头单位：市统计局；责任单位：各区、县(市)政府，开发区管委会〕', '6.强化项目包装策划。各地区每年负责策划5个以上产业集群项目包和5个PPP项目，国家级开发区每个产业集群项目包至少要包含1个50亿元以上产业项目，省级开发区每个产业集群项目包至少要包含1个20亿元以上产业项目。每年5月底前，各开发区要完成项目包装策划任务。〔牵头单位：市发展改革委；责任单位：各区县(市)政府、开发区管委会〕', '7.实施项目策划全链条管理。在全市项目管理平台上建立策划储备项目库、招商(签约、落地)项目库和招商目标客户资源库，形成项目从策划储备、招商洽谈、签约落地全生命周期的统筹管理。〔牵头单位：市外经贸局；责任单位：各区县(市)政府、开发区管委会〕', '8.开展精准招商活动。2018年6月底前，各开发区制定完成招商引资政策。开展以商招商、中介招商、点对点招商、小分队招商，强化工业项目、中国制造2025、跨境电商等主题招商，补齐产业短板。借助世界500强和跨国公司在华总部、国内外商协会等渠道，加强对重点国家和长三角、珠三角等地区招商。通过提供股权投资、担保抵押、低息贷款等金融服务，开展“资本”招商。各开发区每年招商储备项目签约转化率要达到50%以上。〔牵头单位：市外经贸局；责任单位：各区县(市)政府、开发区管委会〕', '9.加强招商引资激励。制定完善招商活动目录，简化招商活动申报程序，建立招商人员免责清单。针对招商活动需求，制定招商活动经费支出标准并适时提高招商活动经费保障水平。制定并落实招商中介奖励政策，对在招商工作中有突出贡献的非财政拨款个人以及社会中介机构给予资金奖励。〔牵头单位：市外经贸局、财政局；责任单位：各开发区管委会〕', '10.提高项目审批效率。赋予开发区完整的经济管理权限，市直有关部门依照法定程序将市级经济管理权限下放给开发区。〔牵头单位：市编委办；责任单位：各区县(市)政府、开发区管委会〕落实《关于进一步改善投资环境优化投资建设项目审批的实施办法(试行)》，全面推行投资建设项目承诺制审批，试行园区“捆绑”审批模式。〔牵头单位：市政务服务办；责任单位：各区县(市)政府、开发区管委会〕', '11.强化项目跟踪服务。实行签约项目专人负责制，对签约项目建立台账，明确责任主体和进度安排，挂图作战。对重大项目签约、注册、开工、投产、运营全程领办代办，构建全链条服务体系。开发区当年签约、当年开工项目比率要达到30%以上。〔牵头单位：市外经贸局；责任单位：各区县(市)政府、开发区管委会〕建立健全项目专管制度，将项目包装策划、签约入库、问题化解、手续办理、政策兑现、落地开工、达产达效纳入全生命周期管理。针对项目受阻问题，实施分级解决、编号管理和全程督办。〔牵头单位：市发展改革委；责任单位：各区县(市)政府、开发区管委会〕', '12.分类处置“僵尸企业”。各开发区在摸清已建成无生产经营活动“僵尸企业”底数的基础上，到2020年底，按照每年减少1/3的进度完成“僵尸企业”处置工作。对暂时经营困难但仍有价值、有市场、有前景的企业，坚持以市场为主体，引导企业通过兼并收购、股权转让、融资融券、债转股、合资合作等方式，加快技术改造、延伸产业链条、提升产品档次，激活发展活力；对国家明令淘汰，严重资不抵债、无重整价值和可能性的“僵尸企业”，实施破产清算。〔牵头单位：市国资委、各区县(市)政府；责任单位：各开发区管委会〕', '13.加快处置“僵尸项目”。对由于未净地交付造成项目无法启动实施的“僵尸项目”，加快推进土地征收、管线排迁进度，尽快实现净地交付；对因招商承诺未兑现，致使项目未按计划开工的，要研究制定解决方案，推进项目继续履约。到2020年底，开发区按照每年减少1/3的进度完成“僵尸项目”处置工作。〔牵头单位：各区县(市)政府；责任单位：各开发区管委会〕', '14.加强组织领导。在沈阳市开发区(园区)发展工作领导小组下设立开发区(园区)集群式项目“满园扩园”行动工作协调组，办公室设在市发展改革委。市直有关部门、开发区管委会确定1名分管领导作为工作组成员，并安排1名处(科)室负责人作为联络员，强化责任落实，形成工作合力。建立开发区(园区)发展工作领导小组例会制度，每两个月召开一次例会，每月通报一次开发区经济运行情况，推动开发区体制机制改革和重大项目落地。〔牵头单位：市发展改革委；责任单位：市开发区(园区)发展工作领导小组成员单位、各开发区管委会〕', '15.建立开发区工作报告制度。每半年各开发区向市委、市政府书面报告工作开展情况；年底召开会议，由各开发区主要领导向市委、市政府汇报工作完成情况。〔牵头单位：市发展改革委；责任单位：各开发区管委会〕', '16.完善常态化推进机制。开展交叉互检。每季度组织各开发区围绕项目建设、经济发展等主要指标开展互检互查，提高竞争意识。开展拉练互动。每年集中组织两次市委、市政府主要领导参加的开发区重大项目观摩拉练活动，4月份重点观摩项目开复工情况，10月份重点观摩项目形象进度。开展对标互访。推动开发区与北京、江苏等国内发达地区开发区开展合作共建，加快推进高新区-中关村朝阳园、沈阳经开区-北京经开区、三好街-中关村发展集团、金融商贸开发区-北京金融街等重点园区对接，承接产业转移，促进对接项目在开发区落地。〔牵头单位：市发展改革委；责任单位：各开发区管委会〕', '17.提升基础设施配套水平。支持开发区以政府和社会资本合作(PPP)方式开展政府应承担开发区内配套的基础设施建设。支持开发区内企业参与电力市场化交易，降低用电成本。〔牵头单位：市发展改革委、经济和信息化委；责任单位：各开发区管委会〕', '18.健全“大园区+小城市”公共服务网络。坚持产城融合，对标高品质公共服务新展区，积极构建“大园区+小城市”公共服务网络。按照开发区人口密度、规模、人力资源结构等要素确定公共服务设施配套建设标准，引入社会资本或采取PPP模式投资建设运营园区公共服务设施，将社区服务、文化、教育、医疗卫生、社会保障等公共服务功能延伸至园区。采取多种方式，加强公交线路建设，优化公交线网布局。推进智慧园区建设，将数字图书、继续教育、家庭医生等公共数据服务资源延伸到开发区。〔牵头单位：市规划国土局、民政局、交通局、大数据局、文广局、卫计委、沈阳广播电视大学按职责分工负责；责任单位：各区县(市)政府、开发区管委会〕', '19.加强开发区规划控制。2018年8月底前，按照“一个园区一座新城”的理念，编制实施《沈阳市开发区产业空间布局规划(2018-2035年)》。各开发区同步编制总体发展规划、控制性详细规划、产业规划等相关规划，经市政府批准(新民、近海、法库、康平开发区经所在地区政府批准)后严格组织实施。〔牵头单位：市发展改革委、规划国土局、经济和信息化委、科技局、外经贸局等市直有关部门；责任单位：各区县(市)政府、开发区管委会〕', '20.开展土地攻坚行动。针对“净地不净”，采取反复协商、实施裁定等措施加快拆迁工作，尽快完成储备土地征收。加快推进司法征收立法，强化土地征收法制保障。对基本拆迁完毕的地块，及时注销原地上房产手续，尽快达到净地出让条件。通过征收土地闲置费、限期开发和依法收回等方式加快盘活闲置土地，力争2020年底前各开发区闲置土地处置率达到100%。〔牵头单位：市规划国土局；责任单位：各区县(市)政府、开发区管委会〕', '21.优先保障储备项目用地。根据开发区发展规划和项目储备、引进和建设情况，建立健全开发区土地利用规划滚动计划，加快土地组卷、报卷、审批速度，提前落实土地指标，明确土地性质，开展土地整理，做好配套工程，完成七通一平。实行差别化供地政策，采取工业用地先租后让、租让结合、长期租赁、弹性年期等方式满足企业用地需求，降低用地成本。鼓励开发区建设使用多层标准厂房、下沉式厂房，实施“零增地”技术改造，对在符合规划、不改变现有工业用地用途前提下提高土地利用率和容积率的，不增加土地价款。〔牵头单位：市规划国土局；责任单位：各区县(市)政府、开发区管委会〕', '22.推动平台公司上市。支持“中德开”、“中德发”等符合条件的开发区平台公司，通过境内外上市、“新三板”和辽宁股权交易中心挂牌以及发行债券等方式融资发展，增强开发区造血功能。〔牵头单位：市金融办；责任单位：市发展改革委、各区县(市)政府、开发区管委会〕', '23.加强开发性金融支持。积极争取国开行、农发行等政策性金融机构通过投贷联动、投债联动、投基联动、区域联动等方式，重点支持中德产业园、机器人未来城、东软大健康数字医疗产业园等开发区(园区)的基础设施和多能互补(光伏发电、煤改电、煤改气等)项目。〔牵头单位：市发展改革委、财政局；责任单位：各区县(市)政府、开发区管委会〕', '24.加强基金支持。积极引导股权投资基金、创业投资基金、风险投资基金、天使基金等国内外各类投资基金参与开发区产业发展和基础设施建设；鼓励“中国制造2025”产业投资基金、科技风险投资基金和PPP投资基金等各类基金优先投向开发区。有效利用政府投资引导基金吸引社会资本，发起设立子基金，共同参与开发区建设。〔牵头单位：市财政局、经济和信息化委、科技局；责任单位：沈阳金控集团、产业投资发展集团、城投集团，各区县(市)政府、开发区管委会〕', '25.加强政策性担保体系建设。鼓励各区县(市)及开发区管委会依法依规出资，通过新设、参股、控股等方式，建立健全市场化运作、覆盖本地区的政策性融资担保体系。对为小微企业提供贷款担保的担保机构，市财政给予适当补贴。〔牵头单位：市金融办、财政局、经济和信息化委；责任单位：各区县(市)政府、开发区管委会〕。', '26.强化开发区人才支撑。深入实施“盛京人才”战略，落实“人才新政24条”及补充意见，加快推进高精尖优人才集聚、海外优才汇智聚力、创新型企业家培育、“盛京工匠”培养等7大工程，大力引进海内外科技领军人才、高层次工程技术人才、高级经营管理人才等各类高端人才和创新团队参与开发区项目建设和企业发展。组织开发区管理人员和区内创新创业人才赴北京产业园区、重点企业学习考察。采取订单式、建立实训基地、工学交替等多种培养方式，帮助企业培养实用型、操作型高技能人才。〔牵头单位：市委组织部(人才办)、市人力资源社会保障局、教育局、经济和信息化委按职责分工负责；责任单位：各区县(市)政府、开发区管委会〕加强开发区招商队伍建设，市级层面定期组织招商人员围绕重点产业发展规划、产业政策、比较优势、补链强链需求等进行业务培训，提高招商人员工作能力和招商针对性。〔牵头单位：市外经贸局；责任单位：各开发区管委会〕', '27.加强开发区项目考核。将项目投资与建设作为开发区考核的重要内容，加大赋分权重，建立正向和反向激励机制，鼓励开发区积极引进投资额20亿元或50亿元以上重大项目，以项目论英雄、排座次、定奖惩。〔牵头单位：市绩考办、市发展改革委；责任单位：各区县(市)政府、开发区管委会〕', '28.加大督查力度。加强对开发区集群式项目“满园扩园”行动计划的督查，按照责任主体和时间节点，按月调度进展情况，确保各项工作优质高效落实。〔牵头单位：市政府督查室、市发展改革委；责任单位：市直有关部门，各区县(市)政府、开发区管委会〕']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>34</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>新民市三合村新增大棚助农增收万元</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2020-12-10</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/qxdt/202112/t20211201_1713725.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['如今正处农闲时候，但新民市大红旗镇三合村的村民却一点没闲下来。12月9日，村第一书记侯卫平挨家走访种植大户，联系对他们进行线上销售培训——“得把咱村的农产品通过电商平台卖出去！”', '2018年4月，侯卫平被选派到大红旗镇三合村任第一书记。从那一刻起，他把三合村当成了自己的家，扎根这片黑土地，用真情和汗水赢得了村民信任。他通过挨家挨户走访，及时了解村情。通过深挖外部资源，解决村民提出的实际问题。此后，一大批外部资源持续不断地流向三合村：村里新建了1600平方米的党建文化广场，新修了13公里的村内水泥道路，实现了全村入户硬化道路的全覆盖……沈阳农业大学、沈阳铝镁设计院等42家单位为村部改造、文化广场建设、种植结构调整、村屯环境整治、关爱留守儿童，共带来70余万元的资金和物资。在侯卫平到村后的大半年，几乎每星期都有帮扶单位到村进行帮扶和对接。', '赢得了村民信任仅仅是第一步。此后，他放下架子、伏下身子、耐住性子，经常性地深入村民中去。“要实实在在为提高农民收入想办法”，驻村后，侯卫平每天都在思索研究破解这个难题：相邻不到5公里的柳河沟镇，每个村都有几百亩大棚，而三合村只有区区几十亩，咱差在哪儿呢？通过调研走访，他发现村民们在持续观望中，形成了宁可去外村大棚打工，也不肯尝试自建的现状。', '侯卫平决定变“输血”为“造血”，引导村民转变观念，积极发展设施农业，改善种植结构，激发村民增收致富的内生动力。他先选择了2个种植户作为重点扶持对象，争取到了相应的政策补贴和农资补助。组织农户到先进村学习考察，聘请农业大学教授作为技术顾问，与沈阳稻香村集团、和康生物等企业进行产销合作等等。', '一系列精准的措施，收到了喜人成果，2名新培养的致富带头人当年新建大棚50余亩，增收40多万元，更重要的是他们为村民们打了样、做了很好的示范。越来越多的村民开始种植裸地西瓜、小麦等经济作物。去年，三合村新增大棚430余亩、经济作物560余亩，促进农民增收520余万元。', '作为新民市电商村的试点村，如今，侯卫平正联系对三合村的种植大户和村民们进行“触电”培训，学习线上销售的相关技能。“一定要让咱村的农产品在网上热卖!”种植户老项信心十足。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>34</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>沈阳长沙两市政协工作座谈会召开</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2018-03-19</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202201/t20220123_2681111.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['3月15日至17日，长沙市政协主席文树勋率队来沈考察。17日上午，沈阳长沙两市政协工作座谈会召开。沈阳市政协主席韩东太出席会议。', '会上，沈阳市政协介绍了开展协商式监督和提案办理协商的做法；与会人员围绕政协重点工作进行了座谈交流。', '韩东太对考察团一行表示热烈的欢迎。他说，长沙市近年来的快速发展有目共睹，对仍处于滚石上山、爬坡过坎阶段的沈阳来说，具有非常重要的借鉴意义。沈阳和长沙尽管分处中国版图的一北一南，但在区位优势、交通地位、悠久历史、人文底蕴等方面都有相似之处。长沙市政协近年来按照善谋为纲、发展为要、民生为先、务实为本、创新为魂的工作思路，坚持有为、有用、有效的原则，务实创新履职，主动担当作为，形成了独具特色的“长沙模式”。长沙市政协此次来到沈阳学习考察，同时也带来了很多好的经验和做法，令我们深受启发。希望沈阳长沙两市政协能够互相取长补短，对标找差距，改进补弱项，共同推动政协工作更好发展。', '韩东太表示，全国政协十三届一次会议的召开，标志着人民政协事业进入了新时代，踏上了新征程。今年是沈阳市十五届政协的开局之年，沈阳市委对新一届市政协提出“四新”要求，这是政协开展工作的基本遵循，也为新一届政协开好局起好步指明了方向。面对新形势、新任务、新要求，我们要全面贯彻落实全国政协全会精神，依据新修订政协章程的要求，在继承中发展，在发展中创新，谱写人民政协事业的新篇章。', '16日上午，考察团一行考察了皇姑区文旅产业项目，随后与皇姑区政府进行了洽谈，并签署了合作意向。16日下午，考察团还先后来到沈阳蓝英工业自动化装备股份有限公司、沈阳新松机器人自动化股份有限公司和沈阳东软医疗系统有限公司进行了实地考察。', '长沙市政协副主席邓自力、李平，沈阳市政协副主席赵世宏出席会议。(沈阳日报、沈报融媒记者肖春苹)']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>34</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>市政府第次常务会议</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2006-05-18</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/qtzfxx/zfhy/202112/t20211201_1704626.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['5月17日，市长李英杰主持召开了市政府第七次常务会议。会议听取了市科技局《关于全市科技创新工作会议筹备情况的汇报》、市规划局《关于沈阳市高新技术产业布局概念规划的汇报》、市政府研究室《关于市科技创新工作会议报告的起草说明》。会议还听取了世园会综合协调办公室《关于世园会开幕式暨“五一”黄金周总结表彰大会筹备情况的汇报》、市中小企业局《关于全市非公有制经济表彰大会筹备情况的汇报》。', '会议原则通过了《关于全市科技创新工作会议筹备情况的汇报》、《关于沈阳市高新技术产业布局概念规划的汇报》和《关于市科技创新工作会议报告的起草说明》，并要求有关部门进一步整理完善后向市委常委会汇报。会议指出，市委、市政府对落实全国科技大会精神，加强自主创新工作高度重视。市主要领导对筹备工作多次听取汇报，提出具体要求，并组织到深圳考察学习。有关部门参考兄弟城市的经验，也做了大量的调查研究，准备工作是比较充分的。会议强调，即将召开的市科技创新工作会议，是一个统一思想、研究市场、形成共识、明确重点的过程。目前，有关部门要进一步做好工作，会议的有关材料要向市委常委会汇报。', '会议原则通过了《关于世园会开幕式暨“五一”黄金周总结表彰大会筹备情况的汇报》，并报请市委常委会讨论。', '会议原则通过了《关于全市非公有制经济表彰大会筹备情况的汇报》，并要求有关部门进一步整理完善后向市委常委会汇报。会议指出，非公有制经济是沈阳市发展、振兴的重要力量。我们就是要通过大张旗鼓地表彰非公有制经济的一些明星企业，来推动非公有制经济的发展。会议要求有关部门，在受表彰企业的评选中，一定要做到公平、公正。新闻媒体对这次表彰大会要进行大力宣传。', '市委常委、常务副市长赵长义，副市长郭允冲、王翔坤、宋琦、邹大挺，秘书长马占春参加了会议。副市级调研员崔学贵及相关部门负责人列席会议。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>34</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>和平区项目建设年首推功能区模式管理</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2021-02-20</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zt/jjlwlb/gzdt/202112/t20211201_1767072.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['新春伊始万象更新，犇牛不用扬鞭自奋蹄。2021年是和平区“项目建设年”，2月19日，节后上班第二天，和平区就召开项目建设年启动大会，确定方向、明确任务，狠抓项目建设。下发《项目汇编》白皮书，首推“功能区模式”管理等硬核措施，发扬主人翁精神、钻研精神、合作精神、服务精神和斗争精神，振奋起来，行动起来，迅速掀起狠抓项目的新热潮，咬定青山不放松，为赢得项目建设的最终胜利久久为功。 项目建设，唯此为大。今年和平区计划启动100个亿元以上项目。从去年开始，和平区相关部门就多次到全国各地考察学习，结合区情实际，制定了一整套科学的理念和管用的机制，力争通过组合拳，实现项目“洽谈、签约、落地、开工、竣工、达产”全生命周期的过程控制、组织穿透和闭环管理。 项目化专班。重点项目工作领导小组组长由区委书记和区长担任。新成立的北市、南市、太原、三好、长白、满融“六大功能区”的主任由2-3名区级领导兼任，副主任及功能区各部门人员由全区选派的“精兵”和属地街道人员组成，成立专班，采取联合办公方式，按照区域划分，承担起功能区内招商、停缓建和闲置资源启动盘活、项目建设、全生命周期服务等全部责任。搭建起纵向到底、横向到边的立体化专班服务体系。 功能区承接。参照和平区“十四五”规划产业空间布局，对全区项目实行“六大功能区”模式管理。“六大功能区”以“4+1”（商贸、金融、科技、文化，大健康）主导产业为基础，按照产业定位，确定发展重点，明确发展目标，实施精准招商，加大对亿元以上市重点项目的引进力度。 各功能区根据区域特点，侧重发展商贸、金融、科技、文商文旅文创，大健康等产业，大力引进一批大数据、云计算、人工智能、5G等数字“新基建”项目以及电子信息、生物医药、新材料等科技含量高、市场潜力大、发展前景好的环境友好型项目。 “六大功能区”打破了原有的行政体制和机制的壁垒，按功能区选人用人，实行一套系统的科学的奖惩考核用人机制。 精准化推进。依据标准并行考核，牵头对“六大功能区”的招商引资和重点项目同步进行调度，实行“月例会、半月报、周调度、即时办、限时办”的调度体系，两个调度体系平行开展，相互补充、相互促进，共同形成协调联动精准化推进的合力。 全周期服务。推行“首席服务官”制度，加快建立“一联三帮”机制，做好重点项目跟踪联系，帮协调、帮推进、帮落实。加快解决项目签约落地、手续办理、开工建设、竣工投产等受阻问题，制定时间表、任务书、路线图，倒排工期、挂图作战。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>34</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>姜有为坚持问题导向抓住关键环节推动飞地经济发展实现新突破</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2018-12-10</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/ldjh/202201/t20220123_2674285.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['姜有为：坚持问题导向 抓住关键环节 推动“飞地经济”发展实现新突破-领导讲话-沈阳市人民政府', '12月9日一大早，市长姜有为率相关地区和部门负责人，到朝阳市喀左县考察，学习借鉴当地发展“飞地经济”的经验和做法，并主持召开我市推进“飞地经济”工作现场会。姜有为要求，相关部门和地区要认真落实全省推进“飞地经济”工作会议精神，进一步提高思想认识，切实增强县域经济发展的紧迫感，坚持问题导向，抓住关键环节，全员招商，全面发动，全线压上，全力而出，奋力开创“飞地经济”工作新局面，为沈阳加快全面振兴、全方位振兴提供有力支撑。', '当天，姜有为一行考察了喀左县的“飞地经济”核心区，参观了通美晶体科技有限公司半导体新材料项目、博宇(朝阳)半导体科技有限公司产品生产线。他对喀左县明确招商定位，瞄准高科技产业，着眼特色产业集群，全员抓“飞地经济”发展的做法给予高度评价，要求我市相关地区和部门深入学习借鉴。', '在现场会上，朝阳市委书记蹇彪致辞，市长高伟及喀左县领导分别介绍了朝阳市、喀左县“飞地经济”发展情况。喀左县尤杖子乡负责人介绍了引进项目经验，通美晶体科技公司负责人介绍了投资落户喀左的体会。近年来，朝阳市把“飞地经济”作为“一把手”工程，构建专业化招商和服务体系，建立常态化跟踪考核机制，强力推动。截至10月底，朝阳市共洽谈引进“飞地”项目477个，其中落地项目106个，总投资140多亿元。喀左县已落地项目28个，总投资50多亿元。', '市发改委、外经贸局以及辽中、新民、法库、康平等地区也分别做了汇报，分析了存在问题，明确了主攻方向，对下步工作做出安排。', '姜有为指出，大力发展“飞地经济”，是积极践行新发展理念，贯彻落实“五大区域发展战略”的重要举措，对促进区域协调发展具有重要意义。相关部门和地区要重点把握五个关键环节，一要把项目招进来，强化项目意识，压实招商责任，对重点项目紧盯不放；二要把项目落下去，落实规划管控，完善配套设施，促进企业快速形成投资；三要把项目服务好，健全“项目管家”机制，解决好规划、供地、审批、配套等问题；四要把收益分配好，保证“飞出地”与“飞入地”利益，实现双赢；五要把政策执行好，形成“飞地经济”政策支持体系，及时兑现承诺。', '姜有为强调，各地区要强化工作措施，提高工作效能，进一步加强组织领导、细化工作方案、开展业务培训、强化督查考评，把发展“飞地经济”工作牢牢抓在手上，确保抓实抓细，抓出成效。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>34</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>王新伟与塔城市党政代表团座谈</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2023-11-06</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202311/t20231106_4552245.html</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['11月5日，省委常委、市委书记王新伟与新疆维吾尔自治区塔城地委委员、塔城市委书记王东升率领的塔城市党政代表团一行座谈。', '王新伟代表市委、市政府对塔城市党政代表团一行的到来表示热烈欢迎。他指出，塔城市牢记习近平总书记殷殷嘱托，完整准确全面贯彻新时代党的治疆方略，在自治区党委、塔城地委领导下，各项工作取得显著进步。前不久赴塔城市学习考察和推动对口支援工作，更加直观感受到塔城市蓬勃向上的发展势头，感受到各民族团结和睦、安居乐业的大好局面。王新伟说，沈阳正深入学习贯彻习近平总书记在新时代推动东北全面振兴座谈会上的重要讲话精神，按照省委、省政府要求，扛牢维护国家“五大安全”重要使命，锚定建设国家中心城市，全力实施全面振兴新突破三年行动及“振兴新突破、我要当先锋”专项行动，经济社会发展保持向上向好的态势。', '王新伟指出，对口支援塔城市是党中央及省委赋予沈阳的光荣使命，我们要深入贯彻落实习近平总书记关于新疆工作和对口支援工作的系列重要指示精神，完整准确全面贯彻新时代党的治疆方略，与塔城市紧密携手，不断提升援疆工作成效。深化医疗结对共建，支持医院项目建设，创新“以院包科”等模式，建立妇幼保健帮扶、医务人员定向培养等机制；深化学校结对共建，加强教育管理团队支持，强化“组团式”支教、教学资源共享，丰富教研活动，加快实施幼儿园改扩建等项目；深化规划结对共建，开展历史文化资源保护，建立技术人员双向学习机制。同时，深化产业援疆，推动双方企业、科研院所加强合作，助力塔城市加快农业产业化，发展装备制造等产业，培育新兴业态，打造专业园区；深化文化、旅游、人才等领域交流合作，不断增进两地人民情谊。要把相关共建协议和合作事项列入沈阳明年重点工作同部署、同推进、同考核，有序实施、抓紧实施，共同谱写合作共赢发展新篇章。', '王东升代表塔城市委、市政府和各族干部群众感谢沈阳给予的无私援助和鼎力支持。他说，塔城市面临国家重点开发开放试验区建设等重大机遇，区位、资源等优势更加凸显，希望扩大合作领域，取得更多成果。选派优秀管理和教学团队，提升塔城市教育教学水平；借助沈阳医疗资源，共建医联体和国际医疗合作项目；加强技术、资源对接，共同做大农牧产品加工等特色产业集群；在城市规划、城市更新等领域给予支持，为塔城市培养更多专业人才、输送更多先进经验。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>34</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>郝鹏会见上海国资系统代表团一行</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2023-08-12</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/szfxx/zydt/202312/t20231214_4573478.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['8月10日，省委书记、省人大常委会主任郝鹏在沈阳会见由上海市国资委党委书记、主任白廷辉率领的上海国资系统代表团一行。', '8月10日，省委书记、省人大常委会主任郝鹏会见由上海市国资委党委书记、主任白廷辉率领的上海国资系统代表团一行。', '郝鹏代表省委、省政府，对上海国资系统代表团的到来表示欢迎，对上海市长期以来给予辽宁振兴发展的关心、支持和帮助表示感谢。他说，上海市国资国企改革和监管工作始终走在全国前列，上海国企在推动经济高质量发展、科技创新和培育战略性新兴产业等方面创造了许多好经验好做法，值得我们认真学习借鉴。当前，辽宁正深入贯彻落实习近平总书记重要指示精神和党的二十大作出的决策部署，全力实施全面振兴新突破三年行动，经济增速连续两个季度高于全国水平，实现了“时间过半、任务过半”，一批大项目签约落地，人流、物流、资金流活跃度明显提升，央企、外企、民企纷至沓来，辽宁振兴发展势头良好，未来可期。我们加快建设以实体经济为支撑的现代化产业体系，加快打造三个万亿级产业基地和22个重点产业集群，为各类企业在辽宁发展带来更多机遇。辽宁与上海产业关联度高、互补性强，双方合作潜力巨大，今年6月份，辽宁党政代表团到上海学习考察，双方就沪辽两地进一步深化合作达成广泛共识，明确了合作方向。希望上海国有企业深入了解辽宁、投资辽宁，加强与辽宁在高端装备制造业和战略性新兴产业领域合作，结合双方优势共同谋划布局产业项目；加大金融领域对辽宁的支持力度，优先在辽宁试点新产品、新模式，不断丰富金融供给；深入开展沪辽国企互动交流，在技术、管理、人才等方面加强合作，推动沪辽两地合作迈上新台阶。我们将一如既往地支持各类企业在辽宁发展，持续打造营商环境“升级版”，推动实现互利共赢、协同发展。', '代表团一行感谢辽宁省委、省政府长期以来给予上海企业在辽发展的大力支持，对辽宁振兴发展取得的新进展新成效、干部队伍呈现的新气象新面貌表示祝贺。大家表示，辽宁是国家重要的工业基地，拥有雄厚的产业基础、独特的区位优势和巨大的发展潜能。当前，辽宁全力实施全面振兴新突破三年行动，经济社会发展取得了显著成绩，各类市场主体投资兴业热情很高，营商环境越来越好，已经成为一片创新创业的沃土。上海市国资系统和国有企业将进一步发挥自身优势，聚焦辽宁振兴所需，围绕装备制造、汽车、生物医药、集成电路和新材料等产业，与辽宁共同谋划建设重大项目；有效利用各类金融工具，向辽宁提供更多金融产品和金融服务，加大金融对辽宁实体经济的支持力度；健全完善工作机制，加强沟通交流对接，以项目化、清单化更好推动各项合作落地见效，不断拓展沪辽合作成果，助力辽宁全面振兴取得新突破。', '上海国盛集团、浦发银行、上海电气、中国太保、国泰君安、上汽集团等企业负责人，省领导张立林、姜有为参加会见。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>34</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>在不断创新中育先机开新局访中共和平区委书记刘志寰</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2020-11-09</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/qxdt/202112/t20211201_1764690.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['“在不断创新中育先机开新局”——访中共和平区委书记刘志寰-区县动态-沈阳市人民政府', '“和平区把学习宣传贯彻党的十九届五中全会精神作为当前和今后一个时期的重大政治任务，发挥区委理论学习中心组的示范带动作用，引导全区上下迅速掀起学习贯彻热潮，区委统战部、区妇联等群团组织，太原街街道、南湖街道等基层单位深入开展党建、优化营商环境等主题活动，让全会精神深入人心，切实增强学习贯彻的政治自觉、思想自觉和行动自觉。”11月8日，和平区委书记刘志寰接受记者专访时说。', '坚持改革创新。统筹国企、开发区、市场化配置体制机制和 “放管服”等改革，发挥大三好公司“集中力量办大事”作用，构建“管委会+平台公司”运营模式，强化“一网通办”，将29个部门2079项政务服务事项纳入一体化政务服务平台。健全科技成果转化机制，科技金融广场建设成效显著。', '全面优化环境。把优化营商环境作为“一号工程”，出台《和平区全面优化营商环境实施方案》，明确“党建引领、办事方便、法治良好、成本竞争力强、生态宜居、全员参与”6大方面37项重点任务192个具体举措，全区 “人人、事事、时时、处处都是营商环境”氛围加速形成。', '融入两个循环。举办产投大会、东北亚花椒餐博大会、电竞运动会等品牌活动和“文化+城市有机更新”赋能，太原街、老北市、融·InBox小镇等22条特色街区夜间经济“异彩纷呈，此起彼不伏”，畅通“大循环”“双循环”。', '完善产业生态。 强化产业链思维，以商贸服务为基础、科技创新为动力、文化创意为引领、现代金融为支撑的产业发展格局逐步形成，新一代信息技术、大智移云、数字营销、数字出版、数字传媒、数字VR、直播电商、电竞等 “新经济”竞相绽放，科技金融、新金融的支撑作用明显提升。', '优化治理体系。坚持“党建引领、合和共治”理念，创新“5+N”基层社会治理工作体系，发挥“胡静琴书记工作室”等平台作用，选取19个社区104个项目开展“品质社区”建设，推进疫情防控、文明创城常态化，加大民生改善和保障，提升居民获得感、幸福感、安全感。', '狠抓作风建设。坚持全面从严治党，结合“能力提升年”活动，聚焦“十四五”规划编制，组织14个团队开展“走出去”招商引资和学习考察，增强干部队伍斗争精神、锤炼“七种能力”。', '下一步，和平区将全面贯彻党的十九届五中全会精神，在危机中育先机，于变局中开新局，聚焦建设沈阳国家中心城市核心功能区，坚持品质、活力、智慧、人文、开放、共享“六个和平”发展理念，优化空间布局，大力发展主导产业，培育壮大健康产业，加快电竞、数字经济等信息产业集群，创新发展总部经济、楼宇经济、流量经济、在线经济、夜间经济五大经济发展模式，力争到“十四五”末期，经济综合实力跻身全国副省级城市中心城区前列。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>34</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>省委常委会召开会议传达学习贯彻中共中央政治局会议精神和中央全面深化改革委员会第二十七次会议精神张国清主持会议</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2022-09-16</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202209/t20220916_4294416.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['省委常委会召开会议 传达学习贯彻中共中央政治局会议精神和中央全面深化改革委员会第二十七次会议精神 张国清主持会议-政务要闻-沈阳市人民政府', '9月15日，省委常委会召开会议，传达学习中共中央政治局会议精神和中央全面深化改革委员会第二十七次会议精神，传达第三次对口支援西藏工作会议精神，研究我省贯彻落实工作。省委书记张国清主持会议。', '会议指出，党的二十大是在迈上全面建设社会主义现代化国家新征程、向第二个百年奋斗目标进军的关键时刻召开的一次十分重要的大会。我们要深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，把思想和行动统一到党中央决策部署上来，深入贯彻习近平总书记在辽宁考察时的重要讲话精神，高效统筹疫情防控和经济社会发展，统筹发展和安全，坚决落实“疫情要防住、经济要稳住、发展要安全”的重要要求，着力保持平稳健康的经济环境、国泰民安的社会环境、风清气正的政治环境，以实际行动和实际成效迎接党的二十大胜利召开。', '会议强调，要持之以恒加强作风建设，坚持从政治上认识和把握作风建设问题，准确把握新形势下反“四风”的规律特点和工作要求，继续在常和长、严和实、深和细上下功夫，锲而不舍落实中央八项规定精神，持续纠治形式主义、官僚主义。要发扬钉钉子精神，始终保持突出问题的整治力度，督促落实好基层减负各项措施，让减负成果更好惠及广大基层干部和人民群众。', '会议强调，深入学习贯彻习近平总书记在中央全面深化改革委员会第二十七次会议上的重要讲话精神，要在健全关键核心技术攻关新型举国体制中发挥辽宁更大作用，努力在新时代东北振兴上展现更大担当和作为。要充分发挥辽宁在新材料、精细化工、智能装备制造、半导体芯片制造设备等领域的产业底蕴和科技优势，为国家高水平科技自立自强、产业链供应链安全可控贡献辽宁智慧和力量。要坚持抓好“两头”，一头抓重大创新平台建设，争取更多国家级创新平台落户辽宁，加强新材料、精细化工等重点实验室建设；一头抓“新苗”，高度重视、大力培育科技型中小企业，不断壮大新动能。要坚持创新生态、创新平台、创新人才“三位一体”推进，格外重视创新环境建设，营造良好创新生态，激发创新主体活力。要坚持把节约资源贯穿于经济社会发展全过程、各领域，突出抓好能源、工业、建筑、交通等重点领域资源节约，促进资源科学配置和节约高效利用，增强全民节约意识。要严格对标对表党中央要求，审慎稳妥推进农村集体经营性建设用地入市改革。要加强乡村医疗卫生体系建设，重点强化县域内医疗卫生资源统筹和布局优化，推动重心下移、资源下沉，加强人才培养和引进，提高农村地区医疗保障水平。', '会议指出，扎实做好我省对口援藏工作，要把促进各民族广泛交往交流交融摆在更加突出位置，组织更多那曲青少年和基层干部到我省参观学习考察。要突出民生导向，在巩固脱贫成果方面下更大功夫、给予更多后续帮扶支持，改善农牧区和基层群众的生产生活条件，使基层群众直接受益、广泛受益、长期受益。要深化“组团式”医疗、教育援助，务实推进产业和就业援藏，帮助那曲特色优质产品挖掘我省市场，助推那曲实现高质量发展。要全方位关心爱护援藏干部人才，严格落实相关保障政策，为援藏干部人才创造良好工作生活环境。', '省委常委会召开会议 传达学习贯彻中共中央政治局会议精神和中央全面深化改革委员会第二十七次会议精神 张国清主持会议']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>34</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>期待吉祥夜市亮起来</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2018-04-11</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zt/sclcgjmhsy/202112/t20211201_1713025.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['“吉祥夜市啥时候能开业啊？”“快了，快了，听说月内就要重新开业了！”4月9日下午，记者来到大东区洮昌街道周边采访“三城联创”工作，不时能听到居民这样的对话。原来，吉祥夜市步行街为迎接创城工作，年后暂停营业，正在进行全面改造提升，附近的居民都期待着吉祥夜市能重新焕发特色步行街风采。', '吉祥夜市步行街位于洮昌街，南起东北大马路，北至联合路，是沈阳知名度较高的夜市之一，其形成有近百年的历史。特别是改革开放以来一直兴盛繁荣，是传统美食、服装百货及土特产品经营交易区，解决了400多业户共700余人创业就业，是市民购物休闲的好去处。', '夜市的繁荣给市民带来了便利，一些问题也逐渐产生，环境脏乱、噪音扰民、油烟污染等……这都成了创城的“病症”。', '春节假期后，夜市管理方着眼打造沈阳一流夜市的目标而主动决定暂停营业，进行全面改造提升。3月初，与授权委托方洮昌街道办事处及夜市经营业户分别签订协议，自筹资金百万余元用于夜市步行街的升级改造工程。', '目前，夜市路面设施提升改造已基本结束，全新的封路设施、消防器材、专门制作的景观垃圾箱纷纷亮相，街面再也见不到随意丢弃的垃圾及油污。“重新营业后的夜市，清扫保洁人员将由原来的6人增加为12人，夜市经营中保洁全程伴随，夜市撤市后实现街面零垃圾，白天夜市歇业通行时段也有扫保人员值班，以保持路面卫生整洁。”夜市管理部门负责人表示。', '美食小吃是夜市一道亮丽风景，来逛夜市的市民大都是从满足舌尖的欲望开始，先品尝各种美味的小吃，再逛一逛其他摊位。为提高标准，夜市管理方决定重点对小吃车进行改造，派人到香港、广东等地夜市考察学习，并根据实际对症下了四味药：全面取消炭火烧烤，改为无烟的环保燃气炉灶；淘汰所有旧的小吃加工车，统一制作全白钢带上下水功能的小吃加工车，并加装了具备“三防”功能的玻璃橱柜；为解决小吃车乱存乱放扰民问题，专门租用场地，在施工改造后，用以集中看管存放小吃车；要求所有业户亮证经营，全员办理健康证，统一着装戴帽，遵守经营规范。', '记者了解到，下一步，大东区将申请吉祥夜市改造为步行街，通过统一规划进行全面升级，建成沈阳特色商业街。', '近日，记者在采访中了解到，大东区针对13处露天市场的实际情况，认真调研制定整改方案，以壮士断腕的决心坚持“三取缔”，以人民情怀的理念坚持“三保留”，规范市场经营环境。', '“三取缔”包括：周边一公里路径范围内有农贸市场，且市场秩序混乱的坚决取缔；管理不到位，且对周边居民生活影响较为严重的坚决取缔；烧烤烹饪类，对周边环境影响较为严重的坚决取缔。', '“三保留”包括：保留部分露天市场，即通过对周边居民进行调研，当前确有需求的予以保留；解决本地困难群体就业或周边农民生活保障的予以保留；长期经营并形成较好氛围、管理规范的予以保留。', '通过一段时间的大量工作，大东区13个露天市场已经大有改观：采取疏堵结合的方式，逐步取缔了5个露天市场；通过集中拆除违建，将原来的两个日市改为早市；所有拟保留的露天市场，按照“一市一册”加强监督管理。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>34</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>黑龙江省党政代表团来辽考察互学互促共担重要使命合作共赢推动全面振兴</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/szfxx/zydt/202311/t20231130_4564875.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['黑龙江省党政代表团来辽考察 互学互促共担重要使命 合作共赢推动全面振兴-重要动态-沈阳市人民政府', '11月25日，黑龙江省党政代表团来辽考察。当日下午，两省在沈阳举行工作交流座谈会，深入贯彻落实习近平总书记在新时代推动东北全面振兴座谈会上重要讲话精神，共商合作大计、共谋振兴发展。省委书记、省人大常委会主任郝鹏主持座谈会并讲话，黑龙江省委书记、省人大常委会主任许勤出席座谈会并讲话。省委副书记、省长李乐成，黑龙江省委副书记、省长梁惠玲分别介绍两省经济社会发展情况。省政协主席周波出席座谈会。', '郝鹏代表省委、省政府对黑龙江省党政代表团来辽宁考察表示欢迎，对黑龙江长期以来给予辽宁振兴发展的支持和帮助表示感谢。他说，今年以来，黑龙江深入贯彻落实习近平总书记在新时代推动东北全面振兴座谈会上重要讲话精神，加快建设“六个龙江”、推动“八个振兴”，建好建强“三基地、一屏障、一高地”，展现出振兴发展的良好态势，成绩令人振奋，好经验好做法值得我们认真学习借鉴。当前，辽宁正全力实施全面振兴新突破三年行动，一手抓高质量发展、一手抓全面从严治党，紧扣打造新时代“六地”目标定位，奋力谱写中国式现代化辽宁新篇章。维护好国家“五大安全”、推动新时代东北全面振兴，是总书记赋予两省共同的政治责任；深化互学互促、对接合作，是贯彻落实总书记重要讲话精神的务实之举。自今年5月，辽宁省党政代表团赴黑龙江学习考察以来，双方在产业、科技、人文、交通基础设施等多个领域务实合作取得新进展。我们愿与黑龙江一道，在前期合作成果的基础上，继续加强产业发展合作，推动辽宁4个万亿级产业基地、22个重点产业集群与黑龙江“4567”现代产业体系联动发展，共同提升产业链供应链韧性和安全水平；加力推动科技创新协同，打通产学研用合作链条，共同服务国家高水平科技自立自强；共同提升对内对外开放水平，深化港口、口岸合作，推动东北海陆大通道上升为国家战略，更好服务和融入新发展格局；共同发展冰雪经济，联合开发冰雪旅游线路，合力推进文体旅融合发展；建立完善常态化交流合作机制，厚植兄弟省份情谊，推动实现更深层次区域协同，奋力谱写深化交流合作崭新篇章，携手走出一条高质量发展、可持续振兴的新路子。', '许勤代表黑龙江省委、省政府对辽宁长期以来给予黑龙江振兴发展的关心支持表示感谢。他说，辽宁省委、省政府全面贯彻落实习近平总书记重要讲话重要指示精神，深入实施全面振兴新突破三年行动，着力打造4个万亿级产业基地、22个重点产业集群，以超常规举措打好新时代东北振兴、辽宁振兴的“辽沈战役”，推动振兴发展不断取得新突破，我们对辽宁取得的突出成就由衷祝贺。辽黑两省历史文化同源、发展历程相近，同为国家重要老工业基地，都拥有一批“国之重器”、都曾创造出诸多共和国第一。新时代新征程上，两省共同担负着维护国家“五大安全”、推动东北全面振兴的重大政治任务，我们与辽宁携手同行，全面贯彻落实习近平总书记在新时代推动东北全面振兴座谈会上的重要讲话精神，抢抓机遇、感恩奋进，把总书记擘画的宏伟蓝图变为美好现实。深化战略对接，携手服务国家大局，推动黑龙江建好建强“三基地、一屏障、一高地”与辽宁打造新时代“六地”目标相衔接，全面提升维护国家“五大安全”能力，形成对国家重大战略的坚强支撑。深化优势互补，共同推进高质量发展，加强产业、科技、开放、旅游等领域务实合作，推进沈大与哈大齐自主创新示范区强强联合，沿边开放与沿海开放联通互动，筹办亚冬会与冬运会互鉴互促，释放合作共赢的叠加效应，为可持续振兴增添新动能。深化区域协同，完善交流合作机制，打造常态化、多层次交流合作平台，加强政府、高校、院所、企业协同协作，密切人文领域交流交往，续写江海情谊，唱响“东北一家人、东北一家亲”，以高质量区域协作推动东北全面振兴不断取得新突破。', '在辽期间，黑龙江省党政代表团先后来到沈阳拓荆科技股份有限公司、沈阳国际软件园、新松机器人自动化股份有限公司和航空工业沈阳飞机工业（集团）有限公司考察调研。', '黑龙江省领导张安顺、徐建国、杨博、于洪涛、贾玉梅、余建、王合生、张亚中，省及沈阳市、大连市领导王新伟、王健、胡立杰、蒋天宝、姜有为、陈绿平、王利波、陈绍旺参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>34</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>黑龙江省党政代表团来辽考察互学互促共担重要使命合作共赢推动全面振兴郝鹏许勤李乐成梁惠玲周波参加活动</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202311/t20231127_4562230.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['黑龙江省党政代表团来辽考察 互学互促共担重要使命 合作共赢推动全面振兴 郝鹏许勤李乐成梁惠玲周波参加活动-政务要闻-沈阳市人民政府', '11月25日，黑龙江省党政代表团来辽考察。当日下午，两省在沈阳举行工作交流座谈会，深入贯彻落实习近平总书记在新时代推动东北全面振兴座谈会上重要讲话精神，共商合作大计、共谋振兴发展。省委书记、省人大常委会主任郝鹏主持座谈会并讲话，黑龙江省委书记、省人大常委会主任许勤出席座谈会并讲话。省委副书记、省长李乐成，黑龙江省委副书记、省长梁惠玲分别介绍两省经济社会发展情况。省政协主席周波出席座谈会。', '郝鹏代表省委、省政府对黑龙江省党政代表团来辽宁考察表示欢迎，对黑龙江长期以来给予辽宁振兴发展的支持和帮助表示感谢。他说，今年以来，黑龙江深入贯彻落实习近平总书记在新时代推动东北全面振兴座谈会上重要讲话精神，加快建设“六个龙江”、推动“八个振兴”，建好建强“三基地、一屏障、一高地”，展现出振兴发展的良好态势，成绩令人振奋，好经验好做法值得我们认真学习借鉴。当前，辽宁正全力实施全面振兴新突破三年行动，一手抓高质量发展、一手抓全面从严治党，紧扣打造新时代“六地”目标定位，奋力谱写中国式现代化辽宁新篇章。维护好国家“五大安全”、推动新时代东北全面振兴，是总书记赋予两省共同的政治责任；深化互学互促、对接合作，是贯彻落实总书记重要讲话精神的务实之举。自今年5月，辽宁省党政代表团赴黑龙江学习考察以来，双方在产业、科技、人文、交通基础设施等多个领域务实合作取得新进展。我们愿与黑龙江一道，在前期合作成果的基础上，继续加强产业发展合作，推动辽宁4个万亿级产业基地、22个重点产业集群与黑龙江“4567”现代产业体系联动发展，共同提升产业链供应链韧性和安全水平；加力推动科技创新协同，打通产学研用合作链条，共同服务国家高水平科技自立自强；共同提升对内对外开放水平，深化港口、口岸合作，推动东北海陆大通道上升为国家战略，更好服务和融入新发展格局；共同发展冰雪经济，联合开发冰雪旅游线路，合力推进文体旅融合发展；建立完善常态化交流合作机制，厚植兄弟省份情谊，推动实现更深层次区域协同，奋力谱写深化交流合作崭新篇章，携手走出一条高质量发展、可持续振兴的新路子。', '许勤代表黑龙江省委、省政府对辽宁长期以来给予黑龙江振兴发展的关心支持表示感谢。他说，辽宁省委、省政府全面贯彻落实习近平总书记重要讲话重要指示精神，深入实施全面振兴新突破三年行动，着力打造4个万亿级产业基地、22个重点产业集群，以超常规举措打好新时代东北振兴、辽宁振兴的“辽沈战役”，推动振兴发展不断取得新突破，我们对辽宁取得的突出成就由衷祝贺。辽黑两省历史文化同源、发展历程相近，同为国家重要老工业基地，都拥有一批“国之重器”、都曾创造出诸多共和国第一。新时代新征程上，两省共同担负着维护国家“五大安全”、推动东北全面振兴的重大政治任务，我们与辽宁携手同行，全面贯彻落实习近平总书记在新时代推动东北全面振兴座谈会上的重要讲话精神，抢抓机遇、感恩奋进，把总书记擘画的宏伟蓝图变为美好现实。深化战略对接，携手服务国家大局，推动黑龙江建好建强“三基地、一屏障、一高地”与辽宁打造新时代“六地”目标相衔接，全面提升维护国家“五大安全”能力，形成对国家重大战略的坚强支撑。深化优势互补，共同推进高质量发展，加强产业、科技、开放、旅游等领域务实合作，推进沈大与哈大齐自主创新示范区强强联合，沿边开放与沿海开放联通互动，筹办亚冬会与冬运会互鉴互促，释放合作共赢的叠加效应，为可持续振兴增添新动能。深化区域协同，完善交流合作机制，打造常态化、多层次交流合作平台，加强政府、高校、院所、企业协同协作，密切人文领域交流交往，续写江海情谊，唱响“东北一家人、东北一家亲”，以高质量区域协作推动东北全面振兴不断取得新突破。', '在辽期间，黑龙江省党政代表团先后来到沈阳拓荆科技股份有限公司、沈阳国际软件园、新松机器人自动化股份有限公司和航空工业沈阳飞机工业（集团）有限公司考察调研。', '黑龙江省领导张安顺、徐建国、杨博、于洪涛、贾玉梅、余建、王合生、张亚中，省及沈阳市、大连市领导王新伟、王健、胡立杰、蒋天宝、姜有为、陈绿平、王利波、陈绍旺参加活动。（辽宁日报记者方亮、王奇）', '黑龙江省党政代表团来辽考察 互学互促共担重要使命 合作共赢推动全面振兴 郝鹏许勤李乐成梁惠玲周波参加活动']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>34</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>苏家屯区求贤若渴揽人才教育投入大手笔</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2020-09-11</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/qxdt/202112/t20211201_1753820.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['9月10日，一场备受关注的聘任仪式在苏家屯区举行，区委主要领导向专家型名校长刘子军颁发聘书，出任沈阳市第三十中学校长。这是苏家屯区委、区政府探索实行年薪制，高规格引进名校长的第一人，也是该区创新用人机制推动教育优先优质发展的一次有益探索与尝试。', '记者在9月8日全区召开的教育工作大会上了解到，大刀阔斧改革、大胆创新实践是苏家屯区大力实施教育强区、教育兴区发展战略中最“亮”的底色：教育资金投入前所未有，单独设立一千万元教育发展资金；改革创新力度前所未有，全市首创面向全国引入专家型知名校长，公开竞聘组建学校领导班子；对外交流合作前所未有，考察学习北京、大连等地教育，积极对接和平、沈河等教育强区，引入教育品牌，全区教育事业保持了健康发展的良好势头，教育品质加速提升。', '教育兴区，教育富民，办好人民满意的教育，是民心所盼。今年，苏家屯区把优先发展教育事业落实到具体行动中，设置一千万教育发展专项资金，同时设立了一千万人才工作专项资金，积极实施引才引智工程，绘就引进人才蓝图。', '为确保人才引进工作有序开展，该区成立了由区委班子成员任组长，纪委监委、组织、人社、教育等多部门任成员单位的领导小组，激活用人机制，敢想敢做敢担当。', '名校长引进工作领导小组经过反复分析，多次论证，广泛听取各方面意见，特别是结合学校发展的现状、所遇到的一些主要的问题和下一步教育改革的重点任务进行了深层次的探讨研究，制定了名校长引进工作实施方案，确定引进“高学历、高职称、高荣誉、高素质”的高层次人才，引领学校实现高品质跨越发展。', '据了解，引进的名校长刘子军长期担任省级示范高中领导职务，为辽宁省特级教师、正高级职称、沈阳市教育专家、辽宁省第二届基础教育领域五十名专家型名校长，辽宁省第四批“百千万人才工程”百人层次人选。在普通高中引进名校长，传递出区领导班子办人民满意教育坚定的信心和勇气，回应了百姓对优质教育的热切期盼。此次人才引进工程将充分发挥名校长示范引领作用，不断加强校长队伍梯队建设，提高人才培养储备能力，实现从“输血”到“造血”转变，促进苏家屯区教育事业品质提升。', '千方百计地加大教育投入，改革创新的不断突破，推动全区教育综合实力不断提升，品牌教育影响力不断扩大。记者了解到，今年，该区特色项目建设成绩斐然。全国学校体育联盟实验校创建工作稳步推进，佟沟九年一贯制学校成为该区第13所全国校园足球特色校；陈相九年一贯制学校、白清九年一贯制学校被确定为国家级冰雪项目特色校；176中学荣获全国青少年橄榄球7人制锦标赛男女队双冠军；沙柳路小学、青松中学分别荣获第四届全国三门球锦标赛小学、高中组男女双冠军；十里河九年一贯制学校被评为沈阳市美育特色校。沈阳市第三十中学成功承办了北京大学堂夏令营活动，来自全省百余名优秀学子齐聚于此，感知北大温度，共话北大梦想，燕园为志已深深植根于学子心中。', '强区比强教，强区先强教，苏家屯区教育改革创新的探索与实践，表达了该区诚心引进人才、事业留住人才的决心与信心，奏响了教育高品质发展的最强音。（沈阳日报、沈报全媒体记者李莉 通讯员孙阳）']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>34</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>省委常委会召开会议传达学习贯彻习近平总书记在中央国家安全委员会第一次会议中央审计委员会第一次会议上和开展主题教育有关重要讲话精神郝鹏主持会议</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2023-06-20</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/zwyw/202306/t20230620_4482421.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['省委常委会召开会议 传达学习贯彻习近平总书记在中央国家安全委员会第一次会议中央审计委员会第一次会议上和开展主题教育有关重要讲话精神 郝鹏主持会议-政务要闻-沈阳市人民政府', '传达学习贯彻习近平总书记在中央国家安全委员会第一次会议中央审计委员会第一次会议上和开展主题教育有关重要讲话精神', '6月19日，省委常委会召开会议，传达学习习近平总书记在二十届中央国家安全委员会第一次会议上、在二十届中央审计委员会第一次会议上、在听取内蒙古自治区党委和政府工作汇报时关于开展主题教育的重要讲话精神，研究部署我省贯彻落实工作。省委书记郝鹏主持会议。', '会议指出，习近平总书记在二十届中央国家安全委员会第一次会议上的重要讲话，科学阐释了国家安全的一系列重大理论和实践问题，为做好当前和今后一个时期国家安全工作指明了方向。我们要认真学习领会，更加深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，坚持党对国家安全工作的绝对领导，坚定不移贯彻总体国家安全观，统筹发展和安全，树立战略自信、坚定必胜信心，全力履行维护国家安全政治责任，不折不扣把党中央关于国家安全工作的决策部署落到实处，为实施全面振兴新突破三年行动营造安全稳定的环境。要认真履行维护国家“五大安全”政治使命，全面落实国家安全责任制，突出实战实用鲜明导向，强化国家安全风险监测预警，大力加强信息化建设，更加注重协同高效、法治思维、科技赋能、基层基础，加强维护国家安全能力建设，切实做好维护政治安全等方面工作。', '会议指出，习近平总书记在二十届中央审计委员会第一次会议上的重要讲话，科学回答了审计工作一系列根本性、方向性、全局性问题，为做好新时代审计工作提供了根本遵循。我们要深入学习贯彻习近平总书记重要讲话精神，始终把坚持和加强党中央集中统一领导作为最大的政治规矩和审计工作最高统领，更好发挥审计监督作用，确保习近平总书记重要讲话和指示批示精神、党中央决策部署在辽宁落实落地。各级党委要切实扛起政治责任，充分发挥审计委员会牵头抓总、统筹协调作用，增强审计的政治属性和政治功能，切实做到如臂使指、如影随形、如雷贯耳。要按照“六个聚焦”重要要求，自觉融入大局、主动服务大局，围绕实施全面振兴新突破三年行动，高质量完成各项审计任务，以强有力的审计监督保障执行、促进发展。要推动审计整改取得实效，一体推进审计揭示问题“上半篇文章”与审计整改“下半篇文章”，努力做到标本兼治。要加强审计自身建设，始终坚持把政治建设摆在首位，建设忠诚干净担当的高素质专业化审计干部队伍。', '会议指出，深入学习贯彻习近平总书记关于开展主题教育的重要讲话精神，要深刻领会抓实以学正风的实践要求，坚持用习近平新时代中国特色社会主义思想凝心铸魂，大兴务实之风，弘扬清廉之风，养成俭朴之风，切实把学习成效转化为求真务实、廉洁奉公、树立新风的生动实践。要大力弘扬理论联系实际的马克思主义学风，以求真务实作风抓好调查研究，将调查研究发扬光大。要在增强检视整改实效上下功夫，坚持目标导向和问题导向相结合、学查改相贯通，以彻底的自我革命精神抓好专项整治。要教育引导各级领导干部树立和践行正确的权力观，切实把“讲诚信、懂规矩、守纪律”要求落到实处，当好良好政治生态和社会风气的引领者、营造者、维护者。', '会议审议了《辽宁省党政代表团赴吉黑蒙三省区学习考察报告》等文件，指出吉黑蒙三省区在推动经济社会高质量发展特别是在促进科技成果转化、加快发展新兴产业等方面的好经验好做法，我们要充分吸收借鉴、抓好具体转化。东北四省区进一步深化合作基础好、潜力大、前景广，要深入贯彻习近平总书记关于东北振兴发展和区域协调发展的重要讲话和指示精神，站在党和国家事业发展全局高度，进一步完善协调机制，充分挖掘我省区位、港口、产业等各方面潜力，促进要素共享，深化产业合作，加快补齐短板、拉长长板，实现优势互补、共赢发展，与东北兄弟省区携手推动东北全面振兴取得新突破，更好服务和融入新发展格局。', '会议听取了全省人才工作情况和下一步工作安排的汇报，指出要全面贯彻习近平总书记关于做好新时代人才工作的重要思想，紧紧围绕实施辽宁全面振兴新突破三年行动，扎实做好人才引育用留各项工作。要搭建平台载体引人才，深入实施“兴辽英才计划”，充分发挥国家重点实验室、中科院驻辽宁院所等平台作用，集聚一批领军人才和创新团队。要围绕振兴发展育人才，紧扣现代化产业体系建设，全面提高人才自主培养质量。要深化改革创新兴人才，不断完善人才管理制度。要打造一流环境留人才，鼓励引导更多大学生留辽就业创业。要压实工作责任抓人才，全面构建齐抓共管、协同发力的人才工作格局。', '省委常委会召开会议 传达学习贯彻习近平总书记在中央国家安全委员会第一次会议中央审计委员会第一次会议上和开展主题教育有关重要讲话精神 郝鹏主持会议']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>34</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>王新伟率沈阳市党政代表团赴新疆塔城市考察对接对口支援工作完整准确全面贯彻新时代党的治疆方略推动对口支援各项工作做深做细做实</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2023-09-01</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/dwgk/gzdt/202309/t20230901_4520460.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['王新伟率沈阳市党政代表团赴新疆塔城市考察对接对口支援工作 完整准确全面贯彻新时代党的治疆方略 推动对口支援各项工作做深做细做实-工作动态-沈阳市人民政府', '8月29日至31日，在随辽宁省党政代表团赴新疆期间，省委常委、市委书记王新伟率沈阳市党政代表团到塔城市学习考察，深入学习贯彻党的二十大精神，贯彻落实习近平总书记关于新疆工作和对口支援工作的系列重要指示精神，认真落实新时代党的治疆方略，按照辽宁省·新疆维吾尔自治区及新疆生产建设兵团对口支援工作座谈会部署要求，推动沈阳市对口支援塔城市各项工作做深做细做实，为在中国式现代化进程中更好建设美丽新疆贡献沈阳力量。', '代表团一行深入千泉湖文旅产业园、塔城新时代文明实践中心手风琴文化展厅、红楼博物馆、巴克图口岸、二工镇八里村，考察当地推动高质量发展、加强民族团结等工作新成效，走进东门外社区、市公安局训练馆、市人民医院南院区、第四幼儿园，调研医疗援疆、教育援疆、科技援疆等项目推进情况，并赴援疆公寓看望慰问援疆干部人才。', '在8月31日召开的沈阳市对口支援新疆塔城市工作座谈会上，王新伟代表市委、市政府对塔城市给予沈阳振兴发展的大力支持，对援疆干部人才的关心爱护表示感谢。他指出，塔城市委、市政府深入学习贯彻习近平总书记对新疆系列重要讲话重要指示批示精神，完整准确全面贯彻新时代党的治疆方略，依法治疆、团结稳疆、文化润疆、富民兴疆、长期建疆，塔城呈现出发展势头强劲、生态环境优美、民族团结和睦、社会和谐稳定、人民安居乐业的良好局面，许多经验做法值得沈阳学习借鉴。', '王新伟指出，对口支援塔城市，是党中央及省委交给沈阳的光荣使命，是沈阳义不容辞的政治任务。我们将深入学习贯彻习近平总书记听取自治区和兵团工作汇报时重要讲话精神，完整准确全面贯彻新时代党的治疆方略，牢牢扭住社会稳定和长治久安总目标，以更高站位全面抓好对口支援工作，把各项任务完成好，不断提升对口援疆综合效益。', '王新伟表示，沈塔两地合作潜力巨大，要立足塔城所需、尽沈阳所能，以更实举措助推塔城市实现跨越发展。要强化援疆项目支撑，紧紧围绕各族群众安居乐业谋划建设项目，更加注重向基层倾斜、向保障改善民生倾斜，推动项目顺利开工、优质施工、如期竣工，让“交钥匙”“交支票”工程早使用、群众早受益。要夯实产业援疆根基，立足塔城市资源禀赋、区位优势和产业基础，围绕优质农牧业等培育壮大特色优势产业，搭建塔城特产推广平台，参与开发边境游、民俗游等文化旅游线路，以新疆塔城重点开发开放试验区建设为契机，合作发展口岸经济。要拓展民生援疆深度，不断深化教育援疆，为塔城市青少年接受现代文明教育、科普教育创造良好条件，深化医疗人才加技术装备合作，在城市规划设计、乡村建设等方面共享资源，助力塔城市全面推进乡村振兴。要丰富智力援疆形式内容，加强柔性“小组团”帮扶，共建干部人才培训基地，促进农业等技术对接、产业园区对接。要深化交流交往交融，坚持以铸牢中华民族共同体意识为主线，共建文化阵地，深化文化交流，推动两地人员广泛往来、心手相连。要以更优机制推进各项工作落地落实，完善会商机制，动态更新事项清单，一件一件抓紧抓实，携手推进高质量发展。', '王新伟还勉励援疆干部人才提高政治站位，全心干事创业，立足岗位奉献，展示良好形象，保持身心健康，与塔城市干部群众融为一体、干在一起、拼在一起，矢志当好塔城市社会稳定的守护者、高质量发展的推动者、民族团结的维护者，在新疆广阔天地留下无悔的奋斗足迹。', '塔城地委委员、塔城市委书记王东升代表市委、市政府和全市各族干部群众，对沈阳市一直以来给予塔城市的大力支持和无私援助表示感谢。他指出，沈阳市深入学习贯彻习近平总书记关于东北、辽宁振兴发展的重要讲话和指示批示精神，加快建设国家中心城市，实施全面振兴新突破三年行动，向上向好的发展态势令人瞩目。沈阳在推动振兴发展的同时，在人才、资金、项目、产业等方面给予塔城市鼎力支持，五批援疆干部人才接续奋斗，在塔城市改革发展稳定中留下了深深的“沈阳印记”。王东升表示，塔城市将深入贯彻习近平总书记关于新疆工作和对口支援工作的系列重要指示精神，围绕产业合作、文化润疆、文化旅游融合、智力支持等方面与沈阳市主动对接，把塔城市的政策、人文、资源、生态等优势转化为高质量发展优势，形成共建共享、互利共赢新局面。', '塔城市委副书记、代市长叶尔布拉提·热加甫主持座谈会，沈阳市副市长王庆海介绍了对口支援工作情况及下一步安排。塔城市人大常委会党组副书记、主任艾坦·艾提肯，市政协党组副书记、主席达刚等参加。（记者李海英）', '王新伟率沈阳市党政代表团赴新疆塔城市考察对接对口支援工作 完整准确全面贯彻新时代党的治疆方略 推动对口支援各项工作做深做细做实']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>34</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>市政协持续推动主题教育走深走实</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2023-08-08</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zt/xxgcddesdjs/syxxgcddesdjs/202308/t20230808_4508646.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['学习贯彻习近平新时代中国特色社会主义思想主题教育开展以来，市政协牢牢把握“学思想、强党性、重实践、建新功”总要求，坚持以学铸魂、以学增智、以学正风、以学促干，切实把思想和行动统一到党中央决策部署上来，按照省委、市委的工作要求，一体推进理论学习、调查研究、推动发展、检视整改，确保主题教育取得扎实成效。', '8月1日至2日，市政协机关主题教育第4期读书班期间，市政协主席会议成员与机关党员干部深入学习领会习近平总书记关于高质量发展的重要论述和党的二十大精神，学习贯彻习近平总书记关于党的建设的重要思想。“要坚持不懈用习近平新时代中国特色社会主义思想凝心铸魂，深入学习习近平总书记重要讲话精神，夯实坚定拥护‘两个确立’、坚决做到‘两个维护’的思想根基。”大家表示，将牢牢把握高质量发展这一首要任务，完整、准确、全面贯彻新发展理念，主动服务和融入新发展格局，坚持以人民为中心的发展思想，以新气象新担当新作为助推沈阳振兴发展取得新成效。', '主题教育全面启动以来，市政协领导班子坚持以上率下学思想，带领机关党员干部不断用党的创新理论武装头脑。市政协领导班子坚持学在先、走在前，市政协机关各党支部依托“三会一课”、主题党日，通过交流研讨、宣讲阐释、案例教学、线上培训等多种方式组织党员学习主题教育必读书目和选读书目，共开展了集中学习35次，举办了4期主题教育读书班，开展收看爱国主义教育影片、参观红色展馆等研学活动，推动理论学习往深里走、往实里走、往心里走。', '市政协把开展调查研究作为增强主题教育精准性和实效性的有力措施，围绕“推进民营经济高质量发展”“浑南科技城建设”等24个课题，采取实地调研、考察学习、交流座谈等方式，深入基层、深入一线、深入群众，调研点位70余个，组织召开座谈会20余次，开展双月协商会2次、专题协商会2次，边调研边发现问题边助推解决问题。围绕全市停缓建项目深入调查研究，形成专题调研报告，得到市委、市政府主要领导批示，助力停缓建项目处置工作。', '市政协还派出47名机关干部服务92家企业，目前已经多次深入企业实地调研，帮助解决实际问题，真正做到了把调研成果转化为加强党的领导、创新工作方式、实现新时代政协履职能力提升的具体举措和自觉行动。', '市政协坚持围绕中心、服务大局，组织政协“两支队伍”积极参与沈阳全面振兴新突破三年行动和“振兴新突破、我要当先锋”专项行动，建真言、献良策、聚共识，以助推高质量发展、提高人民生活品质的新成效检验主题教育成果。', '市政协围绕成大生物技术产品研发生产基地、浑南科技城产业园区基础设施、永安机床小镇智能装备产业园等重大项目多次开展督导调研，持续做好跟踪服务，推动项目建设提质增效。组织市政协委员和区县（市）政协联动开展“双招双引”专项行动，促成北京基金业协会与沈阳市基金业协会合作，将北京私募股权投资论坛引入沈阳。', '市政协组织开展讲好“沈阳故事”活动，截至目前，市级以上各类媒体刊发市县政协委员和政协机关干部稿件290余篇，《见证沈阳的变迁》《雄鹰从黑土地上起飞——东北民主联军航空学校建设三部曲》等稿件在《人民日报》《人民政协报》等媒体刊发，提升了沈阳的知名度、美誉度，让更多人认识沈阳、了解沈阳、爱上沈阳。', '市政协积极关注民生，组织委员采取提案、反映社情民意信息、微协商、线上协商等多种形式，协商解决群众关心的问题。年初以来，共收到提案675件、立案569件，办复提案520件；向全国政协上报社情民意信息147篇、向省政协报送190篇、向市委及市政府报送95篇。其中，《关于对我省低效用地再开发的建议》《借力东北大学百年校庆 推动我市招商引资和招才引智活动》等信息受到省市高度重视，切实发挥了社情民意信息“直通车”作用。', '市政协坚持把问题整改贯穿主题教育始终，坚持边学习、边对照、边检视、边落实。按照《市政协机关学习贯彻主题教育整治整改工作方案》，市政协党组、机关党组分别围绕理论学习、政治素质、能力本领、担当作为、工作作风、廉洁自律等6个方面进行认真查摆梳理，并针对检视出的问题列出了详细的整改措施、整改目标、整改时限、牵头负责人、责任单位等清单，做到动态更新、定期盘点、对账销号，使整改工作扎实有序推进。', '完善制度、建章立制，整改落实才能到位。市政协坚持以问题为导向，制定完善《政协沈阳市委员会界别协商办法（试行）》《政协沈阳市委员会委员联系办法》等8项工作制度，对主题教育中的好经验好做法，及时以制度形式固定下来，以主题教育成果推动政协工作提质增效。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>34</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>年月沈阳大事记</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2023-06-08</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/qtzfxx/szfdsj/202306/t20230608_4477397.html</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['5月1日 省委常委、市委书记王新伟现场查看于洪区渤海路、沈北新区蒲新路、大东区航空路等街路更新情况，并对文旅市场服务保障、安全生产等工作做出部署。', '5月2日 省委常委、市委书记王新伟到新民市开展河长巡河工作，并现场查看春耕备耕、农村人居环境整治工作。', '同日 由沈阳市人民政府主办，沈阳市体育局、沈阳市文旅局、沈阳日报社，各区县（市）人民政府承办的2023沈阳首届国际时尚体育节开幕。', '5月3日 省委常委、市委书记王新伟会见华晨宝马汽车有限公司总裁兼首席执行官戴鹤轩一行。', '同日 省委常委、市委书记王新伟研究市教育局所属民转公学校教师招聘和通过网络新媒体正面宣传发声，扩大沈阳城市影响力等有关工作，部署全市网信队伍建设等工作。', '同日 市委副书记、市长吕志成组织召开城市精细化管理十大行动现场会，贯彻落实市委工作要求，现场听取汇报、现场观摩交流、现场协调解决问题，推动城市精细化管理走深走实。他强调，向精细化管理要形象要效益，进一步提升城市知名度美誉度。', '5月4日 省委常委、市委书记王新伟主持召开市委专题会议，就服务业扩大开放综合试点工作进行研究部署。', '同日 省委常委、市委书记王新伟主持召开市委专题会议，研究皇姑区乐天世界二期停缓建项目推进有关工作。', '同日 省委常委、市委书记王新伟与到沈的中国集成电路创新联盟副理事长、秘书长叶甜春等专家和企业家代表座谈。', '5月5日 省委常委、市委书记王新伟围绕提升公共就业服务能力，深入铁西区第一城社区、沈河区溪林社区，现场研究推进“舒心就业”工作，并主持召开座谈会，与社区干部、居民、企业代表深入交流，听取大家的意见建议。', '同日 省委常委、市委书记王新伟陪同全国人大常务委员会特种设备安全执法检查组在沈执法检查。', '5月6日 省委常委会召开会议，传达学习4月28日召开的中共中央政治局会议精神，传达中央办公厅、国务院办公厅关于印发《领导干部报告个人有关事项规定》通知有关要求，研究部署全省贯彻落实工作。省委书记、省人大常委会主任郝鹏主持会议，省委常委、市委书记王新伟出席。', '同日 由中国集成电路创新联盟指导，中国集成电路零部件创新联盟、中国集成电路装备创新联盟、高端数控机床创新联盟共同举办的半导体零部件产业协同创新发展沈阳峰会举行。峰会期间举办了辽宁省集成电路装备及零部件产业园区（北方芯谷）项目合作对接会。副省长高涛，市委副书记、市长吕志成出席活动并致辞。', '同日 2022沈阳工业设计大赛颁奖典礼暨2023沈阳工业设计大赛启动仪式在全球工业互联网大会会议中心举行。', '5月7日 省委常委、市委书记王新伟主持召开市委常委会会议，传达学习4月28日召开的中共中央政治局会议精神，研究全市贯彻落实工作；进一步研究部署全市深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育工作。', '同日 省委常委、市委书记王新伟主持召开专题议事会议，听取市委、市人大常委会、市政府、市政协4月份重点工作完成情况，研究5月份全市重点工作。市委副书记、市长吕志成，市人大常委会主任范继英，市政协主席于学利参加。', '同日 第十六届高技能人才表彰大会在北京举行，表彰30名中华技能大奖获得者和295名全国技术能手。沈阳飞机工业（集团）有限公司方文墨获中华技能大奖，沈阳鼓风机集团股份有限公司张腾蛟、华晨宝马汽车有限公司安亮获全国技术能手。', '5月8日 辽宁省党政代表团赴吉林省学习考察并举行吉林省·辽宁省交流合作座谈会，进一步深化两省务实合作，共同为推动东北全面振兴取得新突破贡献力量。省委书记、省人大常委会主任郝鹏出席座谈会并讲话，吉林省委书记、省人大常委会主任景俊海主持座谈会并讲话。省委副书记、省长李乐成，吉林省委副书记、省长胡玉亭分别介绍两省经济社会发展情况。省政协主席周波，吉林省政协主席朱国贤出席座谈会。省委常委、市委书记王新伟参加有关活动。', '同日 市委副书记、市长吕志成主持召开全市市场主体发展情况分析调度现场会。他强调，深入实施市场主体倍增行动，为实现全面振兴新突破蓄势赋能。', '同日 市十七届人大常委会召开第十七次主任会议，市人大常委会主任范继英主持会议。会议听取关于市十七届人大常委会第九次会议人事任免事项的补充汇报。', '同日 市十七届人大常委会举行第九次会议。市人大常委会主任范继英主持会议。会议听取审议并表决通过市政府关于2022年度沈阳市环境状况和环境保护目标完成情况的报告、市政府关于推进“舒心就业”民生工程建设情况的报告、市人大环资城建委关于市十七届人大二次会议主席团交付审议的《关于推进环城水系综合治理工作的议案》等7件议案审议结果的报告；审议并表决通过《沈阳市院前医疗急救管理条例》《沈阳市城市绿化条例》《沈阳市人民代表大会常务委员会关于废止〈沈阳市职业卫生监督管理条例〉的决定》；对《沈阳市社会信用条例（草案二次审议稿）》《沈阳市志愿服务条例（草案）》进行审议。', '5月9日 辽宁省党政代表团赴黑龙江省学习考察并举行黑龙江省·辽宁省交流合作座谈会，进一步深化两省务实合作，共同为推动东北全面振兴取得新突破贡献力量。省委书记、省人大常委会主任郝鹏出席座谈会并讲话，黑龙江省委书记、省人大常委会主任许勤主持座谈会并讲话。省委常委、市委书记王新伟参加有关活动。', '同日 市委副书记、市长、市政府党组书记吕志成主持召开市政府党组（扩大）会议暨党组理论学习中心组集体学习会议和常务会议，传达学习4月28日中共中央政治局会议精神，传达学习习近平总书记关于调查研究的重要论述及相关通知精神，研究部署重点工作。', '同日 市委副书记、市长吕志成主持召开二季度项目建设黄金季于洪区现场办公会。吕志成先后到沈阳友谊BOPP双向拉伸薄膜及胶带生产项目、苏辽产业园、沈阳古诺奇家居用品股份有限公司现场办公，听取于洪区关于招商引资、项目建设、固定资产投资、央地合作等工作进展情况汇报，现场研究解决问题，安排部署下步工作。他强调，打好项目建设攻坚战，加快培育主导产业，推动区域经济高质量发展。', '同日 市人大常委会主任范继英到乡村振兴工作联系点新民市调研，实地查看沈阳天手食品有限公司、鹤湖水稻生产专业合作社、沈阳信昌粮食贸易有限公司、沈阳秋实农业科技发展集团有限公司等企业生产经营情况，采取“四不两直”方式，实地调研胡台镇人大代表之家建设和发挥作用情况。她强调，做优做强优势产业，全面推进乡村振兴。', '同日 市委召开主题教育领导小组办公室第四次工作会议暨“领导干部进企业、服务振兴新突破”专项行动调度会议，总结专项行动进展情况，部署下一阶段重点任务。', '5月10日 市人大常委会党组召开扩大会议，市人大常委会主任、党组书记范继英主持会议并讲话。会议传达学习习近平总书记在广东考察时的重要讲话精神、4月28日中共中央政治局会议精神及沈阳市贯彻落实意见和二十届中央财经委员会第一次会议精神。', '同日 市政协召开反映社情民意信息工作会议，邀请省政协相关同志作专题辅导，对进一步做好反映社情民意信息工作进行安排部署。市政协主席于学利出席会议并讲话。', '同日《科技部关于开展第二批创新型县（市）建设工作的通知》印发，沈阳市法库县入选第二批创新型县（市）建设名单。', '5月10日—11日 辽宁省党政代表团赴内蒙古自治区学习考察并举行内蒙古自治区·辽宁省交流合作座谈会，畅叙友邻情谊、深化务实合作，扎实推动东北全面振兴取得新突破。省委书记、省人大常委会主任郝鹏出席座谈会并讲话，内蒙古自治区党委书记、自治区人大常委会主任孙绍骋主持座谈会并讲话。省委常委、市委书记王新伟参加有关活动。', '5月11日 在圆满结束赴吉林、黑龙江和内蒙古学习考察后，辽宁省党政代表团在沈阳桃仙机场举行总结交流会，分享心得体会，相互启发借鉴，明确努力方向，进一步把学习考察成果转化为推动振兴发展的具体思路和务实举措。省委书记、省人大常委会主任郝鹏主持会议并讲话，省委常委、市委书记王新伟出席并发言。', '同日 市委副书记、市长吕志成主持召开沈阳市电力建设领导小组第十五次会议和沈阳市新能源汽车充电、5G通信基础设施建设工作推进会议，听取相关工作汇报，对下步工作进行部署。他强调，坚持系统谋划、整体协同、攻坚克难，为高质量发展提供有力支撑。', '同日 市委副书记、市长吕志成到中国南方航空工程技术分公司沈阳基地、顺丰航空货运中心、沈阳桃仙国际机场现场了解情况，协调解决问题，推进航空产业发展。他强调，加快建设临空经济区，推动航空产业高质量发展。', '同日 市人大常委会召开“在全面振兴新突破三年行动中展现人大担当和作为”座谈会。市人大常委会主任范继英出席会议并讲话。', '5月12日 沈阳市援疆干部人才座谈会暨第六批、第七批援疆干部人才迎送会召开。省委常委、市委书记王新伟出席会议并讲话。', '同日 省委常委、市委书记王新伟主持召开市委专题会议，听取沈阳市省制度性创新成果申报工作情况汇报。', '同日 市委副书记、市长吕志成主持召开二季度项目建设黄金季和平区现场办公会。吕志成先后到宏发商业大厦项目建设现场、联东U谷和平未来智造谷建设现场及沈阳物联网传感器科技产业园现场办公，听取和平区关于招商引资、项目建设、固定资产投资、央地合作等工作进展情况汇报，现场研究解决问题，安排部署下步工作。他强调，强化项目牵动，以新经济新业态新模式赋能高质量发展。', '同日 辽宁省与中国南方航空集团有限公司在沈阳举行会商。沈阳市委副书记、市长吕志成参加会商。', '同日 市政协主席于学利采取“四不两直”方式，赴浑南区深入包保的三个项目现场，调研督导项目推进情况。他强调，强化跟踪服务，狠抓安全生产，推进项目高标准高质量建设。', '同日 2023年度“最美家庭”揭晓暨沈阳首届家庭教育文化交流活动在沈阳创新天地举行，活动揭晓2023年度沈阳市各类“最美家庭”100户。', '5月13日 省委常委、市委书记王新伟主持召开市委常委会会议，传达学习习近平总书记在河北雄安新区考察时的重要讲话精神，传达学习《中共中央关于印发&lt;中央党内法规制定工作规划纲要（2023—2027年）的通知&gt;》精神，研究部署全市贯彻落实工作。', '5月14日 省委常委、市委书记王新伟，市委副书记、市长吕志成与出席第十九届国际绿色建筑与建筑节能大会暨新技术与产品博览会及第十届中国（沈阳）国际现代建筑产业博览会重要嘉宾会谈。', '同日 世界最大的泵道公园——沈阳国际泵道公园在中德（沈阳）高端装备制造产业园细河悠谷公园内建成并正式对外开放。省委常委、市委书记王新伟出席开园仪式并宣布开园。', '5月15日 省委常委会召开会议，传达中央有关会议精神，进一步研究部署全省深入开展主题教育工作；审议《关于坚定不移推进全面从严治党着力构建风清气正政治生态的意见》。省委书记、省人大常委会主任郝鹏主持会议，省委常委、市委书记王新伟出席。', '同日 辽宁男篮在主场击败浙江稠州队，以4∶0的总比分赢得2022—2023赛季CBA总冠军，成功卫冕。省委书记、省人大常委会主任郝鹏，中国篮球协会主席姚明观看比赛并为辽宁男篮颁发总冠军至尊鼎。省委副书记、省长李乐成为总决赛最有价值球员颁奖，省政协主席周波观看比赛。省委常委、市委书记王新伟，市委副书记、市长吕志成参加有关活动。', '同日 沈阳市召开国家卫生城市建设工作推进会议，就推动国家卫生城市建设常态长效、提质增效，不断提高城乡品质和群众幸福指数进行部署。省委常委、市委书记王新伟出席会议并讲话，市委副书记、市长吕志成主持会议，市人大常委会主任范继英、市政协主席于学利出席会议。', '同日 2023第十九届国际绿色建筑与建筑节能大会暨新技术与产品博览会及第十届中国（沈阳）国际现代建筑产业博览会举行。副省长靳国卫，市委副书记、市长吕志成出席开幕式并致辞。', '5月16日 辽宁省与中国石油化工集团有限公司在沈阳举行会商。省委书记、省人大常委会主任郝鹏主持会商并讲话，中国石化党组书记、董事长马永生出席会商并讲话，省委常委、市委书记王新伟参加会商。', '同日 省委副书记、省长李乐成在沈阳接受央视《对话》栏目专访后，深入沈阳国际赛艇中心，就深入贯彻党的二十大精神和习近平总书记关于体育的重要论述，落实省委工作要求，扎实开展主题教育，进一步推动全省体育事业高质量发展进行调研。市委副书记、市长吕志成参加调研。', '同日 省委常委、市委书记王新伟深入和平区沈水湾街道中海社区、浑南区第九小学，现场研究推进幸福教育工作，并主持召开座谈会，认真听取社区干部、校长、教师、学生家长代表等方面的意见建议，与大家探讨深入推进幸福教育的举措。', '同日 省委常委、市委书记王新伟听取“全国知名民企助力辽宁全面振兴新突破高端峰会”沈阳专题活动筹备情况的汇报，研究沈阳市对接全国工商联有关工作；听取关于中央对台工作会议精神的汇报，研究沈阳市对台工作安排；听取市委网信委会议筹备情况的汇报，部署全市网信队伍建设有关工作。', '同日 市委副书记、市长、市政府党组书记吕志成主持召开市政府党组（扩大）会议和常务会议，传达学习习近平总书记在河北雄安新区考察时的重要讲话精神，传达学习中共中央关于印发《习近平新时代中国特色社会主义思想学习纲要（2023年版）》的通知和关于学习《习近平著作选读》第一卷、第二卷的通知，按照市委工作要求，研究部署贯彻落实工作。', '同日 沈阳市吸引集聚高层次人才三年行动计划暨“博士沈阳行”系列推介活动上海站举办。', '5月17日 省委全面深化改革委员会召开会议，深入学习贯彻习近平总书记在二十届中央全面深化改革委员会第一次会议上的重要讲话精神，审议《关于党的十九大以来党中央部署改革任务全省完成情况的督察报告》《辽宁全面振兴新突破三年行动改革攻坚实施方案（2023—2025年）》，对全省今年全面深化改革工作进行再动员再部署。省委书记、省人大常委会主任郝鹏主持会议并讲话，省委常委、市委书记王新伟出席。', '同日 省委常委、市委书记王新伟与来沈考察的法国老佛爷百货集团高级副总裁、总经理菲利普·佩多纳一行进行会商。', '同日 省委常委、市委书记王新伟，市委副书记、市长吕志成与前来参加华晨宝马汽车有限公司二十周年活动的德国宝马集团董事诺德科沃奇、沃尔特·默特尔，大中华区总裁兼首席执行官高乐以及华晨宝马汽车有限公司总裁兼首席执行官戴鹤轩一行座谈。', '同日 2023东北亚金融大会在沈举行。市委副书记、市长吕志成，新华社党组成员、秘书长景如月出席活动并致辞。本次大会由辽宁省政府指导，沈阳市政府、省金融监管局、新华社辽宁分社、中国经济信息社共同主办。', '同日 市人大常委会视察本年度全市重大项目开复工及建设情况，市人大常委会主任范继英参加视察。', '同日 市委宣传部举行沈阳“时代楷模”发布仪式，授予鲁迅美术学院教授陆国斌、中航沈飞股份有限公司“罗阳青年突击队”沈阳“时代楷模”称号。', '5月18日 华晨宝马20周年暨宝马第六代动力电池项目奠基仪式在沈阳举行。省委书记、省人大常委会主任郝鹏出席。省委副书记、省长李乐成，德国宝马集团董事诺德科沃奇出席并致辞。德国宝马集团董事默特尔出席，华晨宝马汽车有限公司总裁兼首席执行官戴鹤轩致辞，省委常委、市委书记王新伟参加活动。活动前，王新伟同志陪同省领导会见诺德科沃奇一行。', '同日 省委常委、市委书记王新伟主持召开市委常委会会议，传达学习习近平总书记在河北考察并主持召开深入推进京津冀协同发展座谈会时的重要讲话精神，研究部署全市贯彻落实工作；进一步研究部署全市深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育工作。', '5月19日 全省持续净化政治生态暨警示教育大会在沈阳召开。省委书记、省人大常委会主任郝鹏出席会议并讲话，省委副书记、省长李乐成主持会议。中央第四指导组副组长张兆民，省政协主席周波出席会议。省委常委、市委书记王新伟参加。', '同日 全市重大事故隐患专项排查整治2023行动动员部署会议召开。市委副书记、市长吕志成出席会议并讲话。他强调，坚决守住安全发展底线，以高水平安全保障高质量发展。', '5月19日—20日 省委学习贯彻习近平新时代中国特色社会主义思想主题教育第2期读书班暨省委理论学习中心组学习研讨会在沈阳举行。省委书记、省人大常委会主任郝鹏，省委副书记、省长李乐成，省政协主席周波出席读书班并分别主持分组交流研讨，省委常委、市委书记王新伟参加分组交流研讨。', '5月20日 市委主题教育领导小组办公室第五次工作（扩大）会议召开，会议深入学习领会习近平总书记系列重要讲话和指示批示精神，对前段工作进行总结，对下步工作进行部署。', '5月21日 全市持续净化政治生态暨警示教育大会召开。会议深入学习贯彻习近平总书记关于全面从严治党的重要论述，认真落实省委要求部署，从典型案件中深刻汲取教训，以案为鉴、以案示警、以案明纪，教育引导全市各级党组织和广大党员干部坚决落实“讲诚信、懂规矩、守纪律”重要要求，一刻不停推进全面从严治党，努力营造积极向上、干事创业、风清气正的良好政治生态，为沈阳全面振兴实现新突破提供坚强保障。省委常委、市委书记王新伟出席会议并讲话，市委副书记、市长吕志成主持会议。省委第一巡回指导组组长刘志伟、市人大常委会主任范继英、市政协主席于学利出席会议。', '同日 省委常委、市委书记王新伟带领沈阳市副市级以上领导和部分市管干部集体参观沈阳大数据警示教育展示馆。', '5月21日—22日 市委举办学习贯彻习近平新时代中国特色社会主义思想主题教育第2期读书班暨市委理论学习中心组学习研讨会。省委常委、市委书记王新伟，市委副书记、市长吕志成，市人大常委会主任范继英，市政协主席于学利出席读书班并分别主持分组交流研讨。省委第一巡回指导组到会指导。', '5月22日 省委常委、市委书记王新伟陪同省委主要领导会见全国工商联党组成员、副主席杨佑兴一行。', '5月23日 全省安全稳定工作会议在沈阳召开。会议全面贯彻党的二十大精神和习近平总书记重要指示精神，落实更好统筹发展和安全重要要求，对全省安全稳定工作进行再强调再部署再推进，为全面振兴新突破营造安全稳定的政治社会环境。省委书记、省人大常委会主任郝鹏出席会议并讲话，省委副书记、省长李乐成主持会议，省委常委、市委书记王新伟出席。', '同日 省委常委、市委书记王新伟主持召开中共沈阳市委网络安全和信息化委员会第七次会议。', '同日 市委副书记、市长吕志成会见德国贺利氏集团科纳米总裁克里斯托弗·法尔卡和迈克尔·韦特一行。', '5月23日—25日 市政协机关学习贯彻习近平新时代中国特色社会主义思想主题教育第2期读书班举行。市政协主席、党组书记于学利出席读书班并主持交流研讨。', '5月24日 省委常委会召开会议，传达学习习近平总书记在二十届中央财经委员会第一次会议上的重要讲话和关于浙江“千万工程”重要批示精神，研究部署全省贯彻落实工作。省委书记、省人大常委会主任郝鹏主持会议，省委常委、市委书记王新伟出席。', '同日 十四届市委全面深化改革委员会召开第十次会议，深入学习贯彻中央及省委全面深化改革委员会会议精神，听取部分国家级重要改革试点进展情况汇报，审议《沈阳全面振兴新突破三年行动改革攻坚实施方案》，研究全市下步改革工作。省委常委、市委书记王新伟主持会议并讲话。', '同日 市委副书记、市长、市政府党组书记吕志成主持召开市政府党组（扩大）会议暨理论学习中心组集体学习会议、市政府常务会议，传达学习习近平总书记在河北考察并主持召开深入推进京津冀协同发展座谈会时的重要讲话精神等，研究部署贯彻落实工作。', '同日 市人大常委会党组召开扩大会议。市人大常委会主任、党组书记范继英主持会议并讲话。会议传达学习习近平总书记在河北雄安新区考察并主持召开高标准高质量推进雄安新区建设座谈会时的重要讲话精神及全市贯彻落实意见、习近平总书记在河北考察并主持召开深入推进京津冀协同发展座谈会时的重要讲话精神及全市贯彻落实意见、《中共中央关于印发〈中央党内法规制定工作规划纲要（2023-2027年）的通知〉》精神及全市贯彻落实意见、关于认真贯彻落实习近平总书记重要批示精神在主题教育中推动树立和践行正确政绩观的通知》精神及全市贯彻落实意见。', '同日 市十七届人大常委会举行第十八次主任会议。市人大常委会主任范继英主持会议并讲话。会议听取市政府关于沈阳市今年以来重大项目开复工及建设情况的汇报、市政府关于沈阳市数字农业和智慧农业建设情况的汇报、关于市人大常委会视察我市河湖长制工作落实情况工作方案（草）的汇报以及关于市十七届人大常委会第十次会议议题预安排情况的汇报。', '同日 市纪委监委召开全市纪检监察干部队伍教育整顿工作推进会，贯彻落实全国纪检监察干部队伍教育整顿工作推进会、督导检查工作座谈会以及全省纪检监察干部队伍教育整顿工作推进会精神，总结前段工作开展情况，研究部署下步重点任务。', '5月25日 省委副书记、省长李乐成到沈阳市辽中区，深入贯彻党的二十大精神和习近平总书记关于“三农”工作的重要论述，落实省委工作要求，结合正在开展的主题教育，就抓好春耕生产、建好高标准农田、保障好粮食安全进行调研。他强调，建好管好高标准农田，全力保障粮食安全促进农民增收。市委副书记、市长吕志成参加调研。', '同日 省委常委、市委书记王新伟主持召开专题会议，听取全市项目建设和经济运行情况汇报，与相关企业负责人深入座谈，了解诉求、听取意见、商讨对策。他强调，攻坚二季度，奋力“双过半”，全力以赴推动各项工作争先进位。会前，王新伟同志到太原街商圈、沈阳中科三耐公司实地调研。', '同日 市委副书记、市长吕志成到中国航空工业空气动力研究院、沈阳天汽模航空部件有限公司、沈阳航空航天城项目建设现场，详细了解情况，协调解决问题，推进航空产业发展。他强调，加快建设沈阳航空航天城，大力培育世界级航空产业集群。', '同日 市人大常委会主任范继英围绕践行全过程人民民主、提高监督质效和发挥代表作用情况到苏家屯区开展调研，实地查看八一红菱街道黑林台村农业产业人大代表联系点、沈阳达利园食品有限公司、解放街道人大代表之家，了解区“家站点”建设和各级人大代表在“振兴新突破，我要当先锋——人大代表在行动”活动中发挥作用情况，并主持召开座谈会，听取苏家屯区人大常委会深入践行全过程人民民主，积极参与立法，实施有效监督，发挥代表作用等方面工作情况，听取各级人大代表、人大工作者、基层工作人员对完善民主民意表达平台和载体，健全吸纳民意、汇聚民智工作机制，提高人大监督工作质效方面的意见建议。', '同日 沈阳市召开全市各民主党派、无党派人士和党外知识分子、新的社会阶层人士“凝心铸魂强根基、团结奋进新征程”主题教育动员会。', '5月26日 由市委、市政府举办的“博士沈阳行”活动隆重启幕。省委常委、市委书记王新伟出席启动仪式并致辞。', '同日 省委常委、市委书记王新伟围绕提升城市品质现场查看全市街路有机更新和环境整治有关工作。', '同日 省委常委、市委书记王新伟主持召开市委专题会议，听取重大项目建设情况汇报，分析存在问题，部署下步工作。会前，王新伟同志带领与会同志到黎明航空动力产业园和浑南科技城项目建设现场观摩。', '5月27日 省委常委、市委书记王新伟主持召开市委常委会会议，传达学习习近平总书记关于浙江“千万工程”的重要批示精神，研究全市贯彻落实工作。', '同日 省委常委、市委书记王新伟主持召开沈阳市闲置土地和房地产停缓建项目处置领导小组会议以及研究铁西区神羊游乐园停缓建项目推进工作市委专题会议。', '5月28日 华翔新能源汽车零部件产业园项目开工仪式在铁西区举行。省委常委、市委书记王新伟出席。', '同日 省委常委、市委书记、市总河长王新伟到沈北新区、法库县，开展河长巡河并实地检查防汛工作。', '同日 市委副书记、市长吕志成与相关部门负责人采取“四不两直”方式，实地检查推进政务服务、环境保护、城市管理等重点领域民生工作。他强调，完善公共服务，提升城市品质，持续增强人民群众获得感幸福感。', '5月29日 省学习贯彻习近平新时代中国特色社会主义思想主题教育工作推进会议在沈阳召开。会议深入学习贯彻习近平总书记关于主题教育的系列重要讲话和重要指示批示精神，全面落实部分省区市主题教育工作座谈会精神，听取全省主题教育进展情况，交流经验做法，安排部署下步工作。省委书记、省人大常委会主任郝鹏，中央第四指导组组长盛茂林出席会议并讲话。省委常委、市委书记王新伟出席。', '同日 省委常委、市委书记王新伟到浑南区信访局接待信访群众，现场研究解决问题，就进一步做好全市信访工作进行安排部署。', '同日 市委副书记、市长吕志成主持召开二季度项目建设黄金季浑南区现场办公会。吕志成先后到沈阳国际软件园二期——沈阳数字经济产业园、沈阳民航东北凯亚有限公司、沈阳麟龙科技股份有限公司现场办公，了解浑南区经济运行、招商引资、核心板块建设等方面情况，协调解决问题，推进项目建设。', '同日 市委副书记、市长吕志成到市委市政府信访局接待来访群众，现场办公解决群众诉求。他强调，依法依规解决群众诉求，切实维护社会和谐稳定。', '5月30日 全省公安系统英雄模范立功集体表彰大会在沈阳召开。省委书记、省人大常委会主任郝鹏出席会议并讲话，省委副书记、省长李乐成主持会议。郝鹏、李乐成等省领导为辽宁省人民满意的公安系统基层单位和辽宁省人民满意的人民警察颁奖。省委常委、市委书记王新伟在沈阳分会场参加会议。', '同日 省委副书记、省长李乐成到中航沈飞民用飞机有限责任公司、沈阳航空动力产业园，结合学习贯彻习近平新时代中国特色社会主义思想主题教育，就全面贯彻党的二十大精神，深入贯彻习近平总书记关于东北、辽宁振兴发展的重要讲话和指示批示精神，落实省委工作要求，在深入实施全面振兴新突破三年行动中加快航空产业发展进行调研。沈阳市市长吕志成参加调研。', '同日 省委常委、市委书记王新伟深入市第五人民医院、于洪区南阳湖街道锦程社区调研，主持召开座谈会听取家庭医生、社区干部、居民、基层医务人员的意见建议，与大家探讨推进健康沈阳建设的举措。他强调，健全医疗体系，优化服务方式，扎实推进健康沈阳建设。', '同日 省委常委、市委书记王新伟研究落实省委主要领导近期文化旅游工作指示精神，部署沈阳市文旅夏季游活动有关工作；研究部署沈阳浑南科技城建设和浑南区信访稳定有关工作；听取沈阳市生物医药及医疗装备产业链工作情况的汇报。', '同日 市政府调研督导城市更新改造项目等工作。调研组先后到沈河区文化东路、大东区东中街万泉城市更新片区、和平区太原街城市更新片区等项目改造现场实地调研。', '5月31日 省委书记、省人大常委会主任郝鹏到沈抚改革创新示范区，就深入学习贯彻习近平总书记重要指示精神和党的二十大决策部署，扎实开展学习贯彻习近平新时代中国特色社会主义思想主题教育，牢牢把握高质量发展这个首要任务，持续深入推进改革开放、更好实施创新驱动发展战略，努力在实施全面振兴新突破三年行动中发挥好示范引领作用进行调研督导。省委常委、市委书记王新伟参加调研。', '同日 市委副书记、市长、市政府党组书记吕志成主持召开市政府党组（扩大）会议和常务会议，传达学习习近平总书记近期重要讲话和重要批示精神，按照市委工作要求，研究部署贯彻落实工作。', '同日 市委副书记、市长吕志成主持召开二季度项目建设黄金季苏家屯区现场办公会。他强调，聚焦主导产业，强化要素保障，推动重点项目建设取得新成效。', '同日 市人大常委会主任范继英围绕深化全过程人民民主“沈阳人大实践”和提升监督实效情况到沈河区开展调研，实地查看杏林社区人大代表联络站建设及运转情况、兴隆大家庭F座项目改造情况、2023年沈阳古城综合保护利用项目实施情况和沈河区文化体育中心项目建设情况。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>34</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>和平区奋力构建四个示范六个突破新发展路径</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2021-12-06</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/zwdt/qxdt/202201/t20220123_2675975.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['新时代，新担当、新作为。在不久前召开的市第十四次党代会上，市委对和平区提出“四个示范”“六个突破”的明确要求。这10项任务涉及哪些方面，现在有怎样的进展？12月5日，记者在和平区两会上，进行深入采访，探寻新发展路径。', '据介绍，和平区在市第十四次党代会期间就对这10项任务进行了初步分解。市第十四次党代会闭幕的第二天，和平区召开了全区领导干部大会，对“四个示范”“六个突破”进一步分解任务，明确牵头区级领导和责任部门，认真学习，深入研究，制定具体落实的路径措施。在这份1.7万字的落实分解方案中，针对每个“示范”和每个“突破”的优势、劣势和目标定位以及路径都进行了明确。“让分解任务和责任清单落实到纸面上，更钉在广大干部的心里，让和平区的干部都清楚地知道我们距离目标有多远，我们努力的空间在哪儿，包括达到这样目标的路径……这些都明晰后，接下来就一个字‘干’。”和平区委主要领导介绍说。', '“任务分解表中每个任务，都值得期待，大家一起努力，一定能实现。”和平区人大代表和政协委员们对此信心满满。', '在新经济发展上作示范。以“五型经济”为核心，形成5大方面22项具体举措，打造辽沈地区新经济培育发展策源地。', '在高水平城市管理和高品质城市生活上作示范。对标郑州，率先在全市实现精细化常态化管理。对标北京、上海等先进地区，在“四个民生品牌”建设上走在前。实践“两邻”理念，建设“品质社区”。', '在加快老街复兴上作示范。高水平规划、高质量管理、高标准建设，实现和平区老街全面复兴，重点推进太原街、中山路、三好街、南市场、西塔和老北市六大片区复兴。', '在推动思想解放上实现突破。全面彻底解放思想，切实把解放思想的成效，体现为谋发展、促振兴、抓落实的具体实践。', '在优化营商环境上实现突破。建设优质高效的政务服务环境、法治良好的法治化营商环境、彰显诚信的信用环境和全社会参与的社会治理体系营商环境，打造全市营商环境标杆区。', '在调整产业结构上实现突破。聚焦结构调整“三篇大文章”，围绕数字赋能产业转型升级，大力推进数字经济发展。到2025年，数字经济增加值年均增速10%以上。', '在实施创新驱动上实现突破。构建思维领先、技术领先、机制领先、路径领先、成果领先的创新驱动新格局，率先把和平区建设成沈阳市综合性国家科学中心的核心功能区。在城市功能品质上实现突破。通过提升功能品质、服务品质、生态品质和文化品质，让城市有活力、有品位、有颜值、有温度，打造品质、人文、智慧、活力的新和平。', '在统筹发展安全上实现突破。创新发展安全生产监管运营机制，完善安全文化体系，提升本质安全水平，创建统筹发展安全模范区。', '招商不看“税收”指标，率先在思想解放方面寻求突破，主动对标先进，实现区域跃迁。市第十四次党代会闭幕后，和平区委主要领导同志就率队到苏州等地考察学习，其目的除了常规的招商引资和推介项目，更把目标锚定在学习经验和作法上，并将先进思想引入和平区发生化学反应，实现质的飞跃。“过去一提招商，最先看的是税收。这次去苏州考察回来明确了，和平区招商不以‘税收’作为考核指标，而是建立一套更加科学的综合评价体系。”和平区相关负责人介绍。', '近日，和平区在对和平北大街26-2号地块项目上就成功引入了招商综合评价体系。对于该处引进的和平号数字文化产业园项目，重点在企业注册资金实力、核心技术人员占比和员工保障等方面进行综合评价。对此，知悉和平区招商新政发生变化后，投资者们纷纷点赞：“从企业实际出发的这套评价体系更科学，更务实，有利于我们企业把根儿扎下来。”', '学习成长是区域可持续发展的生命力。和平区鼓励广大干部走出去学习和有针对性地培训。近期，和平区将派出由副区级以上领导带队的8个组，分别前往上海、苏州、成都、郑州等城市，进行实地考察、座谈交流和工作实践等沉浸式学习，解放思想，更新观念，抓住发展机遇，拓宽视野，创新思路。', '此次学习，学习者可以按照区里提供的“菜单”选择地点和学习内容，针对性更强，更加人性化。当前，和平区广大干部信心满满，他们纷纷表示，带着市委提出的“四个突破”和“六个示范”的命题去赶考，带着为和平区扛起建设国家中心城市核心功能区的目标去答卷，将在高质量发展高品质生活示范区的篇章中，迎接不一样的春天。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>34</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>年月沈阳大事记</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2021-05-18</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/qtzfxx/szfdsj/202112/t20211201_1739572.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['4月1日 市委、市政府召开工作情况通报会，向老同志通报近期工作情况及下步工作打算，听取大家的意见建议。省委常委、市委书记张雷出席会议并讲话，市长王新伟主持会议并通报情况。', '同日 市政府召开森林防灭火工作部署会议，贯彻落实全国和全省森林草原防灭火工作电视电话会议精神，对做好春季森林防灭火工作进行安排部署。市长王新伟出席会议并讲话，他强调，要压实责任、严防严控，筑牢森林安全 “防火墙”。', '同日 市长王新伟主持召开对外开放领导小组第二次工作例会，听取相关工作汇报，对下步工作进行部署。王新伟强调，要充分挖掘潜力，招大招新招链，以高水平招商助推高质量发展。', '同日 省人大常委会副主任孙轶率调研组来沈、就沈阳市现代综合交通运输体系建设和一季度经济运行情况开展调研。', '同日 市政府新闻办举行专题新闻发布会，为打造 “办事方便、法治良好、成本竞争力强、生态宜居 ”的营商环境，市司法局牵头梳理《沈阳市全领域包容免罚清单》（以下简称《清单》），计划于 2021年5月底前，分四个批次向社会发布实施。沈阳推行的《清单》涉及公安、交通、水利等全市具有行政处罚权的 26个行政执法部门，实现全领域覆盖。', '4月2日 省委常委、市委书记张雷主持召开市委常委会会议，传达学习习近平总书记在中央政治局第二十八次集体学习时的重要讲话精神，研究部署沈阳市贯彻落实工作。', '同日 沈阳市召开盛京皇城综合保护利用领导小组会议，听取进展情况汇报，研究部署下一步工作。省委常委、市委书记张雷主持会议并讲话，他强调，要高质量推进盛京皇城综合保护利用，强化全面振兴全方位振兴的文化支撑。市长王新伟出席会议并讲话。', '同日 省委常委、市委书记张雷到马耳山和沈阳中燃佟沟加气站，实地调研检查春季防火和安全生产工作。张雷强调，要严格落实责任，严密防范措施，全力确保沈阳万无一失。', '同日 市长王新伟主持召开市科技创新工作领导小组2021年全体会议暨第二次例会，讨论《提升科技创新平台能力支撑高质量发展的行动方案》。王新伟强调，要培育创新品牌、营造良好生态、展现更大作为。', '同日 市长王新伟主持召开规划和土地资源管理委员会会议，研究《关于进一步加强全市国土空间规划统一管理的意见》《沈阳市人民设计师制度实施办法（试行）》《沈阳市城市核心发展板块划定方案》《沈阳市第四批市级文物保护单位和第二、三批市级文物保护单位野外部分保护范围和建设控制地带划定方案》。王新伟强调，要树立权威，慎行笃行，全面提升规划编制和决策水平。', '4月3日 市长王新伟到棋盘山地区调研检查森林防灭火工作，实地考察浑南区消防指挥中心、森林路消防救援站和棋盘山风景区，慰问值守在森林防灭火一线的干部职工和消防指战员。王新伟强调，要增强忧患意识，夯实责任体系，有力有效管护好珍贵林地。', '4月6日 中央第二生态环境保护督察组进驻辽宁省开展生态环境保护督察。沈阳市召开迎接中央第二轮生态环境保护督察动员部署会议，省委常委、市委书记张雷出席会议并讲话，市长王新伟主持会议。', '同日 市人大常委会党组召开（扩大）会议，会议传达学习《中共中央办公厅印发〈关于进一步解决形式主义问题做好 2021年为基层减负工作主要措施及分工方案〉的通知》精神及市委常委会有关要求，研究部署市人大常委会贯彻落实意见；传达学习省委书记、省人大常委会主任张国清在省十三届人大常委会第二十五次会议上的讲话精神，并就做好 “营商环境 ”“数字辽宁智造强省 ”和“法治环境、信用环境建设 ”等工作提出具体要求。', '4月7日 市政府党组书记、市长王新伟主持召开市政府党组（扩大）会议和第二十届第 88次常务（扩大）会议、第89次常务会议，传达习近平总书记近期重要讲话和重要指示精神，对加强全市城乡绿化等近期重点工作进行部署。会议审议通过《沈阳市开展质量提升行动加快质量强市建设实施方案（2021-2023年）》《沈阳市居民小区二次加压泵站 “大水箱 ”改造工作方案》，会议听取进一步降低全市涉企行政事业性收费工作汇报。', '同日 沈阳市组织收听收看全省安全生产工作电视电话会议，市长王新伟在沈阳分会场参加会议，随后主持召开第二季度全市安全生产工作电视电话会议进行贯彻落实，并就毫不放松抓好常态化疫情防控工作进行部署。', '同日 《民政部关于同意将河北省河间市等单位确认为全国婚俗改革实验区的批复》发布，沈阳市皇姑区被确认为全国婚俗改革实验区，实验时间为期三年。', '同日 《沈阳日报》发布，中国软件产业最具影响力盛会—“2021中国软件产业年会 ”在北京举行。沈阳国际软件园获评 “2020年中国最具活力软件园”奖项；沈阳美行科技有限公司荣获 2020年中国软件行业最具影响力企业；沈阳风驰软件股份有限公司核心专家贾军营荣获优秀工程师称号。', '4月8日 北部战区政治委员范骁骏，省委书记、省人大常委会主任张国清，省委副书记、省长刘宁，省政协主席周波，省委常委、市委书记张雷，市长王新伟，市政协主席韩东太等军地领导到沈阳市浑南区棋盘山，与机关干部、部队官兵一起参加义务植树活动。', '同日 德国采埃孚集团新能源汽车电驱动项目在沈开工。省委常委、市委书记张雷出席开工仪式，市长王新伟出席仪式并致辞。德国采埃孚集团董事会成员、亚太区及印度区总裁柯皓哲博士，华晨宝马总裁兼首席执行官魏岚德博士分别致辞。采埃孚新能源汽车电驱动项目位于沈阳经济技术开发区，总投资额约10亿元，主要建设国际领先技术的乘用车电驱动系统及电机生产基地。', '同日 市人大常委会机关举行党史学习教育宣讲报告会。辽宁省委暨沈阳市委党史学习教育宣讲团成员、辽宁大学马克思主义理论一级学科带头人房广顺以《学习百年党史坚定理想信念》为题作宣讲报告。', '4月10日 沈阳市组织开展第 22个“共产党员社区奉献日”活动，全市24万余名党员群众参加。', '同日 沈阳首批建筑垃圾再生利用产品在位于沈北新区的沈阳城市固废处理基地诞生。沈阳城市建筑垃圾开启循环利用的全新模式。首部城市固废处理纪录片《净土》同步开机。', '4月11日 市长王新伟率相关地区和部门负责人，赴法库县观摩农村改厕工作，到依牛堡子镇西拉马河村 3户村民家中实地考察，并主持召开现场调度会，对下步工作进行部署。王新伟强调，要咬定目标，用心用情用力推进 “厕所革命”。', '同日 2021年辽宁省中学生排球锦标赛决赛在盘锦红海滩体育中心举行，沈阳市第一二〇中学男子排球队勇夺高中男子组冠军，这是该校男子排球队自1992年组建以来首次获得全省冠军。', '4月12日 沈阳市召开全市政法队伍教育整顿工作推进会暨查纠整改环节部署会议，深入学习贯彻全国第一批政法队伍教育整顿工作推进会议和全省政法队伍教育整顿工作推进会暨查纠整改环节部署会议精神，总结学习教育环节工作，部署查纠整改环节任务。省委常委、市委书记、全市政法队伍教育整顿领导小组组长张雷出席会议并讲话，他强调，要以强烈的自我革命精神不断把教育整顿引向深入。', '同日 侨商沈阳行·经贸交流座谈会召开，近百位侨胞侨商代表共商沈阳振兴发展大计。市长王新伟参加会议并讲话，他强调，要以侨为桥，凝心聚力，共奏振兴最强音。', '同日 农业农村部接到中国动物疫病预防控制中心报告，经国家禽流感参考实验室确诊，沈阳市和平区长白街长白岛森林公园发生野禽 H5N6亚型高致病性禽流感疫情。疫点内共有野禽291只，发病死亡11只。疫情发生后，沈阳立即启动应急响应机制，开展应急处置工作，扑杀野禽 280只，对全部病死和扑杀禽只进行无害化处理，对周边环境进行消毒。', '4月13日 市长王新伟主持召开 “一网通办”工作例会，听取“一网通办”及“一件事一次办”改革工作进展情况汇报，对下步工作进行部署。王新伟强调，要深化改革、抓住关键、协调联动、全面提速。', '4月13—14日 全国政法队伍教育整顿中央第一督导组组长耿惠昌带领督导组到沈阳市开展下沉督导。4月13日，中央第一督导组在沈阳召开座谈会，传达习近平总书记重要指示精神，耿惠昌出席会议并讲话，省委常委、市委书记、市政法队伍教育整顿领导小组组长张雷汇报沈阳市政法队伍教育整顿开展情况并表态发言。4月14日，耿惠昌一行到市法院、市公安局皇姑分局新乐派出所、大东区检察院、浑南区公共法律服务中心，实地调研政法队伍教育整顿开展情况，并与市、区部分政法部门负责人及基层政法干警座谈。', '4月14日 沈阳市召开贯彻新发展理念、推动高质量发展、做好 “三篇大文章 ”推进会，省委常委、市委书记张雷出席会议并讲话，他强调，要强化担当、精准发力、狠抓落实，推动全面振兴、全方位振兴取得新突破。市长王新伟出席会议并讲话。', '同日 市政府党组书记、市长王新伟主持召开市政府党组（扩大）会议和第二十届第 90次常务会议，学习贯彻习近平总书记关于防范风险挑战、应对突发事件论述摘编及近期重要指示精神，研究部署全市推进养老服务高质量发展、进一步降低涉企收费等重点工作。会议审议通过《沈阳市推进养老服务高质量发展的实施方案》，会议听取关于进一步降低我市涉企经营服务性收费工作情况的汇报。', '4月15日 市委理论学习中心组召开专题学习会议，深入学习贯彻习近平生态文明思想，特别是习近平总书记关于绿色低碳发展的重要论述。省委常委、市委书记张雷主持会议并讲话，他强调，要坚定不移走生态优先绿色低碳的高质量发展道路。市委副书记、市长王新伟出席会议并发言，中科院沈阳应用生态研究所所长朱教君教授进行专题辅导。同日省委常委、市委书记张雷主持召开市委常委会会议，听取全市一季度经济运行情况和下一步工作安排汇报，研究部署重点任务。', '同日 省委常委、市委书记张雷到中国医科大学附属第一医院浑南院区调研，并与中国工程院院士、中国医科大学附属第一医院院长尚红深入交流，详细了解医院的历史沿革、建设发展以及国家紧急医学救援队工作情况。张雷强调，要积极主动对接，强化跟踪服务，全力助推医院高质量发展。', '同日 中德（沈阳）高端装备制造产业园管委会与柏林勃兰登堡州汽车供应商协会通过线上签约，中德园成为供应商协会在华第十家合作伙伴。', '4月17日 省委常委、市委书记张雷，市长王新伟带领市委常委、市政府班子成员到中共满洲省委旧址纪念馆，回望历史，缅怀先烈，参观红色教育基地，夯实党史学习教育。', '同日 市长王新伟主持召开会议，研究环境综合整治百日攻坚行动实施方案，部署全市三环四环道路沿线、铁路沿线、高速公路出入口周边环境综合整治工作。王新伟强调，要明确任务、把握关键、“拆清改绿”，提升城市精细化管理水平。', '同日 市政协在珠海市召开港澳委员座谈会，书面传达全国政协十三届四次会议、沈阳市政协十五届四次会议精神。市政协主席韩东太出席会议并讲话。', '4月18日 市长王新伟率相关部门负责人到市纪委监委参加推进监督和治理体系建设工作调度会。王新伟强调，要坚持统筹融合，完善顶层设计，推动政府治理体系和治理能力提质提效。', '4月19日 中央生态环境保护督察沈阳市工作协调组工作会议召开，听取情况汇报，部署下一步任务。省委常委、市委书记张雷主持会议并讲话，市委副书记、市长王新伟出席会议并讲话。', '同日 市政府召开城乡基础设施提升专项工作会议，市长王新伟出席会议并讲话，他强调，要深化细化任务，科学务实规划，持续提升城市品质和竞争力。', '4月20日 市委审计委员会召开第五次会议，深入学习贯彻习近平总书记关于审计工作的重要讲话精神，研究部署下一阶段审计工作。省委常委、市委书记、市委审计委员会主任张雷主持会议并讲话，他强调，要在新时代审计事业中担当新使命展现新作为。市委副书记、市长、市委审计委员会副主任王新伟参加会议。', '同日 市委外事工作委员会召开第三次会议，传达学习全国地方外办主任会议和省委外事工作委员会会议精神，研究部署下一阶段工作。省委常委、市委书记、市委外事工作委员会主任张雷主持会议并讲话，他强调，要努力为沈阳振兴发展贡献 “外事力量”。市委副书记、市长、市委外事工作委员会副主任王新伟参加会议。', '同日 省委常委、市委书记张雷实地调研检查中央环保督察交办案件整改工作，到全运路万达广场顶层、浑南热力2号源、亿丰时代广场等处，了解空调风机运转噪音扰民、煤场扬尘、垃圾装卸清运扰民等问题的产生原因、解决措施、整改进展。张雷强调，要以实实在在的整改成效赢得群众满意。', '同日 市长王新伟到铁西区、辽中区，检查督导中央生态环境保护督察发现问题整改工作。王新伟先后检查了大潘泵站污水溢流问题、东北制药集团 VOCs排放问题、沈阳化工股份有限公司污水处理设施运转及化工电石渣储存问题和辽中区朱家房镇生活垃圾填埋场臭味异味扰民问题的整改情况，并听取铁西区、辽中区相关工作汇报。王新伟强调，要突出问题整改，全面排查整治，扛牢抓实生态环境保护政治责任。', '同日 市人大常委会视察全市公共卫生与疾病预防控制体系建设工作，实地考察市第六医院、市精神疾病预防控制中心、市疾病预防控制中心新址、沈阳急救指挥中心（120指挥调度中心）、浑南区五三社区卫生服务中心。', '4月21日 省委常委、市委书记张雷主持召开市委常委会会议，传达学习全省精神文明建设工作会议暨省文明委（全体）会议精神，研究部署全市贯彻落实工作。', '同日 市委全面深化改革委员会召开第十次会议，传达学习中央及省委全面深化改革委员会会议精神，审议市委全面深化改革委员会 2021年工作要点，研究部署全市改革相关工作。省委常委、市委书记、市委全面深化改革委员会主任张雷主持会议并讲话，他强调，要充分发挥改革在构建新发展格局中的关键作用，着力推动各项改革任务落地见效。市委副书记、市长、市委全面深化改革委员会副主任王新伟参加会议。', '同日 市政府党组书记、市长王新伟主持召开市政府党组（扩大）会议和市政府第二十届第 91次常务会议，学习贯彻习近平总书记重要讲话和指示精神，研究部署近期重点工作。会议集中学习《求是》杂志发表的习近平总书记《在庆祝中国共产党成立 95周年大会上的讲话》，听取一季度经济运行情况及下步重点工作汇报。会议审议通过《沈阳市促进流量型经济发展三年行动方案（2021-2023年）》《沈阳市促进开放型经济发展三年行动方案（2021-2023年）》。', '同日 沈阳仲裁委员会与中德（沈阳）高端装备制造产业园管委会共同建立沈阳知识产权仲裁院（中徳园知识产权仲裁院），并举行启动运行仪式，中国德国商会东北地区区域经理布鲁克受聘 “荣誉仲裁员 ”和仲裁员，成为国内首位担任知识产权仲裁员的外国人。', '4月22日 省委常委、市委书记张雷到细河十一街二号污水泵站和沈阳振兴污水处理有限公司，就污水排放问题进行实地检查、现场指导，并主持召开专题会议，研究部署整改工作。', '同日 市长王新伟到浑南区东软医疗系统股份有限公司、新松机器人自动化股份有限公司、通用电气风电设备制造（沈阳）有限公司、沈阳富创精密设备有限公司、沈阳芯源微电子设备股份有限公司、拓荆科技股份有限公司等部分高新技术企业实地调研。王新伟强调，要呵护创新资源，激发创新活力，构筑创新生态，建设创新沈阳。', '同日 沈阳市知识产权保护联盟成立大会暨知识产权与创新发展论坛在东北科技大市场举行。', '4月23日 市政府与中国中铁股份有限公司签署战略合作框架协议。省委常委、市委书记张雷，市长王新伟，中国中铁股份有限公司党委书记、董事长陈云出席签约仪式。', '同日 市政府党组书记、市长王新伟主持召开市政府党组现场扩大会议，传达贯彻中央生态环保督察关于沈阳经济技术开发区化工园典型案例的通报精神和省委省政府及市委的要求，剖析问题原因、部署整改工作。与会人员到沈阳振兴污水处理有限公司、沈阳创科化学品有限公司，现场调研检查中央生态环保督察整改工作。王新伟强调，要树牢生态文明理念，落实环境治理政治责任，全面完成整改任务。', '同日 沈阳城市机会场景清单发布会暨重点项目云签约仪式举行。本次活动由市政府主办，市商务局和 13个区、县（市）承办，设立 1个主会场和 152个云端分会场，中央广播电视总台国际在线网页和手机客户端，面向全球 60多个国家和地区同步直播。市长王新伟出席活动并致辞。', '4月24日 沈阳市代表团赴大连市学习考察，沈大合作交流座谈会在大连市召开。省委常委、大连市委书记谭作钧主持会议并讲话，省委常委、沈阳市委书记张雷出席会议并讲话。大连市人大常委会主任肖盛峰、沈阳市政协主席韩东太、大连市政协主席王启尧出席会议。', '4月25日 市长王新伟主持召开规划和土地资源管理委员会主任会议。会议听取关于《沈阳市国土空间总体规划方案》的汇报、《沈阳市 1—4月土地整理攻坚工作完成情况》的汇报，会议原则通过《沈阳市第五批、第六批历史建筑名录方案》。王新伟强调，要明晰目标定位，贯彻 “五个思维”，科学编制国土空间规划。', '同日 市人大常委会党组召开（扩大）会议，传达学习《中共中央关于加强对 “一把手 ”和领导班子监督的意见》精神精神，讨论通过《市人大常委会党组关于开展 “加强精细化管理助推文明城市创建 —人大在行动”活动的实施意见》，学习《中国共产党组织处理规定（试行）》。', '4月25—28日 市长王新伟率市政府代表团赴深圳、珠海两市，开展以通用航空、新能源汽车、高端装备制造、人工智能、大数据、生物医药等产业项目为重点的招商推介活动。王新伟一行实地考察华为全球总部、格力电器总部等企业，并与华为公司轮值董事长徐直军、华润集团董事长王祥明、金地集团总裁黄俊灿、比亚迪公司董事长兼总裁王传福等就深化合作进行洽谈，推进 22个重点项目。期间，市政府与华为技术有限公司签订深化战略合作协议。', '4月27日 市政府与中国交通建设集团有限公司签署战略合作框架协议。省委常委、市委书记张雷，中国交通建设集团有限公司党委书记、董事长王彤宙出席签约仪式。', '同日 由省委组织部、省科技厅、市政府等单位共同主办，东北科技大市场承办的第十九届中国国际人才交流大会 ·辽宁揭榜挂帅科洽会在沈阳开幕。副省长王明玉宣布大会开幕并讲话。', '4月28日 省委常委、市委书记张雷到沈阳经济技术开发区，主持召开经开区典型案例整改督导工作专班会议，调度进展情况、研究解决问题，进一步推动整改任务落地落实。张雷强调，要坚持立行立改、注重抓实抓细、全力推动各类问题整改到位。会前，张雷到仙女河污水处理厂，实地调研检查中央环保督察交办案件整改工作。', '同日 省委常委、市委书记张雷到于洪区检察院、就政法队伍教育整顿工作进行调研。张雷强调，要坚持司法为民，强化服务意识，切实让群众感受到教育整顿的实际成效。', '同日 省人大常委会副主任、省总工会主席杨忠林率调研组到沈阳，就深入开展党史学习教育、进一步推动工会 “我为职工办实事 ”等工作深入企业调研，并看望慰问劳动模范和一线困难职工。调研组实地考察沈阳启迪三好街科技园运营有限公司、沈阳万象云鼎科技有限公司；看望全国劳动模范郭维林；慰问沈阳市金融护卫保安服务有限公司困难职工孙大勇，并为他送上了慰问金。', '4月28—29日 市十六届人大常委会第二十七次会议召开，会议审议通过市政府关于沈阳市营商环境建设情况的报告，并针对营商环境建设工作开展专题询问；审议通过市政府关于我市公共卫生与疾病预防控制体系建设情况的报告、《沈阳市人民代表大会常务委员会关于进一步加强检察机关法律监督工作的决定》《沈阳市人民代表大会常务委员会关于废止〈沈阳市民营科技企业促进条例〉的决定》，审议《沈阳市公共场所控制吸烟条例（草案）》《沈阳市水污染防治条例（修订草案）》。', '4月28—30日 市委宣传部、市委组织部、市委党校联合举办市管领导干部党史学习教育专题示范培训班，120余人参加。', '同日 市政府党组书记、市长王新伟主持召开市政府党组（扩大）会议和第二十届第 92次常务会议，学习贯彻习近平总书记重要讲话精神以及中央有关文件要求，研究部署近期重点工作。', '4月30日 沈阳市召开全市民族团结进步模范交流座谈会，学习贯彻习近平总书记关于民族工作的重要论述，认真落实全省民族团结进步表彰大会精神，总结工作、交流经验，安排部署今后一个时期的民族工作。省委常委、市委书记张雷出席会议并讲话，他强调，要推动新时代民族团结进步事业高质量发展，为全面振兴全方位振兴实现新突破注入强大动力。市委副书记、市长王新伟主持会议。', '同日 省委常委、市委书记张雷以党员身份参加市委办公室综合一处党支部党史学习教育读书班活动，与党支部成员进行深入交流。张雷强调，要从党史中感悟思想伟力、汲取奋进力量。', '同日 市长王新伟实地检查城市运行保障和安全生产相关工作，考察市公安局交通警察局指挥中心、家乐福超市文化店、沈阳万象城商场、沈阳燃气集团有限公司生产调度中心，代表市委、市政府向坚守在工作岗位的公安干警和干部职工表示慰问。王新伟强调，要完善预案、强化措施，确保城市运行持续安全稳定。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>34</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>年政协沈阳市第十二届委员会常务委员会工作报告</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2012-08-17</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/qtzfxx/gzbg/bmgzbg/202201/t20220122_2621060.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['2007年政协沈阳市第十二届委员会常务委员会工作报告-部门工作报告-沈阳市人民政府', '2006年，市政协常务委员会高举邓小平理论和“三个代表”重要思想伟大旗帜，坚持科学发展观，把握团结和民主两大主题，组织参加市政协的各民主党派、工商联、无党派人士、各人民团体和全体委员，联合各区县（市）政协，切实履行政治协商、民主监督、参政议政职能，圆满完成了十二届四次会议提出的各项任务，取得了新的成绩。', '《中共中央关于加强人民政协工作的意见》（以下简称《意见》），是指导新世纪新阶段人民政协事业发展的纲领性文件。中共沈阳市委把学习贯彻《意见》作为一项重要政治任务来抓，结合我市实际，制定下发了《中共沈阳市委关于贯彻落实〈中共中央关于加强人民政协工作的意见〉的实施意见》（以下简称《实施意见》），对全市各级党政组织提出了明确要求，对开创全市政协工作新局面作了全面部署。市政协以此为契机，开展了一系列学习贯彻《意见》活动。', '市区县（市）两级政协班子成员和民主党派、工商联负责人，带头研读文件，交流学习体会，撰写理论文章。在委员自学的基础上，举办了三期培训班，通过集中学习文件、收听辅导报告、召开理论研讨会、专程送发学习资料等多种形式，委员学习《意见》实现了“全覆盖”。与人民政协报社共同举办了全国性的“沈阳机床杯”学习《意见》有奖征答活动。同时，在沈阳电台的积极配合下，举办了委员“学习《意见》——政协知识竞赛”，并邀请14个党政部门的同志和部分市民参加现场答题，推动了《意见》的学习、宣传。', '按照市委统一安排，市政协领导带队，深入到十三个区县（市）开展调研，与党委、政府和政协的主要负责同志一起，联系实际学习领会《意见》精神；受市委委托，配合市委办公厅，对各区县（市）党委、政府落实市委《实施意见》情况，进行了一次集中检查，促进了《实施意见》的贯彻落实。', '在市委的领导下，通过学习贯彻《意见》，全市各级党委、政府和有关部门加大了支持政协工作的力度，推进了政协履行职能的制度化、规范化、程序化建设，广大委员和政协干部精神更加振奋，全市政协工作的政治环境和社会氛围得到了进一步优化和提升。', '一年来，常务委员会坚持把促进发展作为履职第一要务，围绕全市“开放年”这一工作主线，积极开展协商议政活动，为确保全市经济增长“两个不低于”贡献了智慧和力量。全年形成了3份建议案、71篇专题调研报告、41篇视察报告，报送了791件政协提案、298篇委员专题建言论文。', '围绕投资环境建设，就民营经济发展、房地产开发、外商投资等方面存在的问题，开展了民主评议活动，提出了“推进综合配套改革”、“完善企业投诉受理机制”等16条建议。', '围绕世园会的举办，就“持续打造世园会品牌”这一课题，进行了超前研究和综合论证。从创新运营机制、开发衍生产品、弘扬世园会精神等方面，提出了33条建议。', '围绕增强自主创新能力，建设创新型城市，在年初市政协第四次会议上，向市政府提交了建议案，提出了“在全市开展‘创新年’活动”的建议。在市委科教工委、市科协和沈阳鼓风机集团公司的配合下，举办了“建设创新型城市政协论坛——高校篇”，就“在自主创新中如何发挥沈阳高等院校优势和作用”建言献策。', '围绕我市“十一五”规划的执行、“工业立市”战略的实施、“沈西工业走廊”的建设等重大事项，专门听取了市政府和有关部门的通报，开展了专题协商。就解决群众“看病难、看病贵”问题以及沈阳地铁建设等工作，开展了专题调研和视察活动。对市政府拟出台的《沈阳市城市供水用水管理条例》、《沈阳市安全生产条例》、《沈阳市环境噪声污染防治条例》等地方法规进行了立法前协商。', '围绕社会主义新农村建设，进行了百余日调研，与农民群众面对面地交流，提出了“开发生态农业和农村特色产业”、“推进城乡就业和社会保障一体化”等108条建议。', '围绕“和谐沈阳”建设，从“和谐社区”与“和谐村屯”入手深入调研，提出了“做好低保边缘户救助工作”，“落实土地征占补偿政策”等17条建议。', '围绕房地产业发展中的突出问题，就“资源和环境”这一课题，开展了5个多月的调研，向市政府提交了“坚持建筑业和房地产业与资源环境和谐发展”的建议案，提出了“开发环保节约型绿色住宅”、“加强对装修污染有效控制”等18条建议。', '围绕物流体系建设，配合辽宁省政协，就“加快沈阳区域性现代物流中心建设”开展调研，在东北三省一区政协论坛第二次会议上作了专题发言，提出了“抓紧构筑物流信息平台”等建议，并参加了省委和省政协召开的专题协商会议。', '围绕行政和司法机关及其工作人员执法、贯彻执行重大方针政策等情况，通过会议、视察、提案、建议案、民主评议、选聘“民主监督员”和“委员信箱”、“走进直播间”等平台，向有关部门提出了许多改进工作的建议。', '在以上这些履职活动中，政协的集中协商、重点协商、专题协商和对口协商等几个层面的协商有序开展，民主监督作为一种政治监督的实效性进一步增强，集中了委员真知灼见的许多意见建议被纳入有关方面的决策思路和具体措施之中，一些与群众切身利益密切相关的问题得到重视或解决，为推动全市改革、发展、稳定作出了新的贡献。', '一年来，常务委员会联合区县（市）政协、工作关系在沈的省政协委员和新闻媒体，广泛开展“三深入”活动，不断拓宽工作领域，把履职为民的工作理念，体现在了解和反映社情民意、协助党和政府为民排忧解难的细微之处，为振兴老工业基地凝心聚力。', '在市内城区建立了委员社区联系点，委员走进社区，开展医务培训、健康义诊、法律咨询等内容丰富的利民便民活动，帮助居民解决了数百件难心事。委员提出的“为部分特殊人群办理医保”的建议得到市政府的采纳，解决了9万多群众医疗保障问题。', '在郊区县（市）建立了委员农村联系点。委员走进村屯，了解农业生产情况和农民的所思所求。同时，协调有关部门为农民办实事，解决了一些乡村道路建设资金短缺等实际问题。', '与沈阳日报、沈阳电台、沈阳电视台等新闻单位，联袂开辟的“政协园地”、“委员在线”、“委员视点”等栏目和节目，已经成为委员联系市民的重要渠道。许多委员在报纸上抒民意、在“热线”中听民忧、在荧屏上谈民愿，为解决好群众最关心、最直接、最现实的利益问题出谋助力。全年，有90名委员走进电台直播间，通过“热线”咨询、现场协调，帮助群众解难事30余件，受到广泛称赞。', '“委员信箱”的作用日益突出。目前，在全市九区一县设立的316个“委员信箱”，一年来受理群众来信900余封，为群众办实事690余件，14900余户、4万余群众从中受益。一些“委员信箱”还在招商引资中发挥了促进作用。中共沈阳市委已将“委员信箱”作为联系群众的重要制度之一，纳入了全市总体工作部署之中。', '通过开展“三深入”活动，广大委员进一步增强了关注民生、为民履职的意识，在深入调研的基础上，针对“健全食品卫生安全体系”、“提高农村医疗水平”、“解决下岗工人养老保险统筹”、“推广地源热泵中央空调系统”、“在康法地区发展万寿菊”等问题，提出了许多重要建议和提案，促进了改革发展成果惠及更多群众。', '一年来，常务委员会注重团结和联合各方力量，为构建“和谐沈阳”发挥了政协的独特作用。', '加强了与各民主党派、工商联的联系与合作。切实为各民主党派、工商联参政议政创造条件，共同确定议政建言题目，联合开展了25项专题调研。各民主党派、工商联及其成员，提出了多项具有决策参考价值的意见建议。', '加强了与委员的联系与沟通。通过委员约谈会、专程走访委员等形式，及时了解委员的工作、学习、思想情况和意见建议，收集了大量的社情民意，提炼和报送了一批重要信息。全年编辑《政协信息》156期，其中，有13篇（件）被全国政协信息局采用，有18件得到省市级领导批示。', '加强了与宗教界人士的联系与团结。委员多次深入宗教场所进行调研，积极推动党的宗教政策的落实，协调有关部门解决了一些实际问题，使一些宗教场所的周边环境得到了明显改善，受到宗教界人士的欢迎。', '加强了与港澳台侨委员的联系与对外交往。市政协港澳委员在宣传沈阳、安置就业、引进项目等方面发挥了积极作用。承办了全国政协港澳台侨和外事工作会议。全年，接待了来自美国、澳大利亚、意大利等国家和港澳台地区的团组22个，接待了越南祖国阵线中央委员会主席、俄罗斯联邦委员会主席等政要来访。两次组团出访，促进了对外交往。', '加强了与辽宁中部城市群各市政协之间的联系与协作。在本溪召开的政协论坛第三次会议上，共同围绕“资源与环境”这一主题建言立论，取得了丰硕成果，多项建议得到国家和省、市有关部门的采纳。', '加强了文史资料工作的多方联系与配合。编辑出版的《历史文化名城沈阳》一书，被市政府作为世园会开幕式礼品之一，赠送给来沈嘉宾，还被我市一些中小学作为热爱家乡、了解沈阳的德育教材。编辑出版的《沈阳工业》一书，记载了沈阳工业的辉煌，较好地发挥了存史资政、团结育人的作用。', '尝试开展了委员界别活动，通过各专门委员会，建立了界别活动小组，以更加灵活有效的方式组织委员参政议政。进一步完善了政协履行职能的工作制度，制定了《关于充分发挥界别作用的办法》、《关于开展民主监督员工作的意见》等18项制度。改进了常委会议召开的方式，会前在深入调研的基础上，围绕会议议题先举办“委员论坛”，提高了常委会议的质量。不断拓宽委员知情明政的渠道，全年组织了6场专题报告会、5次市情通报会、8期“知政讲坛”，使委员对时事形势、政情市情有了更全面、更深刻的了解。组织部分委员分赴天津、山东和浙江等地区学习考察，学到了宝贵经验，拓宽了建言视野。', '强化了机关服务工作，建立了委员手机短信平台，不仅及时发布会议和活动通知，还在重大节日之际，向委员致以温馨祝福。委员生日邮寄明信贺卡，体现对广大委员的关怀，提高了政协组织的凝聚力、亲和力。以“创建学习型机关，争做学习型干部”为目标，成立了“读书”等十个活动小组；启动了“机关党委为每名党员做件实事，每名党员为委员做件实事，带动委员为群众做件实事”活动。机关干部考核评价机制进一步完善，勤奋学习、民主协商、勇于探索、求真务实的风气正在形成。', '全市政协工作引起了多家新闻媒体的关注，人民日报、光明日报、工人日报、人民政协报、新华网等重要媒体报道沈阳政协的文章达80余篇，省市各大媒体共发稿1200余篇（条），产生了较广泛的影响。', '一年来，全国政协和省政协对我市政协工作给予了及时有力的指导。中共沈阳市委、市政府对政协工作高度重视，给予了大力支持。市委书记陈政高同志多次给市政协出题目、交任务，对政协报送的重要建议和提案及时作出批示，要求办理落实。市长李英杰同志亲自或委托常务副市长到市政协通报政府工作情况，协调解决了政协工作中遇到的一些实际问题。市委、市政府其他领导同志也从多方面给予了宝贵支持。市直各党政部门及各区县（市）党委、政府和政协，给予了大力配合。各民主党派、工商联、无党派人士、各人民团体和广大委员、顾问，表现出高度的政治责任感，作出了积极奉献。政协往届老领导、老同志也给予了关心和鼓励。在这里，我代表市政协常务委员会一并表示最衷心的感谢！', '回顾总结过去一年的工作，我们也清醒地看到，在政协工作理论的研究，建言献策的针对性、可行性，发挥全体委员作用的途径和政协机关的服务保障等方面也还存在一些不足。我们将在今后的工作中努力加以改进。', '按照中共沈阳市委十一届二次全会对全市工作的部署，市政协2007年工作总体要求是：以邓小平理论和“三个代表”重要思想为指导，以科学发展观为统领，以履职制度化、规范化、程序化的“三化年”活动为载体，紧紧围绕振兴沈阳老工业基地与构建和谐沈阳，选准工作切入点、结合点和着力点，认真履行政协职能，积极反映社情民意，为保持我市经济社会又好又快发展，加速实现“十一五”时期“三大目标”作出新的贡献，以优异成绩迎接中共十七大的召开。', '深入学习中共十六届六中全会和中共中央《意见》精神，学习中共沈阳市委十一届二次全会精神，以“学文件、谋振兴、思和谐、献良策”为主题，开展学习讨论活动，进一步增强全体委员的责任感和使命感。', '充分发挥市政协学习中心组的示范带头作用，坚持学精、学深、学透，紧密联系实际，增强学习效果，切实使学习中心组成为政协各参加单位和各界人士探求新知、形成共识、增进团结的思想阵地。', '进一步丰富委员学习载体。继续办好“知政讲坛”；适时举办形势报告会、专家辅导讲座和政协知识学习培训等活动。不断加强政协理论的研究，筹备成立市政协理论研究会，召开一次政协理论与实践研讨会。', '今年是我市的“创新年”。我们要积极融入全市工作大局，协助市委、市政府合力推进全市重点工作。今年市政协履行职能的重点议题是：', '针对沈北新区建设，在本次全会提出建议案的基础上，继续进行深入调研论证，召开有各民主党派、工商联、无党派人士、各人民团体参加的专题协商会议。', '针对增强自主创新能力，培育知名品牌开展调研，举办“建设创新型城市政协论坛——企业篇”，并召开专题主席会议。', '针对促进政党关系、民族关系、宗教关系、阶层关系、海内外同胞关系的和谐，举办委员论坛活动。', '针对促进包括大中小学体育设施在内的社会公共资源向市民开放，提出一份有分量的“精品”提案。', '针对把康平卧龙湖变成国家级重要湿地，将在十届全国政协第五次会议上提出提案，争取得到国家支持，为沈阳发展办一件实事。', '政协履行职能的制度化、规范化、程序化建设，是推进民主政治建设的重要内容，也是政协组织更好发挥作用的重要前提。在这方面，今年要着力做好以下工作：', '认真搞好政治协商。在广泛征求各方面意见的基础上，市政协党组将向市委提出年度协商计划和议题的建议。按照市委的统一部署，在决策前和决策执行中，围绕完善城市发展规划等议题，切实组织好全委会、常委会、主席会、专委会等多种形式的协商活动，及时报送协商成果，并加强对协商意见建议的跟踪督办，不断提高政治协商的实效。', '切实推进民主监督。继续开展民主评议和发挥民主监督员作用，同时，成立界别监督小组，增设界别“委员信箱”，使民主监督工作更具广泛性、针对性。对政府投资和招商引资重大项目的落实情况，法院、检察院的工作情况及人民群众关心的重要问题，开展专项监督和咨询听证。与纪检监察、新闻舆论等监督合作，就党风廉政建设情况开展民主监督活动，推进政协民主监督取得新成效。', '深入开展参政议政。以专门委员会为依托，以重要课题为纽带，以界别委员为主体，联合民主党派、区县（市）政协、工作关系在沈的省政协委员、党政部门和有关专家学者，针对经济建设、民主法制、教育文化、城市建设等方面的重要问题及直接关系人民群众切身利益的就业、医疗、社保、社区管理与服务等方面的问题，开展专题调研和专项视察，推动经济社会协调发展。', '加强履职制度建设。重点是完善两方面制度，即完善党委、政府和法院、检察院的重要工作情况通报协商制度，党政领导与政协委员对话沟通制度，政协意见反馈制度，政协开展专项民主评议制度，党政领导督办重点提案制度等；完善与民主党派、工商联、区县（市）政协及党政部门的联系制度，进而使履职制度形成较完整体系，做到各项工作和活动都有章可循、有据可依，真正把履职“三化”建设提高到一个新水平。', '政协工作的活力在于持续创新。要进一步创新政协工作思路，不断增强为加速老工业基地振兴、构建和谐沈阳服务的能力。', '坚持既重数量，更重质量。要组织尽可能多的履职活动，力求取得更多的履职成果，以使广大委员有更多的建言立论机会，更好地服务大局。但同时更要注重履职活动和成果的质量。在履行职能、建言献策的各项活动中，要本着“选题准、情况真、论证深、建议实”的要求，尽可能多提出一些具有较高决策参考价值的意见建议。要严格政协提案立案标准，集中精力办理好、落实好高质量提案。对于达不到立案标准的，可作为委员意见建议，反映到党政有关部门，供制定措施、改进工作参考。', '坚持既重结果，也重过程。要积极做好履职成果的落实和转化工作，同时要精心组织每项调研活动，科学设计调研步骤，注重边调研、边协助解决实际问题、边推进相关工作。改进政协委员视察工作，针对全市重大项目的建设、重点工作的进展情况等，下到基层，靠近一线，走入现场，进行巡视察看、咨询建言。', '坚持既重例行工作，又重探索开拓。要按照政协章程，开好例会，做好常规工作。同时，要注重探索履行职能的新领域、新形式、新方法。坚持开放式工作方式，积极参加将于抚顺市召开的辽宁中部城市群政协论坛第四次会议和将在吉林省召开的东北三省一区政协论坛第三次年会。不断拓展政协履职载体，积极推进与新闻媒体的联合，继续与沈阳日报联办“政协园地”专栏，与沈阳电台、沈阳电视台联办委员走进直播间栏目，与沈阳晚报合作设立半月一期的“委员信箱”专栏，变社区小信箱为社会大信箱，畅通民意的有序表达和诉求渠道。', '坚持既重谋划献策，还重参与出力。要从地方政协实际出发，不仅为经济社会发展与和谐社会建设谋划献策，而且还要参与出力。围绕抓大项目，充分发挥政协联系广、信息多的优势，协助政府扩大引资渠道。工作进一步面向最基层，继续开展委员“三深入”活动，改进社区和农村联系点的活动方式，充分发挥政协团结面广、包容性强的优势，密切同各界群众的联系，力所能及地为群众多办实事，在协助党和政府协调关系、化解矛盾、理顺情绪、增进社会各阶层和不同利益群体的和谐方面发挥积极作用。', '政协自身建设直接关系政协履行职能的效能。我们要深入贯彻中共中央《意见》和中共沈阳市委《实施意见》，采取新举措，把自身建设提高到一个新水平。', '要进一步发挥各民主党派在政协组织中的作用，扩大民主党派成员在政协的比例，体现政协工作党派性的特点。通过召开恳谈会、开展联合调研、组织党派发言、征集党派提案等活动，为民主党派参政议政提供有效载体。', '要积极开展政协界别活动，提高界别组织化程度，把全体委员都组织在各个界别小组之中。界别活动要做到经常化、多样化，增加委员活动参与面。要适应新形势、新任务的要求，积极探索界别的设置和调整，扩大团结面，增强包容性。', '要通过开展评选本届政协优秀委员、优秀调研成果、优秀提案、优秀信息等活动，进一步激发委员致力振兴、关注民生、奉献社会的大局意识和责任意识。要多渠道加强与委员的联系，加强与委员所在单位的沟通，解决委员在参政议政中遇到的困难和问题，为委员履行职责创造更好的环境和条件。', '要进一步巩固和扩大“解放思想、加速振兴”学习教育活动成果，使机关始终保持一种昂扬向上、奋发有为的精神状态，使机关干部在思想观念、工作作风等方面，与全市加速振兴的形势相适应。要完善为政协履行职能服务的各项规章制度，确保机关工作规范有序、协调高效地运行，把机关建设成为充满真情、充满智慧、充满活力、充满和谐的“委员之家”。', '2007年是本届政协任期内的最后一年。常务委员会将认真总结工作实践经验，并配合市委做好市政协换届工作，推进政协事业继往开来。', '各位委员，历史的使命、人民的厚望，要求我们倍加珍惜人民政协事业发展的新机遇，锐意谋求履行职能的新作为，不断开创政协工作的新局面。让我们紧密团结在以胡锦涛同志为总书记的中共中央周围，在中共沈阳市委的领导下，团结一心，扎实工作，为加速实现“三大目标”，共创沈阳更加美好的未来而努力奋斗！']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>34</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>年月沈阳大事记</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2019-10-20</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/qtzfxx/szfdsj/202112/t20211202_1804040.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['8月30日—9月1日 2019第四届中国沈阳国际机器人大会在沈阳新世界博览馆举行。本届展览国际化参展比例近30%，服务类机器人参展占比达73.33%，吸引观众逾万人，为东北地区最具影响力的机器人专业展览会之一。 9月1日 以“智能制造与东北振兴”为主题的第十八届中国国际装备制造业博览会在沈阳国际展览中心开幕。本届制博会参展企业达953家、展位数量4260个，为历届最多。中国工业经济联合会会长、工信部原部长李毅中，国家外经贸部原副部长、博鳌亚洲论坛原理事、秘书长龙永图，省委常委、市委书记张雷，副省长崔枫林出席活动。市长姜有为在开幕式上致辞并宣布本届制博会开幕。中国机电产品进出口商会副会长石永红致辞。 同日 第四届制造强国高峰论坛暨工业强基创新发展论坛举行。中国工业经济联合会会长、工业和信息化部原部长李毅中作主题演讲，市长姜有为参加。 9月2日 市委理论学习中心组召开专题学习会议，深入学习贯彻习近平总书记关于干部队伍建设的重要论述，深入学习领会习近平总书记关于学习张富清同志先进事迹的重要指示精神。省委常委、市委书记张雷主持会议并讲话。市委副书记、市长姜有为，市人大常委会主任潘利国，市政协主席韩东太出席会议。 同日 市委常委会召开会议，传达学习习近平总书记在中央政治局会议上关于上半年经济形势的重要讲话精神，以及关于东北、辽宁振兴发展的重要讲话和指示批示精神，研究部署我市贯彻落实意见。省委常委、市委书记张雷主持会议。 同日 市长姜有为会见前来调研的国家开发银行行长郑之杰一行。 同日 沈阳首路“定制班车”F001号正式上线运营。 F001号为长白街道办事处至和平区委之间的定制班车，周一至周五开行，每天7时从长白街道办事处站始发，17时30分从和平区委站返程。首路定制班车单程票价4元/人次。 9月3日 国际基因组学大会第二届眼科大会暨基因精准防控近视公益项目启动仪式在沈举行。市长姜有为出席仪式并致辞。 同日 “庆祝新中国成立70周年——‘文史风华’首届全国市级文史研究馆文化交流系列活动”启动仪式暨书画展开幕式在市文史研究馆举行。 9月4日 亚洲网联盟2019年秋季年会在沈阳启幕，由新华社主办，市委宣传部和新华社新闻信息中心共同承办，这也是该联盟自成立以来，首次在我国东北地区举办。 同日 辽宁省高速公路首个全部完成ETC车道改造建设收费站完工仪式在浑南新城西收费站举行。改造前该站仅有入口1条ETC车道，出口2条ETC车道，改造后实现入口2条ETC车道，出口6条ETC车道。 同日 沈阳市总工会在沈阳劳模纪念馆举行盛京工匠学院揭牌暨钳工专业工匠培训班开班仪式，盛京工匠学院正式启动。 同日 DT财经发布《2019中国青年理想城报告》，通过8个一级指标、25个二级指标、70个三级指标量化评估100座城市对年轻人的吸引力，沈阳进入20强，并成为东北地区最吸引年轻人的城市。 9月6日 受市长姜有为指派，市政府副秘书长刘阳春到和平区新华街道办事处，为不顾个人安危只身救火的沈阳小伙苗钰颁发市长奖奖章和证书。 9月3—7日 市人大常委会主任潘利国率代表团赴新疆考察学习民族团结融合、生态环境建设，并推进对口支援等工作。 9月7日 “工商银行杯”2019中国赛艇大师赛·沈阳站第二届沈阳国际赛艇公开赛2019年沈阳市第九届龙舟大奖赛，在奥林匹克公园开幕，来自国内外44支赛艇代表队、15支龙舟代表队欢聚沈阳，竞渡浑河。 9月8日 “我与祖国共奔跑”盛京银行2019沈阳国际马拉松赛鸣枪起跑。来自肯尼亚、埃塞俄比亚、德国等18个国家和地区，国内166个城市的2万名运动员报名参加比赛。市长姜有为出席起跑仪式，并同华晨宝马汽车有限公司总裁兼首席执行官魏岚德等与会领导、嘉宾共同为比赛鸣枪发令。 同日 人民日报微信公号以《最帅烟熏妆！大火中，他救下整栋楼的人！》为题，转发《沈阳晚报》对苗钰的报道，新华社、共青团中央网站、中国文明网、光明网等二十多家中央级媒体也转载此文，阅读量均超10万人次。 9月9日 省政府召开全省安全生产和社会稳定工作电视电话会议，围绕“防风险、保安全、迎大庆”重大政治任务，研究部署中秋、国庆“两节”期间全省安全生产和社会稳定工作。市长姜有为在沈阳分会场参加会议。 9月10日 市人大常委会召开沈阳市人大代表工作会议。市人大常委会主任潘利国出席会议并讲话。 同日 为庆祝新中国成立70周年和人民政协成立70周年，《大道同行——从“五一口号”到协商建国重要史事回顾展》在中国工业博物馆开展。展期为9月10日至10月13日，由全国政协办公厅、沈阳市政协共同举办。中国政协文史馆副馆长王京平出席开幕式，市政协主席韩东太出席开幕式并致辞。 9月11日 全市“不忘初心、牢记使命”主题教育第一批总结暨第二批部署会议召开。省委常委、市委书记、市委主题教育领导小组组长张雷，省委第一巡回指导组组长赵焕林出席会议并讲话。市委副书记、市长、市委主题教育领导小组副组长姜有为主持会议。市人大常委会主任、市委主题教育领导小组副组长潘利国，市政协主席、市委主题教育领导小组副组长韩东太出席会议。 同日 中航沈飞民用飞机有限责任公司承制的新舟700项目首架机身后段交付仪式在航空工业沈飞民机A01厂房举行。 9月12日 市长姜有为主持召开市政府第二十届第40次常务会议，研究部署加强招投标管理、加快发展夜经济、做好生猪及猪肉保供稳价工作、整合城乡居民医疗保险制度、推进历史文化名城保护等重点工作。会议审议通过《关于加快发展夜经济的实施意见》《关于整合城乡居民基本医疗保险制度的实施方案》《沈阳市历史文化名城保护行动实施方案（2019-2021年）》。 同日 市长姜有为主持召开全市安全生产和社会稳定工作会议，认真贯彻落实党中央、国务院决策部署，按照省委、省政府和市委的要求，对下步工作作具体安排。姜有为强调，要聚焦重点领域，压实主体责任，为庆祝新中国成立70周年营造良好的安全环境。 同日 以“礼赞共和国，智慧新生活”为主题的2019年沈阳市“全国科普日”活动在沈阳医学院启动。 9月14日 市长姜有为到新民市、辽中区专题调研农村人居环境整治工作。在新民市，姜有为先后到金五台子镇小根菜岗子村、柳河沟镇张家沟子村，了解“清垃圾、清塘沟、清畜禽粪污、改造厕所”等工作进展情况；在辽中区，姜有为实地考察了养士堡镇养前村，冷子堡镇社甲村、金山堡村和潘家堡镇于家台村，察看了村屯生活污水处理设施建设、垃圾分类和农厕改造等情况。 9月15日 由香港新华集团与华斯特林有限公司合资成立的沈阳新华斯特林科技有限公司正式揭牌。全国政协常委、香港中华总商会会长、新华集团主席蔡冠深博士出席揭牌仪式。 9月16日 2019辽宁民营企业百强发布会暨推进民营企业发展23条措施落实情况会议在沈阳召开。省委书记、省人大常委会主任陈求发出席会议并讲话。省政协党组书记、主席夏德仁出席会议。各市、县(市、区)设分会场，全省共1.42万人参加会议。 同日 市政协“风雨同舟 共谱华章”——庆祝新中国成立70周年和人民政协成立70周年文艺演出在辽宁人民会堂举行。市政协主席韩东太出席活动。 同日 2019年辽宁省暨沈阳市网络安全宣传周开幕式在沈阳创新天地举行，中国共产党沈阳市互联网行业委员会、沈阳市互联网发展联合会正式揭牌，这标志着辽宁省内第一家市级互联网行业党委、第一家市级互联网行业社会组织联合会正式成立。 9月17日 省委常委、市委书记张雷，市政协主席韩东太，到中国工业博物馆参观《大道同行——从“五一口号”到协商建国重要史事回顾展》沈阳巡展。 同日 第21届中国国际工业博览会在上海国家会展中心举行。来自全球2610家企业带来了各种先进的工业展品。新松机器人自动化股份有限公司推出“沈阳制造”的国内首款工业软件&amp;控制平台。 同日 由沈阳副食集团和毅都（沈阳）公司合作，总投资8.8亿元、占地面积8.8万平方米、总建筑面积20万平方米的大型冷链物流交易平台项目在浑南区奠基动工。 同日 为加强香港青少年爱国主义教育，增强民族自信心和自豪感，激励青少年努力学习，报效祖国，共圆“中国梦”，按照中联办统一安排，香港中学生历史文化探索之旅代表团一行84人开始访问沈阳。 9月18日 “勿忘九一八”撞钟鸣警仪式在沈阳“九·一八”历史博物馆举行。省委书记、省人大常委会主任陈求发出席仪式并讲话。省政协党组书记、主席夏德仁出席仪式。中央宣传部、教育部、共青团中央和中央军委政治工作部宣传局负责同志出席仪式。省委常委、沈阳市委书记张雷主持仪式。省委副书记周波、省委常委和相关省领导以及沈阳市领导，吉林省、黑龙江省、北部战区、省军区和武警辽宁省总队领导出席仪式。在辽参加过抗日战争的老战士和老同志代表、抗战烈士遗属代表、社会各界群众代表等千余人参加活动。 同日 市长姜有为到浑河沈阳西部新城区堤防建设工程、西北连接线工程、四环快速路棋盘山隧道工程、马宋公路改扩建二期工程等部分重点城建项目建设现场，了解工程进展情况，协调解决项目建设中遇到的难点问题。他强调，要强化组织调度，勇于攻坚克难，确保按时间节点推进。 同日 市人大常委会主任潘利国主持召开市十六届人大常委会第二十二次主任会议，听取市政府关于会展业发展、城乡绿化、扫黑除恶专项斗争等工作汇报。 9月19日 省委常委、市委书记张雷调研农村人居环境整治工作。张雷先后到法库县依牛堡镇西拉马村、冯贝堡镇李家荒地村、大孤家子镇和康平县胜利街道孔家村（基层党支部联系点）、胜利街道八家子村了解情况。在调研期间，张雷还专门听取第二批主题教育情况汇报。他强调，要着力打造生态宜居的美丽乡村，不断增强群众的获得感幸福感 。 同日 省人大常委会副主任孙轶率部分驻辽全国人大代表来沈，围绕我市加快民营经济发展情况开展专题调研。市人大常委会主任潘利国参加活动。 同日 沈鼓集团第100台长输管线压缩机和第150台125吨大推力往复式压缩机出厂并移交客户。这两种重大装备的生产达到百台套，标志着沈鼓集团管线压缩机和大推力往复式压缩机的技术深度成熟，并得到市场广泛认可。 同日 全国首个营商移动微服务平台——“@沈阳营商”上线运行。 9月20日 省委常委、市委书记张雷到沈阳植物园（世博园）进行调研。他强调，着力打造更具魅力更有特色的亮丽名片。 同日 《沈阳日报》刊发市政协主席韩东太署名文章《面向新时代新方位 勇担政协人新使命 》，庆祝人民政协成立70周年。 同日 顺应产业转型升级和高质量发展形势需要，以服务于中小企业为宗旨的非营利组织——沈阳市产业转型升级服务联盟成立。 9月21日 “我和我的祖国——辽宁省庆祝中华人民共和国成立70周年特别节目”在沈阳辽宁大剧院举行。省委书记、省人大常委会主任陈求发，省政协党组书记、主席夏德仁会见应邀回辽参加演出的辽宁籍和曾经在辽宁生活、学习、工作过的艺术家并观看演出。 省委副书记周波等观看演出。 同日 沈阳首次启用直升机参与交通事故救援。沈阳交警启动警保联动空中救援体系，将在京哈线新民市柳河沟镇曹屯村路段发生交通事故的伤者紧急运送至沈阳积水潭医院进行救治。 9月22日 沈阳市在盛京大剧院举行《辉煌的历程》沈阳市庆祝新中国成立70周年文艺汇演。省委常委、市委书记张雷，市人大常委会主任潘利国观看演出。 同日 市长姜有为到浑河赛艇基地考察。他强调，要注重发展水上文体活动，做足做好浑河两岸文章 。 9月20—23日 第十一届辽宁国际农业博览会暨第十九届沈阳国际农业博览会召开。观展人数累计达35.8万人次。采购商大会有17个项目签约，其中亿元以上签约项目4个，总签约额8.3亿元。展会期间实现意向签约额20.5亿元，现场交易额达3.57亿元，再创历届之最。 9月23日 市长姜有为率市政府代表团赴北京市开展以推进京沈合作项目为重点的招商活动。代表团考察微软（中国）有限公司、同方股份有限公司、中核工业集团有限公司、中国中车股份有限公司等企业，并洽谈推进相关项目。 同日 市政协召开十五届二十次主席会议。市政协主席韩东太主持会议并讲话。会议讨论通过《发展壮大乡村产业 促进农业提质增效专题调研协商报告》《政协沈阳市委员会关于评选表彰优秀提案、先进承办单位和先进承办工作者暂行办法》。 同日 第二届“中国农民丰收节”在京举行，沈北新区七星米业创始人、石佛寺街道房身村农民党员洪蕴来获得2019年度“全国十佳农民”称号。 9月24日 省委书记、省人大常委会主任陈求发在沈阳市走访慰问部分老党员、老战士、烈士遗属和全国劳动模范代表，向大家致以节日问候和诚挚祝福，对大家在各个历史时期作出的贡献表示崇高敬意。陈求发看望了老党员、烈士遗属罗阳的母亲吴传英，全国劳动模范、中国航发沈阳黎明航空发动机有限责任公司装配试车厂总装班班长李志强，老战士、伤残退伍军人汪仲明等。省领导张雷、张福海参加走访慰问活动。 同日 市委常委会召开会议，传达学习习近平总书记在中央政协工作会议暨庆祝中国人民政治协商会议成立70周年大会和在中央财经委员会第五次会议上的重要讲话精神，审议《关于贯彻落实〈中共中央关于加强党的政治建设的意见〉的重点任务分工方案》，听取关于传达学习《中央生态环境保护督察工作规定》主要精神及有关建议的汇报。省委常委、市委书记张雷主持会议。 同日 市委全面深化改革委员会召开第二次会议，传达学习中央及省委全面深化改革委员会会议精神，听取4个国家级重大改革试点工作情况汇报，研究部署下步工作。省委常委、市委书记、市委全面深化改革委员会主任张雷主持会议并讲话，市委副书记、市长、市委全面深化改革委员会副主任姜有为出席会议。会议审议《沈阳市社会科学界联合会深化改革实施方案》。 同日 市委理论学习中心组召开专题学习会议，深入学习贯彻《中国共产党宣传工作条例》以及习近平总书记关于宗教工作的重要论述和党的宗教理论政策法规。省委常委、市委书记张雷主持会议并讲话。市委副书记、市长姜有为出席会议。 同日 市政协党组召开扩大会议暨理论学习中心组专题学习会议，传达学习中央政协工作会议暨庆祝中国人民政治协商会议成立70周年大会精神。市政协党组书记、主席韩东太主持会议并发言。 9月25日 省委常委、市委书记张雷走访慰问烈士遗属吴继璋、模范人物王巧珍、老党员郝为臣和道德模范夏云龙，向他们致以节日问候和美好祝福。 同日 市人大常委会召开纪念地方人大设立常委会40周年座谈会。市人大常委会主任潘利国参加会议并讲话。 同日 中宣部等部门联合组织开展的“最美奋斗者”学习宣传活动公布“最美奋斗者”名单，沈阳市罗阳、尉凤英获得“最美奋斗者”称号。 9月26日 市政府与正威国际集团举行合作签约仪式。省委常委、市委书记张雷，市长姜有为，正威国际集团董事局主席王文银出席签约仪式。此次签署的合作协议，正威国际集团将在浑南区投资150亿元，建设正威（沈阳）新动能创新产业园，主要包括北方金属和非金属材料研究院、沈阳稀土功能材料产业技术研究院、双创孵化中心、稀土永磁产业基地等。 同日 中国（沈阳）跨境电商发展论坛暨中国（辽宁）自由贸易试验区沈阳片区、沈阳高新技术产业开发区重点项目签约仪式举行。总投资400亿元的84个重点项目成功签约。省委常委、市委书记张雷，市长姜有为参加活动。 同日 市长姜有为主持召开市政府第二十届第41次常务会议，研究部署规范党政机关办公用房管理、废止部分政府规章等重点工作。会议审议通过《沈阳市党政机关办公用房管理办法（讨论稿）》《沈阳市人民政府关于废止&lt;沈阳市事业单位工作人员养老保险办法&gt;等部分政府规章的决定》《2019年沈阳市理顺城市公安分局管理体制交接工作方案》。 同日 市政府党组书记、市长姜有为主持召开市政府党组理论学习中心组集中学习会议，深入学习贯彻习近平总书记关于上半年经济形势的重要讲话精神和对张富清同志先进事迹的重要指示精神，以及中央和省委有关文件要求。 同日 华为云VR创新应用高峰会议暨华为（沈阳）VR云创新中心上线仪式在沈阳市和平区举行，全国首个华为VR云创新中心落户和平区。 9月27日 沈阳市创建全国文明城市指挥部召开工作会议，听取情况汇报，查找存在问题，研究部署任务。省委常委、市委书记张雷主持会议并讲话。他强调，要压实责任、完善举措、狠抓落实，确保文明城市创建工作取得扎实成效 。 同日 沈阳市召开植物园景区提升工作领导小组会议。省委常委、市委书记张雷出席会议并讲话。 他强调，要全力以赴优环境强服务提品质，推动植物园再塑形象、再展新貌。9月29日，沈阳植物园重新开业迎客。 同日 省委常委、市委书记张雷会见日本自民党前干事长、东亚总研理事长武部勤一行。 同日 由市人大常委会、市总工会共同举办的“壮美振兴潮 奋进新时代”庆祝新中国成立70周年主题晚会，在盛京大剧院举行。省人大常委会副主任孙轶，市长姜有为，市人大常委会主任潘利国等观看演出。 同日 市政协召开庆祝人民政协成立70周年座谈会，深入学习贯彻中央政协工作会议精神；并举行由市政协出版的《共同走过70年》一书首发式。市政协主席韩东太出席会议并讲话。 同日 2019年制造业“双创”平台试点示范项目名单公布，全国共137个工业互联网项目入选。沈阳梵天智能制造科技有限责任公司作为东北地区唯一代表入选。 9月28日 市长姜有为先后到祝家污泥施工现场、居民小区、燃气调压站、涉氨制冷企业、危险化学品生产企业，现场检查中央环保督察反馈意见整改落实、今冬供热准备以及安全生产等方面工作。姜有为强调，要加强检修排查整改工作，推动环境改善确保生产安全供热达标。 同日 市长姜有为到和平区望湖路育光巷9号小区、沈河区宏达二泵房、大东区金叶家园、皇姑区煤炭宿舍小区供水内网改造工程现场，实地考察小区内网改造工程项目进展情况。他强调，要强化施工组织，做好资金保障，告别“跑冒滴漏”，让群众喝上放心水 。 9月29日 辽宁省庆祝中华人民共和国成立70周年成就展开幕式在省图书馆举行。省委书记、省人大常委会主任陈求发出席开幕式、为成就展揭幕并观看展览。省政协党组书记、主席夏德仁出席开幕式并观看展览。省委常委、宣传部部长张福海主持开幕式。省委副书记周波等参加活动。 同日 退役军人事务部在沈阳抗美援朝烈士陵园举行中国人民志愿军烈士认亲仪式。中央军委政治工作部、辽宁省人民政府、沈阳市人民政府、辽宁省退役军人事务厅、烈士生前部队代表、志愿军老战士代表、烈士亲属、社会各界群众代表等200余人参加仪式。副省长崔枫林主持认亲仪式，退役军人事务部副部长钱锋出席仪式并讲话。经退役军人事务部门和军队有关方面不懈努力，现已确定陈曾吉、方洪有、侯永信、冉绪碧、许玉忠、周少武6名烈士的身份和亲缘关系。 同日 市长姜有为在浑南区主持召开全市生活垃圾分类工作现场会，总结前期工作，深入查找问题和不足，研究部署下步工作。姜有为强调，要压实责任，强化措施，全面加快推进生活垃圾分类工作 。 同日 市长姜有为走访慰问陆国斌、郭维林、于海烈士的父母等道德模范、劳动模范、烈士遗属代表，向他们致以节日问候和美好祝福。 9月30日 辽宁省暨沈阳市向抗美援朝烈士敬献花篮仪式在沈阳举行，省委、省人大、省政府、省政协，北部战区及驻沈解放军、武警部队官兵，沈阳市委、市人大、市政府、市政协，老战士、烈属，沈阳市社会各界群众分别敬献花篮。省委书记、省人大常委会主任陈求发，北部战区政治委员范骁骏出席仪式。省政协党组书记、主席夏德仁出席仪式。周波、蔡立山、张雷、姜有为、潘利国、韩东太等省市军地领导出席仪式。 同日 省委常委、市委书记张雷实地调研国庆安全维稳工作。 张雷先后到沈阳市消防救援支队、北站消防大队、沈阳站东广场等地实地了解情况。他强调，要以更严要求、更实举措、全力做好安全维稳工作 。 同日 省政府召开全省安全生产工作电视电话会议。市长姜有为在沈阳分会场参加会议，并就进一步做好全市安全生产工作进行部署。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>34</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>年月沈阳大事记</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/qtzfxx/szfdsj/202309/t20230908_4524498.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['8月1日 省委常委会召开议军会议，省委书记、省人大常委会主任郝鹏主持会议并讲话。省委常委、市委书记王新伟出席。', '同日 省委书记、省人大常委会主任郝鹏主持召开省委常委会会议，传达学习中央主题教育整改整治工作推进会议精神，进一步研究部署深入开展主题教育工作。省委常委、市委书记王新伟出席。', '同日 市人大常委会党组召开扩大会议，市人大常委会主任范继英主持会议并讲话。会议传达学习中共中央政治局7月24日会议精神，辽宁省、沈阳市全面振兴新突破三年行动推进会精神，习近平总书记在全国生态环境保护大会上的重要讲话精神以及习近平总书记在四川考察、返京途中在陕西汉中考察时的重要讲话精神。', '8月2日 省委常委、市委书记王新伟与到沈出席全国知名民企助力辽宁全面振兴新突破高端峰会的特变电工股份有限公司党委书记、董事长张新，香港铜锣湾集团董事局主席陈智，宁波江丰电子材料股份有限公司董事长姚力军等嘉宾会谈。', '同日 省委常委、市委书记王新伟陪同省委、省政府主要领导会见全国工商联党组书记徐乐江一行。', '同日 市委副书记、市长吕志成主持召开市政府党组（扩大）会议和常务会议，传达学习习近平总书记近期重要讲话和重要指示精神，按照市委工作部署，研究贯彻落实工作。', '8月3日 全国知名民企助力辽宁全面振兴新突破高端峰会在沈阳开幕。省委书记、省人大常委会主任郝鹏致辞，中央统战部副部长、全国工商联党组书记徐乐江致辞，省委副书记、省长李乐成作主旨推介，省政协主席周波，省委常委、市委书记王新伟出席。', '同日 省委常委、市委书记王新伟与到沈出席全国知名民企助力辽宁全面振兴新突破高端峰会的奇安信科技集团股份有限公司董事长齐向东、依文集团董事长夏华会谈。', '8月5日 省委常委、市委书记王新伟主持召开市委常委会会议，传达学习习近平总书记关于防汛救灾工作重要指示精神，研究部署全市贯彻落实工作。听取市人大常委会、市政府、市政协、市法院、市检察院党组汇报，安排部署下步工作。', '同日 省委常委、市委书记王新伟主持召开专题议事会议，听取市委、市人大常委会、市政府、市政协7月份重点工作完成情况，研究8月份全市重点工作。市委副书记、市长吕志成，市人大常委会主任范继英，市政协主席于学利参加。', '8月6日 省委常委、市委书记王新伟研究部署苏家屯区信访稳定和重点项目推进有关工作。', '8月7日 省委常委、市委书记王新伟到于洪区围绕深入开展全面振兴新突破三年行动及“振兴新突破、我要当先锋”专项行动，全力打造东北城乡协调发展先行区、沈阳振兴发展西部增长极进行调研。', '同日 省委常委、市委书记王新伟主持召开市委书记专题会议，听取市委第二轮巡察和营商环境专项巡察整改及第三轮巡察综合情况的汇报。', '8月8日 省委常委、市委书记王新伟主持召开市委常委会会议，审议《沈阳市加快推进建设东北海陆大通道行动方案（2023—2025年）》，听取关于生态环境保护督察反馈问题整改进展情况的汇报，研究部署下步工作。', '同日 省委常委、市委书记王新伟研究部署新民市信访稳定和重点项目推进有关工作；研究“惠帮企@链上沈阳”平台建设有关工作。', '同日 市委副书记、市长吕志成主持召开市政府党组（扩大）会议暨党组理论学习中心组学习会议和常务会议，深入学习习近平法治思想，听取中国政法大学法治政府研究院教授曹鎏作《贯彻落实党的二十大精神、全面推进法治政府建设率先突破》专题讲座，研究部署近期重点工作。', '8月9日 省委常委、市委书记王新伟陪同省委主要领导会见中国国药集团党委书记、董事长刘敬桢一行。', '同日 铁西区秋季重点项目集中开工。省委常委、市委书记王新伟出席开工仪式，市委副书记、市长吕志成致辞，中国工程院院士、东北大学副校长唐立新等致辞。', '同日 省委常委、市委书记王新伟主持召开市委专题会议，听取和平区京城中心等7个项目情况汇报。', '8月10日 省委理论学习中心组召开专题学习会议，认真学习领会习近平总书记关于党的建设的重要思想，关于严肃党内政治生活的重要讲话和重要指示批示精神，关于以学铸魂、以学增智、以学正风、以学促干等重要论述，关于树立和践行正确政绩观的重要论述，关于东北、辽宁振兴发展的重要讲话和指示批示精神。省委书记、省人大常委会主任郝鹏主持会议并讲话，省委副书记、省长李乐成发言，省委常委、市委书记王新伟出席。', '同日 省委常委、市委书记王新伟到沈河区围绕深入开展全面振兴新突破三年行动及“振兴新突破、我要当先锋”专项行动，大力发展创新型经济、服务型经济、总部型经济、开放型经济、流量型经济，聚力打造“两邻”幸福家园、古城复兴典范、区域性金融中心进行调研。', '同日 市委副书记、市长吕志成出席在苏家屯区举行的BVMW中德汽车零部件产业园开工仪式。', '8月11日 全市城市建设管理工作推进会议召开，结合深入推进主题教育整改整治工作，全面查找问题，部署下步任务。省委常委、市委书记王新伟出席会议并讲话。', '同日 省委常委、市委书记王新伟研究部署沈阳重大自主IP品牌体育赛事筹备、加快体育强市建设有关工作。', '同日 沈阳市国家卫生城市建设工作现场推进会议召开，市委副书记、市长吕志成出席会议并讲话。', '同日 市委副书记、市长吕志成实地调研公安工作，听取工作汇报，现场办公协调解决问题，慰问一线公安干警。', '8月12日 2023沈阳第九届“和平杯”国际青少年足球邀请赛在沈阳“和平杯”世界足球公园开幕。省委副书记、省长李乐成出席开幕式并宣布比赛开幕，省委常委、市委书记王新伟致辞，市委副书记、市长吕志成主持。韩国驻沈阳总领事馆总领事崔喜悳、德国驻沈阳总领事馆领事薄钧德、日本驻沈阳总领事馆副领事浦田平出席开幕式。', '同日 省委常委、市委书记王新伟主持召开市委专题会议，研究全市夜经济发展工作。市委副书记、市长吕志成出席。', '同日 省委常委、市委书记王新伟主持召开市委专题会议，分别研究沈阳方城综合保护利用、大堤路升级改造方案以及沈阳宾馆更新改造设计方案等有关工作。', '同日 市委副书记、市长吕志成冒雨检查市内部分积水点位排涝工作，就全力做好防汛工作进行现场调度。', '8月13日 市委理论学习中心组召开专题学习会议，认真学习领会习近平总书记关于党的建设的重要思想，关于严肃党内政治生活的重要讲话和重要指示批示精神，关于以学铸魂、以学增智、以学正风、以学促干等重要论述，关于树立和践行正确政绩观的重要论述，关于东北、辽宁振兴发展的重要讲话和指示批示精神，以及在辽宁、沈阳考察时的重要讲话精神。省委常委、市委书记王新伟主持会议并讲话，市委副书记、市长吕志成发言，市人大常委会主任范继英、市政协主席于学利出席。', '8月13日—14日 市委副书记、市长吕志成到法库通用航空产业基地、无人机表演场地，检查第十届沈阳法库国际飞行大会暨沈阳国际航空产业发展大会主要活动筹备工作。', '8月14日 省委书记、省人大常委会主任郝鹏主持召开省委常委会会议，传达学习习近平总书记在中央政治局会议上关于上半年经济形势的重要讲话、在听取四川省委和省政府工作汇报时关于开展主题教育的重要讲话精神；传达学习中央主题教育相关会议精神，研究全省贯彻落实意见；听取关于全省防汛工作情况的汇报。省委常委、市委书记王新伟出席。', '同日 市政协党组理论学习中心组召开专题学习会议，认真学习领会习近平总书记关于党的建设的重要思想，关于严肃党内政治生活的重要讲话和重要指示批示精神，关于以学铸魂、以学增智、以学正风、以学促干等重要论述，关于树立和践行正确政绩观的重要论述，关于东北、辽宁振兴发展的重要讲话和指示批示精神，以及在辽宁、沈阳考察时的重要讲话精神；学习党章、新形势下党内政治生活若干准则、县以上党和国家机关党员领导干部民主生活会若干规定等党内法规，进一步统一思想、深化认识，切实把思想和行动统一到党中央精神上来，打牢开好民主生活会的思想基础。市政协主席于学利主持会议并讲话。', '8月15日 辽宁省与中国建筑集团有限公司在沈阳举行工作会商。省委书记、省人大常委会主任郝鹏主持会商并讲话，中建集团党组书记、董事长郑学选，省委副书记、省长李乐成出席会商并讲话。中建集团党组副书记、总经理张兆祥，市委副书记、市长吕志成出席会商。', '同日 省委常委、市委书记王新伟到铁西区信访局接待信访群众，现场研究解决问题，就进一步做好信访工作进行部署。', '同日 省委常委、市委书记王新伟主持召开市委专题会议，研究重点外资项目引进有关工作。', '同日 市政府党组理论学习中心组召开专题学习会议，认真学习领会习近平总书记关于党的建设的重要思想，关于严肃党内政治生活的重要讲话和重要指示批示精神，关于以学铸魂、以学增智、以学正风、以学促干等重要论述，关于树立和践行正确政绩观的重要论述，关于东北、辽宁振兴发展的重要讲话和指示批示精神，以及在辽宁、沈阳考察时的重要讲话精神；学习党章、新形势下党内政治生活若干准则、县以上党和国家机关党员领导干部民主生活会若干规定等党内法规，进一步统一思想、深化认识，切实把思想和行动统一到党中央精神上来，打牢开好民主生活会的思想基础。市委副书记、市长吕志成主持会议并讲话。', '8月16日 省委书记、省人大常委会主任郝鹏会见参加沈阳法库国际飞行大会暨沈阳航空产业发展主题会议的重要嘉宾，省委常委、市委书记王新伟陪同。', '同日 省委常委、市委书记王新伟主持召开市委审计委会议，市委副书记、市长吕志成出席会议。', '同日 省委常委、市委书记王新伟主持召开市委专题会议，研究推进供热“冬病夏治”工作。', '同日 市人大常委会党组理论学习中心组召开专题学习会议，认真学习领会习近平总书记关于党的建设的重要思想，关于严肃党内政治生活的重要讲话和重要指示批示精神，关于以学铸魂、以学增智、以学正风、以学促干等重要论述，关于树立和践行正确政绩观的重要论述，关于东北、辽宁振兴发展的重要讲话和指示批示精神；学习党章、新形势下党内政治生活若干准则、县以上党和国家机关党员领导干部民主生活会若干规定等党内法规，进一步统一思想、深化认识，切实把思想和行动统一到党中央精神上来，打牢开好专题民主生活会的思想基础。市人大常委会主任范继英主持会议并讲话。', '同日 市人大常委会党组召开扩大会议，传达学习习近平总书记对防汛救灾工作作出的重要指示及全市贯彻落实意见，听取关于《沈阳市人大常委会新闻宣传工作办法》修订情况的汇报。市人大常委会主任范继英主持会议并讲话。', '8月17日 由市政府和中国航空学会主办的沈阳航空产业发展主题会议召开。省委常委、市委书记王新伟致辞，省人大常委会副主任陈向群作主旨演讲，市委副书记、市长吕志成主持，中国航空学会理事长林左鸣作主旨演讲。', '同日 省委常委、市委书记王新伟主持召开市委常委会会议，重温习近平总书记2022年在辽宁、沈阳考察时的重要讲话精神，对贯彻落实工作进行再动员再部署。', '同日 省委常委、市委书记王新伟会见瑞士布克哈德集团首席执行官法布里斯·比拉尔德一行，就推动远大压缩机工厂升级、深化合作进行交流。', '同日 沈阳市举办第十届沈阳法库国际飞行大会“航空主题嘉年华活动”，在浑河上空开展由2500架无人机共同演绎的大型无人机矩阵表演。省委书记、省人大常委会主任郝鹏，省委常委、市委书记王新伟出席活动。', '同日 市人大常委会主任范继英主持召开市十七届人大常委会第二十一次主任会议，听取关于召开市十七届人大常委会第十一次会议方案的汇报。', '8月18日 第十届沈阳法库国际飞行大会暨沈阳国际航空产业发展大会在沈阳法库通用航空产业基地开幕。省委书记、省人大常委会主任郝鹏出席开幕式并宣布大会开幕，省委副书记、省长李乐成出席开幕式，省委常委、市委书记王新伟，中国航空学会理事长林左鸣在开幕式上致辞。市委副书记、市长吕志成，市人大常委会主任范继英，市政协主席于学利参加相关活动。', '同日 省委书记、省人大常委会主任郝鹏在沈阳市，就深入贯彻落实习近平总书记重要指示精神，从严从实从细落实防汛救灾措施，因地制宜发展县域特色产业进行调研。省委常委、市委书记王新伟陪同调研。', '同日 辽宁省与华润（集团）有限公司在沈阳举行工作会商。省委书记、省人大常委会主任郝鹏主持会商并讲话。华润集团党委书记、董事长王祥明，省委副书记、省长李乐成，华润集团党委副书记、总经理王崔军出席会商并讲话。省委常委、市委书记王新伟出席会商。', '同日 市委副书记、市长吕志成会见奥地利AST集团总裁、首席执行官马克·多米尼克·瑟寇一行。', '8月19日 沈阳市与华润集团举行会商。省委常委、市委书记王新伟主持会商并讲话，华润集团董事长王祥明出席会商并讲话。市委副书记、市长吕志成，华润集团总经理王崔军出席会商。', '同日 省委常委、市委书记王新伟，市委副书记、市长吕志成与特斯拉全球副总裁陶琳一行会谈。', '8月20日 全市防沙治沙工作推进会议在康平县召开。省委常委、市委书记王新伟出席会议并讲话，市委副书记、市长吕志成，市政协主席于学利出席。会前，与会同志先后到万亩松、林业生态建设项目等点位考察，实地了解林业生态建设、防风阻沙成效。', '同日 省委常委、市委书记王新伟主持召开市金融风险化解和金融改革领导小组2023年第四次会议。', '同日 首届全国青少年劳动技能与智能设计大赛全国决赛院士专家座谈会举行。中国科学院、中国工程院院士郑南宁、吴宏鑫、王天然、唐立新、刘嘉麒、费维扬，欧洲科学院院士陈俊龙、高会军，欧亚科学院院士宋永端以及来自国内多家科研院所、高等院校的专家学者参加座谈会。市委副书记、市长吕志成出席会议并讲话。', '同日 市政协召开十六届十九次主席会议，市政协主席于学利主持会议并讲话。会议传达学习《全国政协组织开展专题研究工作办法（试行）》等文件精神；审议通过《关于推进浑南科技城高质量发展 打造全国有影响力的科技创新中心的调研协商报告（讨论稿）》和政协沈阳市第十六届委员会常务委员会第十一次会议议程（草案）、日程。', '8月22日 省委常委、市委书记王新伟主持召开市委常委会会议，传达学习8月17日召开的中共中央政治局常务委员会会议精神，研究全市贯彻落实工作；传达省委有关文件精神，听取全市当前意识形态领域情况汇报；听取关于全市污染防治攻坚战有关情况汇报，研究部署下步工作。', '同日 省委常委、市委书记王新伟会见出席中国报业新媒体（客户端）发展大会的重要嘉宾，中国新闻文化促进会理事长、人民日报社原副总编辑张首映一行。', '8月23日 中国报业新媒体（客户端）发展大会暨全国百家报业传媒沈阳行开幕。省委常委、市委书记王新伟，中国新闻文化促进会理事长、人民日报社原副总编辑张首映出席开幕式并致辞。', '同日 省委常委、市委书记王新伟到沈阳站东广场、沈阳站西广场公交枢纽、沈阳SK汽车客运站、桃仙机场，实地查看“三站一场”环境整治情况。', '同日 省委常委、市委书记王新伟与全市18家商贸企业负责人座谈，就抢抓扩大内需战略机遇，落实提振消费各项措施，促进商贸服务业高质量发展深入研究探讨。', '同日 中国报业新媒体（客户端）发展建设报告会举行。市委副书记、市长吕志成出席并作《振兴新突破、奋勇当先锋》沈阳市高质量发展主题报告。', '8月23日—24日 市十七届人大常委会举行第十一次会议，市人大常委会主任范继英主持全体会议。会议听取市长吕志成作关于沈阳市2023年上半年经济社会发展情况的报告，审议市政府关于沈阳市今年以来国民经济和社会发展计划执行情况的报告。', '8月24日 省委常委班子召开学习贯彻习近平新时代中国特色社会主义思想主题教育专题民主生活会。省委书记、省人大常委会主任郝鹏主持会议并讲话。中央第四指导组组长盛茂林到会指导并作点评讲话，副组长张兆民及指导组成员到会指导。省委常委、市委书记王新伟出席。', '同日 省委书记、省人大常委会主任郝鹏会见通用集团董事长于旭波一行,省委常委、市委书记王新伟陪同。', '同日 市委副书记、市长吕志成主持召开市政府党组（扩大）会议和常务会议，传达学习习近平总书记在首个全国生态日之际作出的重要指示精神，传达学习8月17日召开的中共中央政治局常务委员会会议精神，按照市委工作部署，研究贯彻落实工作。', '8月25日 市委常委班子召开学习贯彻习近平新时代中国特色社会主义思想主题教育专题民主生活会。省委常委、市委书记王新伟主持会议并讲话。省委第一巡回指导组组长刘志伟到会指导并作点评讲话，指导组成员到会指导。市人大常委会党组、市政协党组主要负责同志列席。', '同日 2023东北亚（沈阳）文化旅游创意博览会开幕。副省长郭彩云宣布大会开幕，市委副书记、市长吕志成致辞，澳大利亚驻沈阳总领馆代总领事美迪娜出席活动。', '同日 市政府党组召开学习贯彻习近平新时代中国特色社会主义思想主题教育专题民主生活会。市委副书记、市长吕志成主持会议并作总结讲话。', '8月26日 省委常委、市委书记王新伟，市委副书记、市长吕志成与深圳市女企业家协会会长、深圳市中意集团有限公司董事长赵心竹带领的女企业家代表进行会谈。', '同日 省委常委、市委书记王新伟主持召开市委常委会会议，深入研究分析经济形势，对做好经济工作进行部署安排。', '同日 由沈阳市人民政府新闻办公室主办，中央广播电视总台国际在线承办的“Hello，沈阳——2023‘一带一路 一路有你’海外新闻官沈阳行”活动启动。', '8月27日 市委副书记、市长吕志成主持召开市政府第二十一届三次全体（扩大）会议，深入学习贯彻习近平总书记关于当前经济形势和经济工作的重要讲话精神，认真落实国务院第二次全体会议精神和省政府第二次全体会议精神，按照省委、省政府和市委工作要求，对做好当前经济工作进行再部署再推进。', '同日 沈阳航空产业专场推介会在上海举办，签约航空产业项目14个，投资额达25亿元。', '8月27日—28日 省委常委、市委书记王新伟带队在京走访部分企业和科研机构，与京东集团首席执行官许冉，中国工程院院士、国家智能网联汽车创新中心首席科学家李克强，蘑菇车联信息科技有限公司首席执行官朱磊等进行会谈，共商合作事项，对接重点项目。', '8月28日 辽宁省与中央金融机构战略合作协议签约暨银企对接会在北京举行。省委书记、省人大常委会主任郝鹏出席会议并讲话，省委副书记、省长李乐成致辞。国家金融监督管理总局党委委员、副局长曹宇，中国证监会党委委员、副主席王建军，中国人民银行有关负责同志，17家中央金融机构主要负责同志出席会议。省委常委、市委书记王新伟出席。', '同日 市人大常委会党组召开学习贯彻习近平新时代中国特色社会主义思想主题教育专题民主生活会。市人大常委会主任范继英主持会议并作总结讲话。', '同日 市政协党组召开学习贯彻习近平新时代中国特色社会主义思想主题教育专题民主生活会。市政协主席于学利主持会议并作总结讲话。', '8月29日 省委副书记、省长李乐成到沈阳市浑南科技城专题调研重大项目建设情况。市委副书记、市长吕志成参加调研。', '8月29日—31日 省委常委、市委书记王新伟随辽宁省党政代表团赴新疆考察调研。其间，王新伟率沈阳市党政代表团到塔城市学习考察，深入学习贯彻党的二十大精神，贯彻落实习近平总书记关于新疆工作和对口支援工作的系列重要指示精神，认真落实新时代党的治疆方略，按照辽宁省·新疆维吾尔自治区及新疆生产建设兵团对口支援工作座谈会部署要求，推动沈阳市对口支援塔城市各项工作做深做细做实，为在中国式现代化进程中更好建设美丽新疆贡献沈阳力量。', '8月30日 2023中国石英新材料产业大会暨中德园芯片装备及新材料产业基地项目启动仪式举行。全国各地石英新材料行业专家、企业齐聚中德（沈阳）高端装备制造产业园，分享前沿科技成果，共谋产业发展大计。市委副书记、市长吕志成出席并致辞。', '同日 市政协以“加强湿地保护和修复，优化生态环境”为议题召开双月协商会。市政协主席于学利出席会议并讲话。', '8月31日 由辽宁省政府、中国工业经济联合会主办的2023中国工业高质量发展论坛在沈阳举行。论坛深入贯彻党的二十大精神和习近平总书记关于推进新型工业化的重要论述，共谋工业高质量发展之路，共商辽宁振兴发展大计。省委副书记、省长李乐成致辞，中国工业经济联合会会长李毅中讲话，中国工业经济学会会长江小涓作主旨演讲。市委副书记、市长吕志成出席。', '同日 烯材高性能石墨烯薄膜产业化基地试生产启动仪式在沈阳浑南科技城举行。市委副书记、市长吕志成，诺贝尔奖获得者、新加坡国立大学教授康斯坦丁·诺沃肖洛夫，中国科学院院士成会明出席活动并致辞。启动仪式前，吕志成会见康斯坦丁·诺沃肖洛夫一行，并参观项目现场。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>34</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>年沈阳市人民代表大会常务委员会工作报告</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2017-01-19</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/qtzfxx/gzbg/bmgzbg/202201/t20220122_2623420.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['过去一年，常委会在中共沈阳市委的领导下，全面贯彻党的十八大、十八届三中、四中、五中、六中全会和习近平总书记系列重要讲话精神，认真落实市委决策部署和市十五届人大四次会议决议，紧扣全市振兴发展主题，认真履行法定职权，扎实开展各项工作，与全体人大代表一起，为推动老工业基地新一轮振兴发展作出了积极贡献。', '一年来，常委会自觉接受市委对立法工作的领导，坚持针对问题立法、突出地方特色、注重管用有效的工作思路，扎实推进地方立法工作，制定和修正了3件地方性法规，对2项法规草案进行了审议，努力实现法律效果、社会效果和政治效果的统一。', '制定《沈阳市农田水利设施条例》，推动解决制约农业和农村经济发展的关键问题。农田水利设施的建设管理，事关农业和农村经济的可持续发展。常委会在近年来对我市农田水利设施建设管理进行连续监督推进的基础上，针对农田水利设施的建设管理现状，在条例制定中，从规划与建设、运行与维护、保障与扶持等方面都作出明确规定，特别是把解决“建、管、用”脱节作为制度设计的重点，确定了运行维护主体，细化了管理维护职责，完善了经费保障机制，对危害农田水利设施行为也明确了处罚规定，为我市农田水利事业发展创造了有力的法制条件。', '制定《沈阳市劳动争议调解条例》，为构建和谐稳定劳动关系提供法规支持。劳动争议调解是预防和解决劳动争议的“第一道防线”。随着经济社会的快速发展，劳动制度发生了重大变化，劳动争议数量也呈现不断上升趋势，亟需通过地方立法来加强劳动争议调解工作。常委会针对我市劳动争议调解工作中的突出问题，在条例中分别就调解的含义与原则、调解组织、调解程序、调解协议等内容作出了明确规范，对防止矛盾激化、维护社会和谐稳定将发挥重要作用。', '审议《沈阳市轨道交通管理条例(草案)》，促进完善中心城市服务功能。发展城市轨道交通，是构建体现公交优先原则的公共交通体系、提高城市集聚辐射功能和承载力、建设区域中心城市的必然选择。为适应我市轨道交通事业快速发展的需要，充分发挥法治在行业发展中的引领保障作用，将轨道交通管理纳入法治化轨道，常委会在连续两年调研的基础上，本着“条件成熟、急需为先”的原则，适时启动了制定工作，去年对条例草案进行了一审，力求从管理体制、规划建设、运营管理、安全保障等方面作出明确规定，以推动我市轨道交通事业持续健康发展。', '审议《沈阳市制定地方性法规条例(修订草案)》，为依法推进全市地方立法工作提供制度保障。按照新修改的立法法，对我市现行制定地方性法规条例进行了相应修改和充实，并结合多年来的地方立法实践，将行之有效的经验做法纳入条例，通过条例的修改完善，进一步规范我市地方立法活动，依法保障立法权的正确行使。条例修订草案已经本届常委会第36次会议审议，将提交本次大会审议表决。', '修正《沈阳市城市市容和环境卫生管理条例》，积极适应城市管理的现行需要。常委会对本条例中不适应现行管理体制、涉及行政审批事项、与上位法相抵触的部分条款进行了修正，保证了条例的适用可行。此外，对现行有效的55部地方性法规进行了清理，就科技进步、物业管理、社会保险费征缴、安全生产、大气污染防治等10件需要修改完善的法规提出了清理意见，以确保地方性法规与我市改革发展进程相适应。', '不断完善立法工作方法和机制，努力提高科学立法、民主立法的水平。常委会注重发挥人大的立法主导作用，始终把提高立法质量贯穿于立法工作全过程，加强立法的组织协调，提前介入法规调研、论证和起草工作。积极探索立法工作创新，在对物业管理条例进行立法后评估的同时，首次委托第三方评估机构对农田水利设施条例开展了立法前评估，并邀请专家进行立法专题培训，确保立法质量；改进法规草案公开征求意见制度，制定了地方法规草案公开征求意见和意见采纳反馈办法，拓展了公民表达立法诉求的途径；健全了代表参与地方立法、征询区县(市)人大立法意见以及建立基层立法联系点的机制，重视发挥立法顾问单位、立法顾问、专家学者的作用，使立法充分体现全市人民的共同意志。', '一年来，常委会按照服务振兴发展、关注民生改善、注重监督实效的要求，综合运用听取报告、执法检查、视察调研、专题询问、预决算审查等多种形式，不断增强对“一府两院”的监督支持力度。', '围绕全市工作中心加强监督，推动和保障市委重大决策部署的落实。为推动全市经济持续健康发展，组织开展了经济运行情况专题调研，听取审议上半年国民经济和计划执行情况报告，积极提出意见建议，支持和促进政府有效化解经济下行压力，确保稳增长、调结构、促改革、惠民生的全面落实。为推动我市全面创新改革试验区、中德高端装备制造产业园等重大战略任务的加速实施，多次组织开展专项调研视察，听取相关情况报告，支持全面创新改革试验先行先试，加快形成可复制可推广的经验。为着力发挥科技创新对转变经济发展方式的引领作用，听取了科技创新工作情况汇报，推动创新驱动发展战略的实施。为推动我市扩大对外开放，听取了外经贸工作情况汇报，支持政府有效应对外贸进出口和利用外资所面临的严峻形势，深化与“一带一路”沿线国家和地区的贸易合作，推进企业“走出去”战略的实施。', '围绕预算编制和执行加强监督，确保公共财政健康平稳运行。深化对政府全口径预算编制审查工作，组建预算审查咨询专家委员会对预算草案进行了初审，对市城管局、民政局的部门预算草案进行了专题审议，各专委会提前介入对口业务部门的预算编制，为代表更好履行预算审查职责提供保障。在对决算和预算执行的监督中，针对所存在的突出问题，重点强调规范财政转移支付行为，优化财政支出结构，增强预算执行效率，尤其是重视解决财政结余结转资金规模过大的问题，常委会为此进行了跟踪问效，听取了市本级统筹盘活存量资金情况的专题汇报，促进政府相关部门严控财政结转、结存资金的规模，创新专项资金管理模式，用好用足财政专项，努力提升财政运行效益。进一步完善审议方式，首次由审计部门负责人向常委会做审计整改落实情况报告，推动审计工作报告反映出的问题认真整改落实。对我市振兴发展基金等政府投资基金运行情况开展调研，以促进政府投资基金更好发挥对社会投资的引导拉动作用。', '围绕保障和改善民生加强监督，推动基本公共服务水平不断提升。为推进城乡结合部地区老旧住宅的“三网”配套改造，常委会从认真办理和落实议案入手，多次视察和听取改造进展情况，督促政府在已取得惠及7.43万户居民的阶段性成果基础上，确保尽快全面完成二环内的“三网”改造任务，使更多百姓喝到干净水、用上安全气、享有温暖房。为推动社会化养老服务体系建设，常委会不仅认真督办相关议案，多次视察调研并听取专项报告，并且针对养老服务体系建设中的突出问题，围绕“居家养老服务”开展专题询问，支持政府有效应对人口老龄化的挑战。着眼于有效缓解“看病难、看病贵”的问题，将区域医疗联合体建设纳入监督视野，促进优质医疗资源向基层下沉，提升医疗服务均等化水平；对中医药事业发展持续推进，促进相关扶持政策落实到位。关注百姓出行条件改善，专题听取优先发展城市公共交通相关情况的汇报，建议加快公交场站、港湾站建设和老旧车辆更新，补齐公共交通的发展短板，推进“公交优先”战略的有效实施。关注我市构建和谐劳动关系问题，听取了市总工会相关情况通报，对全市和谐劳动关系建设工作依法给予积极支持。', '围绕环境保护加强监督，推动生态文明建设。积极回应代表和群众对资源环境保护的关切，连续三年将解决我市城乡垃圾减量化、无害化、资源化处理问题列为重要监督议题，综合运用多种监督形式加以推进，去年在开展集中视察、联合调研、听取专项报告对此项工作跟踪问效的同时，又开展了专题询问，促进解决我市垃圾“三化”处理中面临的困难和问题，重点加快三个垃圾焚烧场的建设进程。对污水污泥处理及综合利用情况进行深入调研视察，就尽快有效处理祝家镇150万吨积存污泥提出建议，推动政府将解决这一事关环境与安全的重大问题列入日程。开展了以“大力推进生态文明，努力建设美丽沈阳”为主题的环保世纪行宣传活动，对环境资源方面法律法规进行了集中宣传。', '围绕解决“三农”问题加强监督，推动农业与农村经济加快发展。继本届人大二次会议以来对我市农田水利基础设施建设工作实施连续监督，去年又以此为切入点，督促政府将农田水利设施建设作为强农惠农的重要举措加以落实，全市农田排涝设施已达到十年一遇标准，农田水利设施建设管理的长效机制已经形成，监督实效充分显现。关注村容村貌改善，组织县区人大常委会主任考察学习盘锦市经验，大力推动宜居乡村建设。关注农业结构调整，对农村电商、互联网+农业、都市休闲农业等进行了视察。关注扶贫开发工作，对“一区一市两县”相关情况进行专题视察调研并听取了专项汇报，推动相关决策部署和政策举措切实落地。', '围绕文化遗产保护与利用加强监督，推动历史文化名城建设。常委会首次对我市文化遗产保护与利用工作开展专项监督，听取专项工作报告，针对文化遗产保护与利用工作中的突出问题，就重视规划引领、保证相关法律法规实施、提升管理保护能力、科学利用遗产资源、实现与旅游业的融合发展以及皇城地区改造提升等提出审议意见，以促进提升我市的文化软实力。', '围绕法律法规实施加强监督，推动依法治市进程。常委会为依法推动全民健身和健康城市建设，对省全民健身条例、市公共体育设施条例的贯彻实施情况开展了执法检查，听取审议了执法检查工作报告，针对影响我市全民健身的主要问题和薄弱环节，就提升全民健身的环境、场地与设施建设水平、加大群众性体育资源有效供给、加强科学健身指导等方面提出意见建议，特别是针对公共财政投入和使用绩效问题，强调要提高体彩公益金用于全民健身的比例，以满足人民群众日益增长的健身需求。就监狱法、禁毒法和市残疾人保障条例开展了调研视察，促进相关法律法规的贯彻实施。', '围绕依法行政、公正司法加强监督，努力维护社会公平正义。通过听取审议我市法治政府建设工作报告，督促政府进一步规范行政权力运行，深化诚信建设，努力提升政府公信力。关注市法院贯彻执行民事诉讼法案件审理期限规定情况，不断完善民事案件审限管理机制。关注市检察院开展民事行政检察监督工作情况，促其加大相关工作力度。支持公安机关加强受案立案工作，不断提高规范执法水平。积极开展备案审查工作，对10件政府规章进行了备案审查。认真做好受理公民、法人和其他组织的申诉、控告、检举和意见工作，共受理申控事项1306件，推动解决群众的合法利益诉求。', '围绕监督制度建设，着力构建人大监督工作的制度体系。制定了常委会专题询问、审议意见督办、市政府工作部门主要负责人向常委会报告履职情况等三个实施办法，使人大监督工作的制度体系更加健全完善，尤其是常委会积极推进对政府投资项目审查监督的探索实践，制定出台了关于政府投资项目监督工作若干意见，在加强和深化人大专项监督工作上取得了新的突破。', '一年来，常委会围绕保障和促进全市重大决策部署的有效落实，将重大事项决定权与监督权有机结合，围绕计划执行、预算监督、政府性债务、创新改革、旅游业发展、养老体系建设、文化遗产保护、法治政府建设等社会关注、群众关切的重大事项，适时作出了批准决议或提出审议意见。', '建立地方政府债务定期报告和限额审批制度，确保政府举债依法合规。先后听取审议了2015年和2016年地方政府债务限额的议案，分别作出了批准议案的决议，并专题听取审议了我市政府性债务情况的报告，促进政府确保债务规模合理、风险可控、使用规范。审议通过旅游发展总体规划，助推旅游强市建设。常委会对大力培育和发展旅游产业高度关注，对我市旅游产业发展状况进行了深入调研，听取审议了旅游发展总体规划编制情况报告，首次以表决通过的方式赋予和强化了旅游发展总体规划的法定地位，为充分发挥规划的总揽引领作用，保证规划实施的严肃性、权威性和连续性创造了有利条件。', '广泛汇聚代表智慧，为审议批准战略规划奠定基础。制定沈阳振兴发展战略规划是引领老工业基地未来发展的重大举措。常委会充分发挥人大密切联系代表和人民群众的优势，通过召开座谈会、深入走访等形式，认真听取代表意见，并将征求代表和群众意见的过程变成不断凝聚共识的过程，不仅为本次会议批准规划创造条件，也为战略规划的实施夯实民意基础。', '审议通过“七五”法治宣传教育决议，全面推进法治沈阳建设。决议强调围绕实施沈阳振兴发展战略规划和打造国际化营商环境，不断深化法治宣传教育，从突出宪法为核心的法律体系学习宣传、引领全社会法治素养提升、推进法治文化建设、增强法治宣传活力、提升法治社会建设水平、健全法治宣传教育格局、保障决议和规划实施等七个方面提出了要求。', '作出召开十五届人大五次会议的决定，圆满完成了预定任务。认真贯彻中央关于查处辽宁拉票贿选案和习近平总书记重要讲话及指示批示精神，按照省委的统一要求，作出召开市十五届人民代表大会第五次会议的决定，并按照中央和省、市委关于选举工作的各项要求，精心组织筹备，依法有序实施，顺利完成73名省人大代表的补选任务。', '坚持党管干部和人大依法任免相统一，认真行使人事任免权。在去年相继加开了5次常委会会议而且人事任免事项又较多的情况下，全体组成人员站在讲政治、讲大局的高度，自觉与市委保持一致，充分体现组织意图，圆满完成了各项任免任务，保证了任免权的正确有效行使，全年共任免国家机关工作人员126人次，保证地方国家机关正常运转和各项工作顺利进行。', '加强了代表议案建议督办工作。在议案办理上，常委会将本届人大四次会议确定的两项议案以及跨年度办理的议案，全部列为重要监督议题，适时组织调研视察、听取审议相关报告、开展专题询问，持续推动议案落实，取得了明显成效。在代表建议督办上，常委会不断改进建议督办方式，通过开展满意度测评，主任会议组成人员对25件代表建议进行重点督办等系列举措，强化建议落实工作，尤其是为解决代表“被满意”现象，制定了建议办理的意见反馈办法，确定由代表直接向代表工委反馈办理意见，使建议办理答复更加客观真实。目前761件代表建议已全部办结，代表所提问题得到解决或基本解决的624件，占82%，建议办理成效有了新的提高。', '积极为代表依法履职创造条件。通过市代表培训中心、全国人大培训基地等平台，对1400余人次代表和80余名代表组长进行了履职学习培训，各专委会分别组织代表开展了专业培训。充分尊重代表知情知政权，及时向代表通报市情政情和社情。加强对代表履职情况考核，落实代表履职写实制度，组织开展代表向原选举单位述职工作，促进代表自觉接受原选举单位和选民监督。对先进代表小组、履职优秀代表以及优秀议案建议进行了评选表彰，利用多种媒体对代表履职事迹进行宣传，激励和引导代表积极履职。', '不断丰富代表闭会期间活动。围绕全市经济社会发展重点、改革难点、群众关注热点，认真开展“三深入”活动，组织600余名省市人大代表深入基层了解社情民意、开展专题调研,代表活动与常委会重点监督工作紧密结合，视察调研与监督实效同步增强。代表对常委会工作的参与度进一步提升，全年共有60名代表列席常委会会议和分组审议，900多人次各级代表参加了常委会各项履职活动，代表履职风采得到了充分展现。', '坚持人大工作正确的政治方向。常委会坚持和完善理论中心组学习制度，认真学习贯彻党的十八届六中全会、习近平总书记系列重要讲话和市党代会精神，努力强化政治意识、大局意识、核心意识和看齐意识。认真开展辽宁拉票贿选案警示教育，使人大代表、组成人员和机关干部以案为鉴，筑牢防线，达到了受警醒、明底线、知敬畏的效果。自觉接受党的领导，坚持重大事项向市委请示报告制度，保证人大工作始终沿着正确轨道向前推进。', '扎实开展“两学一做”学习教育。把学习习近平总书记系列重要讲话精神作为学习教育的关键，组织学习党章党规，增强尊崇维护党章、严守党规党纪的思想自觉和行动自觉。注重发挥常委会党组核心作用，制定了党组工作规则、党风廉政建设主体责任工作计划，认真履行全面从严治党主体责任，保障常委会依法履行职权。认真做好中央巡视组“回头看”反馈意见的整改落实，以不回避、不遮掩，敢于负责、敢于担当的态度，严肃执纪整改。', '着力推进履职能力建设。为保证常委会的会议质量和监督成效，坚持会前深入调研，会后跟踪监督，已经成为人大工作常态。每项监督项目的确立、每次重要审议之前，都进行有针对性的调研、形成详实具体的报告、提供参阅资料、进行讲座辅导，对提升审议水平、增强监督实效发挥了重要作用。增强了常委会工作的透明度，全年共邀请了60名公民旁听会议。注重加强机关建设，持续改进作风，树立正确选人用人导向，建设忠诚干净担当的人大干部队伍，使人大机关始终保持了奋发有为、团结向上、风清气正的良好风貌。', '加强了与区县(市)人大的联系，召开了市与区县(市)人大常委会主任座谈会，坚持重点监督工作协调联动，指导推动基层人大组织机构与制度建设，支持乡镇人大主席团和街道人大工委依法行使职权，提高全市人大工作整体水平。配合全国和省人大开展相关执法检查、专题调研和视察。配合国家总体外交和地方发展需要，开展了与国外地方议会和友好城市的交往。', '各位代表：在总结成绩的同时，我们也清醒地看到，常委会工作还存在一些差距和不足，主要是：发挥人大立法主导作用在有的环节上做得还不够；对有些审议意见的跟踪落实还不到位；议案建议督办工作还需不断改进；对人大代表的监督管理仍需强化，特别是辽宁拉票贿选案涉及我市的省人大代表人数众多，给人大工作和形象带来极大伤害，反映出我们缺乏敏锐的政治警觉和政治鉴别力，教训极为沉痛。对这些问题，我们要在今后工作中认真加以改进和解决。', '今年是深入贯彻落实市第十三次党代会精神的第一年，也是全面实施沈阳振兴发展战略规划的开局之年。常委会工作总体思路是：全面贯彻党的十八大和十八届三中、四中、五中、六中全会精神，深入学习贯彻习近平总书记系列重要讲话精神，认真落实市党代会和市委全会决策部署，坚持党的领导、人民当家作主和依法治国的有机统一，充分发挥人民代表大会的制度优势，紧密围绕打造国际化营商环境，促进产业转型、城市转型、社会转型，依法履行职权，全力助推稳增长、促改革、调结构、惠民生、防风险等重点工作，为加快沈阳老工业基地振兴发展提供强有力的民主法治保障。', '——加强改进立法工作，努力在营造有利于振兴发展的法制环境上取得新突破。认真贯彻中央《关于加强党领导立法工作的意见》，坚持重大立法问题向市委请示报告以及立法规划、年度计划、法规草案报市委批准制度，增强接受党对立法工作领导的自觉性。围绕“法治沈阳”建设、全面创新改革和打造国际化营商环境的需求，有效推进地方立法工作，确保地方法规立得住、行得通、真管用。要在充分借鉴国内外轨道交通建设管理成功经验的基础上，继续做好《沈阳市轨道交通管理条例》的制定工作。围绕科技进步、大气污染防治、物业管理、安全生产、居家养老等地方性法规的制定修改，深入调研论证。针对城乡建设管理、环境保护、民生保障，开展重点领域的立法需求调研，为编制五年立法规划创造条件。坚持科学立法、民主立法，发挥人大立法主导作用，扩大公民有序参与立法途径，提高立法的精细化水平。', '——突出监督工作重点，努力在服务保障全市工作大局上取得新成效。围绕落实市党代会和市委全会的决策部署，确定监督工作重点，安排监督议题，组织开展调研、视察和检查。对全面创新改革试验、自主创新示范区、自由贸易试验区、中德产业园以及综合保税区建设持续监督推进；对深化国企改革、打造先进装备制造业基地、加强科技成果转化、建设社会信用体系、改善外商投资环境、实施旅游总体规划，改造皇城区域等要持续给予关注和支持；围绕推进农业供给侧结构性改革，将农村三次产业融合发展、土地“三权”分置工作纳入监督视野，继续推进培育发展农民专业合作社、家庭农场等新型农业经营主体和宜居乡村建设。深化对计划和预决算执行的审查监督，在依法听取计划、预算、审计等专项报告的同时，做好本年度政府投资项目计划安排、大额专项资金使用、政府性债务的审查监督以及审计查出问题的监督，批准2017年地方政府债务限额。加强民生和环境保护工作的监督，对和谐社区建设、城市公共交通、“三网”改造、居家养老服务体系建设、垃圾焚烧场建设、祝家镇积存污泥处理等事关民生、事关城市可持续发展的重要事项，加强跟踪推进；继续关注普通高中教育发展、体育产业发展以及民族工作，促进社会和谐，增进民生福祉。加强对执法、司法工作的监督，推动“一府两院”依法行政、公正司法，支持和促进法院解决“执行难”中的规避执行、抗拒执行等失信问题，支持检察机关规范刑事执行检察工作，督促公安机关加强禁毒工作。继续做好规范性文件备案审查工作，做好受理公民、法人和其他组织的申诉、控告、检举和意见工作。', '——认真行使重大事项决定权，努力在依法保证市委重大决策部署落实上实现新作为。继续坚持讨论决定重大事项与强化监督有机结合，围绕全市振兴发展、创新改革的重大事项和重点监督工作，适时作出决议决定，提出审议意见，及时将市委的重要主张转变为全市人民的共同意志，为实施振兴发展战略规划统一意志、凝聚力量。坚持党管干部和依法任免干部相统一，依法做好人事任免工作，保证市委推荐的人选顺利通过法定程序成为国家政权机关的领导人员。', '——充分发挥代表主体作用，努力在深化拓展代表工作上取得新进展。以充分发挥人大代表在打造国际化营商环境和“幸福沈阳共同缔造”行动中的重要作用为主题，开展代表“三深入”活动，将全市人民的力量和智慧凝聚到落实沈阳振兴发展战略规划上来。着眼提高政治素质和履职能力，强化代表履职培训，尤其在新代表初任培训中要开展好警示教育，使代表在履行职务中坚持正确的政治方向。加强代表小组活动的组织指导，完善代表履职管理，制定和完善代表履职考评办法。提高代表议案建议办理工作效率和质量，推进代表建议满意度测评工作，对本届以来代表议案建议办理和落实情况做好“回头看”，努力把代表议案建议办理得更好、更到位。', '——进一步加强常委会自身建设，努力在提升履职能力水平上展现新变化。认真贯彻党的十八届六中全会精神和全面从严治党的各项要求，推进思想政治、纪律作风和党风廉政建设的常态化、长效化，以加强党的建设带动机关自身建设。坚持人大工作正确的政治方向，找准人大在推进全面创新改革和振兴发展中的切入点，把履职能力建设摆在更加突出位置，加强对常委会组成人员和机关干部的培训教育，提高依法履职的能力水平。加强机关队伍建设，着力打造政治坚定、作风过硬、业务精通、廉洁自律的人大工作队伍，为人大工作的发展注入活力。加强信息化背景下的人大宣传工作，重视利用新媒体拓展宣传平台和载体。深刻吸取辽宁拉票贿选案的沉痛教训，依法做好市人大换届选举工作，加强对区县(市)和乡、镇人大换届选举工作的指导检查，保证换届选举依法有序进行。密切与区县(市)人大联系，保持在重要监督工作上的协调联动。开展与国外友城、地方议会的友好交往，更好地服务于全市对外开放工作的大局。', '各位代表：市第十三次党代会对沈阳改革发展作出了新的重大部署，本次代表大会也将审议批准沈阳振兴发展战略规划。新一轮振兴发展的宏伟蓝图在激励着我们，全面推进依法治市的责任使命在召唤着我们。让我们紧密团结在以习近平同志为核心的党中央周围，在市委的正确领导下，以恪尽职守来诠释履职的责任，以奋发有为来回应人民的期待，以积极担当来抓好工作的落实，为推进我市社会主义民主法治建设，加快实现沈阳老工业基地全面振兴作出新的更大贡献！']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>34</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>沈阳市人民代表大会常务委员会年工作报告</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2012-08-17</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/qtzfxx/gzbg/bmgzbg/202201/t20220122_2620028.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['2008年是市第十四届人大及其常委会任期的第一年。市人大常委会在中共沈阳市委的正确领导下，坚持以邓小平理论和“三个代表”重要思想为指导，深入贯彻落实科学发展观，紧密围绕全市振兴发展大局，认真履行宪法和法律赋予的职责，以奋发有为的精神状态、求真务实的工作作风，推动人大各项工作的创新发展，实现了新一届人大及其常委会工作的良好开局。', '加强地方立法是实现振兴发展和构建和谐社会的重要保证。常委会根据我市经济社会发展的需要，认真总结立法工作实践，从发挥地方立法的规范、引导和保障作用出发，扎实推进地方立法工作，召开了全市立法工作会议，明确提出今后五年立法工作的指导思想、工作原则和主要任务，进一步确立了注重管用有效、突出地方特色的立法理念，为做好地方立法工作奠定了基础。', '在立法工作中，常委会围绕提高立法质量，不断推进科学立法和民主立法。坚持按条件成熟、急需为先的原则选择立法项目，积极探索了法规草案联合起草、委托起草等方式，对法规草案审议，坚持常委会审议和专门委员会审议相结合，提高了审议质量和水平。在加强民主立法上，通过公开征集立法项目、公布法规草案、聘任立法顾问、组织立法座谈和专家论证等措施，广泛听取各方面意见，使立法更加符合客观实际和人民意愿。', '一年来，共完成地方立法项目5件，其中制定2件、修改1件、废止2件。为推进节能减排，制定了《沈阳市危险废物污染环境防治条例》、《沈阳市民用建筑节能条例》，确定了防治危险废物污染的执法主体、措施和责任，对新建建筑节能、既有建筑节能改造等方面作出明确规定。为推进创新型城市建设，对《沈阳市科学技术进步条例》做了修订。对地方法规进行了清理，废止了《沈阳市村庄和集镇规划建设管理条例》、《沈阳市产品质量违法行为处罚条例》，体现地方立法的与时俱进，维护了法制统一。', '常委会认真贯彻实施监督法，坚持在监督中体现支持、在支持中实现监督，不断完善监督机制，改进监督方式，使人大监督工作更有深度、更富实效。', '第一，加强了计划和预算执行情况的监督。听取审议了市政府2008年上半年计划和预算执行、2007年决算和审计工作报告以及“十一五”规划实施中期评估报告。在计划执行监督中，从健全规划实施机制、抓好工业重大项目建设、加快县域经济发展等8个方面提出了意见建议。针对预算执行中的问题，提出了加强财源建设、确保重点支出、严格预算执行、完善预算编制、防范政府债务风险等方面的审议意见，促进政府提高依法理财水平。针对预算执行情况审计中发现的问题，提出了制定完善相关规章制度、认真查处违规违纪行为等5项整改意见，市政府认真采取措施加以整改，并向常委会作出了整改情况的报告。', '第二，加强了对法律法规实施情况的监督。对我市劳动合同法的贯彻实施情况进行了执法检查，听取了执法专项工作报告，就强化劳动合同管理、规范劳务派遣行为、加强劳动监察力量、完善相关配套法规等方面提出了改进意见，推动了劳动合同法的深入贯彻实施。在执法检查过程中，采取了事先学习相关法律、市区人大联动、邀请代表全程参与和随机抽检等方式方法，增强了执法检查实效。围绕推动教育优先发展战略的落实、发挥侨界在经济建设中的优势和作用，听取审议了我市贯彻实施义务教育法、归侨侨眷权益保护法情况的报告。为推进档案法的贯彻实施，对我市档案工作进行了视察。配合全国和省人大常委会对农产品质量安全法、未成年人保护法、妇女权益保障法在我市的贯彻实施情况进行了检查。开展了规范性文件备案审查工作，对政府提报的10件规章、区县（市）人大报送的19件决议决定，进行了备案审查。', '第三，加强了对经济社会发展重点工作的监督。为推进生态市建设，常委会将水环境污染治理列为监督工作的重要内容，听取审议了我市污染减排专项工作报告，倡导发起了辽宁中部七城市人大常委会依法推进辽河流域水污染治理的协调行动，以“协同治理水污染，联手保护母亲河”为主题，以“依法监督、整体推进、协调联动、合作共赢”为原则，对上下游城市人大联手推进流域水污染治理做了积极探索，同时也促进了七城市人大之间的相互学习和交流，得到了全国人大、国家环保部的充分肯定和社会各界的积极评价。常委会结合“协调行动”的实施，组织了对淮河流域城市治污经验的学习考察，对我市水污染治理工作进行了视察，并多次组织专题工作研究，针对实施城市排水雨污分流、污水处理厂建设与运营管理、保证资金投入、加大对污染严重企业的关停整治力度、建立健全监管体系等方面，提出具体意见建议，推动了市政府加快水污染治理工作进程。', '常委会高度重视并积极推进“三农”问题的解决，听取审议了我市加强农业基础建设，促进农业发展和农民增收，推动新农村建设情况的报告，主任会议听取了我市农业农村工作安排以及推进农业产业化、加快现代农业发展等方面的情况汇报，提出了培育龙头企业、发展高效特色农业、建立完善农民专业合作组织、加大农业投入等方面的意见建议。对农产品质量安全、防汛等工作进行了视察，适时对春耕生产情况进行专项调研，督促政府采取措施解决农民余粮销售难等问题，保证了春耕生产顺利进行。', '对我市举办奥足赛这一重大任务，常委会给予了高度关注和积极推动，听取了我市奥运安保、奥足赛筹备工作情况的报告，开展了视察和专项工作检查，推进了平安奥运各项措施的落实。', '第四，加强了对人民群众普遍关注的民生问题监督。围绕就业、住房、医疗、老龄事业等民生问题，常委会开展了一系列的视察、检查和调研，听取审议了我市就业促进等专项工作报告，对重点民生工程实施了连续跟踪监督，使城市低收入家庭住房困难、医疗卫生服务体系建设等一些事关群众切身利益的民生问题得到逐步解决。物价波动一度成为群众关注的焦点，主任会议及时听取了全市物价工作情况的汇报，督促政府加强市场监管，维护市场物价稳定。', '第五，加强和改进了司法工作监督。主任会议听取了行政审判工作、侦查监督工作情况的汇报，就加强司法队伍建设、规范侦查监督程序、提高行政审判质量等方面提出了具体建议，支持和推动“两院”改进工作，提高公正司法水平。常委会领导深入司法机关进行调研，推进了涉诉涉法案件办理。组织代表对重点民事抗诉案件开展旁听庭审，监督和推动司法机关进一步规范庭审工作，促进程序公正、实体公正和形象公正。', '常委会重视加强信访工作，将受理来信来访作为密切联系人民群众、做好监督工作的重要渠道，全年共接待群众来访4322人次，受理群众来信794件，督促“一府两院”依法按政策处理和解决了一批群众反映的重点问题。', '（三）坚持依法按程序办事，认真行使决定权和人事任免权，保证和促进全市重大决策的贯彻落实', '常委会依据宪法和地方组织法的规定，认真讨论决定重大事项，将全市经济社会发展的大事和人民群众关心、关注的重要问题，及时纳入常委会议题，全年共举行8次常委会会议，审议议题57项，分别提出了审议意见或作出了相应决议决定。为更好行使重大事项决定权，先后就四大发展空间建设、重大工业项目建设、沈阳经济区建设、防范政府债务风险、发展现代服务业等重大问题开展调查研究，形成专题调查报告，提出了相应对策建议。常委会高度关注国际金融危机对我市经济发展的影响，组织专门委员会利用半个多月时间，就积极应对危机挑战、保持经济平稳较快发展问题，进行了全面深入的调研，提出了要对工业增速趋缓的走势给予高度关注，千方百计保持工业的较快增长，切实增强工业对全市经济发展的支撑作用；要进一步活跃房地产市场，确保房地产投资规模，发挥房地产在全市经济增长中的引擎作用；要深化农村改革，抓好各项强农惠农政策措施的落实，提升县域经济对全市发展的贡献力等8个方面的对策建议，向市委做了全面汇报、向市政府进行了通报，为推进科学决策、民主决策、依法决策，促进全市经济社会发展发挥了积极作用。', '常委会正确把握党管干部与人大依法任免的关系，坚持党的领导、发扬民主和依法办事的有机统一，不断加强和改进人事任免工作。针对换届后人事任免工作量大的实际情况，通过多种形式落实常委会组成人员在干部任用上的知情权、参与权和监督权，严格按照人事任免规则和程序，积极稳妥地开展工作，顺利完成了各类人事任免事项。全年共依法任免了186名国家机关工作人员，为“一府两院”开展工作提供了组织保障。', '常委会认真贯彻中央9号文件精神，坚持把支持、规范和保证代表依法履职统一起来，积极为代表执行职务提供服务和保障。', '围绕发挥代表作用，加强了代表培训工作，通过多种形式对284名新当选的市人大代表进行了履职基础知识培训，对全体市人大代表进行了系统培训，对80多名省、市人大代表小组组长进行了专题培训。拓宽代表的知情悉政渠道，及时向代表通报有关重大事项，帮助代表了解常委会工作和全市大局。完善代表工作机制，组建了代表活动小组和专业代表小组，建立了四级代表联系网络，活跃了代表在闭会期间的活动，同时在媒体设立代表视窗、专访等多种形式宣传代表事迹，支持和激励代表依法履行职责。扩大代表对常委会各项活动的参与，全年共有80名代表列席常委会会议，组织500多人次全国、省和市人大代表参与常委会执法检查、工作视察和调研活动。代表们以对人民高度负责的精神，妥善处理本职工作与执行代表职务的关系，做了大量富有成效的工作，提出了许多高质量的意见建议，为推动我市各项事业发展作出了积极贡献。', '为加强代表议案、建议的督办力度，常委会对市十四届人大一次会议主席团交付的关于优先发展城市公共交通、加强历史文化名城保护和应对我市人口老龄化等三个方面14件议案，组织工作视察和专项检查，听取审议市政府和市法院关于议案办理情况的报告，并邀请议案领衔代表直接参与督办，使各件议案得到较好落实。对市十四届人大一次会议以来代表提出的756件建议、批评和意见，加强了督查督办，并建立了主任会议组成人员重点督办代表建议制度，认真解决代表建议反映比较集中的问题。经过各承办单位的共同努力，代表建议已经解决或基本解决465件，占61.5%；列入计划解决的233件，占30.8%；因受政策或客观条件所限暂不能解决、已向代表说明的58件，占7.7%，代表反映集中、群众普遍关注的一些重点工作和难点问题得到了推进和解决。', '常委会根据新形势、新任务的要求和换届后组成人员构成的变化，围绕提高机关干部队伍素质和能力，加强了思想、作风和制度建设。从打造学习型机关入手，大兴学习之风，认真学习贯彻党的十七大、十七届三中全会精神，增强了促进科学发展的大局意识、责任意识和使命意识。结合人大工作实际，先后邀请全国人大、国务院有关部委领导和专家学者就人大理论、监督法、立法法、劳动合同法及宏观经济形势作了5次专题辅导，使常委会组成人员、机关干部的理论和业务水平明显提高。', '坚持深入实际、深入群众，认真开展调查研究，形成了一批有价值的调研成果，对提高常委会的审议质量发挥了重要作用。加强了专门委员会和工作机构建设，健全了工作职责和议事规则，促进了常委会各项工作的规范化、程序化和制度化。通过办好市人大常委会公报、沈阳人大刊物，利用沈阳日报、电台、电视台等新闻媒体，加强对人大工作的宣传，增强常委会工作的透明度，为人大工作营造了良好的舆论氛围。', '加强了与区县（市）人大常委会工作联系，形成了协调联动的工作机制，先后3次召开市与区县（市）人大常委会主任座谈会，并对区县（市）人大常委会主任、乡镇人大主席进行了培训，各专门委员会也加强了对口联系和业务指导。市人大常委会的立法工作、执法检查、工作视察、代表活动等一些重要工作，两级人大常委会密切配合，共同推进。加强了与兄弟城市人大的工作联系和信息交流，为推动常委会工作提供了有益借鉴。开展与波兰、匈牙利、捷克、韩国、希腊、俄罗斯等外国友城议会的友好交往，宣传我国人民代表大会制度和沈阳改革发展成就，促进了友城之间的合作与交流。', '总结过去一年的工作，在充分肯定成绩的同时，我们也清醒看到，常委会工作与代表和人民群众的要求还有一定差距，监督工作的方式方法还需改进，在依法行使重大事项决定权方面还要加强探索，在加强与代表联系方面还要努力，常委会自身建设还要不断加强。对这些问题与不足，常委会将采取有效措施，认真加以解决。', '各位代表：市十四届人大一次会议确定的常委会工作任务已全面完成。常委会一年来所取得的工作成绩，是在市委的正确领导下，全体市人大代表、常委会组成人员、各专门委员会以及机关工作人员共同努力的结果，也离不开区县（市）人大及其常委会的大力支持，离不开市人民政府、市中级人民法院、市人民检察院的密切配合，离不开社会各界及新闻媒体的关心和支持。在此，我代表市人大常委会，向大家表示崇高的敬意和衷心的感谢！', '2009年是深入贯彻党的十七大精神的重要一年，也是我市面对严峻挑战，加快振兴发展的关键之年。市人大及其常委会在新形势和新任务面前，要以更加积极的态度，综合运用各项法定职能，全力推动经济社会又好又快发展；要更加关注民生，体恤民情，充分发挥人大在表达、调节、平衡社会利益方面的作用，为振兴发展凝聚民心；要更加重视社会主义民主法制建设，支持和监督“一府两院”依法行政、公正司法，促进社会和谐稳定；要更加重视发挥代表的作用，积极围绕战胜困难挑战、破解发展难题广纳民智；要更加重视推进和保证全市重大决策部署的贯彻落实，依照法定程序，将党的主张变为全市人民的共同行动。', '市人大常委会今年工作的指导思想是：以邓小平理论和“三个代表”重要思想为指导，以科学发展观为统领，认真贯彻党的十七大精神和市委十一届六次全会精神，全面落实市十四届人大二次会议的各项决议，紧紧围绕完成“五大任务”、实现“三大目标”，认真履行宪法和法律赋予的职责，坚持与时俱进，开拓创新，积极在保增长、促和谐中有所作为，努力把人大常委会各项工作提高到一个新的水平。', '从我市实现科学发展、和谐发展、率先发展的需要出发，坚持立、改、废并重，突出地方特色，注重立法质量，把全市立法工作提高到新的水平。将重点围绕改善民生问题，做好农产品安全、防御雷电灾害等方面的立法工作；围绕加强城市建设和管理问题，做好城乡规划、公用事业特许经营等方面的立法工作；围绕社会事业和文化建设问题，做好义务教育、专利和历史文化名城保护等方面的立法工作。继续做好现行地方法规的清理工作，使地方立法更加适应经济社会发展需要。', '要发挥人大在立法工作中的主导作用，认真落实年度立法计划，把握立法方向和重点，提前介入法规草案起草与论证，防止和克服部门利益倾向。要抓住立法选项、法规草案起草、审议等重要环节，积极采取有效工作举措，确保立法质量。要深化立法工作研究，探索完善法规草案起草的多元化模式，广开民主立法渠道，充分发挥各方面的立法积极性，不断提高科学立法和民主立法水平。要加强立法计划的组织实施和沟通协调，健全和完善有效的工作运行机制，保证地方立法工作的扎实推进。', '要准确把握人大监督的定位、职责和原则，在监督内容上突出保增长、促发展，保稳定、促和谐，努力在推动全局工作上发挥积极作用。', '围绕促进经济平稳较快发展，加强对经济工作的监督。要把推进保增长作为人大监督工作的首要任务，推动政府加快发展方式转变和经济结构调整，围绕推进解决“三农”问题、加快先进装备制造业三大聚集区建设和发展壮大高新技术产业等重点工作，开展调研和视察工作。听取审议国民经济和社会发展计划执行情况报告，加强对经济运行情况的研究分析，推动全市保增长、促发展的各项政策措施有效落实。认真审查和批准2008年财政决算，听取审议预算执行情况和审计工作报告。加强对2009年财政预算执行情况的审查监督，听取预算执行情况报告，依法做好对重大政府债务举借、预算超收收入使用、预算执行调整、非税收入管理的监督工作。尤其是在财政收支矛盾突出的情况下，要加强对预算刚性约束的监督，以确保法定和民生等重点支出。加强对国有资本经营预算和国有资产管理的监督以及对重点专项资金使用情况的监督，听取我市城市建设和支农资金的使用情况汇报，促进政府进一步提高依法理财水平。要加强对农业农村工作的监督，听取审议我市农村改革发展情况的专项报告，听取农产品质量安全、农业产业化发展等情况汇报，开展相关工作视察，推动强农惠农政策措施的落实。', '围绕中心城市建设，加强对城市建设管理以及污染整治工作的监督。针对金融发展环境、重点商贸街区建设、发展现代服务业等内容，适时进行视察调研活动，听取我市打造大沈阳旅游圈的情况汇报。要加强对城市规划管理工作的监督，督促政府维护规划制定的科学性和执行的严肃性，提高城市管理水平。要关注和推进城市重大项目建设，对地铁工程及地铁装备产业化进展情况进行调研和视察。要加强对生态环境建设的监督，适时安排对工业、交通、建筑三大领域重点节能工程、重大减排项目、重点污染治理工程建设情况的视察检查，听取审议市政府关于水污染治理工作情况的专项报告，保障和促进我市水环境的加快改善。要把环保世纪行活动与七城市人大的“协调行动”结合起来，不断将活动引向深入。支持司法机关积极探索设立环保法庭、开展公益诉讼，为我市资源环境保护工作提供司法保障。', '围绕推进依法行政和公正司法，加强对法律法规实施情况的检查监督。常委会将对水污染防治法和农民专业合作社法在我市的贯彻实施情况开展执法检查，听取审议我市加强社会治安管理，推进“平安沈阳”建设的专项报告，听取审议职业教育法、国务院和省宗教事务条例的贯彻实施情况报告。主任会议将听取我市贯彻实施人口与计划生育法、“两院”贯彻执行民事诉讼法的情况汇报。加强对审判工作的监督，继续组织开展代表旁听庭审活动。加强对社会稳定和金融生态环境的监督。认真做好人大信访工作和规范性文件备案审查工作。', '围绕改善民生，推进解决人民群众普遍关注的问题。要对就业、养老、医疗、食品药品安全、城市公交、城乡困难群体生活保障等民生问题给予关注。主任会议将听取我市养老事业发展和医疗保障体系建设、解决城市低收入家庭住房困难、新型农村合作医疗等工作情况汇报。根据人民群众对规范家政服务业的呼声，将适时听取我市家政服务业发展情况的汇报。要对政府已确定的6所医院等重点民生工程，加强跟踪监督，督促政府确保年内全面竣工。', '在市委的领导下，坚持依法抓大事、议大事和集体行使职权，认真审议和决定重大事项。针对事关全市经济社会发展、民主法制建设和人民群众切身利益等方面的重大事项，统筹安排常委会会议议题，及时进行审议并提出意见，必要时作出决议决定。要加强对依法行使重大事项决定权的研究探索，以范围界定、程序规范为重点，健全讨论决定重大事项的选项机制，完善落实重大事项决议决定的监督机制，不断推进此项工作的规范化、程序化和制度化。', '在人事任免工作中，要贯彻党管干部和民主集中制原则，坚持依法按程序审议和表决人事任免事项。修订完善人事任免制度和规则，不断推进人事任免工作的规范化、程序化。加强与“一府两院”的沟通衔接，保证任免工作协调一致。进一步落实常委会组成人员对干部任用的知情权、参与权和监督权，积极探索对依法任命人员进行执法监督和工作监督的有效形式，完善任后监督机制，提高人事任免工作质量和水平。', '人大工作的开展靠代表，人大工作的水平看代表。要深入贯彻落实中央9号文件精神，充分发挥代表作用，不断提高代表工作水平，努力增强代表工作实效。要进一步加强和规范代表在闭会期间的活动，制定有关制度和措施，明确代表活动的载体和方式，切实提高代表活动质量。坚持代表列席常委会会议和专门委员会会议制度，扩大代表对立法、监督、专题调研等各项工作的参与。不断改进信息工作，及时向代表通报市情、政情、社情，保障代表的知情权。围绕代表依法正确行使职权和提高代表议案、建议质量等课题，认真开展有关专题培训。建立健全代表依法履职的激励机制，引导代表自觉接受人民群众监督，增强代表依法履职的责任感。加强对代表小组活动的组织指导，坚持和完善代表接待制度，重视解决代表履职中遇到的困难和问题，为代表发挥作用创造有利条件。不断加强和改进代表议案、建议的办理和督办工作，努力提高办结率，让代表和人民群众满意。', '要把加强自身建设摆在重要位置，努力形成全面加强思想、组织、制度和作风建设的长效机制。要结合深入学习实践科学发展观活动，深化科学理论、法律法规、专业知识等方面的学习培训，不断提高贯彻实施科学发展观的自觉性和坚定性，增强依法履职本领。要拓宽与人大代表和人民群众的联系渠道，努力使人大工作更加贴近实际，更加符合代表意愿和人民群众要求。要不断创新工作机制，完善工作方法，规范工作程序，为常委会依法履职提供有效保证。要深入开展调查研究工作，深化人大理论研究活动，不断提高人大工作质量和水平。要继续加强与区县（市）人大常委会的工作联系，发挥市人大的指导、示范、引领和带动作用，协调一致推进全市人大工作。继续加强与兄弟城市人大的工作交流，开展与国外友城地方议会的友好交往。', '各位代表：沈阳的振兴发展正处于关键时期，保持经济持续快速增长的任务异常繁重艰巨。困难和挑战考验着我们，责任与使命激励着我们。让我们高举中国特色社会主义伟大旗帜，紧密团结在以胡锦涛同志为总书记的党中央周围，在中共沈阳市委的正确领导下，全面贯彻落实科学发展观，充分发挥人大及其常委会作为地方国家权力机关的重要作用，紧紧依靠全体代表和全市人民，振奋精神，凝聚力量，开拓进取，扎实工作，为加强社会主义民主法制建设、推进我市经济社会又好又快发展，作出新的更大贡献！']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>34</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>年月沈阳大事记</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2023-07-11</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/qtzfxx/szfdsj/202307/t20230711_4493054.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['6月1日 省委书记、省人大常委会主任郝鹏主持召开省委常委会会议，传达学习习近平总书记在听取陕西省委和省政府汇报时关于主题教育的重要讲话精神，《习近平著作选读》第一卷、第二卷出版座谈会精神，研究部署全省贯彻落实工作。省委常委、市委书记王新伟出席。', '同日 省委书记、省人大常委会主任郝鹏在沈阳市看望慰问少年儿童，代表省委、省政府向小朋友们致以节日祝贺，向广大少儿工作者表示诚挚问候。省委常委、市委书记王新伟陪同慰问。', '同日 省委常委、市委书记王新伟，市委副书记、市长吕志成与万科集团董事会主席郁亮一行会谈。', '同日 市人大常委会党组召开扩大会议，市人大常委会党组书记、主任范继英主持会议并讲话。会议传达学习习近平总书记在听取陕西省委和省政府工作汇报以及山西运城考察时的重要讲话精神、习近平总书记在《中共中央办公厅关于总结推广浙江“千万工程”经验推动学习贯彻习近平新时代中国特色社会主义思想走深走实的调研报告》上的重要批示精神及全市贯彻落实意见、中央主题教育领导小组办公室第8期简报《真下真访民情、实心实意办事》精神。', '同日 市人大常委会主任范继英到市人大常委会信访办公室接待信访群众，听取信访人诉求，现场研究解决问题。', '6月2日 共青团辽宁省第十五次代表大会在辽宁人民会堂开幕。省委书记、省人大常委会主任郝鹏，共青团中央书记处书记徐晓出席开幕会并讲话。省委副书记、省长李乐成，省委常委、市委书记王新伟出席开幕会。', '同日 省委常委、市委书记王新伟与华强方特集团总裁刘道强进行会谈，就加快推进方特欢乐世界二期“熊出没”动漫大世界亲子乐园项目建设、扩大双方合作等事宜深入交流。', '6月3日 全市学习贯彻习近平新时代中国特色社会主义思想主题教育工作推进会议召开。省委常委、市委书记、市委主题教育领导小组组长王新伟，省委第一巡回指导组组长刘志伟出席会议并讲话，市委副书记、市长、市委主题教育领导小组副组长吕志成主持会议。', '同日 省委常委、市委书记王新伟主持召开市委专题会议，听取“全国知名民企助力辽宁全面振兴新突破高端峰会”沈阳专题活动安排、与全国工商联及所属商会对接情况的汇报。', '同日 省委常委、市委书记王新伟，市委副书记、市长吕志成与北京控股集团有限公司党委书记、董事长田振清一行会谈。', '6月4日 省委常委、市委书记王新伟主持召开市委常委会会议，传达学习习近平总书记在二十届中央财经委员会第一次会议上的重要讲话精神，习近平总书记关于主题教育有关重要讲话精神，《习近平著作选读》第一卷、第二卷出版座谈会精神，研究部署全市贯彻落实工作。', '同日 省委常委、市委书记王新伟主持召开市委书记专题议事会议，听取市委、市人大常委会、市政府、市政协5月份重点工作完成情况，研究6月份全市重点工作。市委副书记、市长吕志成，市人大常委会主任范继英，市政协主席于学利参加。', '6月5日 省委常委、市委书记王新伟到经开区张士高速口、皇姑区黑龙江街、沈河区大西边门，现场查看指导城市更新和精细化管理工作，并沿途督导检查城市道路两侧环境整治情况。', '同日 省委常委、市委书记王新伟深入沈北新区辽宁九州通医药有限公司调研，并主持召开座谈会，与企业家、高校负责人一同探讨推动生物医药及医疗装备产业链高质量发展举措。', '同日 市委副书记、市长、市政府党组书记吕志成主持召开市政府党组（扩大）会议和常务会议，传达学习习近平总书记近期重要讲话精神和《习近平著作选读》第一卷、第二卷出版座谈会精神，按照市委工作要求，研究部署贯彻落实工作。', '同日 市委副书记、市长吕志成先后到沈阳市第三十一中学、沈阳市招生考试委员会办公室，督导检查高考准备工作。他强调，从细从严从实做好各项准备工作，确保高考安全平稳顺利进行。', '同日 总投资360亿元、沈阳市第一个百亿级央地合作项目——中国二十二冶集团联合体中标和平湾生态科创示范区项目正式落地和平湾。', '6月6日 市委理论学习中心组召开专题学习会议，深入学习贯彻习近平法治思想。省委常委、市委书记王新伟主持会议并讲话，市政协主席于学利出席。', '同日 省委常委、市委书记王新伟研究创新生态、创新平台、创新人才“三位一体”推进和浑南科技城建设有关工作，以及重点工业行业和企业运行发展、全市贯彻落实全国统一大市场实施意见、营商环境制度创新改革等工作。', '6月6日—9日 全国人大常委会委员、社会建设委员会副主任委员宋秀岩率调研组到辽宁，就“预防和制止家庭暴力”开展调研。沈阳市人大常委会主任范继英陪同在沈期间调研。', '6月7日 市政协组织部分政协委员深入和平区南湖街道文安路社区等基层点位，围绕政协协商与基层协商相融合开展专题调研。市政协主席于学利参加调研。', '6月7日—8日 中共中央政治局常委、国务院总理李强在辽宁调研。8日上午，李强到沈阳拓荆科技公司、芯源微公司、沈阳航空动力产业园考察，省委常委、市委书记王新伟陪同。', '6月8日 省委书记、省人大常委会主任郝鹏主持召开省委常委会会议，传达学习习近平总书记在内蒙古自治区巴彦淖尔市考察并主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会重要讲话精神，研究部署全省贯彻落实工作。省委常委、市委书记王新伟出席。', '同日 省委常委、市委书记王新伟主持召开市委专题会议，研究部分区县固定资产投资有关工作。', '同日 沈阳现代化都市圈协同立法座谈会在沈阳市人大常委会机关召开。沈阳、鞍山、抚顺、本溪、阜新、辽阳、铁岭市人大常委会和沈抚改革创新示范区相关负责同志围绕沈阳现代化都市圈协同立法下一步工作安排进行充分讨论和深入交流，沈阳市发改委、沈阳市司法局相关负责同志作表态发言，省人大法制委相关负责同志到会指导。', '同日 第四届（2023）东北振兴与东北亚区域合作学术论坛暨首届沈阳现代化都市圈发展论坛在沈阳召开。', '6月9日 辽宁省文旅产业招商推介大会暨2023东北亚民间美食文化交流周在沈阳举行。省委书记、省人大常委会主任郝鹏出席活动，省委副书记、省长李乐成出席活动并致辞，省政协主席周波出席活动，新华社有关部门负责同志出席活动并致辞，省委常委、市委书记王新伟出席活动。', '同日 中国中化扬农葫芦岛大型精细化工项目开工仪式在葫芦岛经济开发区举行。省委书记、省人大常委会主任郝鹏出席并宣布开工，中国中化控股有限责任公司党组书记、董事长李凡荣，省委副书记、省长李乐成出席并讲话。市委副书记、市长吕志成参加有关活动。', '同日 市委科技创新委员会召开第七次会议，专题研究部署“一院士、一平台、一园区、一基金、一服务”工作，推动创新链产业链资金链人才链深度融合。省委常委、市委书记王新伟出席会议并讲话，市委副书记、市长吕志成主持会议。', '同日 省委常委、市委书记王新伟，市委副书记、市长吕志成与到访的科勒集团董事会主席兼首席执行官大卫·科勒一行会谈。', '同日 省委常委、市委书记王新伟主持召开市委专题会议，研究部分区县（市）固定资产投资有关工作。', '6月10日 辽宁省文旅产业振兴发展大会在沈阳召开。省委书记、省人大常委会主任郝鹏出席会议并讲话，省委常委、市委书记王新伟出席。', '同日 省委书记、省人大常委会主任郝鹏主持召开省委常委会会议，传达学习习近平总书记在中共中央政治局第五次集体学习时的重要讲话和在文化传承发展座谈会上的重要讲话精神，研究部署全省贯彻落实工作；传达学习李强总理在辽宁调研时的讲话精神，研究部署贯彻落实工作。省委常委、市委书记王新伟出席。', '6月11日 省委常委、市委书记王新伟主持召开市委常委会会议，传达学习习近平总书记在中共中央政治局第五次集体学习时的重要讲话和在内蒙古自治区巴彦淖尔市考察并主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会时的重要讲话精神，研究部署全市贯彻落实工作；传达学习李强总理在辽宁调研时的讲话精神，研究部署贯彻落实工作。', '同日 由市工商联与沈阳市温州商会主办的世界知名温商走进“国际沈”暨2023沈阳招商推介会举行。60多位来自世界各地的温州商会会长、企业家代表在沈阳共商新合作。省委常委、市委书记王新伟出席并讲话，市委副书记、市长吕志成出席。', '同日 全市安全稳定工作会议召开。省委常委、市委书记王新伟出席会议并讲话，市委副书记、市长吕志成主持会议，市人大常委会主任范继英、市政协主席于学利出席。', '6月12日—15日 辽宁省党政代表团赴江苏省、上海市、浙江省、安徽省学习考察，结合正在开展的主题教育，学习各地先进经验，拓展多领域多层次务实合作，更好实现互利共赢、协同发展。省委常委、市委书记王新伟随团参加考察，并出席在南京举行的江苏省·辽宁省对口合作工作交流座谈会、在上海举行的上海市·辽宁省交流合作座谈会。', '6月13日 市委副书记、市长、市政府党组书记吕志成主持召开市政府党组（扩大）会议和常务会议，传达学习习近平总书记在中共中央政治局第五次集体学习时的重要讲话和在内蒙古自治区巴彦淖尔市考察并主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会时的重要讲话精神，传达学习李强总理在辽宁调研时的讲话精神，按照市委工作部署，研究贯彻落实的具体措施。', '同日 采埃孚新能源汽车零部件项目开工仪式在浑南区举行。市委副书记、市长吕志成，采埃孚集团董事斯蒂芬·冯·舒克曼出席并致辞。当天，吕志成会见斯蒂芬·冯·舒克曼一行。', '同日 市人大常委会主任范继英赴皇姑区黄河街道人大工委（代表之家）和辽宁大学法学院开展工作调研并组织召开座谈会，听取专家学者，市、区人大代表关于践行全过程人民民主的意见和建议。', '同日 市委主题教育领导小组办公室召开市直单位主题教育工作座谈会及市管企业、市管高校、公立医院主题教育工作座谈会。会议深入贯彻习近平总书记重要讲话精神，学习传达中央第四指导组向辽宁主题教育办反馈有关情况，交流经验做法，对市直单位加强全面从严治党、深入开展主题教育工作重点进行部署，对市管企业、市管高校和公立医院主题教育进行工作部署，分系统、分领域推动主题教育走深走实。', '6月14日—15日 市人大常委会主任范继英赴康平县开展工作调研，先后现场调研沈阳富莱碳纤维有限公司人大代表联系点建设情况、沈阳卧龙湖省级自然保护区建设情况、康平县基层人大建设及作用发挥情况、康平县人大常委会关于践行全过程人民民主和提高人大监督实效有关情况、康平县博物馆建设情况、康平县方家屯镇人大工作开展情况和代表之家发挥作用情况，并组织召开座谈会，听取市、县、乡（镇）人大代表关于践行全过程人民民主和乡镇人大建设的意见和建议。', '6月15日 市委副书记、市长、市总河长吕志成到辽中区、新民市开展河长巡河并检查防汛、河道清障及辽河生态封育有关工作。他强调，压实责任、强化措施，切实把河流保护治理各项工作落到实处。', '同日 市委副书记、市长吕志成在浑南区主持召开全市重点项目调度会，推进项目建设，现场协调解决问题，安排部署下步工作。他强调，全力以赴抓项目稳投资，为实现“双过半”提供有力支撑。', '同日 市人大常委会党组召开扩大会议。市人大常委会党组书记、主任范继英主持会议并讲话。会议传达学习习近平总书记在内蒙古考察时的重要讲话精神，在内蒙古自治区巴彦淖尔市考察并主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会时的重要讲话精神及全市贯彻落实意见。', '6月15日—16日 省委常委、市委书记王新伟率队在上海开展精准招商，宣传推介沈阳，加快引育重大项目。王新伟一行考察相关企业，并与上汽集团总裁王晓秋、上汽通用汽车有限公司总经理庄菁雄，上海均和集团党委书记、总裁肖传甫，北京亿华通科技股份有限公司总裁付晓明、上海神力科技有限公司总经理戴威，纽托克流体控制有限公司董事长卓剑平，上海芯果科技有限公司董事长顾晓健，李尔公司亚太区副总裁昌宏顺深入交流，推进务实合作。', '6月16日 市政协以“积极应对人口老龄化，推进城乡品质养老”为议题召开双月协商会。市政协主席于学利出席会议并讲话。', '6月17日 省委常委、市委书记王新伟深入和平区马路湾街道万怡禧瑞养老院、沈河区五里河地区居家养老服务中心调研并主持召开座谈会，听取社区养老管家、老年人及老年人家属、养老服务企业负责人的意见建议，与大家探讨进一步推进品质养老的举措。', '同日 市委副书记、市长吕志成到法库县信访局接待信访群众，现场办公解决群众诉求。他提出，依法依规做好信访工作，切实维护群众合法权益。', '同日 市委副书记、市长吕志成到浑南区调研基层社会治理工作。他强调，持续优化完善社区服务功能，不断提升基层治理能力水平。', '6月18日 市委常委会开展沈阳新松机器人自动化股份有限公司典型案例解剖式调研。省委常委、市委书记王新伟主持会议并讲话。市委副书记、市长吕志成，市人大常委会主任范继英，市政协主席于学利出席会议。省委第一巡回指导组到会指导。', '同日 省委常委、市委书记王新伟与农工党辽宁省委会副主委、沈阳大学校长赵彦志进行工作交流。', '同日 省委常委、市委书记王新伟主持召开市委专题会议，听取“赛艇之都”建设总体情况的汇报。', '同日 省委常委、市委书记王新伟主持召开市委常委会会议及市委理论学习中心组学习会议。', '6月19日 省委书记、省人大常委会主任郝鹏主持召开省委常委会会议，传达学习习近平总书记在二十届中央国家安全委员会第一次会议上、在二十届中央审计委员会第一次会议上以及在听取内蒙古自治区党委和政府工作汇报时关于开展主题教育的重要讲话精神，研究部署全省贯彻落实工作。省委常委、市委书记王新伟出席。', '同日 按照省委包保重大项目的统一安排，省委常委、市委书记王新伟现场查看和平湾生态科创示范区项目、沈阳桃仙机场第二跑道项目，就加快项目建设进行调研，并主持召开工作座谈会。', '同日 市委副书记、市长吕志成主持召开市政府常务会议，部署推进重点领域盘活存量资产扩大有效投资相关工作，听取2023年全市防汛抗旱工作的汇报。', '6月19日—21日 市委副书记、市长吕志成率市政府代表团赴杭州市，围绕汽车及零部件、新能源、商贸物流、新一代信息技术等领域的龙头企业、领军企业等，开展精准招商及考察调研活动。', '6月20日 省委书记、省人大常委会主任郝鹏在沈阳会见工业和信息化部副部长、国家国防科技工业局局长张克俭一行。省委常委、市委书记王新伟参加会见。', '同日 东北大学举办百年校庆系列活动之“大学与城市的百年对话”主题演讲会。省委常委、市委书记王新伟出席活动，并以《百年对话 共赢未来》为题作主题演讲。', '同日 省委常委、市委书记王新伟主持召开市委专题会议，研究和平湾南堤西路南地块规划设计有关工作。', '同日 市十七届人大常委会举行第十九次主任会议，市人大常委会主任范继英主持会议并讲话。会议听取市政府关于全市市场监管方面情况的汇报，关于开展全市地方性法规集中全面清理工作安排的汇报，关于《沈阳市人大常委会重点督办代表建议工作办法（审议稿）》起草情况的汇报，关于评选市十七届人大先进代表小组、履职优秀代表及优秀代表议案建议工作情况的汇报和关于市十七届人大常委会第十次会议议题准备情况的汇报。', '同日 市人大常委会党组理论学习中心组召开扩大学习会议，专题学习习近平法治思想，交流学习体会，研究贯彻落实工作。市人大常委会党组书记、主任范继英主持会议并讲话。', '同日 沈阳市人民政府外事办公室、沈阳市人民政府新闻办公室、沈阳市浑南区政府在日本东京举办“你好，沈阳”全球推介（日本站）活动。三菱商事、东芝等世界500强企业，旭化成、日立造船等日本知名企业，中国贸促会驻日本代表处、日本沈阳总商会等24个机构、47家企业118人参加活动。札幌市、川崎市、滨松市、佐世保市、富山县、岩手县等沈阳友城和友好合作关系城市也参加推介活动。', '6月21日 省委常委、市委书记王新伟主持召开市委常委会会议，传达学习习近平总书记在二十届中央国家安全委员会第一次会议上、在二十届中央审计委员会第一次会议上以及在文化传承发展座谈会上的重要讲话精神，研究部署全市贯彻落实工作。', '同日 沈阳市红十字会第九次会员代表大会召开。省委常委、市委书记王新伟出席开幕式并讲话，辽宁省红十字会党组书记、专职副会长高梁出席并讲话。', '同日 省委常委、市委书记王新伟会见中铁九局集团有限公司党委书记、董事长张文杰一行。', '6月22日 “盛京银行杯”沈阳现代化都市圈第二届龙舟邀请赛暨沈阳市第十三届龙舟大奖赛在奥林匹克生态公园浑河3号码头举行。省委常委、市委书记王新伟出席开幕式并宣布开幕，市委副书记、市长吕志成出席，与会嘉宾、奥运冠军及群众代表共同为龙舟点睛。', '同日 省委常委、市委书记王新伟深入大东区江东街与方和路交叉路口，沈河区长青桥地铁站C口、青年大街金廊公馆项目，浑南区龙湖天街检查城市更新和安全生产及防汛工作。', '同日 沈阳市组织收听收看全国、全省安全防范工作视频会议，随后召开全市安全防范工作视频会议，就贯彻落实会议精神、全力以赴抓好安全生产工作进行部署。市委副书记、市长吕志成出席会议并讲话。他强调，聚焦重点领域，抓住关键环节，全力以赴防风险除隐患保安全。', '6月23日 省委常委、市委书记王新伟到康平县、法库县、沈北新区，围绕全面贯彻落实习近平总书记关于“三农”工作的重要论述，深入学习浙江“千万工程”经验，扎实推进宜居宜业和美乡村建设进行调研。', '6月24日 沈阳和平湾生态科创示范区项目开工仪式举行。省委常委、市委书记王新伟出席并宣布项目开工，市委副书记、市长吕志成，中国中冶党委书记、总裁张孟星出席并致辞。', '同日 省委常委、市委书记王新伟到铁西区实地查看沈阳经开区街路更新工程、西峡湾国际城片区综合开发项目和华晨宝马全新动力电池项目建设推进情况。他强调，更加强化“谋立推建”，以高质量项目建设推动高质量发展。', '同日 省委常委、市委书记王新伟陪同省委主要领导会见中国铁道建筑集团有限公司党委书记、董事长汪建平一行。', '同日 省委常委、市委书记王新伟会见中国通用技术（集团）控股有限责任公司党组书记、董事长于旭波一行。', '同日 辽宁省第十四届运动会闭幕。沈阳市代表团获青少年竞技体育金牌、奖牌、总分三项第一名的“大满贯”战绩，并荣获体育道德风尚奖。', '同日 沈阳市举行首届青少年冬季运动会花样滑冰比赛。全市11支代表队、120余名花滑运动员在沈阳冰纷万象滑冰场展开角逐。', '6月25日 国资央企助力东北全面振兴座谈会在沈阳举行。省委书记、省人大常委会主任郝鹏，国务院国资委党委委员、副主任谭作钧出席会议并讲话。省委常委、副省长王健致辞并作省情推介，吉林省副省长刘凯、黑龙江省副省长王岚、内蒙古自治区副主席么永波分别作省区情推介。省委常委、市委书记王新伟出席座谈会。', '同日 省委常委、市委书记王新伟陪同省委主要领导会见中国建材党委书记、董事长周育先一行。', '6月25日—26日 省委常委、市委书记王新伟，市委副书记、市长吕志成与中国铁道建筑集团有限公司党委书记、董事长汪建平，中国交通建设集团有限公司党委副书记、总经理王海怀，中国国际技术智力合作集团有限公司党委书记、董事长卜玉龙，中国电力建设集团有限公司总经济师刘明江，中国铁路通信信号集团有限公司党委书记、董事长周志亮举行工作会商。', '6月26日 沈阳王家湾板块建设启动仪式暨全球招商大会举行。省委常委、市委书记王新伟，市委副书记、市长吕志成出席。', '同日 在国际禁毒日到来之际，省委常委、市委书记王新伟到市禁毒预防教育基地调研禁毒工作，看望慰问禁毒志愿者。', '同日 市十七届人大常委会举行第十次会议，市人大常委会主任范继英主持会议。会议听取审议并表决通过市政府关于《中华人民共和国职业教育法》贯彻实施情况的报告，市检察院关于全市检察机关查办司法工作人员相关职务犯罪、维护司法公正工作情况的报告，审议并表决通过《沈阳市社会信用条例》《沈阳市人民代表大会常务委员会议事规则（修订）》。会议还对《沈阳市志愿服务条例（草案二次审议稿）》《沈阳市优化营商环境条例（草案）》《沈阳市海绵城市建设管理条例（草案）》进行审议。', '6月27日 沈阳市文化旅游产业振兴发展大会召开。省委常委、市委书记王新伟出席会议并讲话，市委副书记、市长吕志成主持会议，市人大常委会主任范继英出席会议。会前，王新伟、吕志成参观展示活动并会见与会的文旅企业代表。', '同日 全市落实食品安全“两个责任”A级主体督导工作座谈会召开。省委常委、市委书记王新伟出席会议并讲话。', '同日 省委常委、市委书记王新伟研究贯彻落实中央和全省治理非法宗教活动工作推进会议精神。', '同日 市委副书记、市长、市政府党组书记吕志成主持召开市政府党组（扩大）会议暨党组理论学习中心组集体学习会议和常务会议，传达学习习近平总书记重要讲话精神，按照市委工作要求，研究部署贯彻落实工作。', '同日 市人大常委会党组理论学习中心组（扩大）学习会议暨主题教育典型案例解剖式调研学习研讨会召开，分别对《扩大基层立法联系点覆盖面，丰富民主立法渠道和载体》《创建代表履职“监督快线”，推进代表履职常态化》两个典型案例，进行集中研讨交流。市人大常委会党组书记、主任范继英主持会议并讲话。', '6月28日 西峡湾·国际城央地合作百亿项目暨沈阳市第三十一中学（中德园校区）开工。省委常委、市委书记王新伟出席开工仪式，市委副书记、市长吕志成致辞。', '同日 沈阳万科中日产业园项目合作伙伴入驻签约仪式举行。省委常委、市委书记王新伟出席，市委副书记、市长吕志成致辞。', '同日 在建党102周年到来之际，省委常委、市委书记王新伟慰问抗美援朝老战士，现场查看中共沈阳市委（北部）旧址纪念馆并向老党员颁发“光荣在党50年”纪念章。', '同日 沈阳市召开全市强降雨防御工作视频会议。市委副书记、市长吕志成出席并讲话。他强调，严阵以待严密防范，确保城市安全度汛。当天下午，吕志成到五爱泵站、沈阳恒隆市府广场项目基坑等重点部位检查防汛工作。', '6月29日 省委书记、省人大常委会主任郝鹏主持召开省委常委会会议，深入学习贯彻习近平总书记对宁夏银川市兴庆区富洋烧烤店燃气爆炸事故作出的重要指示，对抓好贯彻落实工作进行再研究再部署。会议传达学习贯彻习近平新时代中国特色社会主义思想主题教育相关重要会议精神，研究部署全省贯彻落实工作。省委常委、市委书记王新伟出席。', '同日 全市公安系统英雄模范立功集体表彰大会召开。省委常委、市委书记王新伟出席会议并讲话，市委副书记、市长吕志成主持，市人大常委会主任范继英出席。', '同日 省委常委、市委书记王新伟主持召开市金融风险化解和金融改革领导小组2023年第三次会议。', '同日 沈阳产业技术研究院第一届理事会第四次工作会议召开。市委副书记、市长、沈阳产业技术研究院理事会理事长吕志成出席并为产研院新任院长颁发聘书。', '6月30日 省委书记、省委主题教育领导小组组长郝鹏以“牢记嘱托、感恩奋进、不辱使命，奋力谱写中国式现代化辽宁新篇章”为题讲授主题教育专题党课。省委副书记、省长、省委主题教育领导小组副组长李乐成主持，省政协主席周波出席，省委常委、市委书记王新伟参加。', '同日 省委学习贯彻习近平新时代中国特色社会主义思想主题教育第3期读书班暨省委理论学习中心组学习研讨会在沈阳召开，深入学习习近平总书记在文化传承发展座谈会上的重要讲话并进行交流研讨，集中观看全面反映辽宁“六地”红色文化的电视纪录片《热血河山》。省委书记、省人大常委会主任郝鹏主持会议并讲话，省委副书记、省长李乐成，省政协主席周波出席会议，省委常委、市委书记王新伟参加分组研讨。', '同日 市人大常委会党组书记、主任范继英以“坚持和完善人民代表大会制度，进一步提升人大工作质量和水平”为题讲授主题教育专题党课。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>34</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>年沈阳市人民代表大会常务委员会工作报告</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2016-01-12</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/zwgk/qtzfxx/gzbg/bmgzbg/202201/t20220122_2623103.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['过去一年，在中共沈阳市委的正确领导下，常委会认真贯彻落实党的十八大和十八届三中、四中、五中全会精神，紧密围绕全市工作大局，依法履行职权，扎实开展工作，全面完成了市十五届人大三次会议确定的各项任务。', '一、突出地方立法的引领和推动作用，在推进科学民主立法、确保立法质量方面取得了新成效', '一年来，常委会秉承“针对问题立法、立法解决问题”的工作理念，坚持“立得住、行得通、真管用”的立法导向，积极推进地方立法进程，共制定地方性法规3件、废止1件。', '通过立法规范和推进生活垃圾的处置管理工作。随着城市化进程加快，我市生活垃圾产生量逐年增加，环境承载压力日益增大，亟需从地方立法层面来促进改变全市生活垃圾处置管理现状，为破解生活垃圾处理难题提供保障。常委会针对生活垃圾处理能力严重不足、垃圾处理设施尤其是焚烧处置设施建设滞后、垃圾分类、投放、收集、运输和处理的衔接机制不完善等迫切需要解决的问题，制定了《沈阳市生活垃圾管理条例》。条例对生活垃圾处理的规划与建设、减量与分类、运输与处置以及监督管理等各个环节，都做了明确规范，将我市多年来在生活垃圾管理中积累的经验以法规形式确定下来，并从法规层面推进生活垃圾焚烧处置设施建设，加快实现我市生活垃圾处理的减量化、无害化和资源化。为了把这部涉及面广、问题复杂的重要法规制定好，常委会就条例的一些重要条款进行了反复研究论证，多次组织相关调研视察和到其他城市学习考察，尤其是本着审慎决策的原则，在表决法规草案之前，与政府及相关部门负责人就条例实施的重点问题进行了沟通协调，以确保条例颁布后能够得到有效实施。这部条例的制定，填补了我市生活垃圾管理工作的立法空白，标志着生活垃圾管理工作自此步入法制化轨道。', '通过立法保障和推进公交优先发展战略的实施。公共交通是人民群众最为主要的出行方式，发展公交客运是满足百姓出行需求的首要选择。我市在实施公交优先发展战略，推进公交都市建设中，迫切需要通过地方立法来促进和规范全市公共汽车客运事业发展，有效解决“出行难”，回应人民群众对享有更高质量出行服务的新期待。因此，常委会把制定《沈阳市城市公共汽车客运管理条例》作为一项重要的民生立法加以推进，针对城市公交线网数量不足、基础设施建设滞后、财政资金投入不足、公交职工待遇偏低等突出问题，以地方法规的形式确定了公共汽车客运的公益属性、政府主导的保障机制、公共财政投入补贴原则、提高公交客运职工工资福利待遇，从规划建设、投入机制、保障体系、运营服务、安全管理等方面，明确和完善了各项具体制度规范。这部法规的制定，使我市发展公交客运的成熟举措得以法制化和常态化，对于推动公交优先发展战略的有效实施和建设公交都市，建立与城市规模相匹配的一体化公共交通体系，满足人民群众的公交出行需求，将发挥重要的引领保障作用。', '通过立法为开展妇女权益保障工作创造法治条件。我市妇女人数占全市总人口50%以上，是推动经济社会发展的重要力量。常委会适应我市妇女权益保障的现实需求，制定了《沈阳市妇女权益保障条例》。在法规制定中，围绕解决妇女参与决策管理水平尚待提升、女职工劳动权益和特殊保护不到位、妇女特殊健康需求不能很好满足等问题，将我市一些适时管用的政策措施和经验做法上升为制度规范，对社会普遍关注的建立分性别统计指标体系、建设女性公共服务设施、城乡低保妇女“两癌”免费检查、预防和制止家庭暴力，特别是对特殊困难妇女的民生保障方面，都做出了明确具体的规定。这部条例的制定，不仅有助于通过法治思维和方式推进妇女权益保障工作，促进我市妇女事业发展进步，同时也有助于社会治理体制的创新，促进和谐社会建设。条例的颁布实施，在全市广大妇女群众中引起很大反响，社会各界也对我市出台首部关于女性权益保障方面的地方性法规给予积极评价，取得了良好社会效果。', '在立法工作中，常委会注重发挥主导作用，坚持提前介入法规调研和起草工作，落实立法工作推进会议制度，保证立法项目顺利实施。坚持通过公开征集立法项目、公布法规草案、召开座谈会和论证会等方式，拓展了民主立法渠道。在发挥立法顾问、立法顾问单位作用的同时，首次聘任46名地方立法咨询专家，发挥专家学者在地方立法工作中的智力支持作用。确定了8个基层立法联系点，在建立健全征询立法意见机制方面有了新进展，使地方立法工作更接地气。坚持做好舆论引导工作，每部法规颁布实施前，都通过新闻发布会和各主要媒体宣传解读法规内容，促进法规的正确实施。此外，为适应改革发展需要，对现行法规进行了清理，废止了《沈阳市保护消费者合法权益规定》。', '常委会坚持问题导向，注重围绕事关全市经济社会发展的重大问题和人民群众普遍关注的热点问题，综合运用多种监督形式，依法开展监督工作。', '一是加强了对全市经济社会发展重大事项的监督。编制“十三五”规划是事关全局与长远的一件大事，常委会对此高度重视，认真组织了“十二五”规划执行情况的专项调研和专题视察，听取审议了相关情况报告，围绕科学把握我市新一轮发展的阶段性特征、深化创新改革、加快经济结构调整升级、重视生态建设、守住民生底线等8个方面，提出了系统的审议意见，使规划编制能够充分体现集中民智、顺应民意，为人代会审查批准这一规划奠定了基础。针对经济下行压力加大，稳增长任务艰巨的新形势，常委会对全市上半年经济运行情况开展专题调研，听取审议了政府相关报告，重点就推进国企改革、改善发展环境、保障重点民生支出等6个方面提出意见建议。为推动农业发展方式转变，对都市现代农业发展情况进行了专题视察，听取审议了相关报告，就完善都市现代农业规划、发展生态休闲和观光农业、探索“互联网+三农”等方面提出了审议意见。', '为促进民族政策和相关法律法规的贯彻落实，听取审议了我市民族工作情况的报告，在审议意见中突出强调了少数民族聚集区、特色街区的规划和建设，建议把西塔朝鲜族风情街、清真美食街等一批民族街区打造好，把少数民族习俗传承好、把民族特色乡村建设好。为推进我市林业产业发展，听取了相关情况汇报，就保护生态林、建好景观林、发展经济林以及坚持依法管林等方面提出了具体建议。听取了旅游总体规划编制情况汇报，推动我市旅游资源开发与整合，加快打造独具特色的旅游品牌，提升旅游业整体发展水平。', '二是深化对预决算的审查监督。听取审议了2014年市本级决算、2015年上半年全市预算执行情况的报告和审计工作报告，审查批准了2014年市本级决算，并在审议意见中突出强调，在财政支出刚性增长与财政收入增幅放缓矛盾日益凸显的情况下，应重视解决每年结余结转资金规模过大的问题，大力压缩沉淀资金，严控结余结转资金规模，最大限度发挥预算资金使用效益，保证财政支出的均衡性。推进了对预算执行的常态监督，在对重点资金拨付使用情况进行在线监督的基础上，增加了对已列支部门未使用资金的监督，促进提高了预算的执行率。听取审议了审计问题整改情况报告，对照问题清单进行跟踪问效，做到整改落实和责任追究并重。坚持把预算初审工作作为加强改进预算监督的关键环节，组织聘请部分人大代表及财税、审计方面专家对预算草案进行集中审查，各专委会提前参与并提出相关意见建议，督促相关部门按照初审意见进行整改，对市交通局、建委、农委、卫计委等部门的预算草案开展了专题审查，预算初审工作更具实效，为人代会审查批准预算创造了有利条件。', '三是强化民生工作监督。去年以来，对防止经济下行压力传导到民生领域，切实守住民生底线的问题，常委会予以高度关注，并通过各种监督形式，对重点民生问题坚持连续监督与推动。围绕保障城乡百姓喝上“干净水、放心水”，集中视察了居民住宅小区供水管网改造以及农村饮水升级改造工程实施情况，推动相关改造任务全面完成。为促进社会保障工作，听取审议了我市社会救助工作情况报告，推动建立系统性、统筹性、可持续性和兜底性的社会救助体系。听取审议了我市公共卫生安全建设情况的报告并开展了专题调研视察，就增强重大疾病预防控制能力尤其是突发事件处置能力、加强公共卫生安全体系建设以及市传染病院搬迁改造等方面提出了具体建议。为推动我市中医药事业发展，常委会在对我市中医药事业发展情况进行深入调研的基础上，听取了相关工作汇报，建议把市中医院、沈河中医院、市第二中医院康复中心等一批特色中医院和中医康复中心建设好，满足人民群众对中医诊疗的需求，市区政府对此积极回应，已将三所中医院的搬迁改造项目纳入今年财政预算计划，着力提升中医药事业整体发展水平。听取了城乡垃圾处理工作进展情况汇报，对近几年常委会相关审议意见的落实情况进行了跟踪问效，推进垃圾焚烧发电、渗滤液处理以及餐厨垃圾处理项目的加快建设。为推进我市终身教育事业发展，听取了相关工作情况汇报，推动了学习型城市建设。', '四是加强了对法律法规实施情况和依法行政、公正司法的监督。以义务教育均衡发展为重点，对义务教育法和我市义务教育条例的贯彻实施情况开展了执法检查，听取审议了相关报告，针对部分地区存在着入学难、教师人事管理政策滞后、城乡间和地区间教育资源不均衡等问题，在提出加快建设配套学校、加强教师队伍建设、合理配置教育资源的同时，突出强调了支持优质教育资源的有序扩张，建议将我市名校集团化办学模式作为义务教育均衡发展举措的重要选择，积极为名校、强校、特色校有序发展创造条件，实现优质教育的更广覆盖，满足人民群众对公平教育和优质教育的双重期盼。', '为全面推进依法治市，听取审议了市政府依法行政工作报告，针对我市在依法行政上存在的主要问题，就加快政府职能转变、强化对行政权力的制约和监督、有效规范行政执法行为等方面提出审议意见，特别强调要对行政机关应诉败诉案件成因进行分析，切实提高运用法治思维和法治方式推进行政工作的能力。听取了依法开展征兵工作情况汇报，确保兵役法在我市的贯彻实施。听取了市法院关于人民陪审工作汇报，促进审判机关建立健全任职考核、定期培训、服务保障等机制，切实发挥人民陪审员的制度优势，推进阳光司法，让人民群众在每一个司法案件中感受到公平正义。听取了市检察院开展未成年人刑事检察工作情况的汇报，促进落实新修改的《刑事诉讼法》，维护涉罪未成年人合法权益。围绕加强备案审查制度和能力建设，认真开展相关工作，对所提报的政府规章和其他规范性文件进行了备案审查。加强了涉法涉诉、申诉控告事项的分析研判和转办督办工作，坚持“诉访分离”，邀请律师、法官参与接访，全年共受理群众来信来访、申诉控告事项1541件，促进了人民群众合法诉求的解决。', '常委会坚持将行使重大事项决定权与开展重点监督工作紧密结合起来，围绕事关全市振兴发展的工作大局和人民群众普遍关注的重大事项，确定监督审议议题，适时作出决议提出审议意见，依法推动市委重大决策部署和全市重点工作的有效落实。先后围绕公交优先发展战略实施、“十三五”规划编制、公共卫生安全、和谐社区建设、义务教育均衡发展、生活垃圾处理、推进依法行政等重大事项进行审议，作出决议或提出审议意见，并以听取审议报告、执法检查、专题视察、专项调研、专题询问等多种形式，跟踪促进各项重要审议意见的落实，使相关问题得到推进与解决。', '常委会还将行使好对计划和财政预决算的审查批准权，作为讨论决定重大事项的重要内容，重点加强了对政府性债务和政府投资项目等重大事项的监督。根据我市政府存量债务进入还贷高峰期，债务资金监管需要改进、使用效率有待提升的状况，听取审议了政府性债务管理情况的报告，从加强对政府性债务的风险控制、调整政府性债务结构、加强政府存量债务管理与监督等方面，提出具体意见建议，促进政府严控债务总规模，确保债务规模合理、风险可控、使用规范。听取审议了2016年度政府投资建设项目计划编制情况报告，在审议意见中突出强调，对计划执行中有相当数量项目尚未开工或无法开工的情况要认真分析原因，提高投资决策的科学化水平，提升项目计划执行率，确保政府投资重大项目得到有效有序推进。在行使人事任免权方面，常委会坚持党管干部和人大依法任免相统一，全年共任免国家机关工作人员169人次，保证了国家机关正常运转和各项工作顺利进行。', '代表履职学习培训更加深入。利用市人大代表培训基地以及其他方式，通过专题报告、专业培训、专题辅导等形式，组织了“一带一路”倡议、解读“四个全面”、宏观经济社会改革、推进依法治国、县乡人大建设、现代农业发展等15个专题学习，涉及各级代表1140余人次。注重发挥各专委会的专业优势，组织专家学者进行专题辅导，使代表履职学习更具针对性，更有鲜活感和吸引力。', '代表闭会期间履职活动更为丰富。围绕代表“三深入”活动主题，组织开展代表小组活动120余次，600余名省市人大代表深入基层了解社情民意，一年来，全市代表积极反映群众呼声，提出了许多高质量的意见建议，体现了为民履职的良好形象。围绕保障代表执行职务，重新完善了代表活动的组织网络，增拨了代表小组专项活动经费，保证闭会期间代表小组活动的更好开展。制定了代表约见“一府两院”部门负责人的工作程序，并首次就居民供暖、小区物业管理问题，组织相关代表约见房产、建委等部门负责人直接对话，推动解决百姓关切的民生问题，在改进代表工作方面做了新尝试。', '代表对常委会工作的参与不断扩大。一年来，共邀请70名代表列席常委会会议和分组审议，980人次各级代表参加了常委会各项履职活动。常委会还紧密结合重点监督议题，注重发挥代表在联系人民群众中的独特作用，借助代表在各自领域的专业优势，反映民意、汇聚民智，提高常委会的工作质量和履职水平。', '代表履职考核机制不断健全。推进代表履职监督考评工作，完善了代表履职档案，规范和细化代表履职考核记实内容，将代表参加原选举单位活动、代表小组活动等情况列入履职考评内容。组织了市人大代表向原选举单位述职工作，促进代表加强与原选举单位和人民群众的联系。', '代表议案建议的督办工作成效显著。对本届人大三次会议主席团交付的两项议案，分别听取审议了专门委员会议案审议结果和市政府议案办理情况的报告，多次组织专题调研和视察检查。围绕办理优先发展城市公共交通的议案，常委会在加强跟踪督办、听取审议相关报告的同时，就公交基础设施建设、改善公交职工待遇、加大财政对公交的资金投入等10个方面问题，对政府部门进行了专题询问，推动我市加快补齐公共交通发展短板，有效解决议案办理中的难点问题。围绕办理推进和谐社区建设的议案，召开了10余次座谈会，先后深入20多个不同类型社区进行实地视察，促进政府加大对社区建设投入，完善社区公共服务体系，从体制机制上推进“去行政化”，使社区更好地服务百姓。市政府对此高度重视，将其列入为民办实事工程，制定了和谐社区建设工程实施方案，目前，城乡社区公共用房及相关配套设施的建设改造等各项工作正在推进之中。', '为办好744件代表建议，常委会坚持把解决率作为办理工作基本标准，强化全程跟踪推动，对重点建议由主任会议进行了重点督办，加大对疑难建议办理工作的协调力度，积极回应代表关切，提高办理实效。在各方面的共同努力下，代表建议已全部办结，代表所提问题得到解决或基本解决的582件，占80.4%。', '一年来，常委会始终自觉接受党的领导，坚持人大工作的正确政治方向，依法有效行使法定职权。结合“三严三实”专题教育，推进作风建设的常态化和长效化，从严从实改进工作作风，所有调研视察和检查活动，都坚持轻车简从，视察方式坚持明察暗访，不搞形式主义；对检查内容坚持求真务实，不搞报喜不报忧。为配合筹备市委人大工作会议，对全市人大工作进行了深入调研，在此基础上形成了推动解决人大工作实际问题的具体建议，其中关于统筹协调立法中的重大问题、增强人大监督刚性、加强县区、乡镇人大和街道人大工委建设，完善机构设置等一些建议被市委采纳，为市委做出相关决定提供了依据。常委会坚持每次会议都结合重点议题开展调研，安排专题辅导讲座，对审议发言进行摘要刊发并存档，促进和保证了审议质量不断提高。人大宣传工作不断深化,《沈阳人大》刊物、沈阳人大信息微平台在宣传人大制度、提高人大工作透明度方面发挥了积极作用。坚持人大重要会议和重大活动实时报道，审议意见向社会公布，推进了常委会履职的公开化。加强人大机关建设，严格执行中央八项规定，人大机关呈现出风清气正、务实进取、团结协作的良好风貌。', '加强了对基层人大的工作指导，召开了全市乡镇人大工作经验交流座谈会，总结交流了铁西区新民屯镇、新民市张家屯镇、法库县四家子蒙古族乡等6个乡镇人大的工作经验，对推动乡镇人大建设发挥了重要作用。密切了与区县(市)人大的联系，坚持协调联动开展重点监督，共同推进全市人大工作。积极配合全国和省人大常委会来我市开展执法检查、立法调研和专题视察，开展了与兄弟城市人大的学习交流，先后出访缅甸、老挝、斯里兰卡等国家,接待柬中友好协会、斯里兰卡高尔市政府、美国犹他州参众两院等9个国家地方议会或城市的代表团来访，促进了友城交往与对外交流合作。', '各位代表：在总结成绩的同时，我们也清醒认识到，常委会工作与形势任务的要求和全体代表的期盼还有差距，还存在一些薄弱环节和不足之处。立法听证和立法后评估还不够充分，立法精细化水平还需提高；对法律法规执行的监督相对薄弱，对重要审议意见落实情况的跟踪监督还不够到位；常委会联系代表、代表联系群众的渠道还需拓宽;人大工作信息化水平有待提升；在加强对基层人大特别是乡镇人大工作的联系指导方面还应做更多工作。对这些问题与不足，我们将认真听取各位代表意见，在今后工作中不断加以改进和解决。', '今年是实施“十三五”规划的开局之年，是推进结构性改革的攻坚之年，也是确保如期建成小康社会的关键之年。改革发展稳定任务更加繁重，民主法制建设需求更为迫切，新形势和新任务，对推进人大工作与时俱进提出了新要求。今年常委会工作总体思路是：认真贯彻落实党的十八大和十八届三中、四中、五中全会精神，按照市委十二届十二次全会和市委人大工作会议的部署，紧密围绕“四个着力”，充分发挥人大职能作用，认真履行法定职权，不断提高助推新一轮振兴发展的效能和水平，努力体现服务大局有为有位、履职为民有力有效、工作创新有声有色，为在新的历史起点上推动沈阳老工业基地全面振兴，营造良好的民主法治环境。', '第一，在立法工作方面。要恪守为民立法、依法立法的理念，坚持立法与改革决策相衔接，发挥人大立法主导作用，始终坚持问题导向，抓住立法质量这个关键，把重点放在法规关键条款的设计上，确保所立之法严谨、科学、管用。要继续加强民生等重点领域立法，突出解决我市亟需通过立法来规范的现实问题。农田水利设施是发展现代农业的基础，是抗旱防洪、抵御自然灾害最重要的手段。对农田水利设施的管理维护，事关民生，事关农村经济社会的可持续发展。常委会针对当前我市农田水利设施多头管理、无序建设、缺少统筹规划，管护运行机制不完善、水利服务体系薄弱以及缺乏稳定的投入机制等问题，拟制定《沈阳市农田水利设施管理保护条例》。为了给我市劳动争议调解工作提供有效的法律支持，拟制定《沈阳市劳动争议调解条例》，对劳动争议协商、调解组织和调解程序进行规范，促进劳动关系的和谐发展。根据立法法和上位法的新要求，对《沈阳市制定地方性法规条例》、《沈阳市城市市容和环境卫生管理条例》进行修改，对制定沈阳市轨道交通管理条例、循环经济促进条例和修改大气污染防治条例、科技进步条例等进行调研论证。继续开展地方性法规特别是涉及行政许可、审批事项的清理工作。要在科学民主立法过程中，让公众拥有更多话语权，更多凝聚社会共识，增强社会公众对法规的认同感。', '第二，在监督工作方面。围绕增强对经济社会发展重大问题的监督实效，重点对推进全面创新改革、工业转型升级、现代服务业发展、强农惠农富农、保障和改善民生、政府投资重大项目和生态环境建设等内容，适时开展调研视察活动。听取审议上半年经济工作报告，全力助推经济稳定增长，增强持续发展动力。关注推动“三农”工作，听取审议农田水利基础设施建设议案三年办理结果报告、听取扶贫开发工作汇报，通过多种方式，推进“菜篮子”安全、农村饮水改造工程、涉农电子商务和宜居乡村建设。审议批准我市旅游发展总体规划，推动旅游产业持续健康快速发展。听取外事工作情况汇报，促进全市对外交流合作。', '做好预决算的监督工作，跟踪民生、环保、城建等预算资金安排及拨付使用情况，增强对预决算初审意见执行的严肃性，搞好预算执行过程的动态监督。针对政府投资项目建设中存在的突出问题，制定对政府投资项目的监督工作意见，建立完善对政府投资项目的监督审查机制，适时选择社会关注、群众关心的重点项目进行视察。对去年的有关审议意见进行跟踪落实，听取我市财政结余结转资金情况汇报，力促财政资金使用效益达到最大化。对防范和化解政府性债务风险问题持续监督问效，适时进行专题审议。对审计查出问题整改情况加强跟踪监督，把听取审议相关报告同运用其他监督形式结合起来，推动解决“审而不改”和“屡审屡犯”问题。', '加强对重点民生问题监督，支持和促进政府通过工程化方式持续保障改善民生，依法推动公共资源配置向民生领域倾斜，使各项惠民举措兑现落实。围绕生活垃圾管理条例的贯彻实施和听取相关审议意见落实情况报告，对老虎冲垃圾焚烧处理厂、餐厨垃圾处理厂、大辛垃圾渗滤液处理厂等项目进展情况进行跟踪推进。结合公共汽车客运管理条例的贯彻实施，听取优先发展城市公共交通相关进展情况汇报，重点关注发展智慧交通、公交场站、公交港湾站、公交车辆更新、公交线网优化等问题的推进解决。听取审议我市养老服务业发展情况报告，推动构建与百姓需求相适应的社会养老服务体系。听取审议文化遗产保护与利用工作情况报告，适时对公共体育设施条例的贯彻实施进行执法检查，促进文化和体育设施更好地惠及百姓。关注普及高中教育，听取相关工作情况汇报；对现代职业教育给予关注，适时进行调研，推进我市现代职业教育体系建设，为经济转型升级培养更多高素质劳动者和技能型人才。针对人民群众关心关注的老旧小区和城乡结合部供水供气供暖管网改造、公办幼儿园建设、居民小区配套设施建设，以及发展医联体、整合医疗资源、促进三级诊疗体系建设、加快解决停车难等问题进行调研视察，让广大市民在共建共享发展中有更多的获得感。', '推进执法、司法工作监督。听取审议政府依法行政工作报告，进一步推动法治政府建设。听取市法院贯彻民事诉讼法案件审理期限执行情况的汇报，市检察院民事行政检察监督工作情况的汇报，推动相关工作的规范化、透明化，维护司法公正。听取市公安部门受案立案工作情况汇报，促进公安机关不断提升执法公信力。认真做好群众来信来访和申诉控告工作。完善规范性文件备案审查制度，加强主动审查，增强备案审查工作的实效。', '认真落实市委人大工作会议精神，制定出台政府工作部门主要负责人向常委会报告履职情况实施办法，探索对人大选举和任命人员任后监督的方法途径，适时选择部分政府工作部门的主要负责人向常委会报告履职情况。制定常委会审议意见督办办法，听取审议“一府两院”相关报告，对审议意见落实情况依法跟踪问效。制定专题询问实施办法，推进专题询问常态化，结合常委会重点审议议题和审议议案办理情况报告，适时安排专题询问。', '第三，在代表工作方面。要深化和改进代表工作，加强对代表履职的服务保障，促进代表在反映民意、维护民利方面发挥更大作用。根据代表的要求与需要，制定实施代表履职学习培训计划，安排好对乡镇人大和街道人大工委负责人的培训。邀请更多代表参与常委会、专门委员会的相关活动，改进代表视察调研方式，适时开展异地视察、持证视察、联动调研。要拓宽常委会联系代表、代表联系群众的渠道，健全网络平台，发挥“代表之家”作用。研究制定代表述职办法和程序，推进代表向原选举单位述职工作。完善代表履职监督考评制度，开展代表执行职务写实，严格实施不称职代表退出机制。开展履职优秀代表和先进代表小组以及优秀代表议案建议评选表彰活动，激励代表真正为民代言、替群众发声。认真办理代表议案建议，探索建议办理第三方评估，注重用新的制度机制，推动群众诉求解决，力求将代表议案建议办得更实、更到位。', '第四，在常委会自身建设方面。认真贯彻落实市委人大工作会议对加强人大常委会自身建设的各项要求，巩固“三严三实”专题教育成果，持续推进思想政治、纪律作风、业务能力建设，深入学习贯彻廉洁自律准则和纪律处分条例，加强党风廉政建设。积极适应治理能力现代化和依法治市新要求，结合常委会重点工作和审议议题，组织好专题培训和学习，提高与履行法定职责相适应的素质能力。以法制和创新思维推进各项工作，提高对多种监督形式的综合运用水平，善于以“组合拳”方式做好重点监督工作，保持人大的生机与活力。坚持人大宣传工作与时俱进，注重运用快速发展的互联网和新媒体技术，大力推进信息化建设，打造人大网站、微博、微信“三位一体”的信息化综合平台，拓展常委会履职空间。发挥好专门委员会和工作机构的作用，提高常委会整体工作效能。加强对基层人大工作的指导联系，推动基层人大组织机构和制度建设。围绕促进“走出去”战略的实施，开展与国外地方议会友好交往，促进我市在经贸、教育、文化等领域的对外交流合作。', '各位代表：我市未来五年发展振兴的大幕已经开启，沈阳老工业基地全面振兴已经站在了新的历史起点上。责任与担当在考验着我们，事业与使命在激励着我们。让我们在市委的正确领导下，奋发进取，努力工作，为实现“十三五”良好开局、推进我市民主法治建设作出新的更大贡献！']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>34</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>沈阳市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>中共中央印发中国共产党纪律处分条例</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2018-08-27</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>https://www.shenyang.gov.cn/dwgk/zywj/202112/t20211201_1742837.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['新华社北京8月26日电近日，中共中央印发了修订后的《中国共产党纪律处分条例》(以下简称《条例》)，并发出通知，要求各地区各部门认真遵照执行。', '通知指出，2015年10月中共中央印发的《中国共产党纪律处分条例》，对维护党章和其他党内法规、严肃党的纪律、坚持从严管党治党发挥了重要作用。党的十九大将纪律建设纳入新时代党的建设总体布局，在党章中充实完善了纪律建设相关内容。党中央决定根据新的形势、任务和要求，对条例予以修订完善。', '通知强调，《条例》全面贯彻习近平新时代中国特色社会主义思想和党的十九大精神，以党章为根本遵循，将党的纪律建设的理论、实践和制度创新成果，以党规党纪形式固定下来，着力提高纪律建设的政治性、时代性、针对性。严明政治纪律和政治规矩，把坚决维护习近平总书记党中央的核心、全党的核心地位，坚决维护党中央权威和集中统一领导作为出发点和落脚点，将党章和《关于新形势下党内政治生活的若干准则》等党内法规的要求细化具体化。坚持问题导向，针对管党治党存在的突出问题扎紧笼子，实现制度的与时俱进，使全面从严治党的思路举措更加科学、更加严密、更加有效。', '通知要求，各级党委(党组)要牢固树立政治意识、大局意识、核心意识、看齐意识，担负起全面从严治党政治责任，抓好《条例》的学习宣传和贯彻落实。要切实加强纪律教育，把学习《条例》纳入党委(党组)理论学习中心组学习内容和党校(行政学院)教育课程，使铁的纪律真正转化为党员干部的日常习惯和自觉遵循。要巩固发展执纪必严、违纪必究常态化效果，下大气力建制度、立规矩、抓落实、重执行，强化日常管理和监督，充分发挥纪律建设标本兼治的利器作用。各级纪委(纪检组)要认真履行党章赋予的职责，强化监督执纪问责，把执纪和执法贯通起来，坚持纪严于法、纪法协同，让制度“长牙”、纪律“带电”，努力取得全面从严治党更大战略性成果。', '各级党委(党组)和纪委(纪检组)要加强对学习宣传、贯彻执行《条例》的监督检查，纳入巡视巡察和派驻监督重点，对贯彻执行不力的，要批评教育、督促整改，严肃追责问责，推动《条例》各项规定落到实处。', '第一条为了维护党章和其他党内法规，严肃党的纪律，纯洁党的组织，保障党员民主权利，教育党员遵纪守法，维护党的团结统一，保证党的路线、方针、政策、决议和国家法律法规的贯彻执行，根据《中国共产党章程》，制定本条例。', '第二条党的纪律建设必须坚持以马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观、习近平新时代中国特色社会主义思想为指导，坚持和加强党的全面领导，坚决维护习近平总书记党中央的核心、全党的核心地位，坚决维护党中央权威和集中统一领导，落实新时代党的建设总要求和全面从严治党战略部署，全面加强党的纪律建设。', '第三条党章是最根本的党内法规，是管党治党的总规矩。党的纪律是党的各级组织和全体党员必须遵守的行为规则。党组织和党员必须牢固树立政治意识、大局意识、核心意识、看齐意识，自觉遵守党章，严格执行和维护党的纪律，自觉接受党的纪律约束，模范遵守国家法律法规。', '(一)坚持党要管党、全面从严治党。加强对党的各级组织和全体党员的教育、管理和监督，把纪律挺在前面，注重抓早抓小、防微杜渐。', '(二)党纪面前一律平等。对违犯党纪的党组织和党员必须严肃、公正执行纪律，党内不允许有任何不受纪律约束的党组织和党员。', '(三)实事求是。对党组织和党员违犯党纪的行为，应当以事实为依据，以党章、其他党内法规和国家法律法规为准绳，准确认定违纪性质，区别不同情况，恰当予以处理。', '(四)民主集中制。实施党纪处分，应当按照规定程序经党组织集体讨论决定，不允许任何个人或者少数人擅自决定和批准。上级党组织对违犯党纪的党组织和党员作出的处理决定，下级党组织必须执行。', '(五)惩前毖后、治病救人。处理违犯党纪的党组织和党员，应当实行惩戒与教育相结合，做到宽严相济。', '第五条运用监督执纪“四种形态”，经常开展批评和自我批评、约谈函询，让“红红脸、出出汗”成为常态；党纪轻处分、组织调整成为违纪处理的大多数；党纪重处分、重大职务调整的成为少数；严重违纪涉嫌违法立案审查的成为极少数。', '第七条党组织和党员违反党章和其他党内法规，违反国家法律法规，违反党和国家政策，违反社会主义道德，危害党、国家和人民利益的行为，依照规定应当给予纪律处理或者处分的，都必须受到追究。', '重点查处党的十八大以来不收敛、不收手，问题线索反映集中、群众反映强烈，政治问题和经济问题交织的腐败案件，违反中央八项规定精神的问题。', '第九条对于违犯党的纪律的党组织，上级党组织应当责令其作出检查或者进行通报批评。对于严重违犯党的纪律、本身又不能纠正的党组织，上一级党的委员会在查明核实后，根据情节严重的程度，可以予以：', '第十条党员受到警告处分一年内、受到严重警告处分一年半内，不得在党内提升职务和向党外组织推荐担任高于其原任职务的党外职务。', '第十一条撤销党内职务处分，是指撤销受处分党员由党内选举或者组织任命的党内职务。对于在党内担任两个以上职务的，党组织在作处分决定时，应当明确是撤销其一切职务还是一个或者几个职务。如果决定撤销其一个职务，必须撤销其担任的最高职务。如果决定撤销其两个以上职务，则必须从其担任的最高职务开始依次撤销。对于在党外组织担任职务的，应当建议党外组织依照规定作出相应处理。', '对于应当受到撤销党内职务处分，但是本人没有担任党内职务的，应当给予其严重警告处分。同时，在党外组织担任职务的，应当建议党外组织撤销其党外职务。', '党员受到撤销党内职务处分，或者依照前款规定受到严重警告处分的，二年内不得在党内担任和向党外组织推荐担任与其原任职务相当或者高于其原任职务的职务。', '第十二条留党察看处分，分为留党察看一年、留党察看二年。对于受到留党察看处分一年的党员，期满后仍不符合恢复党员权利条件的，应当延长一年留党察看期限。留党察看期限最长不得超过二年。', '党员受留党察看处分期间，没有表决权、选举权和被选举权。留党察看期间，确有悔改表现的，期满后恢复其党员权利；坚持不改或者又发现其他应当受到党纪处分的违纪行为的，应当开除党籍。', '党员受到留党察看处分，其党内职务自然撤销。对于担任党外职务的，应当建议党外组织撤销其党外职务。受到留党察看处分的党员，恢复党员权利后二年内，不得在党内担任和向党外组织推荐担任与其原任职务相当或者高于其原任职务的职务。', '第十三条党员受到开除党籍处分，五年内不得重新入党，也不得推荐担任与其原任职务相当或者高于其原任职务的党外职务。另有规定不准重新入党的，依照规定。', '第十四条党的各级代表大会的代表受到留党察看以上(含留党察看)处分的，党组织应当终止其代表资格。', '第十五条对于受到改组处理的党组织领导机构成员，除应当受到撤销党内职务以上(含撤销党内职务)处分的外，均自然免职。', '第十六条对于受到解散处理的党组织中的党员，应当逐个审查。其中，符合党员条件的，应当重新登记，并参加新的组织过党的生活；不符合党员条件的，应当对其进行教育、限期改正，经教育仍无转变的，予以劝退或者除名；有违纪行为的，依照规定予以追究。', '(二)在组织核实、立案审查过程中，能够配合核实审查工作，如实说明本人违纪违法事实的；', '第十八条根据案件的特殊情况，由中央纪委决定或者经省(部)级纪委(不含副省级市纪委)决定并呈报中央纪委批准，对违纪党员也可以在本条例规定的处分幅度以外减轻处分。', '第十九条对于党员违犯党纪应当给予警告或者严重警告处分，但是具有本条例第十七条规定的情形之一或者本条例分则中另有规定的，可以给予批评教育、责令检查、诫勉或者组织处理，免予党纪处分。对违纪党员免予处分，应当作出书面结论。', '第二十一条从轻处分，是指在本条例规定的违纪行为应当受到的处分幅度以内，给予较轻的处分。', '第二十二条减轻处分，是指在本条例规定的违纪行为应当受到的处分幅度以外，减轻一档给予处分。', '第二十三条一人有本条例规定的两种以上(含两种)应当受到党纪处分的违纪行为，应当合并处理，按其数种违纪行为中应当受到的最高处分加重一档给予处分；其中一种违纪行为应当受到开除党籍处分的，应当给予开除党籍处分。', '第二十四条一个违纪行为同时触犯本条例两个以上(含两个)条款的，依照处分较重的条款定性处理。', '一个条款规定的违纪构成要件全部包含在另一个条款规定的违纪构成要件中，特别规定与一般规定不一致的，适用特别规定。', '第二十五条二人以上(含二人)共同故意违纪的，对为首者，从重处分，本条例另有规定的除外；对其他成员，按照其在共同违纪中所起的作用和应负的责任，分别给予处分。', '对于经济方面共同违纪的，按照个人所得数额及其所起作用，分别给予处分。对违纪集团的首要分子，按照集团违纪的总数额处分；对其他共同违纪的为首者，情节严重的，按照共同违纪的总数额处分。', '第二十六条党组织领导机构集体作出违犯党纪的决定或者实施其他违犯党纪的行为，对具有共同故意的成员，按共同违纪处理；对过失违纪的成员，按照各自在集体违纪中所起的作用和应负的责任分别给予处分。', '第二十七条党组织在纪律审查中发现党员有贪污贿赂、滥用职权、玩忽职守、权力寻租、利益输送、徇私舞弊、浪费国家资财等违反法律涉嫌犯罪行为的，应当给予撤销党内职务、留党察看或者开除党籍处分。', '第二十八条党组织在纪律审查中发现党员有刑法规定的行为，虽不构成犯罪但须追究党纪责任的，或者有其他违法行为，损害党、国家和人民利益的，应当视具体情节给予警告直至开除党籍处分。', '第二十九条党组织在纪律审查中发现党员严重违纪涉嫌违法犯罪的，原则上先作出党纪处分决定，并按照规定给予政务处分后，再移送有关国家机关依法处理。', '第三十条党员被依法留置、逮捕的，党组织应当按照管理权限中止其表决权、选举权和被选举权等党员权利。根据监察机关、司法机关处理结果，可以恢复其党员权利的，应当及时予以恢复。', '第三十一条党员犯罪情节轻微，人民检察院依法作出不起诉决定的，或者人民法院依法作出有罪判决并免予刑事处罚的，应当给予撤销党内职务、留党察看或者开除党籍处分。', '因过失犯罪被判处三年以下(含三年)有期徒刑或者被判处管制、拘役的，一般应当开除党籍。对于个别可以不开除党籍的，应当对照处分党员批准权限的规定，报请再上一级党组织批准。', '第三十三条党员依法受到刑事责任追究的，党组织应当根据司法机关的生效判决、裁定、决定及其认定的事实、性质和情节，依照本条例规定给予党纪处分，是公职人员的由监察机关给予相应政务处分。', '党员依法受到政务处分、行政处罚，应当追究党纪责任的，党组织可以根据生效的政务处分、行政处罚决定认定的事实、性质和情节，经核实后依照规定给予党纪处分或者组织处理。', '党员违反国家法律法规，违反企事业单位或者其他社会组织的规章制度受到其他纪律处分，应当追究党纪责任的，党组织在对有关方面认定的事实、性质和情节进行核实后，依照规定给予党纪处分或者组织处理。', '党组织作出党纪处分或者组织处理决定后，司法机关、行政机关等依法改变原生效判决、裁定、决定等，对原党纪处分或者组织处理决定产生影响的，党组织应当根据改变后的生效判决、裁定、决定等重新作出相应处理。', '第三十四条预备党员违犯党纪，情节较轻，可以保留预备党员资格的，党组织应当对其批评教育或者延长预备期；情节较重的，应当取消其预备党员资格。', '(二)除前项规定的情况外，下落不明时间超过六个月的，党组织应当按照党章规定对其予以除名。', '第三十六条违纪党员在党组织作出处分决定前死亡，或者在死亡之后发现其曾有严重违纪行为，对于应当给予开除党籍处分的，开除其党籍；对于应当给予留党察看以下(含留党察看)处分的，作出违犯党纪的书面结论和相应处理。', '(一)直接责任者，是指在其职责范围内，不履行或者不正确履行自己的职责，对造成的损失或者后果起决定性作用的党员或者党员领导干部。', '(二)主要领导责任者，是指在其职责范围内，对直接主管的工作不履行或者不正确履行职责，对造成的损失或者后果负直接领导责任的党员领导干部。', '(三)重要领导责任者，是指在其职责范围内，对应管的工作或者参与决定的工作不履行或者不正确履行职责，对造成的损失或者后果负次要领导责任的党员领导干部。', '第三十八条本条例所称主动交代，是指涉嫌违纪的党员在组织初核前向有关组织交代自己的问题，或者在初核和立案审查其问题期间交代组织未掌握的问题。', '第三十九条计算经济损失主要计算直接经济损失。直接经济损失，是指与违纪行为有直接因果关系而造成财产损失的实际价值。', '对于违纪行为所获得的职务、职称、学历、学位、奖励、资格等其他利益，应当由承办案件的纪检机关或者由其上级纪检机关建议有关组织、部门、单位按照规定予以纠正。', '对于依照本条例第三十五条、第三十六条规定处理的党员，经调查确属其实施违纪行为获得的利益，依照本条规定处理。', '第四十一条党纪处分决定作出后，应当在一个月内向受处分党员所在党的基层组织中的全体党员及其本人宣布，是领导班子成员的还应当向所在党组织领导班子宣布，并按照干部管理权限和组织关系将处分决定材料归入受处分者档案；对于受到撤销党内职务以上(含撤销党内职务)处分的，还应当在一个月内办理职务、工资、工作及其他有关待遇等相应变更手续；涉及撤销或者调整其党外职务的，应当建议党外组织及时撤销或者调整其党外职务。特殊情况下，经作出或者批准作出处分决定的组织批准，可以适当延长办理期限。办理期限最长不得超过六个月。', '第四十二条执行党纪处分决定的机关或者受处分党员所在单位，应当在六个月内将处分决定的执行情况向作出或者批准处分决定的机关报告。', '第四十三条本条例总则适用于有党纪处分规定的其他党内法规，但是中共中央发布或者批准发布的其他党内法规有特别规定的除外。', '第四十四条在重大原则问题上不同党中央保持一致且有实际言论、行为或者造成不良后果的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第四十五条通过网络、广播、电视、报刊、传单、书籍等，或者利用讲座、论坛、报告会、座谈会等方式，公开发表坚持资产阶级自由化立场、反对四项基本原则，反对党的改革开放决策的文章、演说、宣言、声明等的，给予开除党籍处分。', '发布、播出、刊登、出版前款所列文章、演说、宣言、声明等或者为上述行为提供方便条件的，对直接责任者和领导责任者，给予严重警告或者撤销党内职务处分；情节严重的，给予留党察看或者开除党籍处分。', '第四十六条通过网络、广播、电视、报刊、传单、书籍等，或者利用讲座、论坛、报告会、座谈会等方式，有下列行为之一，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分：', '(一)公开发表违背四项基本原则，违背、歪曲党的改革开放决策，或者其他有严重政治问题的文章、演说、宣言、声明等的；', '(三)丑化党和国家形象，或者诋毁、诬蔑党和国家领导人、英雄模范，或者歪曲党的历史、中华人民共和国历史、人民军队历史的。', '发布、播出、刊登、出版前款所列内容或者为上述行为提供方便条件的，对直接责任者和领导责任者，给予严重警告或者撤销党内职务处分；情节严重的，给予留党察看或者开除党籍处分。', '第四十七条制作、贩卖、传播第四十五条、第四十六条所列内容之一的书刊、音像制品、电子读物、网络音视频资料等，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '私自携带、寄递第四十五条、第四十六条所列内容之一的书刊、音像制品、电子读物等入出境，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务、留党察看或者开除党籍处分。', '第四十九条在党内搞团团伙伙、结党营私、拉帮结派、培植个人势力等非组织活动，或者通过搞利益交换、为自己营造声势等活动捞取政治资本的，给予严重警告或者撤销党内职务处分；导致本地区、本部门、本单位政治生态恶化的，给予留党察看或者开除党籍处分。', '第五十条党员领导干部在本人主政的地方或者分管的部门自行其是，搞山头主义，拒不执行党中央确定的大政方针，甚至背着党中央另搞一套的，给予撤销党内职务、留党察看或者开除党籍处分。', '落实党中央决策部署不坚决，打折扣、搞变通，在政治上造成不良影响或者严重后果的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务、留党察看或者开除党籍处分。', '第五十一条对党不忠诚不老实，表里不一，阳奉阴违，欺上瞒下，搞两面派，做两面人，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第五十二条制造、散布、传播政治谣言，破坏党的团结统一的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '政治品行恶劣，匿名诬告，有意陷害或者制造其他谣言，造成损害或者不良影响的，依照前款规定处理。', '第五十三条擅自对应当由党中央决定的重大政策问题作出决定、对外发表主张的，对直接责任者和领导责任者，给予严重警告或者撤销党内职务处分；情节严重的，给予留党察看或者开除党籍处分。', '第五十四条不按照有关规定向组织请示、报告重大事项，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。', '第五十五条干扰巡视巡察工作或者不落实巡视巡察整改要求，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第五十六条对抗组织审查，有下列行为之一的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分：', '第五十七条组织、参加反对党的基本理论、基本路线、基本方略或者重大方针政策的集会、游行、示威等活动的，或者以组织讲座、论坛、报告会、座谈会等方式，反对党的基本理论、基本路线、基本方略或者重大方针政策，造成严重不良影响的，对策划者、组织者和骨干分子，给予开除党籍处分。', '对其他参加人员或者以提供信息、资料、财物、场地等方式支持上述活动者，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '未经组织批准参加其他集会、游行、示威等活动，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第五十八条组织、参加旨在反对党的领导、反对社会主义制度或者敌视政府等组织的，对策划者、组织者和骨干分子，给予开除党籍处分。', '对其他参加人员，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第五十九条组织、参加会道门或者邪教组织的，对策划者、组织者和骨干分子，给予开除党籍处分。', '第六十条从事、参与挑拨破坏民族关系制造事端或者参加民族分裂活动的，对策划者、组织者和骨干分子，给予开除党籍处分。', '有其他违反党和国家民族政策的行为，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第六十一条组织、利用宗教活动反对党的路线、方针、政策和决议，破坏民族团结的，对策划者、组织者和骨干分子，给予开除党籍处分。', '有其他违反党和国家宗教政策的行为，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第六十二条对信仰宗教的党员，应当加强思想教育，经党组织帮助教育仍没有转变的，应当劝其退党；劝而不退的，予以除名；参与利用宗教搞煽动活动的，给予开除党籍处分。', '第六十三条组织迷信活动的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '参加迷信活动，造成不良影响的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第六十四条组织、利用宗族势力对抗党和政府，妨碍党和国家的方针政策以及决策部署的实施，或者破坏党的基层组织建设的，对策划者、组织者和骨干分子，给予开除党籍处分。', '第六十五条在国(境)外、外国驻华使(领)馆申请政治避难，或者违纪后逃往国(境)外、外国驻华使(领)馆的，给予开除党籍处分。', '第六十六条在涉外活动中，其言行在政治上造成恶劣影响，损害党和国家尊严、利益的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第六十七条不履行全面从严治党主体责任、监督责任或者履行全面从严治党主体责任、监督责任不力，给党组织造成严重损害或者严重不良影响的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。', '第六十八条党员领导干部对违反政治纪律和政治规矩等错误思想和行为不报告、不抵制、不斗争，放任不管，搞无原则一团和气，造成不良影响的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。', '第六十九条违反党的优良传统和工作惯例等党的规矩，在政治上造成不良影响的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第七十条违反民主集中制原则，有下列行为之一的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分：', '(三)故意规避集体决策，决定重大事项、重要干部任免、重要项目安排和大额资金使用的；', '第七十一条下级党组织拒不执行或者擅自改变上级党组织决定的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。', '第七十二条拒不执行党组织的分配、调动、交流等决定的，给予警告、严重警告或者撤销党内职务处分。', '篡改、伪造个人档案资料的，给予严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。', '隐瞒入党前严重错误的，一般应当予以除名；对入党后表现尚好的，给予严重警告、撤销党内职务或者留党察看处分。', '第七十四条党员领导干部违反有关规定组织、参加自发成立的老乡会、校友会、战友会等，情节严重的，给予警告、严重警告或者撤销党内职务处分。', '第七十五条有下列行为之一的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分：', '(二)在法律规定的投票、选举活动中违背组织原则搞非组织活动，组织、怂恿、诱使他人投票、表决的；', '第七十六条在干部选拔任用工作中，有任人唯亲、排斥异己、封官许愿、说情干预、跑官要官、突击提拔或者调整干部等违反干部选拔任用规定行为，对直接责任者和领导责任者，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第七十七条在干部、职工的录用、考核、职务晋升、职称评定和征兵、安置复转军人等工作中，隐瞒、歪曲事实真相，或者利用职权或者职务上的影响违反有关规定为本人或者其他人谋取利益的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '弄虚作假，骗取职务、职级、职称、待遇、资格、学历、学位、荣誉或者其他利益的，依照前款规定处理。', '第七十八条侵犯党员的表决权、选举权和被选举权，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。', '以强迫、威胁、欺骗、拉拢等手段，妨害党员自主行使表决权、选举权和被选举权的，给予撤销党内职务、留党察看或者开除党籍处分。', '第七十九条有下列行为之一的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分：', '(一)对批评、检举、控告进行阻挠、压制，或者将批评、检举、控告材料私自扣压、销毁，或者故意将其泄露给他人的；', '第八十条违反党章和其他党内法规的规定，采取弄虚作假或者其他手段把不符合党员条件的人发展为党员，或者为非党员出具党员身份证明的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。', '第八十一条违反有关规定取得外国国籍或者获取国(境)外永久居留资格、长期居留许可的，给予撤销党内职务、留党察看或者开除党籍处分。', '第八十二条违反有关规定办理因私出国(境)证件、前往港澳通行证，或者未经批准出入国(边)境，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务处分；情节严重的，给予留党察看处分。', '第八十三条驻外机构或者临时出国(境)团(组)中的党员擅自脱离组织，或者从事外事、机要、军事等工作的党员违反有关规定同国(境)外机构、人员联系和交往的，给予警告、严重警告或者撤销党内职务处分。', '第八十四条驻外机构或者临时出国(境)团(组)中的党员，脱离组织出走时间不满六个月又自动回归的，给予撤销党内职务或者留党察看处分；脱离组织出走时间超过六个月的，按照自行脱党处理，党内予以除名。', '第八十五条党员干部必须正确行使人民赋予的权力，清正廉洁，反对任何滥用职权、谋求私利的行为。', '利用职权或者职务上的影响为他人谋取利益，本人的配偶、子女及其配偶等亲属和其他特定关系人收受对方财物，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务、留党察看或者开除党籍处分。', '第八十六条相互利用职权或者职务上的影响为对方及其配偶、子女及其配偶等亲属、身边工作人员和其他特定关系人谋取利益搞权权交易的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第八十七条纵容、默许配偶、子女及其配偶等亲属、身边工作人员和其他特定关系人利用党员干部本人职权或者职务上的影响谋取私利，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '党员干部的配偶、子女及其配偶等亲属和其他特定关系人不实际工作而获取薪酬或者虽实际工作但领取明显超出同职级标准薪酬，党员干部知情未予纠正的，依照前款规定处理。', '第八十八条收受可能影响公正执行公务的礼品、礼金、消费卡和有价证券、股权、其他金融产品等财物，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第八十九条向从事公务的人员及其配偶、子女及其配偶等亲属和其他特定关系人赠送明显超出正常礼尚往来的礼品、礼金、消费卡和有价证券、股权、其他金融产品等财物，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。', '第九十条借用管理和服务对象的钱款、住房、车辆等，影响公正执行公务，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务、留党察看或者开除党籍处分。', '第九十一条利用职权或者职务上的影响操办婚丧喜庆事宜，在社会上造成不良影响的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分；借机敛财或者有其他侵犯国家、集体和人民利益行为的，从重或者加重处分，直至开除党籍。', '第九十二条接受、提供可能影响公正执行公务的宴请或者旅游、健身、娱乐等活动安排，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。', '第九十三条违反有关规定取得、持有、实际使用运动健身卡、会所和俱乐部会员卡、高尔夫球卡等各种消费卡，或者违反有关规定出入私人会所，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。', '第九十四条违反有关规定从事营利活动，有下列行为之一，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分：', '利用参与企业重组改制、定向增发、兼并投资、土地使用权出让等决策、审批过程中掌握的信息买卖股票，利用职权或者职务上的影响通过购买信托产品、基金等方式非正常获利的，依照前款规定处理。', '违反有关规定在经济组织、社会组织等单位中兼职，或者经批准兼职但获取薪酬、奖金、津贴等额外利益的，依照第一款规定处理。', '第九十五条利用职权或者职务上的影响，为配偶、子女及其配偶等亲属和其他特定关系人在审批监管、资源开发、金融信贷、大宗采购、土地使用权出让、房地产开发、工程招投标以及公共财政支出等方面谋取利益，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '利用职权或者职务上的影响，为配偶、子女及其配偶等亲属和其他特定关系人吸收存款、推销金融产品等提供帮助谋取利益的，依照前款规定处理。', '第九十六条党员领导干部离职或者退(离)休后违反有关规定接受原任职务管辖的地区和业务范围内的企业和中介机构的聘任，或者个人从事与原任职务管辖业务相关的营利活动，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务处分；情节严重的，给予留党察看处分。', '党员领导干部离职或者退(离)休后违反有关规定担任上市公司、基金管理公司独立董事、独立监事等职务，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务处分；情节严重的，给予留党察看处分。', '第九十七条党员领导干部的配偶、子女及其配偶，违反有关规定在该党员领导干部管辖的地区和业务范围内从事可能影响其公正执行公务的经营活动，或者在该党员领导干部管辖的地区和业务范围内的外商独资企业、中外合资企业中担任由外方委派、聘任的高级职务或者违规任职、兼职取酬的，该党员领导干部应当按照规定予以纠正；拒不纠正的，其本人应当辞去现任职务或者由组织予以调整职务；不辞去现任职务或者不服从组织调整职务的，给予撤销党内职务处分。', '第九十八条党和国家机关违反有关规定经商办企业的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。', '第九十九条党员领导干部违反工作、生活保障制度，在交通、医疗、警卫等方面为本人、配偶、子女及其配偶等亲属和其他特定关系人谋求特殊待遇，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。', '第一百条在分配、购买住房中侵犯国家、集体利益，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第一百零一条利用职权或者职务上的影响，侵占非本人经管的公私财物，或者以象征性地支付钱款等方式侵占公私财物，或者无偿、象征性地支付报酬接受服务、使用劳务，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '利用职权或者职务上的影响，将本人、配偶、子女及其配偶等亲属应当由个人支付的费用，由下属单位、其他单位或者他人支付、报销的，依照前款规定处理。', '第一百零二条利用职权或者职务上的影响，违反有关规定占用公物归个人使用，时间超过六个月，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。', '占用公物进行营利活动的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第一百零三条违反有关规定组织、参加用公款支付的宴请、高消费娱乐、健身活动，或者用公款购买赠送或者发放礼品、消费卡(券)等，对直接责任者和领导责任者，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第一百零四条违反有关规定自定薪酬或者滥发津贴、补贴、奖金等，对直接责任者和领导责任者，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第一百零五条有下列行为之一，对直接责任者和领导责任者，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分：', '以考察、学习、培训、研讨、招商、参展等名义变相用公款出国(境)旅游的，依照前款规定处理。', '第一百零六条违反公务接待管理规定，超标准、超范围接待或者借机大吃大喝，对直接责任者和领导责任者，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。', '第一百零七条违反有关规定配备、购买、更换、装饰、使用公务交通工具或者有其他违反公务交通工具管理规定的行为，对直接责任者和领导责任者，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。', '第一百零八条违反会议活动管理规定，有下列行为之一，对直接责任者和领导责任者，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分：', '第一百零九条违反办公用房管理等规定，有下列行为之一，对直接责任者和领导责任者，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分：', '第一百一十条搞权色交易或者给予财物搞钱色交易的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第一百一十一条有其他违反廉洁纪律规定行为的，应当视具体情节给予警告直至开除党籍处分。', '第一百一十二条有下列行为之一，对直接责任者和领导责任者，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分：', '第一百一十三条干涉生产经营自主权，致使群众财产遭受较大损失的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。', '第一百一十四条在社会保障、政策扶持、扶贫脱贫、救灾救济款物分配等事项中优亲厚友、明显有失公平的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第一百一十五条利用宗族或者黑恶势力等欺压群众，或者纵容涉黑涉恶活动、为黑恶势力充当“保护伞”的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第一百一十六条有下列行为之一，对直接责任者和领导责任者，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分：', '(一)对涉及群众生产、生活等切身利益的问题依照政策或者有关规定能解决而不及时解决，庸懒无为、效率低下，造成不良影响的；', '第一百一十七条盲目举债、铺摊子、上项目，搞劳民伤财的“形象工程”、“政绩工程”，致使国家、集体或者群众财产和利益遭受较大损失的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节严重的，给予撤销党内职务、留党察看或者开除党籍处分。', '第一百一十八条遇到国家财产和群众生命财产受到严重威胁时，能救而不救，情节较重的，给予警告、严重警告或者撤销党内职务处分；情节严重的，给予留党察看或者开除党籍处分。', '第一百一十九条不按照规定公开党务、政务、厂务、村(居)务等，侵犯群众知情权，对直接责任者和领导责任者，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。', '第一百二十条有其他违反群众纪律规定行为的，应当视具体情节给予警告直至开除党籍处分。', '第一百二十一条工作中不负责任或者疏于管理，贯彻执行、检查督促落实上级决策部署不力，给党、国家和人民利益以及公共财产造成较大损失的，对直接责任者和领导责任者，给予警告或者严重警告处分；造成重大损失的，给予撤销党内职务、留党察看或者开除党籍处分。', '贯彻创新、协调、绿色、开放、共享的发展理念不力，对职责范围内的问题失察失责，造成较大损失或者重大损失的，从重或者加重处分。', '第一百二十二条有下列行为之一，造成严重不良影响，对直接责任者和领导责任者，情节较轻的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分：', '第一百二十三条党组织有下列行为之一，对直接责任者和领导责任者，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分：', '(一)党员被依法判处刑罚后，不按照规定给予党纪处分，或者对违反国家法律法规的行为，应当给予党纪处分而不处分的；', '(二)党纪处分决定或者申诉复查决定作出后，不按照规定落实决定中关于被处分人党籍、职务、职级、待遇等事项的；', '(三)党员受到党纪处分后，不按照干部管理权限和组织关系对受处分党员开展日常教育、管理和监督工作的。', '第一百二十四条因工作不负责任致使所管理的人员叛逃的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。', '因工作不负责任致使所管理的人员出走，对直接责任者和领导责任者，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。', '第一百二十五条在上级检查、视察工作或者向上级汇报、报告工作时对应当报告的事项不报告或者不如实报告，造成严重损害或者严重不良影响的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节严重的，给予撤销党内职务或者留党察看处分。', '在上级检查、视察工作或者向上级汇报、报告工作时纵容、唆使、暗示、强迫下级说假话、报假情的，从重或者加重处分。', '第一百二十六条党员领导干部违反有关规定干预和插手市场经济活动，有下列行为之一，造成不良影响的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分：', '(一)干预和插手建设工程项目承发包、土地使用权出让、政府采购、房地产开发与经营、矿产资源开发利用、中介机构服务等活动的；', '(二)干预和插手国有企业重组改制、兼并、破产、产权交易、清产核资、资产评估、资产转让、重大项目投资以及其他重大经营活动等事项的；', '第一百二十七条党员领导干部违反有关规定干预和插手司法活动、执纪执法活动，向有关地方或者部门打听案情、打招呼、说情，或者以其他方式对司法活动、执纪执法活动施加影响，情节较轻的，给予严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '党员领导干部违反有关规定干预和插手公共财政资金分配、项目立项评审、政府奖励表彰等活动，造成重大损失或者不良影响的，依照前款规定处理。', '第一百二十八条泄露、扩散或者打探、窃取党组织关于干部选拔任用、纪律审查、巡视巡察等尚未公开事项或者其他应当保密的内容的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '私自留存涉及党组织关于干部选拔任用、纪律审查、巡视巡察等方面资料，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。', '第一百二十九条在考试、录取工作中，有泄露试题、考场舞弊、涂改考卷、违规录取等违反有关规定行为的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第一百三十条以不正当方式谋求本人或者其他人用公款出国(境)，情节较轻的，给予警告处分；情节较重的，给予严重警告处分；情节严重的，给予撤销党内职务处分。', '第一百三十一条临时出国(境)团(组)或者人员中的党员，擅自延长在国(境)外期限，或者擅自变更路线的，对直接责任者和领导责任者，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。', '第一百三十二条驻外机构或者临时出国(境)团(组)中的党员，触犯驻在国家、地区的法律、法令或者不尊重驻在国家、地区的宗教习俗，情节较重的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务、留党察看或者开除党籍处分。', '第一百三十三条在党的纪律检查、组织、宣传、统一战线工作以及机关工作等其他工作中，不履行或者不正确履行职责，造成损失或者不良影响的，应当视具体情节给予警告直至开除党籍处分。', '第一百三十四条生活奢靡、贪图享乐、追求低级趣味，造成不良影响的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。', '第一百三十五条与他人发生不正当性关系，造成不良影响的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第一百三十六条党员领导干部不重视家风建设，对配偶、子女及其配偶失管失教，造成不良影响或者严重后果的，给予警告或者严重警告处分；情节严重的，给予撤销党内职务处分。', '第一百三十七条违背社会公序良俗，在公共场所有不当行为，造成不良影响的，给予警告或者严重警告处分；情节较重的，给予撤销党内职务或者留党察看处分；情节严重的，给予开除党籍处分。', '第一百三十八条有其他严重违反社会公德、家庭美德行为的，应当视具体情节给予警告直至开除党籍处分。', '第一百三十九条各省、自治区、直辖市党委可以根据本条例，结合各自工作的实际情况，制定单项实施规定。', '第一百四十条中央军事委员会可以根据本条例，结合中国人民解放军和中国人民武装警察部队的实际情况，制定补充规定或者单项规定。', '本条例施行前，已结案的案件如需进行复查复议，适用当时的规定或者政策。尚未结案的案件，如果行为发生时的规定或者政策不认为是违纪，而本条例认为是违纪的，依照当时的规定或者政策处理；如果行为发生时的规定或者政策认为是违纪的，依照当时的规定或者政策处理，但是如果本条例不认为是违纪或者处理较轻的，依照本条例规定处理。']</t>
         </is>
